--- a/static/data/source/state_gdp.xlsx
+++ b/static/data/source/state_gdp.xlsx
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,6 +476,7 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,6 +806,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="58" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="10.140625" customWidth="1"/>
+    <col min="61" max="61" width="9" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
@@ -1190,7 +1192,9 @@
       <c r="BH5" s="5">
         <v>21542540</v>
       </c>
-      <c r="BI5" s="5"/>
+      <c r="BI5" s="5">
+        <v>21615055.070713539</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1373,6 +1377,9 @@
       <c r="BH6" s="5">
         <v>232144.7</v>
       </c>
+      <c r="BI6" s="5">
+        <v>232687.33251337</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1555,6 +1562,9 @@
       <c r="BH7" s="5">
         <v>55429.599999999999</v>
       </c>
+      <c r="BI7" s="5">
+        <v>55698.832134022472</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1737,6 +1747,9 @@
       <c r="BH8" s="5">
         <v>368556.3</v>
       </c>
+      <c r="BI8" s="5">
+        <v>369513.4989075776</v>
+      </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1919,6 +1932,9 @@
       <c r="BH9" s="5">
         <v>134022.1</v>
       </c>
+      <c r="BI9" s="5">
+        <v>134417.37337832231</v>
+      </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2101,6 +2117,9 @@
       <c r="BH10" s="5">
         <v>3155223.7</v>
       </c>
+      <c r="BI10" s="5">
+        <v>3166244.0048968797</v>
+      </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2283,6 +2302,9 @@
       <c r="BH11" s="5">
         <v>392347.5</v>
       </c>
+      <c r="BI11" s="5">
+        <v>393855.40061828779</v>
+      </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2465,6 +2487,9 @@
       <c r="BH12" s="5">
         <v>287560.09999999998</v>
       </c>
+      <c r="BI12" s="5">
+        <v>288322.54377589922</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2647,6 +2672,9 @@
       <c r="BH13" s="5">
         <v>75765.399999999994</v>
       </c>
+      <c r="BI13" s="5">
+        <v>75976.249908918224</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2829,6 +2857,9 @@
       <c r="BH14" s="5">
         <v>146995.5</v>
       </c>
+      <c r="BI14" s="5">
+        <v>147511.42917837453</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3011,6 +3042,9 @@
       <c r="BH15" s="5">
         <v>1100721.1000000001</v>
       </c>
+      <c r="BI15" s="5">
+        <v>1104177.8183629615</v>
+      </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3193,8 +3227,11 @@
       <c r="BH16" s="5">
         <v>619817.69999999995</v>
       </c>
+      <c r="BI16" s="5">
+        <v>621662.17915206752</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -3375,8 +3412,11 @@
       <c r="BH17" s="5">
         <v>97664.4</v>
       </c>
+      <c r="BI17" s="5">
+        <v>97978.27028315948</v>
+      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -3557,8 +3597,11 @@
       <c r="BH18" s="5">
         <v>81492.7</v>
       </c>
+      <c r="BI18" s="5">
+        <v>81754.266152922966</v>
+      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -3739,8 +3782,11 @@
       <c r="BH19" s="5">
         <v>901571.9</v>
       </c>
+      <c r="BI19" s="5">
+        <v>904716.06578689406</v>
+      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -3921,8 +3967,11 @@
       <c r="BH20" s="5">
         <v>379132.8</v>
       </c>
+      <c r="BI20" s="5">
+        <v>380661.80319217202</v>
+      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -4103,8 +4152,11 @@
       <c r="BH21" s="5">
         <v>195857.9</v>
       </c>
+      <c r="BI21" s="5">
+        <v>196561.0177137501</v>
+      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -4285,8 +4337,11 @@
       <c r="BH22" s="5">
         <v>174183.2</v>
       </c>
+      <c r="BI22" s="5">
+        <v>174780.18230657873</v>
+      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -4467,8 +4522,11 @@
       <c r="BH23" s="5">
         <v>215585.5</v>
       </c>
+      <c r="BI23" s="5">
+        <v>216346.50508646999</v>
+      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -4649,8 +4707,11 @@
       <c r="BH24" s="5">
         <v>264853.3</v>
       </c>
+      <c r="BI24" s="5">
+        <v>266335.03985196055</v>
+      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -4831,8 +4892,11 @@
       <c r="BH25" s="5">
         <v>67905.3</v>
       </c>
+      <c r="BI25" s="5">
+        <v>68117.57703692402</v>
+      </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -5013,8 +5077,11 @@
       <c r="BH26" s="5">
         <v>430388.3</v>
       </c>
+      <c r="BI26" s="5">
+        <v>431684.48804295692</v>
+      </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -5195,8 +5262,11 @@
       <c r="BH27" s="5">
         <v>599091.6</v>
       </c>
+      <c r="BI27" s="5">
+        <v>601058.98485526035</v>
+      </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -5377,8 +5447,11 @@
       <c r="BH28" s="5">
         <v>543976.5</v>
       </c>
+      <c r="BI28" s="5">
+        <v>545450.96762934211</v>
+      </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -5559,8 +5632,11 @@
       <c r="BH29" s="5">
         <v>383093.6</v>
       </c>
+      <c r="BI29" s="5">
+        <v>384364.71177064546</v>
+      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -5741,8 +5817,11 @@
       <c r="BH30" s="5">
         <v>119497.1</v>
       </c>
+      <c r="BI30" s="5">
+        <v>119804.460413623</v>
+      </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -5923,8 +6002,11 @@
       <c r="BH31" s="5">
         <v>334286.09999999998</v>
       </c>
+      <c r="BI31" s="5">
+        <v>335327.81670043548</v>
+      </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -6105,8 +6187,11 @@
       <c r="BH32" s="5">
         <v>52470.1</v>
       </c>
+      <c r="BI32" s="5">
+        <v>52660.225288685637</v>
+      </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -6287,8 +6372,11 @@
       <c r="BH33" s="5">
         <v>127940.6</v>
       </c>
+      <c r="BI33" s="5">
+        <v>128286.51164637374</v>
+      </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -6469,8 +6557,11 @@
       <c r="BH34" s="5">
         <v>178621.7</v>
       </c>
+      <c r="BI34" s="5">
+        <v>179307.13121588583</v>
+      </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -6651,8 +6742,11 @@
       <c r="BH35" s="5">
         <v>89152.2</v>
       </c>
+      <c r="BI35" s="5">
+        <v>89403.121473631531</v>
+      </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -6833,8 +6927,11 @@
       <c r="BH36" s="5">
         <v>648984</v>
       </c>
+      <c r="BI36" s="5">
+        <v>651226.66127221182</v>
+      </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -7015,8 +7112,11 @@
       <c r="BH37" s="5">
         <v>104349.4</v>
       </c>
+      <c r="BI37" s="5">
+        <v>104749.77166684542</v>
+      </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -7197,8 +7297,11 @@
       <c r="BH38" s="5">
         <v>1740745.3</v>
       </c>
+      <c r="BI38" s="5">
+        <v>1745503.610223884</v>
+      </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -7379,8 +7482,11 @@
       <c r="BH39" s="5">
         <v>590710.5</v>
       </c>
+      <c r="BI39" s="5">
+        <v>592925.57817749924</v>
+      </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -7561,8 +7667,11 @@
       <c r="BH40" s="5">
         <v>57106.400000000001</v>
       </c>
+      <c r="BI40" s="5">
+        <v>57334.949116567659</v>
+      </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -7743,8 +7852,11 @@
       <c r="BH41" s="5">
         <v>701438.5</v>
       </c>
+      <c r="BI41" s="5">
+        <v>703943.0180617664</v>
+      </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -7925,8 +8037,11 @@
       <c r="BH42" s="5">
         <v>206254</v>
       </c>
+      <c r="BI42" s="5">
+        <v>207094.42957078674</v>
+      </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -8107,8 +8222,11 @@
       <c r="BH43" s="5">
         <v>253036.4</v>
       </c>
+      <c r="BI43" s="5">
+        <v>253878.98285683151</v>
+      </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -8289,8 +8407,11 @@
       <c r="BH44" s="5">
         <v>817216</v>
       </c>
+      <c r="BI44" s="5">
+        <v>820263.20260510012</v>
+      </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -8471,8 +8592,11 @@
       <c r="BH45" s="5">
         <v>63903.5</v>
       </c>
+      <c r="BI45" s="5">
+        <v>64092.007311210895</v>
+      </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -8653,8 +8777,11 @@
       <c r="BH46" s="5">
         <v>247710.6</v>
       </c>
+      <c r="BI46" s="5">
+        <v>248406.2682073765</v>
+      </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -8835,8 +8962,11 @@
       <c r="BH47" s="5">
         <v>53692.3</v>
       </c>
+      <c r="BI47" s="5">
+        <v>53838.331392839355</v>
+      </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -9017,8 +9147,11 @@
       <c r="BH48" s="5">
         <v>382274.8</v>
       </c>
+      <c r="BI48" s="5">
+        <v>383803.60903240636</v>
+      </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -9199,8 +9332,11 @@
       <c r="BH49" s="5">
         <v>1896062.9</v>
       </c>
+      <c r="BI49" s="5">
+        <v>1904246.4107856348</v>
+      </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -9381,8 +9517,11 @@
       <c r="BH50" s="5">
         <v>189809.5</v>
       </c>
+      <c r="BI50" s="5">
+        <v>190404.36157781427</v>
+      </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -9563,8 +9702,11 @@
       <c r="BH51" s="5">
         <v>34973.5</v>
       </c>
+      <c r="BI51" s="5">
+        <v>35074.224109058065</v>
+      </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -9745,8 +9887,11 @@
       <c r="BH52" s="5">
         <v>557143.9</v>
       </c>
+      <c r="BI52" s="5">
+        <v>558995.19537569105</v>
+      </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -9927,8 +10072,11 @@
       <c r="BH53" s="5">
         <v>603772.4</v>
       </c>
+      <c r="BI53" s="5">
+        <v>605344.7969020512</v>
+      </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -10109,8 +10257,11 @@
       <c r="BH54" s="5">
         <v>78270.100000000006</v>
       </c>
+      <c r="BI54" s="5">
+        <v>78533.941764542062</v>
+      </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -10291,8 +10442,11 @@
       <c r="BH55" s="5">
         <v>348822</v>
       </c>
+      <c r="BI55" s="5">
+        <v>350062.63337402546</v>
+      </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -10472,6 +10626,9 @@
       </c>
       <c r="BH56" s="5">
         <v>39610.5</v>
+      </c>
+      <c r="BI56" s="5">
+        <v>39793.125113670663</v>
       </c>
     </row>
   </sheetData>
@@ -10494,6 +10651,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="57" max="57" width="8" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
@@ -10855,6 +11013,9 @@
       <c r="BD5" s="6">
         <v>1.7118099400957678</v>
       </c>
+      <c r="BE5" s="6">
+        <v>1.6062864834873372</v>
+      </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -11025,6 +11186,9 @@
       <c r="BD6" s="6">
         <v>1.9061776968739379</v>
       </c>
+      <c r="BE6" s="6">
+        <v>1.5861291945738327</v>
+      </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -11195,6 +11359,9 @@
       <c r="BD7" s="6">
         <v>-2.593669542572302</v>
       </c>
+      <c r="BE7" s="6">
+        <v>-1.8398811688719898</v>
+      </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -11365,6 +11532,9 @@
       <c r="BD8" s="6">
         <v>2.0310558330485153</v>
       </c>
+      <c r="BE8" s="6">
+        <v>1.8266441665629312</v>
+      </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -11535,6 +11705,9 @@
       <c r="BD9" s="6">
         <v>1.9511247628908059</v>
       </c>
+      <c r="BE9" s="6">
+        <v>1.6525674219260404</v>
+      </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -11705,6 +11878,9 @@
       <c r="BD10" s="6">
         <v>2.0977762701282789</v>
       </c>
+      <c r="BE10" s="6">
+        <v>2.0026309578479231</v>
+      </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -11875,6 +12051,9 @@
       <c r="BD11" s="6">
         <v>1.1883043684816992</v>
       </c>
+      <c r="BE11" s="6">
+        <v>1.2740012075599947</v>
+      </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -12045,6 +12224,9 @@
       <c r="BD12" s="6">
         <v>2.0701943572557218</v>
       </c>
+      <c r="BE12" s="6">
+        <v>1.8852214909389335</v>
+      </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -12215,6 +12397,9 @@
       <c r="BD13" s="6">
         <v>1.8439506771787677</v>
       </c>
+      <c r="BE13" s="6">
+        <v>1.5992196698830794</v>
+      </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -12385,6 +12570,9 @@
       <c r="BD14" s="6">
         <v>2.3592513861688116</v>
       </c>
+      <c r="BE14" s="6">
+        <v>2.2367421414254922</v>
+      </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -12555,6 +12743,9 @@
       <c r="BD15" s="6">
         <v>2.4917793401049844</v>
       </c>
+      <c r="BE15" s="6">
+        <v>2.230984529274691</v>
+      </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -12725,8 +12916,11 @@
       <c r="BD16" s="6">
         <v>2.1675769260629592</v>
       </c>
+      <c r="BE16" s="6">
+        <v>1.9522354115343501</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -12895,8 +13089,11 @@
       <c r="BD17" s="6">
         <v>2.82866921317139</v>
       </c>
+      <c r="BE17" s="6">
+        <v>2.4502872398924107</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -13065,8 +13262,11 @@
       <c r="BD18" s="6">
         <v>2.4139228846505705</v>
       </c>
+      <c r="BE18" s="6">
+        <v>2.1052215713507358</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -13235,8 +13435,11 @@
       <c r="BD19" s="6">
         <v>2.1380788843686283</v>
       </c>
+      <c r="BE19" s="6">
+        <v>1.9390777891015816</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -13405,8 +13608,11 @@
       <c r="BD20" s="6">
         <v>1.985622116436814</v>
       </c>
+      <c r="BE20" s="6">
+        <v>1.7664820334293783</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -13575,8 +13781,11 @@
       <c r="BD21" s="6">
         <v>1.9914284424529918</v>
       </c>
+      <c r="BE21" s="6">
+        <v>1.7747965696039623</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -13745,8 +13954,11 @@
       <c r="BD22" s="6">
         <v>2.0741599217814635</v>
       </c>
+      <c r="BE22" s="6">
+        <v>1.830527739912414</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -13915,8 +14127,11 @@
       <c r="BD23" s="6">
         <v>2.0814195150203396</v>
       </c>
+      <c r="BE23" s="6">
+        <v>1.8386319597583731</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -14085,8 +14300,11 @@
       <c r="BD24" s="6">
         <v>0.70226773512812646</v>
       </c>
+      <c r="BE24" s="6">
+        <v>0.70120119948608139</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -14255,8 +14473,11 @@
       <c r="BD25" s="6">
         <v>2.3519574330503499</v>
       </c>
+      <c r="BE25" s="6">
+        <v>2.0422648264871386</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -14425,8 +14646,11 @@
       <c r="BD26" s="6">
         <v>2.4233158426556236</v>
       </c>
+      <c r="BE26" s="6">
+        <v>2.1648576307530014</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -14595,8 +14819,11 @@
       <c r="BD27" s="6">
         <v>2.1016787712013185</v>
       </c>
+      <c r="BE27" s="6">
+        <v>1.9799855641466511</v>
+      </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -14765,8 +14992,11 @@
       <c r="BD28" s="6">
         <v>2.1390665673726295</v>
       </c>
+      <c r="BE28" s="6">
+        <v>1.9026390505064281</v>
+      </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -14935,8 +15165,11 @@
       <c r="BD29" s="6">
         <v>1.8461557340053487</v>
       </c>
+      <c r="BE29" s="6">
+        <v>1.6820198262403441</v>
+      </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -15105,8 +15338,11 @@
       <c r="BD30" s="6">
         <v>2.166237517719356</v>
       </c>
+      <c r="BE30" s="6">
+        <v>1.7422188223020381</v>
+      </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -15275,8 +15511,11 @@
       <c r="BD31" s="6">
         <v>2.0865996566881315</v>
       </c>
+      <c r="BE31" s="6">
+        <v>1.859953818307561</v>
+      </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -15445,8 +15684,11 @@
       <c r="BD32" s="6">
         <v>1.4980042940546219</v>
       </c>
+      <c r="BE32" s="6">
+        <v>1.3784853073905268</v>
+      </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -15615,8 +15857,11 @@
       <c r="BD33" s="6">
         <v>2.2009248558920551</v>
       </c>
+      <c r="BE33" s="6">
+        <v>1.827456549627942</v>
+      </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -15785,8 +16030,11 @@
       <c r="BD34" s="6">
         <v>1.8934924647550437</v>
       </c>
+      <c r="BE34" s="6">
+        <v>1.8469751525091351</v>
+      </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -15955,8 +16203,11 @@
       <c r="BD35" s="6">
         <v>2.2478804171783215</v>
       </c>
+      <c r="BE35" s="6">
+        <v>2.0286707627955312</v>
+      </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -16125,8 +16376,11 @@
       <c r="BD36" s="6">
         <v>2.2751153290714923</v>
       </c>
+      <c r="BE36" s="6">
+        <v>2.0703660089105624</v>
+      </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -16295,8 +16549,11 @@
       <c r="BD37" s="6">
         <v>-0.77736965515771894</v>
       </c>
+      <c r="BE37" s="6">
+        <v>-0.35961525215773305</v>
+      </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
@@ -16465,8 +16722,11 @@
       <c r="BD38" s="6">
         <v>1.9901625480709393</v>
       </c>
+      <c r="BE38" s="6">
+        <v>1.8404831980217007</v>
+      </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -16635,8 +16895,11 @@
       <c r="BD39" s="6">
         <v>2.0371295404850076</v>
       </c>
+      <c r="BE39" s="6">
+        <v>1.8482586315131757</v>
+      </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -16805,8 +17068,11 @@
       <c r="BD40" s="6">
         <v>-1.1575495290435598</v>
       </c>
+      <c r="BE40" s="6">
+        <v>-0.63604711779058287</v>
+      </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -16975,8 +17241,11 @@
       <c r="BD41" s="6">
         <v>1.5062244352679262</v>
       </c>
+      <c r="BE41" s="6">
+        <v>1.3837955784369513</v>
+      </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -17145,8 +17414,11 @@
       <c r="BD42" s="6">
         <v>-1.7708703727617154</v>
       </c>
+      <c r="BE42" s="6">
+        <v>-1.1681233735472687</v>
+      </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -17315,8 +17587,11 @@
       <c r="BD43" s="6">
         <v>2.3112373008806855</v>
       </c>
+      <c r="BE43" s="6">
+        <v>2.1069228723603426</v>
+      </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -17485,8 +17760,11 @@
       <c r="BD44" s="6">
         <v>1.4446369698053461</v>
       </c>
+      <c r="BE44" s="6">
+        <v>1.4121013546463768</v>
+      </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -17655,8 +17933,11 @@
       <c r="BD45" s="6">
         <v>2.283865844030442</v>
       </c>
+      <c r="BE45" s="6">
+        <v>2.0366496161046483</v>
+      </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -17825,8 +18106,11 @@
       <c r="BD46" s="6">
         <v>2.3359145173955898</v>
       </c>
+      <c r="BE46" s="6">
+        <v>2.0041952370333171</v>
+      </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -17995,8 +18279,11 @@
       <c r="BD47" s="6">
         <v>2.1365775149401967</v>
       </c>
+      <c r="BE47" s="6">
+        <v>1.8176307571206323</v>
+      </c>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -18165,8 +18452,11 @@
       <c r="BD48" s="6">
         <v>2.210030976420982</v>
       </c>
+      <c r="BE48" s="6">
+        <v>2.0349096362214261</v>
+      </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
@@ -18335,8 +18625,11 @@
       <c r="BD49" s="6">
         <v>-0.47671687061187618</v>
       </c>
+      <c r="BE49" s="6">
+        <v>-0.10964563713568073</v>
+      </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
@@ -18505,8 +18798,11 @@
       <c r="BD50" s="6">
         <v>1.9011321196383697</v>
       </c>
+      <c r="BE50" s="6">
+        <v>1.720178676330693</v>
+      </c>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -18675,8 +18971,11 @@
       <c r="BD51" s="6">
         <v>2.221194980293876</v>
       </c>
+      <c r="BE51" s="6">
+        <v>1.9631668630926693</v>
+      </c>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
@@ -18845,8 +19144,11 @@
       <c r="BD52" s="6">
         <v>2.1935374339044591</v>
       </c>
+      <c r="BE52" s="6">
+        <v>1.9965093737900637</v>
+      </c>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
@@ -19015,8 +19317,11 @@
       <c r="BD53" s="6">
         <v>2.1521643174123897</v>
       </c>
+      <c r="BE53" s="6">
+        <v>1.9540068115078773</v>
+      </c>
     </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -19185,8 +19490,11 @@
       <c r="BD54" s="6">
         <v>-0.59378461618810896</v>
       </c>
+      <c r="BE54" s="6">
+        <v>-0.29391324902558891</v>
+      </c>
     </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -19355,8 +19663,11 @@
       <c r="BD55" s="6">
         <v>1.9266433768881626</v>
       </c>
+      <c r="BE55" s="6">
+        <v>1.7505031528145174</v>
+      </c>
     </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -19524,6 +19835,9 @@
       </c>
       <c r="BD56" s="6">
         <v>-3.1824241080328903</v>
+      </c>
+      <c r="BE56" s="6">
+        <v>-2.2320390553512262</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_gdp.xlsx
+++ b/static/data/source/state_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD475B19-9934-4179-91FB-F49CC5692C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD4642-306E-4983-93C9-33F16BFB1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
     <sheet name="TABLE_2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Geography</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>2023 Q2</t>
+  </si>
+  <si>
+    <t>2023 Q3</t>
   </si>
 </sst>
 </file>
@@ -684,27 +687,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,3697 +778,3856 @@
       <c r="W4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>24406980.0612045</v>
+        <v>24606834.08167287</v>
       </c>
       <c r="C5" s="7">
-        <v>24536414.453474518</v>
+        <v>24737328.334016412</v>
       </c>
       <c r="D5" s="7">
-        <v>24689490.921085373</v>
+        <v>24891658.252378419</v>
       </c>
       <c r="E5" s="7">
-        <v>24724357.011992056</v>
+        <v>24926809.840648077</v>
       </c>
       <c r="F5" s="7">
-        <v>24858806.389940437</v>
+        <v>25062360.143359173</v>
       </c>
       <c r="G5" s="7">
-        <v>25064898.420436796</v>
+        <v>25270139.737035323</v>
       </c>
       <c r="H5" s="7">
-        <v>25348842.13336863</v>
+        <v>25556408.493560173</v>
       </c>
       <c r="I5" s="7">
-        <v>25511232.14581072</v>
+        <v>25720128.219747636</v>
       </c>
       <c r="J5" s="7">
-        <v>25163526.472111184</v>
+        <v>25369575.394263886</v>
       </c>
       <c r="K5" s="7">
-        <v>23178069.761164792</v>
+        <v>23367860.977318902</v>
       </c>
       <c r="L5" s="7">
-        <v>24976300.340119127</v>
+        <v>25180816.180541869</v>
       </c>
       <c r="M5" s="7">
-        <v>25234930.315817337</v>
+        <v>25441563.920925729</v>
       </c>
       <c r="N5" s="7">
-        <v>25559471.531859692</v>
+        <v>25768762.608997442</v>
       </c>
       <c r="O5" s="7">
-        <v>25947774.708669756</v>
+        <v>26160245.366028059</v>
       </c>
       <c r="P5" s="7">
-        <v>26159120.533686303</v>
+        <v>26373321.774374984</v>
       </c>
       <c r="Q5" s="7">
-        <v>26603066.170641959</v>
+        <v>26820902.614055127</v>
       </c>
       <c r="R5" s="7">
-        <v>26470527.263428189</v>
+        <v>26687278.425769769</v>
       </c>
       <c r="S5" s="7">
-        <v>26433273.084103242</v>
+        <v>26649719.194467939</v>
       </c>
       <c r="T5" s="7">
-        <v>26607364.729794838</v>
+        <v>26825236.371513031</v>
       </c>
       <c r="U5" s="7">
-        <v>26776441.389808074</v>
+        <v>26995697.498190567</v>
       </c>
       <c r="V5" s="8">
-        <v>26925219.298266049</v>
+        <v>27145693.659094676</v>
       </c>
       <c r="W5" s="8">
-        <v>27063012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>27284614.662050802</v>
+      </c>
+      <c r="X5" s="8">
+        <v>27610128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>272300.99694651662</v>
+        <v>274848.04550810409</v>
       </c>
       <c r="C6" s="7">
-        <v>272370.60970052198</v>
+        <v>274918.30940575915</v>
       </c>
       <c r="D6" s="7">
-        <v>272590.15761700051</v>
+        <v>275139.91092913278</v>
       </c>
       <c r="E6" s="7">
-        <v>274434.89559814316</v>
+        <v>277001.90421699133</v>
       </c>
       <c r="F6" s="7">
-        <v>275048.02331611363</v>
+        <v>277620.76700787613</v>
       </c>
       <c r="G6" s="7">
-        <v>276654.47148546862</v>
+        <v>279242.24156914628</v>
       </c>
       <c r="H6" s="7">
-        <v>279487.17509076459</v>
+        <v>282101.44171218609</v>
       </c>
       <c r="I6" s="7">
-        <v>280954.39775210881</v>
+        <v>283582.38847814623</v>
       </c>
       <c r="J6" s="7">
-        <v>278892.78926810325</v>
+        <v>281501.49612451612</v>
       </c>
       <c r="K6" s="7">
-        <v>257419.93207105825</v>
+        <v>259827.78615553788</v>
       </c>
       <c r="L6" s="7">
-        <v>280836.59155302279</v>
+        <v>283463.48034365306</v>
       </c>
       <c r="M6" s="7">
-        <v>280841.94638025394</v>
+        <v>283468.88525885728</v>
       </c>
       <c r="N6" s="7">
-        <v>284070.90720065747</v>
+        <v>286728.0491270104</v>
       </c>
       <c r="O6" s="7">
-        <v>285910.29035456892</v>
+        <v>288584.63749966474</v>
       </c>
       <c r="P6" s="7">
-        <v>286333.32170583238</v>
+        <v>289011.62580079923</v>
       </c>
       <c r="Q6" s="7">
-        <v>290183.44248505321</v>
+        <v>292897.7598326435</v>
       </c>
       <c r="R6" s="7">
-        <v>289230.28323790256</v>
+        <v>291935.68492628977</v>
       </c>
       <c r="S6" s="7">
-        <v>288941.12256741867</v>
+        <v>291643.8195052612</v>
       </c>
       <c r="T6" s="7">
-        <v>291985.3418483464</v>
+        <v>294716.51379886823</v>
       </c>
       <c r="U6" s="7">
-        <v>295693.55970594077</v>
+        <v>298459.41757780022</v>
       </c>
       <c r="V6" s="8">
-        <v>296266.52621967735</v>
+        <v>299037.74350465322</v>
       </c>
       <c r="W6" s="8">
-        <v>296459.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>299232.32045200566</v>
+      </c>
+      <c r="X6" s="8">
+        <v>302288.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>66459.754620075269</v>
+        <v>67184.809357242717</v>
       </c>
       <c r="C7" s="7">
-        <v>65977.030345275416</v>
+        <v>66696.818714485431</v>
       </c>
       <c r="D7" s="7">
-        <v>65886.140837467901</v>
+        <v>66604.93763112108</v>
       </c>
       <c r="E7" s="7">
-        <v>65591.928134416943</v>
+        <v>66307.515161267613</v>
       </c>
       <c r="F7" s="7">
-        <v>65381.199127426204</v>
+        <v>66094.487167985848</v>
       </c>
       <c r="G7" s="7">
-        <v>65266.745673150086</v>
+        <v>65978.785063008516</v>
       </c>
       <c r="H7" s="7">
-        <v>66475.91275479662</v>
+        <v>67201.143772063049</v>
       </c>
       <c r="I7" s="7">
-        <v>66014.732659625195</v>
+        <v>66734.932349066192</v>
       </c>
       <c r="J7" s="7">
-        <v>65699.649032559173</v>
+        <v>66416.411260069799</v>
       </c>
       <c r="K7" s="7">
-        <v>60874.426051400689</v>
+        <v>61538.546634349455</v>
       </c>
       <c r="L7" s="7">
-        <v>62858.51034405786</v>
+        <v>63544.276654162182</v>
       </c>
       <c r="M7" s="7">
-        <v>63745.187986891098</v>
+        <v>64440.627667427667</v>
       </c>
       <c r="N7" s="7">
-        <v>63943.798392840836</v>
+        <v>64641.404849594197</v>
       </c>
       <c r="O7" s="7">
-        <v>63827.998427337938</v>
+        <v>64524.341543381852</v>
       </c>
       <c r="P7" s="7">
-        <v>64282.445966375468</v>
+        <v>64983.746960203564</v>
       </c>
       <c r="Q7" s="7">
-        <v>64529.530776489206</v>
+        <v>65233.527386831069</v>
       </c>
       <c r="R7" s="7">
-        <v>62447.824419890618</v>
+        <v>63129.11027747886</v>
       </c>
       <c r="S7" s="7">
-        <v>62900.252192087988</v>
+        <v>63586.473892448033</v>
       </c>
       <c r="T7" s="7">
-        <v>63355.372986738905</v>
+        <v>64046.559909887263</v>
       </c>
       <c r="U7" s="7">
-        <v>64326.207581245748</v>
+        <v>65027.986000341953</v>
       </c>
       <c r="V7" s="8">
-        <v>65585.868833896442</v>
+        <v>66301.389755709999</v>
       </c>
       <c r="W7" s="8">
-        <v>66355.399999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>67079.316261528089</v>
+      </c>
+      <c r="X7" s="8">
+        <v>67672.800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>420237.92681681516</v>
+        <v>423461.54069637082</v>
       </c>
       <c r="C8" s="7">
-        <v>421569.75277212722</v>
+        <v>424803.58298952563</v>
       </c>
       <c r="D8" s="7">
-        <v>425300.49459190044</v>
+        <v>428562.94305230788</v>
       </c>
       <c r="E8" s="7">
-        <v>427080.33539456519</v>
+        <v>430356.43688138633</v>
       </c>
       <c r="F8" s="7">
-        <v>431332.403582167</v>
+        <v>434641.12236778886</v>
       </c>
       <c r="G8" s="7">
-        <v>436403.11708174966</v>
+        <v>439750.73293347005</v>
       </c>
       <c r="H8" s="7">
-        <v>443408.44014944608</v>
+        <v>446809.79331336683</v>
       </c>
       <c r="I8" s="7">
-        <v>447839.71427598892</v>
+        <v>451275.05941413878</v>
       </c>
       <c r="J8" s="7">
-        <v>442512.41045474075</v>
+        <v>445906.89024151961</v>
       </c>
       <c r="K8" s="7">
-        <v>420107.59522485797</v>
+        <v>423330.20934046572</v>
       </c>
       <c r="L8" s="7">
-        <v>450206.04724246083</v>
+        <v>453659.54434478999</v>
       </c>
       <c r="M8" s="7">
-        <v>460620.35601228633</v>
+        <v>464153.74050257856</v>
       </c>
       <c r="N8" s="7">
-        <v>464790.96695491497</v>
+        <v>468356.34389154043</v>
       </c>
       <c r="O8" s="7">
-        <v>473649.44234575209</v>
+        <v>477282.77198821231</v>
       </c>
       <c r="P8" s="7">
-        <v>481281.98619974236</v>
+        <v>484973.86451840226</v>
       </c>
       <c r="Q8" s="7">
-        <v>491655.56634708121</v>
+        <v>495427.01962747046</v>
       </c>
       <c r="R8" s="7">
-        <v>488466.51520637987</v>
+        <v>492213.50551266858</v>
       </c>
       <c r="S8" s="7">
-        <v>490885.79538208432</v>
+        <v>494651.34380665614</v>
       </c>
       <c r="T8" s="7">
-        <v>493842.69337461202</v>
+        <v>497630.92394375219</v>
       </c>
       <c r="U8" s="7">
-        <v>500147.48413553881</v>
+        <v>503984.07828565937</v>
       </c>
       <c r="V8" s="8">
-        <v>500717.68485035136</v>
+        <v>504558.65296774398</v>
       </c>
       <c r="W8" s="8">
-        <v>502546.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>506401.39605528681</v>
+      </c>
+      <c r="X8" s="8">
+        <v>512504.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>157094.77130658762</v>
+        <v>158403.22708067315</v>
       </c>
       <c r="C9" s="7">
-        <v>157059.2420847888</v>
+        <v>158367.40193294999</v>
       </c>
       <c r="D9" s="7">
-        <v>157970.64386136693</v>
+        <v>159286.39485280521</v>
       </c>
       <c r="E9" s="7">
-        <v>158186.90868970749</v>
+        <v>159504.46096938103</v>
       </c>
       <c r="F9" s="7">
-        <v>157419.16854909848</v>
+        <v>158730.32625553687</v>
       </c>
       <c r="G9" s="7">
-        <v>157408.35530768143</v>
+        <v>158719.4229497081</v>
       </c>
       <c r="H9" s="7">
-        <v>159146.19767827529</v>
+        <v>160471.7399579066</v>
       </c>
       <c r="I9" s="7">
-        <v>160551.91906248897</v>
+        <v>161889.16971564942</v>
       </c>
       <c r="J9" s="7">
-        <v>160792.8998712113</v>
+        <v>162132.1576741196</v>
       </c>
       <c r="K9" s="7">
-        <v>151745.3063027063</v>
+        <v>153009.20592565849</v>
       </c>
       <c r="L9" s="7">
-        <v>162869.04222328076</v>
+        <v>164225.59239324744</v>
       </c>
       <c r="M9" s="7">
-        <v>163335.55635298684</v>
+        <v>164695.99215900386</v>
       </c>
       <c r="N9" s="7">
-        <v>166784.98036501886</v>
+        <v>168174.14671838813</v>
       </c>
       <c r="O9" s="7">
-        <v>168939.90490455524</v>
+        <v>170347.01980855429</v>
       </c>
       <c r="P9" s="7">
-        <v>169301.37611763875</v>
+        <v>170711.50174625957</v>
       </c>
       <c r="Q9" s="7">
-        <v>171161.25364136763</v>
+        <v>172586.87034881162</v>
       </c>
       <c r="R9" s="7">
-        <v>170208.14364789528</v>
+        <v>171625.82182075962</v>
       </c>
       <c r="S9" s="7">
-        <v>168439.40630182423</v>
+        <v>169842.35251019313</v>
       </c>
       <c r="T9" s="7">
-        <v>172072.6554179457</v>
+        <v>173505.86326866684</v>
       </c>
       <c r="U9" s="7">
-        <v>174380.51008609432</v>
+        <v>175832.94025555448</v>
       </c>
       <c r="V9" s="8">
-        <v>175290.36711389857</v>
+        <v>176750.37556029132</v>
       </c>
       <c r="W9" s="8">
-        <v>175118.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>176577.48028214904</v>
+      </c>
+      <c r="X9" s="8">
+        <v>176878.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>3347213.5366338324</v>
+        <v>3369306.3634318421</v>
       </c>
       <c r="C10" s="7">
-        <v>3382826.7056927211</v>
+        <v>3405154.5923598236</v>
       </c>
       <c r="D10" s="7">
-        <v>3418537.8028058503</v>
+        <v>3441101.3957028226</v>
       </c>
       <c r="E10" s="7">
-        <v>3434565.3610165878</v>
+        <v>3457234.7416273309</v>
       </c>
       <c r="F10" s="7">
-        <v>3455685.1780478447</v>
+        <v>3478493.9571327427</v>
       </c>
       <c r="G10" s="7">
-        <v>3508827.4688158287</v>
+        <v>3531987.006348832</v>
       </c>
       <c r="H10" s="7">
-        <v>3551556.743149546</v>
+        <v>3574998.3094347417</v>
       </c>
       <c r="I10" s="7">
-        <v>3599835.2738902397</v>
+        <v>3623595.4960383023</v>
       </c>
       <c r="J10" s="7">
-        <v>3551295.6016715704</v>
+        <v>3574735.4443280292</v>
       </c>
       <c r="K10" s="7">
-        <v>3264758.1149631147</v>
+        <v>3286306.7059872216</v>
       </c>
       <c r="L10" s="7">
-        <v>3528576.2930877148</v>
+        <v>3551866.180044</v>
       </c>
       <c r="M10" s="7">
-        <v>3591935.7441814849</v>
+        <v>3615643.8265602347</v>
       </c>
       <c r="N10" s="7">
-        <v>3660420.0967805209</v>
+        <v>3684580.2007957115</v>
       </c>
       <c r="O10" s="7">
-        <v>3714737.5241993945</v>
+        <v>3739256.1429920094</v>
       </c>
       <c r="P10" s="7">
-        <v>3770034.2321606753</v>
+        <v>3794917.8293384807</v>
       </c>
       <c r="Q10" s="7">
-        <v>3844459.5533836512</v>
+        <v>3869834.3847516775</v>
       </c>
       <c r="R10" s="7">
-        <v>3783058.6633746964</v>
+        <v>3808028.2265357906</v>
       </c>
       <c r="S10" s="7">
-        <v>3764941.973340156</v>
+        <v>3789791.9597575781</v>
       </c>
       <c r="T10" s="7">
-        <v>3778619.2582491152</v>
+        <v>3803559.5197216701</v>
       </c>
       <c r="U10" s="7">
-        <v>3764452.3330689524</v>
+        <v>3789299.0876824907</v>
       </c>
       <c r="V10" s="8">
-        <v>3801436.4948872118</v>
+        <v>3826527.3584207157</v>
       </c>
       <c r="W10" s="8">
-        <v>3827518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3852781.0109536736</v>
+      </c>
+      <c r="X10" s="8">
+        <v>3898158.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>441799.80614910467</v>
+        <v>445501.99388955708</v>
       </c>
       <c r="C11" s="7">
-        <v>440452.28707798041</v>
+        <v>444143.18289726006</v>
       </c>
       <c r="D11" s="7">
-        <v>440795.52306779503</v>
+        <v>444489.29513114702</v>
       </c>
       <c r="E11" s="7">
-        <v>444524.50666084333</v>
+        <v>448249.52680794359</v>
       </c>
       <c r="F11" s="7">
-        <v>451944.33651473821</v>
+        <v>455731.53324666043</v>
       </c>
       <c r="G11" s="7">
-        <v>460597.27344315249</v>
+        <v>464456.97993304516</v>
       </c>
       <c r="H11" s="7">
-        <v>471635.91237484646</v>
+        <v>475588.12029447139</v>
       </c>
       <c r="I11" s="7">
-        <v>472407.13398159062</v>
+        <v>476365.80457308161</v>
       </c>
       <c r="J11" s="7">
-        <v>471190.97683249414</v>
+        <v>475139.45628758089</v>
       </c>
       <c r="K11" s="7">
-        <v>435642.7457392193</v>
+        <v>439293.3386323009</v>
       </c>
       <c r="L11" s="7">
-        <v>466326.34823610849</v>
+        <v>470234.06314557808</v>
       </c>
       <c r="M11" s="7">
-        <v>470479.07996473042</v>
+        <v>474421.59387655609</v>
       </c>
       <c r="N11" s="7">
-        <v>481585.51859811618</v>
+        <v>485621.10208665131</v>
       </c>
       <c r="O11" s="7">
-        <v>489785.04502146662</v>
+        <v>493889.33878506196</v>
       </c>
       <c r="P11" s="7">
-        <v>494891.21005512937</v>
+        <v>499038.29238794814</v>
       </c>
       <c r="Q11" s="7">
-        <v>503412.78506151569</v>
+        <v>507631.27636753669</v>
       </c>
       <c r="R11" s="7">
-        <v>501887.29177345056</v>
+        <v>506092.99977248348</v>
       </c>
       <c r="S11" s="7">
-        <v>498853.25512274314</v>
+        <v>503033.53854454454</v>
       </c>
       <c r="T11" s="7">
-        <v>504294.18118350895</v>
+        <v>508520.05840023403</v>
       </c>
       <c r="U11" s="7">
-        <v>508938.46074939636</v>
+        <v>513203.25603406254</v>
       </c>
       <c r="V11" s="8">
-        <v>510951.26439337124</v>
+        <v>515232.9265414243</v>
       </c>
       <c r="W11" s="8">
-        <v>514222.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>518531.67523970496</v>
+      </c>
+      <c r="X11" s="8">
+        <v>525868.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>330224.95081398863</v>
+        <v>332962.01104213932</v>
       </c>
       <c r="C12" s="7">
-        <v>327583.1249206519</v>
+        <v>330298.28844909981</v>
       </c>
       <c r="D12" s="7">
-        <v>331687.15544400713</v>
+        <v>334436.33511415747</v>
       </c>
       <c r="E12" s="7">
-        <v>328243.58139398613</v>
+        <v>330964.21909735969</v>
       </c>
       <c r="F12" s="7">
-        <v>327540.40883033682</v>
+        <v>330255.21830767009</v>
       </c>
       <c r="G12" s="7">
-        <v>328223.86627537914</v>
+        <v>330944.34057054599</v>
       </c>
       <c r="H12" s="7">
-        <v>328881.03689561214</v>
+        <v>331606.95813100354</v>
       </c>
       <c r="I12" s="7">
-        <v>331348.71257458709</v>
+        <v>334095.08707052178</v>
       </c>
       <c r="J12" s="7">
-        <v>318188.87090442103</v>
+        <v>320826.1704223585</v>
       </c>
       <c r="K12" s="7">
-        <v>292253.63237692509</v>
+        <v>294675.96839889948</v>
       </c>
       <c r="L12" s="7">
-        <v>313900.8326074006</v>
+        <v>316502.59084037266</v>
       </c>
       <c r="M12" s="7">
-        <v>316812.09845503286</v>
+        <v>319437.98663319979</v>
       </c>
       <c r="N12" s="7">
-        <v>314748.58270750119</v>
+        <v>317357.36749336298</v>
       </c>
       <c r="O12" s="7">
-        <v>322141.75218512263</v>
+        <v>324811.81504851091</v>
       </c>
       <c r="P12" s="7">
-        <v>324698.14589782903</v>
+        <v>327389.39735869091</v>
       </c>
       <c r="Q12" s="7">
-        <v>328621.45450062008</v>
+        <v>331345.22419462277</v>
       </c>
       <c r="R12" s="7">
-        <v>331003.69799896481</v>
+        <v>333747.21285128157</v>
       </c>
       <c r="S12" s="7">
-        <v>329449.48948211374</v>
+        <v>332180.12232079939</v>
       </c>
       <c r="T12" s="7">
-        <v>331644.439353692</v>
+        <v>334393.26497272775</v>
       </c>
       <c r="U12" s="7">
-        <v>335649.89428401226</v>
+        <v>338431.91900371679</v>
       </c>
       <c r="V12" s="8">
-        <v>335824.04449837399</v>
+        <v>338607.51265723805</v>
       </c>
       <c r="W12" s="8">
-        <v>336461.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>339250.25169088197</v>
+      </c>
+      <c r="X12" s="8">
+        <v>343186.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>87579.635172264228</v>
+        <v>88350.911497521287</v>
       </c>
       <c r="C13" s="7">
-        <v>87940.038011276847</v>
+        <v>88714.488249929855</v>
       </c>
       <c r="D13" s="7">
-        <v>89746.41543683644</v>
+        <v>90536.773667570844</v>
       </c>
       <c r="E13" s="7">
-        <v>90319.743924079288</v>
+        <v>91115.151213169956</v>
       </c>
       <c r="F13" s="7">
-        <v>91715.977682965924</v>
+        <v>92523.681004583297</v>
       </c>
       <c r="G13" s="7">
-        <v>93115.702026249783</v>
+        <v>93935.732120475164</v>
       </c>
       <c r="H13" s="7">
-        <v>94440.378804993481</v>
+        <v>95272.074760078583</v>
       </c>
       <c r="I13" s="7">
-        <v>95088.754856776475</v>
+        <v>95926.160781966144</v>
       </c>
       <c r="J13" s="7">
-        <v>92333.811121273262</v>
+        <v>93146.955437283701</v>
       </c>
       <c r="K13" s="7">
-        <v>86868.428601331354</v>
+        <v>87633.441635020121</v>
       </c>
       <c r="L13" s="7">
-        <v>92494.378003545222</v>
+        <v>93308.936363296219</v>
       </c>
       <c r="M13" s="7">
-        <v>92390.533117728031</v>
+        <v>93204.176960059864</v>
       </c>
       <c r="N13" s="7">
-        <v>92644.473132625557</v>
+        <v>93460.353315873173</v>
       </c>
       <c r="O13" s="7">
-        <v>93319.028567387664</v>
+        <v>94140.84927134974</v>
       </c>
       <c r="P13" s="7">
-        <v>93251.834817741241</v>
+        <v>94073.063775137969</v>
       </c>
       <c r="Q13" s="7">
-        <v>94337.406565275611</v>
+        <v>95168.195687961837</v>
       </c>
       <c r="R13" s="7">
-        <v>94047.688060306624</v>
+        <v>94875.925756243567</v>
       </c>
       <c r="S13" s="7">
-        <v>94226.580510663975</v>
+        <v>95056.3936357684</v>
       </c>
       <c r="T13" s="7">
-        <v>94232.6890333591</v>
+        <v>95062.555953605828</v>
       </c>
       <c r="U13" s="7">
-        <v>94739.696417054816</v>
+        <v>95574.028334112809</v>
       </c>
       <c r="V13" s="8">
-        <v>92717.775404967077</v>
+        <v>93534.301129922358</v>
       </c>
       <c r="W13" s="8">
-        <v>92551.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>93366.157886072411</v>
+      </c>
+      <c r="X13" s="8">
+        <v>94116.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>163122.0131246761</v>
+        <v>165055.32615030816</v>
       </c>
       <c r="C14" s="7">
-        <v>164599.7478057674</v>
+        <v>166550.57486063841</v>
       </c>
       <c r="D14" s="7">
-        <v>166435.28360942475</v>
+        <v>168407.86533253611</v>
       </c>
       <c r="E14" s="7">
-        <v>165597.74017453915</v>
+        <v>167560.39537944994</v>
       </c>
       <c r="F14" s="7">
-        <v>163654.70358517807</v>
+        <v>165594.33002851624</v>
       </c>
       <c r="G14" s="7">
-        <v>165302.51413618866</v>
+        <v>167261.67033851531</v>
       </c>
       <c r="H14" s="7">
-        <v>166610.17294736067</v>
+        <v>168584.82744917672</v>
       </c>
       <c r="I14" s="7">
-        <v>168060.63130969129</v>
+        <v>170052.47656333365</v>
       </c>
       <c r="J14" s="7">
-        <v>167510.29146646184</v>
+        <v>169495.61412289576</v>
       </c>
       <c r="K14" s="7">
-        <v>158743.36171892355</v>
+        <v>160624.77921166405</v>
       </c>
       <c r="L14" s="7">
-        <v>164511.50089213002</v>
+        <v>166461.28204948947</v>
       </c>
       <c r="M14" s="7">
-        <v>167582.49348671059</v>
+        <v>169568.67187747217</v>
       </c>
       <c r="N14" s="7">
-        <v>166391.96239727549</v>
+        <v>168364.03067979027</v>
       </c>
       <c r="O14" s="7">
-        <v>169872.09977326574</v>
+        <v>171885.41445037257</v>
       </c>
       <c r="P14" s="7">
-        <v>172018.90650866218</v>
+        <v>174057.6650197774</v>
       </c>
       <c r="Q14" s="7">
-        <v>173547.98484859706</v>
+        <v>175604.86591113973</v>
       </c>
       <c r="R14" s="7">
-        <v>172193.79584659805</v>
+        <v>174234.62713641798</v>
       </c>
       <c r="S14" s="7">
-        <v>172004.46610461245</v>
+        <v>174043.05346886211</v>
       </c>
       <c r="T14" s="7">
-        <v>171720.47149163397</v>
+        <v>173755.6929675283</v>
       </c>
       <c r="U14" s="7">
-        <v>172378.31212056713</v>
+        <v>174421.33028700211</v>
       </c>
       <c r="V14" s="8">
-        <v>172705.62794569484</v>
+        <v>174752.52544108176</v>
       </c>
       <c r="W14" s="8">
-        <v>173374.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>175429.52730015636</v>
+      </c>
+      <c r="X14" s="8">
+        <v>176491.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>1286702.282456337</v>
+        <v>1295862.4651149218</v>
       </c>
       <c r="C15" s="7">
-        <v>1286502.3714377191</v>
+        <v>1295661.1309065956</v>
       </c>
       <c r="D15" s="7">
-        <v>1299896.4096851137</v>
+        <v>1309150.5228644446</v>
       </c>
       <c r="E15" s="7">
-        <v>1299821.4430531322</v>
+        <v>1309075.0225363222</v>
       </c>
       <c r="F15" s="7">
-        <v>1313665.2810924167</v>
+        <v>1323017.4164629048</v>
       </c>
       <c r="G15" s="7">
-        <v>1319500.1839483248</v>
+        <v>1328893.858668423</v>
       </c>
       <c r="H15" s="7">
-        <v>1334855.8490659068</v>
+        <v>1344358.8425454719</v>
       </c>
       <c r="I15" s="7">
-        <v>1346925.4768149585</v>
+        <v>1356514.3953731605</v>
       </c>
       <c r="J15" s="7">
-        <v>1335518.0543150783</v>
+        <v>1345025.7621105521</v>
       </c>
       <c r="K15" s="7">
-        <v>1235662.5005154721</v>
+        <v>1244459.3250516637</v>
       </c>
       <c r="L15" s="7">
-        <v>1341665.3181375766</v>
+        <v>1351216.7890165797</v>
       </c>
       <c r="M15" s="7">
-        <v>1348437.3038932558</v>
+        <v>1358036.9853236265</v>
       </c>
       <c r="N15" s="7">
-        <v>1385108.4813709639</v>
+        <v>1394969.2291634462</v>
       </c>
       <c r="O15" s="7">
-        <v>1426689.9732434726</v>
+        <v>1436846.7444952754</v>
       </c>
       <c r="P15" s="7">
-        <v>1448292.8576928619</v>
+        <v>1458603.4223825149</v>
       </c>
       <c r="Q15" s="7">
-        <v>1475930.5560167767</v>
+        <v>1486437.8766835986</v>
       </c>
       <c r="R15" s="7">
-        <v>1479366.5266492709</v>
+        <v>1489898.3083892036</v>
       </c>
       <c r="S15" s="7">
-        <v>1486088.5346502953</v>
+        <v>1496668.1711441688</v>
       </c>
       <c r="T15" s="7">
-        <v>1509802.9792338354</v>
+        <v>1520551.4416068529</v>
       </c>
       <c r="U15" s="7">
-        <v>1524971.2277714633</v>
+        <v>1535827.6746635959</v>
       </c>
       <c r="V15" s="8">
-        <v>1552084.1596715066</v>
+        <v>1563133.6266678236</v>
       </c>
       <c r="W15" s="8">
-        <v>1560980.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1572092.9989383351</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1595347.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>720054.18762839842</v>
+        <v>725313.77042301837</v>
       </c>
       <c r="C16" s="7">
-        <v>726182.45911261707</v>
+        <v>731486.80541505769</v>
       </c>
       <c r="D16" s="7">
-        <v>734747.86977668677</v>
+        <v>740114.78149063629</v>
       </c>
       <c r="E16" s="7">
-        <v>737355.04192257405</v>
+        <v>742740.99753349228</v>
       </c>
       <c r="F16" s="7">
-        <v>742172.64262693096</v>
+        <v>747593.78804746526</v>
       </c>
       <c r="G16" s="7">
-        <v>750589.27444571909</v>
+        <v>756071.89853364171</v>
       </c>
       <c r="H16" s="7">
-        <v>759239.70159280696</v>
+        <v>764785.51208887866</v>
       </c>
       <c r="I16" s="7">
-        <v>762774.97034497478</v>
+        <v>768346.60395133845</v>
       </c>
       <c r="J16" s="7">
-        <v>745637.06430991692</v>
+        <v>751083.51534354303</v>
       </c>
       <c r="K16" s="7">
-        <v>689823.743208559</v>
+        <v>694862.50994783733</v>
       </c>
       <c r="L16" s="7">
-        <v>741960.10141938576</v>
+        <v>747379.69434831943</v>
       </c>
       <c r="M16" s="7">
-        <v>747656.20578159601</v>
+        <v>753117.40548542887</v>
       </c>
       <c r="N16" s="7">
-        <v>758920.88978148927</v>
+        <v>764464.37154015992</v>
       </c>
       <c r="O16" s="7">
-        <v>773586.23310210509</v>
+        <v>779236.83678122493</v>
       </c>
       <c r="P16" s="7">
-        <v>780160.84112216858</v>
+        <v>785859.46854147059</v>
       </c>
       <c r="Q16" s="7">
-        <v>791680.57457111601</v>
+        <v>797463.34703517682</v>
       </c>
       <c r="R16" s="7">
-        <v>783441.06042528211</v>
+        <v>789163.64796495507</v>
       </c>
       <c r="S16" s="7">
-        <v>795357.53746164718</v>
+        <v>801167.16803040029</v>
       </c>
       <c r="T16" s="7">
-        <v>797355.42481257173</v>
+        <v>803179.64880237158</v>
       </c>
       <c r="U16" s="7">
-        <v>808768.88765774644</v>
+        <v>814676.48044650466</v>
       </c>
       <c r="V16" s="8">
-        <v>796030.58461887354</v>
+        <v>801845.13141102891</v>
       </c>
       <c r="W16" s="8">
-        <v>796625.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>802444.59376863739</v>
+      </c>
+      <c r="X16" s="8">
+        <v>811293.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>109554.03103228612</v>
+        <v>110428.02438882654</v>
       </c>
       <c r="C17" s="7">
-        <v>110380.65358403187</v>
+        <v>111261.24151871595</v>
       </c>
       <c r="D17" s="7">
-        <v>110202.97848771955</v>
+        <v>111082.1489770359</v>
       </c>
       <c r="E17" s="7">
-        <v>110155.30955944063</v>
+        <v>111034.09975853639</v>
       </c>
       <c r="F17" s="7">
-        <v>109420.77471005186</v>
+        <v>110293.70498256652</v>
       </c>
       <c r="G17" s="7">
-        <v>109673.20335298342</v>
+        <v>110548.14743507536</v>
       </c>
       <c r="H17" s="7">
-        <v>110665.58376897176</v>
+        <v>111548.44480201986</v>
       </c>
       <c r="I17" s="7">
-        <v>111071.85304407614</v>
+        <v>111957.95518695895</v>
       </c>
       <c r="J17" s="7">
-        <v>107043.82860450773</v>
+        <v>107897.79622374961</v>
       </c>
       <c r="K17" s="7">
-        <v>92734.483042963882</v>
+        <v>93474.294452348491</v>
       </c>
       <c r="L17" s="7">
-        <v>96199.147421054222</v>
+        <v>96966.599015109008</v>
       </c>
       <c r="M17" s="7">
-        <v>98501.339979979166</v>
+        <v>99287.157863097149</v>
       </c>
       <c r="N17" s="7">
-        <v>100248.83955529489</v>
+        <v>101048.5985321818</v>
       </c>
       <c r="O17" s="7">
-        <v>104390.61939189257</v>
+        <v>105223.42040317408</v>
       </c>
       <c r="P17" s="7">
-        <v>106745.89780276449</v>
+        <v>107597.48860812761</v>
       </c>
       <c r="Q17" s="7">
-        <v>105540.09059425462</v>
+        <v>106382.06178562841</v>
       </c>
       <c r="R17" s="7">
-        <v>104498.95786525375</v>
+        <v>105332.62317249119</v>
       </c>
       <c r="S17" s="7">
-        <v>104698.30065623829</v>
+        <v>105533.55626803463</v>
       </c>
       <c r="T17" s="7">
-        <v>105924.69217468679</v>
+        <v>106769.73161670407</v>
       </c>
       <c r="U17" s="7">
-        <v>107204.16954508226</v>
+        <v>108059.41632233889</v>
       </c>
       <c r="V17" s="8">
-        <v>106976.65875102379</v>
+        <v>107830.09050677299</v>
       </c>
       <c r="W17" s="8">
-        <v>107143.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>107998.26277152133</v>
+      </c>
+      <c r="X17" s="8">
+        <v>108993.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>95867.434552864477</v>
+        <v>96490.216428991975</v>
       </c>
       <c r="C18" s="7">
-        <v>96544.621299796214</v>
+        <v>97171.802371904167</v>
       </c>
       <c r="D18" s="7">
-        <v>97231.820216373439</v>
+        <v>97863.465526337925</v>
       </c>
       <c r="E18" s="7">
-        <v>97980.912545304629</v>
+        <v>98617.424170177619</v>
       </c>
       <c r="F18" s="7">
-        <v>99305.249530231609</v>
+        <v>99950.364421437363</v>
       </c>
       <c r="G18" s="7">
-        <v>100580.4358641716</v>
+        <v>101233.83472522767</v>
       </c>
       <c r="H18" s="7">
-        <v>102339.84713005739</v>
+        <v>103004.67562260573</v>
       </c>
       <c r="I18" s="7">
-        <v>103415.70026832796</v>
+        <v>104087.51780610334</v>
       </c>
       <c r="J18" s="7">
-        <v>103396.58612627746</v>
+        <v>104068.27949319856</v>
       </c>
       <c r="K18" s="7">
-        <v>96322.533173114294</v>
+        <v>96948.271498153394</v>
       </c>
       <c r="L18" s="7">
-        <v>106116.25548089037</v>
+        <v>106805.61658650721</v>
       </c>
       <c r="M18" s="7">
-        <v>107579.85264361378</v>
+        <v>108278.72168893035</v>
       </c>
       <c r="N18" s="7">
-        <v>108640.23242879586</v>
+        <v>109345.99000007645</v>
       </c>
       <c r="O18" s="7">
-        <v>108599.27355297336</v>
+        <v>109304.76504385192</v>
       </c>
       <c r="P18" s="7">
-        <v>108895.99785337626</v>
+        <v>109603.41694894517</v>
       </c>
       <c r="Q18" s="7">
-        <v>113109.30087964906</v>
+        <v>113844.09077924164</v>
       </c>
       <c r="R18" s="7">
-        <v>113565.30969713938</v>
+        <v>114303.06195854138</v>
       </c>
       <c r="S18" s="7">
-        <v>113629.02350397436</v>
+        <v>114367.18966822399</v>
       </c>
       <c r="T18" s="7">
-        <v>114521.92699690448</v>
+        <v>115265.89371391869</v>
       </c>
       <c r="U18" s="7">
-        <v>115951.84686172943</v>
+        <v>116705.10274122388</v>
       </c>
       <c r="V18" s="8">
-        <v>116771.02437817909</v>
+        <v>117529.60186571445</v>
       </c>
       <c r="W18" s="8">
-        <v>117027.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>117787.94492472149</v>
+      </c>
+      <c r="X18" s="8">
+        <v>119809.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>1045555.7349361858</v>
+        <v>1053972.4891466997</v>
       </c>
       <c r="C19" s="7">
-        <v>1047207.8546076424</v>
+        <v>1055637.9084297756</v>
       </c>
       <c r="D19" s="7">
-        <v>1051897.4116874915</v>
+        <v>1060365.2165811157</v>
       </c>
       <c r="E19" s="7">
-        <v>1052112.9055576816</v>
+        <v>1060582.4451832559</v>
       </c>
       <c r="F19" s="7">
-        <v>1053067.2355542374</v>
+        <v>1061544.4575641633</v>
       </c>
       <c r="G19" s="7">
-        <v>1055673.6852222499</v>
+        <v>1064171.8892281468</v>
       </c>
       <c r="H19" s="7">
-        <v>1063410.9413233576</v>
+        <v>1071971.4304669003</v>
       </c>
       <c r="I19" s="7">
-        <v>1056484.3526386789</v>
+        <v>1064989.0825409605</v>
       </c>
       <c r="J19" s="7">
-        <v>1026766.7217781902</v>
+        <v>1035032.2238838905</v>
       </c>
       <c r="K19" s="7">
-        <v>943442.42530472041</v>
+        <v>951037.16438962019</v>
       </c>
       <c r="L19" s="7">
-        <v>1008613.9286178986</v>
+        <v>1016733.3002083532</v>
       </c>
       <c r="M19" s="7">
-        <v>1014350.1702100993</v>
+        <v>1022515.7187129463</v>
       </c>
       <c r="N19" s="7">
-        <v>1033580.4327213409</v>
+        <v>1041900.7853991856</v>
       </c>
       <c r="O19" s="7">
-        <v>1048736.8349247049</v>
+        <v>1057179.1970830571</v>
       </c>
       <c r="P19" s="7">
-        <v>1052020.551041886</v>
+        <v>1060489.3472109102</v>
       </c>
       <c r="Q19" s="7">
-        <v>1068500.7013049885</v>
+        <v>1077102.1631650727</v>
       </c>
       <c r="R19" s="7">
-        <v>1067012.7674393908</v>
+        <v>1075602.2513883889</v>
       </c>
       <c r="S19" s="7">
-        <v>1062631.0587455274</v>
+        <v>1071185.2698115353</v>
       </c>
       <c r="T19" s="7">
-        <v>1061625.4206846405</v>
+        <v>1070171.5363348804</v>
       </c>
       <c r="U19" s="7">
-        <v>1067854.2196944184</v>
+        <v>1076450.4773586513</v>
       </c>
       <c r="V19" s="8">
-        <v>1069526.8625916075</v>
+        <v>1078136.5850800266</v>
       </c>
       <c r="W19" s="8">
-        <v>1072564.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1081198.4739482908</v>
+      </c>
+      <c r="X19" s="8">
+        <v>1092246.1000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>453366.28420542547</v>
+        <v>457222.36601383716</v>
       </c>
       <c r="C20" s="7">
-        <v>453564.67659305263</v>
+        <v>457422.44581692392</v>
       </c>
       <c r="D20" s="7">
-        <v>455566.23534822365</v>
+        <v>459441.02871917689</v>
       </c>
       <c r="E20" s="7">
-        <v>456364.21361845708</v>
+        <v>460245.79414937022</v>
       </c>
       <c r="F20" s="7">
-        <v>453591.12891140289</v>
+        <v>457449.12312400213</v>
       </c>
       <c r="G20" s="7">
-        <v>455848.39341062668</v>
+        <v>459725.58666134474</v>
       </c>
       <c r="H20" s="7">
-        <v>459591.39645719103</v>
+        <v>463500.42561291467</v>
       </c>
       <c r="I20" s="7">
-        <v>461085.95244398178</v>
+        <v>465007.69346283481</v>
       </c>
       <c r="J20" s="7">
-        <v>452630.02801134274</v>
+        <v>456479.84763349302</v>
       </c>
       <c r="K20" s="7">
-        <v>408648.64003427944</v>
+        <v>412124.37839808414</v>
       </c>
       <c r="L20" s="7">
-        <v>452766.69832281914</v>
+        <v>456617.68038673053</v>
       </c>
       <c r="M20" s="7">
-        <v>457576.61154284485</v>
+        <v>461468.50405712257</v>
       </c>
       <c r="N20" s="7">
-        <v>465419.72393370245</v>
+        <v>469378.32560581871</v>
       </c>
       <c r="O20" s="7">
-        <v>470516.20393585612</v>
+        <v>474518.15343622497</v>
       </c>
       <c r="P20" s="7">
-        <v>473306.92352181056</v>
+        <v>477332.60933297855</v>
       </c>
       <c r="Q20" s="7">
-        <v>485025.30055098399</v>
+        <v>489150.65636863577</v>
       </c>
       <c r="R20" s="7">
-        <v>487992.36892594025</v>
+        <v>492142.96097924432</v>
       </c>
       <c r="S20" s="7">
-        <v>487498.59231673501</v>
+        <v>491644.98458045057</v>
       </c>
       <c r="T20" s="7">
-        <v>489619.18650448235</v>
+        <v>493783.61536455562</v>
       </c>
       <c r="U20" s="7">
-        <v>488142.2653965918</v>
+        <v>492294.13238602091</v>
       </c>
       <c r="V20" s="8">
-        <v>489588.32546640706</v>
+        <v>493752.49183963099</v>
       </c>
       <c r="W20" s="8">
-        <v>491294.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>495473.17814617703</v>
+      </c>
+      <c r="X20" s="8">
+        <v>501266.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>234109.49576481184</v>
+        <v>235598.11847294759</v>
       </c>
       <c r="C21" s="7">
-        <v>234700.11986370804</v>
+        <v>236192.49814973143</v>
       </c>
       <c r="D21" s="7">
-        <v>234591.2597356762</v>
+        <v>236082.94581714776</v>
       </c>
       <c r="E21" s="7">
-        <v>233565.19512465267</v>
+        <v>235050.35681002919</v>
       </c>
       <c r="F21" s="7">
-        <v>230308.65597544491</v>
+        <v>231773.11043529172</v>
       </c>
       <c r="G21" s="7">
-        <v>231255.97070661557</v>
+        <v>232726.4488188391</v>
       </c>
       <c r="H21" s="7">
-        <v>234616.73763798151</v>
+        <v>236108.58572477373</v>
       </c>
       <c r="I21" s="7">
-        <v>236194.05140797477</v>
+        <v>237695.92909689053</v>
       </c>
       <c r="J21" s="7">
-        <v>232754.53459675601</v>
+        <v>234234.54156738473</v>
       </c>
       <c r="K21" s="7">
-        <v>220478.81803146351</v>
+        <v>221880.76789305429</v>
       </c>
       <c r="L21" s="7">
-        <v>235193.46469925655</v>
+        <v>236688.9799973979</v>
       </c>
       <c r="M21" s="7">
-        <v>238100.26173500039</v>
+        <v>239614.26036745164</v>
       </c>
       <c r="N21" s="7">
-        <v>245389.25796725988</v>
+        <v>246949.60484917197</v>
       </c>
       <c r="O21" s="7">
-        <v>246943.41000788467</v>
+        <v>248513.63921435611</v>
       </c>
       <c r="P21" s="7">
-        <v>244441.9432360892</v>
+        <v>245996.26646562462</v>
       </c>
       <c r="Q21" s="7">
-        <v>245868.70576518736</v>
+        <v>247432.10129267888</v>
       </c>
       <c r="R21" s="7">
-        <v>247249.14483554853</v>
+        <v>248821.31810586769</v>
       </c>
       <c r="S21" s="7">
-        <v>244025.03210745662</v>
+        <v>245576.70434083603</v>
       </c>
       <c r="T21" s="7">
-        <v>245268.81697454382</v>
+        <v>246828.39801312197</v>
       </c>
       <c r="U21" s="7">
-        <v>243005.91601524365</v>
+        <v>244551.10803579728</v>
       </c>
       <c r="V21" s="8">
-        <v>246132.74947998795</v>
+        <v>247697.82397171162</v>
       </c>
       <c r="W21" s="8">
-        <v>246755.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>248324.83625820122</v>
+      </c>
+      <c r="X21" s="8">
+        <v>250818.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>207976.13084612769</v>
+        <v>209323.95058938657</v>
       </c>
       <c r="C22" s="7">
-        <v>209196.82412323012</v>
+        <v>210552.55474786105</v>
       </c>
       <c r="D22" s="7">
-        <v>211169.66174278967</v>
+        <v>212538.17763024411</v>
       </c>
       <c r="E22" s="7">
-        <v>211091.57025368209</v>
+        <v>212459.58005781643</v>
       </c>
       <c r="F22" s="7">
-        <v>208302.88207686722</v>
+        <v>209652.81937928125</v>
       </c>
       <c r="G22" s="7">
-        <v>210657.95698521641</v>
+        <v>212023.156695126</v>
       </c>
       <c r="H22" s="7">
-        <v>211227.20284002682</v>
+        <v>212596.09163098029</v>
       </c>
       <c r="I22" s="7">
-        <v>211989.6223784191</v>
+        <v>213363.45214073456</v>
       </c>
       <c r="J22" s="7">
-        <v>212174.57590525277</v>
+        <v>213549.60428595796</v>
       </c>
       <c r="K22" s="7">
-        <v>196755.61688488288</v>
+        <v>198030.72044583299</v>
       </c>
       <c r="L22" s="7">
-        <v>211755.34791109641</v>
+        <v>213127.65942345158</v>
       </c>
       <c r="M22" s="7">
-        <v>212536.26280217202</v>
+        <v>213913.63514772817</v>
       </c>
       <c r="N22" s="7">
-        <v>209533.85054990489</v>
+        <v>210891.76532360152</v>
       </c>
       <c r="O22" s="7">
-        <v>213689.13978610214</v>
+        <v>215073.98351962079</v>
       </c>
       <c r="P22" s="7">
-        <v>214659.11828238558</v>
+        <v>216050.2481034591</v>
       </c>
       <c r="Q22" s="7">
-        <v>216597.02023576541</v>
+        <v>218000.70891396664</v>
       </c>
       <c r="R22" s="7">
-        <v>218212.28103677975</v>
+        <v>219626.43764891775</v>
       </c>
       <c r="S22" s="7">
-        <v>213158.9396758455</v>
+        <v>214540.34736998033</v>
       </c>
       <c r="T22" s="7">
-        <v>216473.71788454292</v>
+        <v>217876.60748381767</v>
       </c>
       <c r="U22" s="7">
-        <v>216296.98451445738</v>
+        <v>217698.72876727086</v>
       </c>
       <c r="V22" s="8">
-        <v>219704.23948657163</v>
+        <v>221128.06495371991</v>
       </c>
       <c r="W22" s="8">
-        <v>223664.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>225113.78921867005</v>
+      </c>
+      <c r="X22" s="8">
+        <v>230388.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>251357.39029303697</v>
+        <v>253353.15497052378</v>
       </c>
       <c r="C23" s="7">
-        <v>253297.73682243162</v>
+        <v>255308.90775099758</v>
       </c>
       <c r="D23" s="7">
-        <v>253037.69038034778</v>
+        <v>255046.79655361446</v>
       </c>
       <c r="E23" s="7">
-        <v>254160.39088511351</v>
+        <v>256178.41124231645</v>
       </c>
       <c r="F23" s="7">
-        <v>256253.26465457655</v>
+        <v>258287.9023212553</v>
       </c>
       <c r="G23" s="7">
-        <v>259041.2625673021</v>
+        <v>261098.0367931989</v>
       </c>
       <c r="H23" s="7">
-        <v>261306.6671493015</v>
+        <v>263381.42857040156</v>
       </c>
       <c r="I23" s="7">
-        <v>263749.60343695426</v>
+        <v>265843.76164581761</v>
       </c>
       <c r="J23" s="7">
-        <v>259616.36527575669</v>
+        <v>261677.70578741151</v>
       </c>
       <c r="K23" s="7">
-        <v>235542.06581053551</v>
+        <v>237412.2576296776</v>
       </c>
       <c r="L23" s="7">
-        <v>259176.28668146097</v>
+        <v>261234.13299184013</v>
       </c>
       <c r="M23" s="7">
-        <v>259231.29650574797</v>
+        <v>261289.5795912866</v>
       </c>
       <c r="N23" s="7">
-        <v>262011.79307879801</v>
+        <v>264092.15316330572</v>
       </c>
       <c r="O23" s="7">
-        <v>262484.37747835414</v>
+        <v>264568.4898585499</v>
       </c>
       <c r="P23" s="7">
-        <v>263187.00296129222</v>
+        <v>265276.69415147923</v>
       </c>
       <c r="Q23" s="7">
-        <v>266550.10358247237</v>
+        <v>268666.49761763547</v>
       </c>
       <c r="R23" s="7">
-        <v>265742.45934407739</v>
+        <v>267852.44072576304</v>
       </c>
       <c r="S23" s="7">
-        <v>266387.57455616992</v>
+        <v>268502.67811927106</v>
       </c>
       <c r="T23" s="7">
-        <v>268030.36794510332</v>
+        <v>270158.51520273916</v>
       </c>
       <c r="U23" s="7">
-        <v>268828.01039726421</v>
+        <v>270962.49089471227</v>
       </c>
       <c r="V23" s="8">
-        <v>273136.27981755673</v>
+        <v>275304.96775135701</v>
       </c>
       <c r="W23" s="8">
-        <v>274929.09999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>277112.02283331542</v>
+      </c>
+      <c r="X23" s="8">
+        <v>280448.90000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>315640.00340985204</v>
+        <v>318886.21563417703</v>
       </c>
       <c r="C24" s="7">
-        <v>316739.76198014978</v>
+        <v>319997.28471542441</v>
       </c>
       <c r="D24" s="7">
-        <v>316981.39907446876</v>
+        <v>320241.40693609283</v>
       </c>
       <c r="E24" s="7">
-        <v>317653.6458625099</v>
+        <v>320920.56747308065</v>
       </c>
       <c r="F24" s="7">
-        <v>318933.08329781401</v>
+        <v>322213.16333379946</v>
       </c>
       <c r="G24" s="7">
-        <v>317662.93959690677</v>
+        <v>320929.95678926021</v>
       </c>
       <c r="H24" s="7">
-        <v>319171.62248066737</v>
+        <v>322454.15578240802</v>
       </c>
       <c r="I24" s="7">
-        <v>317136.2946477501</v>
+        <v>320397.89553908544</v>
       </c>
       <c r="J24" s="7">
-        <v>306467.08756012912</v>
+        <v>309618.96056495595</v>
       </c>
       <c r="K24" s="7">
-        <v>281751.94988735311</v>
+        <v>284649.63907145848</v>
       </c>
       <c r="L24" s="7">
-        <v>299629.99695548927</v>
+        <v>302711.55362886307</v>
       </c>
       <c r="M24" s="7">
-        <v>294453.3868964258</v>
+        <v>297481.70451685076</v>
       </c>
       <c r="N24" s="7">
-        <v>296891.44321987458</v>
+        <v>299944.83512795408</v>
       </c>
       <c r="O24" s="7">
-        <v>304177.73098703037</v>
+        <v>307306.05901272548</v>
       </c>
       <c r="P24" s="7">
-        <v>303604.61736588931</v>
+        <v>306727.05118165293</v>
       </c>
       <c r="Q24" s="7">
-        <v>304437.95555014315</v>
+        <v>307568.95986575302</v>
       </c>
       <c r="R24" s="7">
-        <v>298948.45643305121</v>
+        <v>302023.00377569569</v>
       </c>
       <c r="S24" s="7">
-        <v>297222.91974669672</v>
+        <v>300279.72073835827</v>
       </c>
       <c r="T24" s="7">
-        <v>298493.06344760396</v>
+        <v>301562.92728289746</v>
       </c>
       <c r="U24" s="7">
-        <v>300227.89386835537</v>
+        <v>303315.59963641444</v>
       </c>
       <c r="V24" s="8">
-        <v>302851.82487974182</v>
+        <v>305966.51657110895</v>
       </c>
       <c r="W24" s="8">
-        <v>305262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>308401.4792336736</v>
+      </c>
+      <c r="X24" s="8">
+        <v>313334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>79385.114206003418</v>
+        <v>79977.757756772407</v>
       </c>
       <c r="C25" s="7">
-        <v>79798.404684244058</v>
+        <v>80394.133623740825</v>
       </c>
       <c r="D25" s="7">
-        <v>80158.967671827369</v>
+        <v>80757.388366968415</v>
       </c>
       <c r="E25" s="7">
-        <v>79708.457788416839</v>
+        <v>80303.515236182953</v>
       </c>
       <c r="F25" s="7">
-        <v>80407.097039626649</v>
+        <v>81007.370125748712</v>
       </c>
       <c r="G25" s="7">
-        <v>80690.119599772675</v>
+        <v>81292.505569357469</v>
       </c>
       <c r="H25" s="7">
-        <v>82104.456996228502</v>
+        <v>82717.401594405106</v>
       </c>
       <c r="I25" s="7">
-        <v>83455.21124218576</v>
+        <v>84078.239793765315</v>
       </c>
       <c r="J25" s="7">
-        <v>83149.701958082907</v>
+        <v>83770.449753267079</v>
       </c>
       <c r="K25" s="7">
-        <v>78197.194857664421</v>
+        <v>78780.970086611764</v>
       </c>
       <c r="L25" s="7">
-        <v>84446.177904834069</v>
+        <v>85076.604442894095</v>
       </c>
       <c r="M25" s="7">
-        <v>86128.029775948482</v>
+        <v>86771.012051626749</v>
       </c>
       <c r="N25" s="7">
-        <v>86084.607136583611</v>
+        <v>86727.2652438402</v>
       </c>
       <c r="O25" s="7">
-        <v>86769.289110854705</v>
+        <v>87417.058659474555</v>
       </c>
       <c r="P25" s="7">
-        <v>87624.560025487794</v>
+        <v>88278.714534270359</v>
       </c>
       <c r="Q25" s="7">
-        <v>88425.552640914801</v>
+        <v>89085.68689933297</v>
       </c>
       <c r="R25" s="7">
-        <v>88940.421079098291</v>
+        <v>89604.399048802064</v>
       </c>
       <c r="S25" s="7">
-        <v>89066.036571546661</v>
+        <v>89730.9523141846</v>
       </c>
       <c r="T25" s="7">
-        <v>88377.4775759037</v>
+        <v>89037.252933569282</v>
       </c>
       <c r="U25" s="7">
-        <v>90119.810980419177</v>
+        <v>90792.593596004634</v>
       </c>
       <c r="V25" s="8">
-        <v>89912.778039161669</v>
+        <v>90584.01506602233</v>
       </c>
       <c r="W25" s="8">
-        <v>90050.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>90723.067419343861</v>
+      </c>
+      <c r="X25" s="8">
+        <v>91818.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>486748.22841278155</v>
+        <v>490934.84072017181</v>
       </c>
       <c r="C26" s="7">
-        <v>488501.9443859231</v>
+        <v>492703.64073152503</v>
       </c>
       <c r="D26" s="7">
-        <v>488327.54169246153</v>
+        <v>492527.73796796508</v>
       </c>
       <c r="E26" s="7">
-        <v>487639.61995714076</v>
+        <v>491833.89928947843</v>
       </c>
       <c r="F26" s="7">
-        <v>481869.79751511972</v>
+        <v>486014.44952836883</v>
       </c>
       <c r="G26" s="7">
-        <v>487024.3660107624</v>
+        <v>491213.3534291418</v>
       </c>
       <c r="H26" s="7">
-        <v>489902.01045287866</v>
+        <v>494115.7490278816</v>
       </c>
       <c r="I26" s="7">
-        <v>491771.99488832796</v>
+        <v>496001.81754827482</v>
       </c>
       <c r="J26" s="7">
-        <v>478221.87451021478</v>
+        <v>482335.15005723911</v>
       </c>
       <c r="K26" s="7">
-        <v>448655.77344921185</v>
+        <v>452514.7454459446</v>
       </c>
       <c r="L26" s="7">
-        <v>477834.31296918902</v>
+        <v>481944.25502710574</v>
       </c>
       <c r="M26" s="7">
-        <v>478885.57364922133</v>
+        <v>483004.55779634236</v>
       </c>
       <c r="N26" s="7">
-        <v>489926.23304919276</v>
+        <v>494140.17996726488</v>
       </c>
       <c r="O26" s="7">
-        <v>488017.4924596409</v>
+        <v>492215.02194385842</v>
       </c>
       <c r="P26" s="7">
-        <v>491277.85392352013</v>
+        <v>495503.42638485483</v>
       </c>
       <c r="Q26" s="7">
-        <v>498597.92252964427</v>
+        <v>502886.45626649767</v>
       </c>
       <c r="R26" s="7">
-        <v>496054.54991666263</v>
+        <v>500321.20763124776</v>
       </c>
       <c r="S26" s="7">
-        <v>498428.36435544549</v>
+        <v>502715.43969081435</v>
       </c>
       <c r="T26" s="7">
-        <v>501635.43610743363</v>
+        <v>505950.0960651674</v>
       </c>
       <c r="U26" s="7">
-        <v>502618.8735177865</v>
+        <v>506941.99220413069</v>
       </c>
       <c r="V26" s="8">
-        <v>506591.3793133006</v>
+        <v>510948.66626299702</v>
       </c>
       <c r="W26" s="8">
-        <v>508650.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>513025.29611058027</v>
+      </c>
+      <c r="X26" s="8">
+        <v>516455.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>647561.80416464375</v>
+        <v>653016.07422942785</v>
       </c>
       <c r="C27" s="7">
-        <v>652135.27437062212</v>
+        <v>657628.06576491648</v>
       </c>
       <c r="D27" s="7">
-        <v>654648.79312018864</v>
+        <v>660162.75532780914</v>
       </c>
       <c r="E27" s="7">
-        <v>656418.96547264024</v>
+        <v>661947.83745104913</v>
       </c>
       <c r="F27" s="7">
-        <v>664186.30536791729</v>
+        <v>669780.59993487515</v>
       </c>
       <c r="G27" s="7">
-        <v>670284.26564255496</v>
+        <v>675929.92198219348</v>
       </c>
       <c r="H27" s="7">
-        <v>677560.24097024754</v>
+        <v>683267.18124319834</v>
       </c>
       <c r="I27" s="7">
-        <v>681648.64615437959</v>
+        <v>687390.02216128667</v>
       </c>
       <c r="J27" s="7">
-        <v>678536.67055967823</v>
+        <v>684251.83508341969</v>
       </c>
       <c r="K27" s="7">
-        <v>620328.86793813715</v>
+        <v>625553.76099538128</v>
       </c>
       <c r="L27" s="7">
-        <v>663543.75170261448</v>
+        <v>669132.63418195525</v>
       </c>
       <c r="M27" s="7">
-        <v>681308.47068451345</v>
+        <v>687046.98146856437</v>
       </c>
       <c r="N27" s="7">
-        <v>685069.29949025577</v>
+        <v>690839.48690477211</v>
       </c>
       <c r="O27" s="7">
-        <v>699564.55423399678</v>
+        <v>705456.83197799465</v>
       </c>
       <c r="P27" s="7">
-        <v>711004.52929468057</v>
+        <v>716993.16342213727</v>
       </c>
       <c r="Q27" s="7">
-        <v>717845.83596643317</v>
+        <v>723892.09290910803</v>
       </c>
       <c r="R27" s="7">
-        <v>715200.02675636299</v>
+        <v>721223.99863237899</v>
       </c>
       <c r="S27" s="7">
-        <v>717430.06594770786</v>
+        <v>723472.8209513363</v>
       </c>
       <c r="T27" s="7">
-        <v>713215.66984881053</v>
+        <v>719222.92792483221</v>
       </c>
       <c r="U27" s="7">
-        <v>726791.19091476512</v>
+        <v>732912.79260662035</v>
       </c>
       <c r="V27" s="8">
-        <v>721505.87204036326</v>
+        <v>727582.95665858325</v>
       </c>
       <c r="W27" s="8">
-        <v>726665.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>732785.74049820483</v>
+      </c>
+      <c r="X27" s="8">
+        <v>741342.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>621146.17718540039</v>
+        <v>626257.97170711088</v>
       </c>
       <c r="C28" s="7">
-        <v>621551.88990727207</v>
+        <v>626667.02328889223</v>
       </c>
       <c r="D28" s="7">
-        <v>619953.26067482273</v>
+        <v>625055.23795172421</v>
       </c>
       <c r="E28" s="7">
-        <v>615811.35766347707</v>
+        <v>620879.24866906181</v>
       </c>
       <c r="F28" s="7">
-        <v>615284.53666641982</v>
+        <v>620348.09213749506</v>
       </c>
       <c r="G28" s="7">
-        <v>617464.48561975977</v>
+        <v>622545.98123363324</v>
       </c>
       <c r="H28" s="7">
-        <v>623374.56944881449</v>
+        <v>628504.70278316317</v>
       </c>
       <c r="I28" s="7">
-        <v>627153.14763460367</v>
+        <v>632314.37721646926</v>
       </c>
       <c r="J28" s="7">
-        <v>618051.86075440969</v>
+        <v>623138.19024009269</v>
       </c>
       <c r="K28" s="7">
-        <v>547312.51721853076</v>
+        <v>551816.68907041068</v>
       </c>
       <c r="L28" s="7">
-        <v>619153.94605859811</v>
+        <v>624249.34528314031</v>
       </c>
       <c r="M28" s="7">
-        <v>625088.25154268998</v>
+        <v>630232.4878226273</v>
       </c>
       <c r="N28" s="7">
-        <v>624603.81844194781</v>
+        <v>629744.0680234856</v>
       </c>
       <c r="O28" s="7">
-        <v>640160.17638953147</v>
+        <v>645428.44882342673</v>
       </c>
       <c r="P28" s="7">
-        <v>639645.46621999296</v>
+        <v>644909.50278683857</v>
       </c>
       <c r="Q28" s="7">
-        <v>644344.46729719231</v>
+        <v>649647.17483851407</v>
       </c>
       <c r="R28" s="7">
-        <v>645616.10418664047</v>
+        <v>650929.27681126131</v>
       </c>
       <c r="S28" s="7">
-        <v>647257.12131540466</v>
+        <v>652583.79888085416</v>
       </c>
       <c r="T28" s="7">
-        <v>647505.39327953511</v>
+        <v>652834.11402791436</v>
       </c>
       <c r="U28" s="7">
-        <v>648649.8664800385</v>
+        <v>653988.0058033868</v>
       </c>
       <c r="V28" s="8">
-        <v>650847.98167465616</v>
+        <v>656204.21064199274</v>
       </c>
       <c r="W28" s="8">
-        <v>654335.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>659720.83319581382</v>
+      </c>
+      <c r="X28" s="8">
+        <v>664452.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>443356.67401360167</v>
+        <v>446714.97133173072</v>
       </c>
       <c r="C29" s="7">
-        <v>446086.86876831617</v>
+        <v>449465.84651432681</v>
       </c>
       <c r="D29" s="7">
-        <v>449517.00198721711</v>
+        <v>452921.96199055016</v>
       </c>
       <c r="E29" s="7">
-        <v>449417.01077804761</v>
+        <v>452821.21337717486</v>
       </c>
       <c r="F29" s="7">
-        <v>446012.96222240833</v>
+        <v>449391.38014791894</v>
       </c>
       <c r="G29" s="7">
-        <v>448930.09706383105</v>
+        <v>452330.61143378192</v>
       </c>
       <c r="H29" s="7">
-        <v>454773.06163443025</v>
+        <v>458217.83475449705</v>
       </c>
       <c r="I29" s="7">
-        <v>457733.67091462226</v>
+        <v>461200.86978530581</v>
       </c>
       <c r="J29" s="7">
-        <v>449069.21526789293</v>
+        <v>452470.78341760847</v>
       </c>
       <c r="K29" s="7">
-        <v>415085.24648190016</v>
+        <v>418229.39599347906</v>
       </c>
       <c r="L29" s="7">
-        <v>442843.67563612352</v>
+        <v>446198.08714137034</v>
       </c>
       <c r="M29" s="7">
-        <v>448673.59787509189</v>
+        <v>452072.1693386017</v>
       </c>
       <c r="N29" s="7">
-        <v>452994.95708876423</v>
+        <v>456426.26158621395</v>
       </c>
       <c r="O29" s="7">
-        <v>461533.33686306258</v>
+        <v>465029.31709356845</v>
       </c>
       <c r="P29" s="7">
-        <v>458790.09977671725</v>
+        <v>462265.3007874887</v>
       </c>
       <c r="Q29" s="7">
-        <v>463763.57557192963</v>
+        <v>467276.44920928782</v>
       </c>
       <c r="R29" s="7">
-        <v>461076.85525598447</v>
+        <v>464569.37777163758</v>
       </c>
       <c r="S29" s="7">
-        <v>463354.91584749788</v>
+        <v>466864.69400679733</v>
       </c>
       <c r="T29" s="7">
-        <v>468045.8077907096</v>
+        <v>471591.11808644881</v>
       </c>
       <c r="U29" s="7">
-        <v>466067.72082670464</v>
+        <v>469598.04769141506</v>
       </c>
       <c r="V29" s="8">
-        <v>466528.54987765971</v>
+        <v>470062.36738784052</v>
       </c>
       <c r="W29" s="8">
-        <v>467293.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>470833.31329888647</v>
+      </c>
+      <c r="X29" s="8">
+        <v>475590.40000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>139962.24620720217</v>
+        <v>141161.11056943404</v>
       </c>
       <c r="C30" s="7">
-        <v>140447.65308182884</v>
+        <v>141650.67525817803</v>
       </c>
       <c r="D30" s="7">
-        <v>139608.33283751761</v>
+        <v>140804.16570991749</v>
       </c>
       <c r="E30" s="7">
-        <v>138988.63472380111</v>
+        <v>140179.15949345179</v>
       </c>
       <c r="F30" s="7">
-        <v>138447.27316622032</v>
+        <v>139633.16083482374</v>
       </c>
       <c r="G30" s="7">
-        <v>138990.03359087493</v>
+        <v>140180.57034269889</v>
       </c>
       <c r="H30" s="7">
-        <v>140816.95398932585</v>
+        <v>142023.13945941269</v>
       </c>
       <c r="I30" s="7">
-        <v>142593.51517311807</v>
+        <v>143814.91800323082</v>
       </c>
       <c r="J30" s="7">
-        <v>141936.04764840755</v>
+        <v>143151.8188570934</v>
       </c>
       <c r="K30" s="7">
-        <v>130480.72518063236</v>
+        <v>131598.37437258408</v>
       </c>
       <c r="L30" s="7">
-        <v>142421.45452303422</v>
+        <v>143641.38354583742</v>
       </c>
       <c r="M30" s="7">
-        <v>142744.59281709409</v>
+        <v>143967.28972191774</v>
       </c>
       <c r="N30" s="7">
-        <v>144540.73813992023</v>
+        <v>145778.82015519528</v>
       </c>
       <c r="O30" s="7">
-        <v>145237.37394269858</v>
+        <v>146481.42308025152</v>
       </c>
       <c r="P30" s="7">
-        <v>144588.29962043121</v>
+        <v>145826.78902959672</v>
       </c>
       <c r="Q30" s="7">
-        <v>145055.52122309781</v>
+        <v>146298.01267812841</v>
       </c>
       <c r="R30" s="7">
-        <v>144164.44289705402</v>
+        <v>145399.30170772516</v>
       </c>
       <c r="S30" s="7">
-        <v>143898.65815302209</v>
+        <v>145131.24035077597</v>
       </c>
       <c r="T30" s="7">
-        <v>144620.47356312981</v>
+        <v>145859.23856228005</v>
       </c>
       <c r="U30" s="7">
-        <v>146506.14637868252</v>
+        <v>147761.06334737208</v>
       </c>
       <c r="V30" s="8">
-        <v>145855.67318934127</v>
+        <v>147105.01844747012</v>
       </c>
       <c r="W30" s="8">
-        <v>145205.20000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>146448.97354756822</v>
+      </c>
+      <c r="X30" s="8">
+        <v>146725.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>381750.50271895074</v>
+        <v>384679.16530603042</v>
       </c>
       <c r="C31" s="7">
-        <v>384749.99814364442</v>
+        <v>387701.67185963644</v>
       </c>
       <c r="D31" s="7">
-        <v>385092.58010839374</v>
+        <v>388046.88199900772</v>
       </c>
       <c r="E31" s="7">
-        <v>385225.80642801849</v>
+        <v>388181.13038654102</v>
       </c>
       <c r="F31" s="7">
-        <v>387730.46123696322</v>
+        <v>390705.00007216632</v>
       </c>
       <c r="G31" s="7">
-        <v>390307.43890513276</v>
+        <v>393301.74745388114</v>
       </c>
       <c r="H31" s="7">
-        <v>394726.74625039852</v>
+        <v>397754.95825177029</v>
       </c>
       <c r="I31" s="7">
-        <v>396816.49623536918</v>
+        <v>399860.74010193499</v>
       </c>
       <c r="J31" s="7">
-        <v>390288.40657375788</v>
+        <v>393282.56911280501</v>
       </c>
       <c r="K31" s="7">
-        <v>363418.56113858911</v>
+        <v>366206.58718145324</v>
       </c>
       <c r="L31" s="7">
-        <v>391358.02359703055</v>
+        <v>394360.39188128628</v>
       </c>
       <c r="M31" s="7">
-        <v>397098.17473971861</v>
+        <v>400144.57954986242</v>
       </c>
       <c r="N31" s="7">
-        <v>398468.50259871571</v>
+        <v>401525.42010734743</v>
       </c>
       <c r="O31" s="7">
-        <v>403980.26576490415</v>
+        <v>407079.46768300928</v>
       </c>
       <c r="P31" s="7">
-        <v>404075.42742177896</v>
+        <v>407175.35938839021</v>
       </c>
       <c r="Q31" s="7">
-        <v>408239.70152662025</v>
+        <v>411371.58041585854</v>
       </c>
       <c r="R31" s="7">
-        <v>408304.41145329515</v>
+        <v>411436.78677551757</v>
       </c>
       <c r="S31" s="7">
-        <v>410455.06489866565</v>
+        <v>413603.93931712594</v>
       </c>
       <c r="T31" s="7">
-        <v>413241.39821195975</v>
+        <v>416411.6484506788</v>
       </c>
       <c r="U31" s="7">
-        <v>414596.50020585692</v>
+        <v>417777.14633530285</v>
       </c>
       <c r="V31" s="8">
-        <v>417965.22285922489</v>
+        <v>421171.71270578681</v>
       </c>
       <c r="W31" s="8">
-        <v>417892.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>421098.8350096973</v>
+      </c>
+      <c r="X31" s="8">
+        <v>425203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>62772.808489582407</v>
+        <v>63281.481105757048</v>
       </c>
       <c r="C32" s="7">
-        <v>62938.697923551335</v>
+        <v>63448.714806684919</v>
       </c>
       <c r="D32" s="7">
-        <v>62838.794249562619</v>
+        <v>63348.001574155867</v>
       </c>
       <c r="E32" s="7">
-        <v>63135.421824800738</v>
+        <v>63647.032838640283</v>
       </c>
       <c r="F32" s="7">
-        <v>63544.903550285395</v>
+        <v>64059.832754685303</v>
       </c>
       <c r="G32" s="7">
-        <v>63543.053482248564</v>
+        <v>64057.967694823659</v>
       </c>
       <c r="H32" s="7">
-        <v>64526.672988495586</v>
+        <v>65049.557854600469</v>
       </c>
       <c r="I32" s="7">
-        <v>64468.087500662696</v>
+        <v>64990.497625648248</v>
       </c>
       <c r="J32" s="7">
-        <v>63210.657924965097</v>
+        <v>63722.878606347353</v>
       </c>
       <c r="K32" s="7">
-        <v>59826.266796260614</v>
+        <v>60311.062432770428</v>
       </c>
       <c r="L32" s="7">
-        <v>65359.820294413905</v>
+        <v>65889.456478963155</v>
       </c>
       <c r="M32" s="7">
-        <v>66874.409327230635</v>
+        <v>67416.318819033302</v>
       </c>
       <c r="N32" s="7">
-        <v>66824.457490236266</v>
+        <v>67365.962202768758</v>
       </c>
       <c r="O32" s="7">
-        <v>67511.449421245154</v>
+        <v>68058.521098061174</v>
       </c>
       <c r="P32" s="7">
-        <v>67346.176676621835</v>
+        <v>67891.909083753839</v>
       </c>
       <c r="Q32" s="7">
-        <v>67800.676724335965</v>
+        <v>68350.092123098992</v>
       </c>
       <c r="R32" s="7">
-        <v>70499.925990068383</v>
+        <v>71071.214461245152</v>
       </c>
       <c r="S32" s="7">
-        <v>68438.333507696108</v>
+        <v>68992.916088747414</v>
       </c>
       <c r="T32" s="7">
-        <v>67608.269648505826</v>
+        <v>68156.12589748748</v>
       </c>
       <c r="U32" s="7">
-        <v>68184.257497305036</v>
+        <v>68736.781201080928</v>
       </c>
       <c r="V32" s="8">
-        <v>69388.651789280208</v>
+        <v>69950.935171014557</v>
       </c>
       <c r="W32" s="8">
-        <v>69793.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+        <v>70358.76159409518</v>
+      </c>
+      <c r="X32" s="8">
+        <v>71088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>155235.55624371502</v>
+        <v>156153.03811501357</v>
       </c>
       <c r="C33" s="7">
-        <v>154159.49470128663</v>
+        <v>155070.61677344207</v>
       </c>
       <c r="D33" s="7">
-        <v>154398.11286818105</v>
+        <v>155310.64523477925</v>
       </c>
       <c r="E33" s="7">
-        <v>155614.00161668772</v>
+        <v>156533.72019700691</v>
       </c>
       <c r="F33" s="7">
-        <v>154130.6173435096</v>
+        <v>155041.56874308916</v>
       </c>
       <c r="G33" s="7">
-        <v>155458.97580125311</v>
+        <v>156377.77813932288</v>
       </c>
       <c r="H33" s="7">
-        <v>158127.8516042252</v>
+        <v>159062.42768141266</v>
       </c>
       <c r="I33" s="7">
-        <v>161254.20554882291</v>
+        <v>162207.25917804058</v>
       </c>
       <c r="J33" s="7">
-        <v>157205.29601629579</v>
+        <v>158134.4195538224</v>
       </c>
       <c r="K33" s="7">
-        <v>147903.74709021993</v>
+        <v>148777.89609278063</v>
       </c>
       <c r="L33" s="7">
-        <v>159030.64899999139</v>
+        <v>159970.5608408667</v>
       </c>
       <c r="M33" s="7">
-        <v>161915.34505582342</v>
+        <v>162872.30618875189</v>
       </c>
       <c r="N33" s="7">
-        <v>163765.01581448916</v>
+        <v>164732.90897504074</v>
       </c>
       <c r="O33" s="7">
-        <v>165090.33455036141</v>
+        <v>166066.06068386891</v>
       </c>
       <c r="P33" s="7">
-        <v>164354.72185751487</v>
+        <v>165326.10033172119</v>
       </c>
       <c r="Q33" s="7">
-        <v>165433.82312181452</v>
+        <v>166411.57936069823</v>
       </c>
       <c r="R33" s="7">
-        <v>166912.64781218572</v>
+        <v>167899.14428350766</v>
       </c>
       <c r="S33" s="7">
-        <v>167838.24312198645</v>
+        <v>168830.21009850348</v>
       </c>
       <c r="T33" s="7">
-        <v>170615.0290513885</v>
+        <v>171623.40754349093</v>
       </c>
       <c r="U33" s="7">
-        <v>170952.43817909909</v>
+        <v>171962.81084550911</v>
       </c>
       <c r="V33" s="8">
-        <v>174323.48973433377</v>
+        <v>175353.78617828534</v>
       </c>
       <c r="W33" s="8">
-        <v>176834.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+        <v>177879.43597528554</v>
+      </c>
+      <c r="X33" s="8">
+        <v>181126.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>208162.47667639234</v>
+        <v>209680.59875349654</v>
       </c>
       <c r="C34" s="7">
-        <v>208555.43097657253</v>
+        <v>210076.41885642812</v>
       </c>
       <c r="D34" s="7">
-        <v>209025.35570668493</v>
+        <v>210549.77073209893</v>
       </c>
       <c r="E34" s="7">
-        <v>211478.28177636661</v>
+        <v>213020.58591070809</v>
       </c>
       <c r="F34" s="7">
-        <v>214178.32343688322</v>
+        <v>215740.31888600619</v>
       </c>
       <c r="G34" s="7">
-        <v>216222.09090534627</v>
+        <v>217798.99148321236</v>
       </c>
       <c r="H34" s="7">
-        <v>219665.50487599758</v>
+        <v>221267.5181583862</v>
       </c>
       <c r="I34" s="7">
-        <v>222564.0492242341</v>
+        <v>224187.20149495904</v>
       </c>
       <c r="J34" s="7">
-        <v>219033.53713550157</v>
+        <v>220630.94149800137</v>
       </c>
       <c r="K34" s="7">
-        <v>185638.49823307304</v>
+        <v>186992.35367824155</v>
       </c>
       <c r="L34" s="7">
-        <v>207805.98205354845</v>
+        <v>209321.50422712561</v>
       </c>
       <c r="M34" s="7">
-        <v>210619.45382133356</v>
+        <v>212155.49455172356</v>
       </c>
       <c r="N34" s="7">
-        <v>215310.59897193857</v>
+        <v>216880.85206919574</v>
       </c>
       <c r="O34" s="7">
-        <v>223635.55863039559</v>
+        <v>225266.5253838808</v>
       </c>
       <c r="P34" s="7">
-        <v>228571.79383420578</v>
+        <v>230238.760388233</v>
       </c>
       <c r="Q34" s="7">
-        <v>231583.76828971077</v>
+        <v>233272.70107410566</v>
       </c>
       <c r="R34" s="7">
-        <v>229086.28039217371</v>
+        <v>230756.99907970018</v>
       </c>
       <c r="S34" s="7">
-        <v>232475.00484682055</v>
+        <v>234170.43739003304</v>
       </c>
       <c r="T34" s="7">
-        <v>233096.8448991676</v>
+        <v>234796.81250137324</v>
       </c>
       <c r="U34" s="7">
-        <v>234842.85833605079</v>
+        <v>236555.55955666731</v>
       </c>
       <c r="V34" s="8">
-        <v>234974.51828198746</v>
+        <v>236688.17969424746</v>
       </c>
       <c r="W34" s="8">
-        <v>236035.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+        <v>237757.30203412462</v>
+      </c>
+      <c r="X34" s="8">
+        <v>241431.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>100253.39843034663</v>
+        <v>101058.60720457265</v>
       </c>
       <c r="C35" s="7">
-        <v>99798.24748918174</v>
+        <v>100599.80061145819</v>
       </c>
       <c r="D35" s="7">
-        <v>99891.839132927766</v>
+        <v>100694.14395852719</v>
       </c>
       <c r="E35" s="7">
-        <v>99417.969863013699</v>
+        <v>100216.46869599893</v>
       </c>
       <c r="F35" s="7">
-        <v>101924.2555650125</v>
+        <v>102742.88422172006</v>
       </c>
       <c r="G35" s="7">
-        <v>101712.44289758727</v>
+        <v>102529.37033098498</v>
       </c>
       <c r="H35" s="7">
-        <v>102164.63831316018</v>
+        <v>102985.19766050778</v>
       </c>
       <c r="I35" s="7">
-        <v>102111.43885250454</v>
+        <v>102931.57091585803</v>
       </c>
       <c r="J35" s="7">
-        <v>102713.38089807107</v>
+        <v>103538.34760069121</v>
       </c>
       <c r="K35" s="7">
-        <v>93528.592533395466</v>
+        <v>94279.789445699862</v>
       </c>
       <c r="L35" s="7">
-        <v>102727.17335083365</v>
+        <v>103552.25083078559</v>
       </c>
       <c r="M35" s="7">
-        <v>104821.65582034994</v>
+        <v>105663.55562940317</v>
       </c>
       <c r="N35" s="7">
-        <v>104100.5075759069</v>
+        <v>104936.61531304002</v>
       </c>
       <c r="O35" s="7">
-        <v>109305.18814338317</v>
+        <v>110183.09849793966</v>
       </c>
       <c r="P35" s="7">
-        <v>110062.78787012731</v>
+        <v>110946.78306526651</v>
       </c>
       <c r="Q35" s="7">
-        <v>112884.32963527061</v>
+        <v>113790.98670743055</v>
       </c>
       <c r="R35" s="7">
-        <v>108287.50216454483</v>
+        <v>109157.2387345474</v>
       </c>
       <c r="S35" s="7">
-        <v>109676.59919277529</v>
+        <v>110557.49262262395</v>
       </c>
       <c r="T35" s="7">
-        <v>109837.18274993951</v>
+        <v>110719.36594443706</v>
       </c>
       <c r="U35" s="7">
-        <v>109815.50889559835</v>
+        <v>110697.51801143162</v>
       </c>
       <c r="V35" s="8">
-        <v>109765.26496053468</v>
+        <v>110646.87053037353</v>
       </c>
       <c r="W35" s="8">
-        <v>109962.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <v>110845.48810315035</v>
+      </c>
+      <c r="X35" s="8">
+        <v>112065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>732296.77066374756</v>
+        <v>737955.22469820257</v>
       </c>
       <c r="C36" s="7">
-        <v>734158.37221614097</v>
+        <v>739831.21083787899</v>
       </c>
       <c r="D36" s="7">
-        <v>738203.77558961092</v>
+        <v>743907.87302602164</v>
       </c>
       <c r="E36" s="7">
-        <v>740910.25784655183</v>
+        <v>746635.26825985871</v>
       </c>
       <c r="F36" s="7">
-        <v>742492.6191660862</v>
+        <v>748229.85647858353</v>
       </c>
       <c r="G36" s="7">
-        <v>745471.18164991541</v>
+        <v>751231.43430206564</v>
       </c>
       <c r="H36" s="7">
-        <v>752853.14780575188</v>
+        <v>758670.44087901281</v>
       </c>
       <c r="I36" s="7">
-        <v>754349.58905363712</v>
+        <v>760178.44512206025</v>
       </c>
       <c r="J36" s="7">
-        <v>748027.30378147075</v>
+        <v>753807.3075784673</v>
       </c>
       <c r="K36" s="7">
-        <v>671107.35963777488</v>
+        <v>676293.00335330423</v>
       </c>
       <c r="L36" s="7">
-        <v>732089.13049059606</v>
+        <v>737745.98009031569</v>
       </c>
       <c r="M36" s="7">
-        <v>741347.0182107673</v>
+        <v>747075.40346955205</v>
       </c>
       <c r="N36" s="7">
-        <v>751048.82630112453</v>
+        <v>756852.17738978809</v>
       </c>
       <c r="O36" s="7">
-        <v>754621.66928052553</v>
+        <v>760452.6277117054</v>
       </c>
       <c r="P36" s="7">
-        <v>765411.79827843572</v>
+        <v>771326.13199052133</v>
       </c>
       <c r="Q36" s="7">
-        <v>781844.0119812917</v>
+        <v>787885.31733881787</v>
       </c>
       <c r="R36" s="7">
-        <v>779087.40968255559</v>
+        <v>785107.41478583566</v>
       </c>
       <c r="S36" s="7">
-        <v>783934.73372474872</v>
+        <v>789992.19408030051</v>
       </c>
       <c r="T36" s="7">
-        <v>785688.93518758088</v>
+        <v>791759.95025038009</v>
       </c>
       <c r="U36" s="7">
-        <v>790214.05896109063</v>
+        <v>796320.03963605477</v>
       </c>
       <c r="V36" s="8">
-        <v>786934.77622649015</v>
+        <v>793015.41789770185</v>
       </c>
       <c r="W36" s="8">
-        <v>791459.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <v>797575.50728337665</v>
+      </c>
+      <c r="X36" s="8">
+        <v>806890.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>116088.55041044178</v>
+        <v>117595.42569910882</v>
       </c>
       <c r="C37" s="7">
-        <v>117424.72307021136</v>
+        <v>118948.94240835856</v>
       </c>
       <c r="D37" s="7">
-        <v>117875.05429939991</v>
+        <v>119405.11911497431</v>
       </c>
       <c r="E37" s="7">
-        <v>118670.82948414324</v>
+        <v>120211.22377628517</v>
       </c>
       <c r="F37" s="7">
-        <v>119851.9513915846</v>
+        <v>121407.67711313051</v>
       </c>
       <c r="G37" s="7">
-        <v>122118.42856532345</v>
+        <v>123703.5740568067</v>
       </c>
       <c r="H37" s="7">
-        <v>124640.28344877934</v>
+        <v>126258.16361385485</v>
       </c>
       <c r="I37" s="7">
-        <v>124823.83617763847</v>
+        <v>126444.09892971595</v>
       </c>
       <c r="J37" s="7">
-        <v>124024.64075571146</v>
+        <v>125634.52963519031</v>
       </c>
       <c r="K37" s="7">
-        <v>113596.33758257804</v>
+        <v>115070.86296325561</v>
       </c>
       <c r="L37" s="7">
-        <v>119675.2391370929</v>
+        <v>121228.67106369902</v>
       </c>
       <c r="M37" s="7">
-        <v>119782.40656884917</v>
+        <v>121337.22957109618</v>
       </c>
       <c r="N37" s="7">
-        <v>120399.18934097829</v>
+        <v>121962.018427499</v>
       </c>
       <c r="O37" s="7">
-        <v>121005.7114015563</v>
+        <v>122576.41338425742</v>
       </c>
       <c r="P37" s="7">
-        <v>122156.05117434428</v>
+        <v>123741.68502216955</v>
       </c>
       <c r="Q37" s="7">
-        <v>123599.39126587012</v>
+        <v>125203.76023881645</v>
       </c>
       <c r="R37" s="7">
-        <v>121897.25322744351</v>
+        <v>123479.52777558277</v>
       </c>
       <c r="S37" s="7">
-        <v>122192.53370430386</v>
+        <v>123778.64110979412</v>
       </c>
       <c r="T37" s="7">
-        <v>124449.89024555282</v>
+        <v>126065.29903156415</v>
       </c>
       <c r="U37" s="7">
-        <v>127145.0371463167</v>
+        <v>128795.430004829</v>
       </c>
       <c r="V37" s="8">
-        <v>126894.2197528446</v>
+        <v>128541.3569024101</v>
       </c>
       <c r="W37" s="8">
-        <v>128051.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <v>129713.55780675182</v>
+      </c>
+      <c r="X37" s="8">
+        <v>131534.79999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>2000932.9301234069</v>
+        <v>2016504.4340867854</v>
       </c>
       <c r="C38" s="7">
-        <v>2012153.5181064131</v>
+        <v>2027812.3420531948</v>
       </c>
       <c r="D38" s="7">
-        <v>2021667.4781968992</v>
+        <v>2037400.340940797</v>
       </c>
       <c r="E38" s="7">
-        <v>2006857.0867158333</v>
+        <v>2022474.6931879318</v>
       </c>
       <c r="F38" s="7">
-        <v>2040185.3716513712</v>
+        <v>2056062.3428993465</v>
       </c>
       <c r="G38" s="7">
-        <v>2066804.8434921745</v>
+        <v>2082888.9707147614</v>
       </c>
       <c r="H38" s="7">
-        <v>2071748.1794567157</v>
+        <v>2087870.7763223401</v>
       </c>
       <c r="I38" s="7">
-        <v>2078084.2807128541</v>
+        <v>2094256.1858907847</v>
       </c>
       <c r="J38" s="7">
-        <v>2068903.7996358487</v>
+        <v>2085004.2611909951</v>
       </c>
       <c r="K38" s="7">
-        <v>1881115.8822209551</v>
+        <v>1895754.9553126111</v>
       </c>
       <c r="L38" s="7">
-        <v>2003934.2412447357</v>
+        <v>2019529.1017771014</v>
       </c>
       <c r="M38" s="7">
-        <v>2017038.004833281</v>
+        <v>2032734.8404511593</v>
       </c>
       <c r="N38" s="7">
-        <v>2027081.6080628254</v>
+        <v>2042856.6042252879</v>
       </c>
       <c r="O38" s="7">
-        <v>2066314.4331782318</v>
+        <v>2082394.7439679776</v>
       </c>
       <c r="P38" s="7">
-        <v>2090540.7026869953</v>
+        <v>2106809.5452590883</v>
       </c>
       <c r="Q38" s="7">
-        <v>2143956.1940816212</v>
+        <v>2160640.7225187602</v>
       </c>
       <c r="R38" s="7">
-        <v>2150076.5147996247</v>
+        <v>2166808.6723186197</v>
       </c>
       <c r="S38" s="7">
-        <v>2122652.7700439557</v>
+        <v>2139171.5126384799</v>
       </c>
       <c r="T38" s="7">
-        <v>2128341.5296856896</v>
+        <v>2144904.54290117</v>
       </c>
       <c r="U38" s="7">
-        <v>2115414.3138101632</v>
+        <v>2131876.7258559535</v>
       </c>
       <c r="V38" s="8">
-        <v>2131009.3617935372</v>
+        <v>2147593.1364036729</v>
       </c>
       <c r="W38" s="8">
-        <v>2133206.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2149807.2722292631</v>
+      </c>
+      <c r="X38" s="8">
+        <v>2168133.2000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>675823.15428606642</v>
+        <v>681548.08757921855</v>
       </c>
       <c r="C39" s="7">
-        <v>680536.30546971981</v>
+        <v>686301.16411309969</v>
       </c>
       <c r="D39" s="7">
-        <v>679641.74136404053</v>
+        <v>685399.02210808557</v>
       </c>
       <c r="E39" s="7">
-        <v>682018.34451047203</v>
+        <v>687795.7575840936</v>
       </c>
       <c r="F39" s="7">
-        <v>684561.84394527646</v>
+        <v>690360.80313566409</v>
       </c>
       <c r="G39" s="7">
-        <v>689421.86386269797</v>
+        <v>695261.99253604002</v>
       </c>
       <c r="H39" s="7">
-        <v>697466.26496227633</v>
+        <v>703374.53817814612</v>
       </c>
       <c r="I39" s="7">
-        <v>704696.2121745944</v>
+        <v>710665.73065150774</v>
       </c>
       <c r="J39" s="7">
-        <v>700109.90217010456</v>
+        <v>706040.569775054</v>
       </c>
       <c r="K39" s="7">
-        <v>648492.21810210496</v>
+        <v>653985.62960512564</v>
       </c>
       <c r="L39" s="7">
-        <v>701451.74832862336</v>
+        <v>707393.78278257535</v>
       </c>
       <c r="M39" s="7">
-        <v>708114.2481604733</v>
+        <v>714112.72099902492</v>
       </c>
       <c r="N39" s="7">
-        <v>718822.31402248458</v>
+        <v>724911.49544710631</v>
       </c>
       <c r="O39" s="7">
-        <v>725251.15905061236</v>
+        <v>731394.79955776862</v>
       </c>
       <c r="P39" s="7">
-        <v>729583.78669677535</v>
+        <v>735764.12911936769</v>
       </c>
       <c r="Q39" s="7">
-        <v>743329.36500717513</v>
+        <v>749626.14694268408</v>
       </c>
       <c r="R39" s="7">
-        <v>747361.5793342666</v>
+        <v>753692.51836827071</v>
       </c>
       <c r="S39" s="7">
-        <v>736773.67879988381</v>
+        <v>743014.92717459437</v>
       </c>
       <c r="T39" s="7">
-        <v>740104.92871580878</v>
+        <v>746374.3962828191</v>
       </c>
       <c r="U39" s="7">
-        <v>750078.65090897901</v>
+        <v>756432.606398426</v>
       </c>
       <c r="V39" s="8">
-        <v>756293.86868798919</v>
+        <v>762700.47361236857</v>
       </c>
       <c r="W39" s="8">
-        <v>758303.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <v>764726.92692213936</v>
+      </c>
+      <c r="X39" s="8">
+        <v>773364.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>72929.675309293467</v>
+        <v>73838.174992238433</v>
       </c>
       <c r="C40" s="7">
-        <v>74003.220929346251</v>
+        <v>74925.093986727719</v>
       </c>
       <c r="D40" s="7">
-        <v>74659.633720316633</v>
+        <v>75589.683844302999</v>
       </c>
       <c r="E40" s="7">
-        <v>74153.217323365578</v>
+        <v>75076.958916097487</v>
       </c>
       <c r="F40" s="7">
-        <v>74483.923658751111</v>
+        <v>75411.784927041284</v>
       </c>
       <c r="G40" s="7">
-        <v>75045.338733509241</v>
+        <v>75980.193662682388</v>
       </c>
       <c r="H40" s="7">
-        <v>75083.194966285562</v>
+        <v>76018.521478189999</v>
       </c>
       <c r="I40" s="7">
-        <v>74296.071031955435</v>
+        <v>75221.592182163906</v>
       </c>
       <c r="J40" s="7">
-        <v>73661.800565816477</v>
+        <v>74579.420480828921</v>
       </c>
       <c r="K40" s="7">
-        <v>68098.362884784525</v>
+        <v>68946.67793387147</v>
       </c>
       <c r="L40" s="7">
-        <v>70055.45869246556</v>
+        <v>70928.153678981675</v>
       </c>
       <c r="M40" s="7">
-        <v>69691.181735561418</v>
+        <v>70559.338850512257</v>
       </c>
       <c r="N40" s="7">
-        <v>70428.306871885085</v>
+        <v>71305.64650341509</v>
       </c>
       <c r="O40" s="7">
-        <v>70630.44486953973</v>
+        <v>71510.302574899106</v>
       </c>
       <c r="P40" s="7">
-        <v>70114.742981530348</v>
+        <v>70988.176484399242</v>
       </c>
       <c r="Q40" s="7">
-        <v>68826.916798592792</v>
+        <v>69684.307590810306</v>
       </c>
       <c r="R40" s="7">
-        <v>69071.9109088244</v>
+        <v>69932.353642114249</v>
       </c>
       <c r="S40" s="7">
-        <v>68401.927015537978</v>
+        <v>69254.023624262656</v>
       </c>
       <c r="T40" s="7">
-        <v>68960.485016124308</v>
+        <v>69819.539694582418</v>
       </c>
       <c r="U40" s="7">
-        <v>70521.876051011452</v>
+        <v>71400.381292688602</v>
       </c>
       <c r="V40" s="8">
-        <v>72433.972940486667</v>
+        <v>73336.297558987892</v>
       </c>
       <c r="W40" s="8">
-        <v>73091.100000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+        <v>74001.610582893511</v>
+      </c>
+      <c r="X40" s="8">
+        <v>74538.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>812245.77932026237</v>
+        <v>819108.25459598121</v>
       </c>
       <c r="C41" s="7">
-        <v>813422.94711637858</v>
+        <v>820295.3680084392</v>
       </c>
       <c r="D41" s="7">
-        <v>818821.68218132609</v>
+        <v>825739.71572764288</v>
       </c>
       <c r="E41" s="7">
-        <v>822913.35507265455</v>
+        <v>829865.95820956572</v>
       </c>
       <c r="F41" s="7">
-        <v>828441.98451510421</v>
+        <v>835441.29775359237</v>
       </c>
       <c r="G41" s="7">
-        <v>835358.86011711194</v>
+        <v>842416.61242541415</v>
       </c>
       <c r="H41" s="7">
-        <v>844402.75615072274</v>
+        <v>851536.9182287117</v>
       </c>
       <c r="I41" s="7">
-        <v>848380.77146173664</v>
+        <v>855548.54286391439</v>
       </c>
       <c r="J41" s="7">
-        <v>831453.91039344319</v>
+        <v>838478.67069167434</v>
       </c>
       <c r="K41" s="7">
-        <v>760994.32899693586</v>
+        <v>767423.79271427775</v>
       </c>
       <c r="L41" s="7">
-        <v>829026.5092138655</v>
+        <v>836030.7609652956</v>
       </c>
       <c r="M41" s="7">
-        <v>837834.97168825311</v>
+        <v>844913.64408610144</v>
       </c>
       <c r="N41" s="7">
-        <v>841455.77746113495</v>
+        <v>848565.0412030411</v>
       </c>
       <c r="O41" s="7">
-        <v>851011.13260616199</v>
+        <v>858201.12731657911</v>
       </c>
       <c r="P41" s="7">
-        <v>854761.83275654644</v>
+        <v>861983.51625834161</v>
       </c>
       <c r="Q41" s="7">
-        <v>869521.08140026696</v>
+        <v>876867.46235384885</v>
       </c>
       <c r="R41" s="7">
-        <v>858959.0448295956</v>
+        <v>866216.18959793309</v>
       </c>
       <c r="S41" s="7">
-        <v>857497.7330826926</v>
+        <v>864742.53156867495</v>
       </c>
       <c r="T41" s="7">
-        <v>856661.53802752029</v>
+        <v>863899.2716963772</v>
       </c>
       <c r="U41" s="7">
-        <v>860923.69728932087</v>
+        <v>868197.44094838016</v>
       </c>
       <c r="V41" s="8">
-        <v>859787.12148617406</v>
+        <v>867051.26248117932</v>
       </c>
       <c r="W41" s="8">
-        <v>863748.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+        <v>871046.5131382792</v>
+      </c>
+      <c r="X41" s="8">
+        <v>880870.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>242816.75476169892</v>
+        <v>245673.87457651191</v>
       </c>
       <c r="C42" s="7">
-        <v>244173.12515683396</v>
+        <v>247046.20479590195</v>
       </c>
       <c r="D42" s="7">
-        <v>245094.20647126075</v>
+        <v>247978.12407609055</v>
       </c>
       <c r="E42" s="7">
-        <v>247325.96485190844</v>
+        <v>250236.1425931011</v>
       </c>
       <c r="F42" s="7">
-        <v>247455.83010250647</v>
+        <v>250367.53591197886</v>
       </c>
       <c r="G42" s="7">
-        <v>248275.90511091257</v>
+        <v>251197.26038859587</v>
       </c>
       <c r="H42" s="7">
-        <v>251496.08234333422</v>
+        <v>254455.32805484274</v>
       </c>
       <c r="I42" s="7">
-        <v>249329.25658798555</v>
+        <v>252263.00619727111</v>
       </c>
       <c r="J42" s="7">
-        <v>244461.71460260736</v>
+        <v>247338.18994896364</v>
       </c>
       <c r="K42" s="7">
-        <v>227872.63129473254</v>
+        <v>230553.91006713317</v>
       </c>
       <c r="L42" s="7">
-        <v>242100.09097136161</v>
+        <v>244948.77811307536</v>
       </c>
       <c r="M42" s="7">
-        <v>238603.34885340717</v>
+        <v>241410.89134181099</v>
       </c>
       <c r="N42" s="7">
-        <v>239829.85399794413</v>
+        <v>242651.82824232324</v>
       </c>
       <c r="O42" s="7">
-        <v>242951.42983639316</v>
+        <v>245810.13431460736</v>
       </c>
       <c r="P42" s="7">
-        <v>240871.18091477652</v>
+        <v>243705.40800295424</v>
       </c>
       <c r="Q42" s="7">
-        <v>243203.9456014449</v>
+        <v>246065.62132353635</v>
       </c>
       <c r="R42" s="7">
-        <v>236246.5350462576</v>
+        <v>239026.34592514037</v>
       </c>
       <c r="S42" s="7">
-        <v>236424.49853781788</v>
+        <v>239206.40343619508</v>
       </c>
       <c r="T42" s="7">
-        <v>239986.17328107139</v>
+        <v>242809.98686689834</v>
       </c>
       <c r="U42" s="7">
-        <v>244536.26687609885</v>
+        <v>247413.61944683793</v>
       </c>
       <c r="V42" s="8">
-        <v>247564.05114467151</v>
+        <v>250477.03034437701</v>
       </c>
       <c r="W42" s="8">
-        <v>250329.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+        <v>253275.22139455169</v>
+      </c>
+      <c r="X42" s="8">
+        <v>256973.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>282306.50800076779</v>
+        <v>284324.28299153119</v>
       </c>
       <c r="C43" s="7">
-        <v>283168.36640375521</v>
+        <v>285192.30149455823</v>
       </c>
       <c r="D43" s="7">
-        <v>285182.10540248133</v>
+        <v>287220.43361591664</v>
       </c>
       <c r="E43" s="7">
-        <v>286342.19417348661</v>
+        <v>288388.81407713407</v>
       </c>
       <c r="F43" s="7">
-        <v>287521.43535344716</v>
+        <v>289576.48383841867</v>
       </c>
       <c r="G43" s="7">
-        <v>288859.36792189436</v>
+        <v>290923.97922883218</v>
       </c>
       <c r="H43" s="7">
-        <v>292194.62313853455</v>
+        <v>294283.07305483212</v>
       </c>
       <c r="I43" s="7">
-        <v>295609.224049418</v>
+        <v>297722.07969539647</v>
       </c>
       <c r="J43" s="7">
-        <v>294889.64068438404</v>
+        <v>296997.35313572624</v>
       </c>
       <c r="K43" s="7">
-        <v>273302.13973336585</v>
+        <v>275255.55634561979</v>
       </c>
       <c r="L43" s="7">
-        <v>291299.93203448091</v>
+        <v>293381.98718026117</v>
       </c>
       <c r="M43" s="7">
-        <v>293822.57789973298</v>
+        <v>295922.6635605499</v>
       </c>
       <c r="N43" s="7">
-        <v>300476.67198248027</v>
+        <v>302624.31752677792</v>
       </c>
       <c r="O43" s="7">
-        <v>301743.46703195071</v>
+        <v>303900.16694551293</v>
       </c>
       <c r="P43" s="7">
-        <v>301707.89827246231</v>
+        <v>303864.34395967366</v>
       </c>
       <c r="Q43" s="7">
-        <v>309699.92492365674</v>
+        <v>311913.49331631511</v>
       </c>
       <c r="R43" s="7">
-        <v>311212.96523112355</v>
+        <v>313437.34802162927</v>
       </c>
       <c r="S43" s="7">
-        <v>307311.34592109162</v>
+        <v>309507.84203649726</v>
       </c>
       <c r="T43" s="7">
-        <v>308293.59089465503</v>
+        <v>310497.10756851855</v>
       </c>
       <c r="U43" s="7">
-        <v>309174.60170659778</v>
+        <v>311384.41537161294</v>
       </c>
       <c r="V43" s="8">
-        <v>312238.98713944195</v>
+        <v>314470.70338237577</v>
       </c>
       <c r="W43" s="8">
-        <v>313590.59999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+        <v>315831.97684426582</v>
+      </c>
+      <c r="X43" s="8">
+        <v>319524.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>926702.07065399503</v>
+        <v>934115.24136873102</v>
       </c>
       <c r="C44" s="7">
-        <v>928327.52542607882</v>
+        <v>935753.69899696042</v>
       </c>
       <c r="D44" s="7">
-        <v>932836.55533056008</v>
+        <v>940298.79897131457</v>
       </c>
       <c r="E44" s="7">
-        <v>931918.21930113423</v>
+        <v>939373.11669547867</v>
       </c>
       <c r="F44" s="7">
-        <v>931569.25160995242</v>
+        <v>939021.35743066121</v>
       </c>
       <c r="G44" s="7">
-        <v>937970.05373505119</v>
+        <v>945473.36289323727</v>
       </c>
       <c r="H44" s="7">
-        <v>944912.67411751114</v>
+        <v>952471.52089855634</v>
       </c>
       <c r="I44" s="7">
-        <v>947585.03196314059</v>
+        <v>955165.25632123859</v>
       </c>
       <c r="J44" s="7">
-        <v>927721.42364665784</v>
+        <v>935142.74869490892</v>
       </c>
       <c r="K44" s="7">
-        <v>834795.00082904845</v>
+        <v>841472.9592030776</v>
       </c>
       <c r="L44" s="7">
-        <v>906967.02938163187</v>
+        <v>914222.32926101831</v>
       </c>
       <c r="M44" s="7">
-        <v>916949.34202149173</v>
+        <v>924284.49559935415</v>
       </c>
       <c r="N44" s="7">
-        <v>915388.17077146762</v>
+        <v>922710.83573043323</v>
       </c>
       <c r="O44" s="7">
-        <v>926141.88567604509</v>
+        <v>933550.57518047118</v>
       </c>
       <c r="P44" s="7">
-        <v>931495.78472759842</v>
+        <v>938947.30284859438</v>
       </c>
       <c r="Q44" s="7">
-        <v>950404.32357347815</v>
+        <v>958007.10090805474</v>
       </c>
       <c r="R44" s="7">
-        <v>934158.95921293343</v>
+        <v>941631.78144851828</v>
       </c>
       <c r="S44" s="7">
-        <v>937060.90106591943</v>
+        <v>944556.93744015961</v>
       </c>
       <c r="T44" s="7">
-        <v>943406.60302925261</v>
+        <v>950953.40196618543</v>
       </c>
       <c r="U44" s="7">
-        <v>946464.66200724093</v>
+        <v>954035.9239447189</v>
       </c>
       <c r="V44" s="8">
-        <v>948282.96734550421</v>
+        <v>955868.77485087386</v>
       </c>
       <c r="W44" s="8">
-        <v>953728.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <v>961358.07074658049</v>
+      </c>
+      <c r="X44" s="8">
+        <v>974558.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>71669.99725424459</v>
+        <v>72313.314577227022</v>
       </c>
       <c r="C45" s="7">
-        <v>71620.553855950857</v>
+        <v>72263.427369866055</v>
       </c>
       <c r="D45" s="7">
-        <v>71323.176895198689</v>
+        <v>71963.381122695064</v>
       </c>
       <c r="E45" s="7">
-        <v>71861.321708511648</v>
+        <v>72506.356379623787</v>
       </c>
       <c r="F45" s="7">
-        <v>72683.945204761068</v>
+        <v>73336.363829629365</v>
       </c>
       <c r="G45" s="7">
-        <v>72685.378346740588</v>
+        <v>73337.809835639811</v>
       </c>
       <c r="H45" s="7">
-        <v>72904.649069608466</v>
+        <v>73559.048755240598</v>
       </c>
       <c r="I45" s="7">
-        <v>73695.026871318463</v>
+        <v>74356.521070010742</v>
       </c>
       <c r="J45" s="7">
-        <v>72782.832001348535</v>
+        <v>73436.13824435127</v>
       </c>
       <c r="K45" s="7">
-        <v>65796.98142213648</v>
+        <v>66387.581946351056</v>
       </c>
       <c r="L45" s="7">
-        <v>71945.877085303844</v>
+        <v>72591.670734241081</v>
       </c>
       <c r="M45" s="7">
-        <v>73095.973523875524</v>
+        <v>73752.090557637363</v>
       </c>
       <c r="N45" s="7">
-        <v>71910.048535815629</v>
+        <v>72555.520583979509</v>
       </c>
       <c r="O45" s="7">
-        <v>74135.718030023505</v>
+        <v>74801.16791822802</v>
       </c>
       <c r="P45" s="7">
-        <v>74112.787758351056</v>
+        <v>74778.031822060628</v>
       </c>
       <c r="Q45" s="7">
-        <v>76251.752162797464</v>
+        <v>76936.195792676139</v>
       </c>
       <c r="R45" s="7">
-        <v>74648.066287704991</v>
+        <v>75318.115066968428</v>
       </c>
       <c r="S45" s="7">
-        <v>76284.71442832661</v>
+        <v>76969.453930916774</v>
       </c>
       <c r="T45" s="7">
-        <v>76488.220589419681</v>
+        <v>77174.786784402473</v>
       </c>
       <c r="U45" s="7">
-        <v>75884.151245048371</v>
+        <v>76565.295250992465</v>
       </c>
       <c r="V45" s="8">
-        <v>76392.916647781007</v>
+        <v>77078.627384706706</v>
       </c>
       <c r="W45" s="8">
-        <v>76517.600000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+        <v>77204.429907616955</v>
+      </c>
+      <c r="X45" s="8">
+        <v>77948.399999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>283692.72638555377</v>
+        <v>286093.98937306233</v>
       </c>
       <c r="C46" s="7">
-        <v>285876.64524061093</v>
+        <v>288296.393592835</v>
       </c>
       <c r="D46" s="7">
-        <v>286690.7523965037</v>
+        <v>289117.39160351356</v>
       </c>
       <c r="E46" s="7">
-        <v>288377.31568533281</v>
+        <v>290818.23048570444</v>
       </c>
       <c r="F46" s="7">
-        <v>290275.04670060513</v>
+        <v>292732.02448329312</v>
       </c>
       <c r="G46" s="7">
-        <v>290508.44260877918</v>
+        <v>292967.39592662762</v>
       </c>
       <c r="H46" s="7">
-        <v>294681.78372874844</v>
+        <v>297176.06149672752</v>
       </c>
       <c r="I46" s="7">
-        <v>298071.58144270483</v>
+        <v>300594.55150706164</v>
       </c>
       <c r="J46" s="7">
-        <v>290736.28147152049</v>
+        <v>293197.16328797792</v>
       </c>
       <c r="K46" s="7">
-        <v>271692.28677360486</v>
+        <v>273991.97432828107</v>
       </c>
       <c r="L46" s="7">
-        <v>296007.1390644511</v>
+        <v>298512.63504994835</v>
       </c>
       <c r="M46" s="7">
-        <v>296326.66917683219</v>
+        <v>298834.8697640372</v>
       </c>
       <c r="N46" s="7">
-        <v>298341.09814619151</v>
+        <v>300866.34948329313</v>
       </c>
       <c r="O46" s="7">
-        <v>301789.24483719142</v>
+        <v>304343.68235446088</v>
       </c>
       <c r="P46" s="7">
-        <v>302806.18415137834</v>
+        <v>305369.2293575611</v>
       </c>
       <c r="Q46" s="7">
-        <v>306882.27697627508</v>
+        <v>309479.8234929383</v>
       </c>
       <c r="R46" s="7">
-        <v>306448.82743252331</v>
+        <v>309042.70509817428</v>
       </c>
       <c r="S46" s="7">
-        <v>307576.90765536448</v>
+        <v>310180.33374095761</v>
       </c>
       <c r="T46" s="7">
-        <v>310630.50412064162</v>
+        <v>313259.77679125039</v>
       </c>
       <c r="U46" s="7">
-        <v>314901.09353568341</v>
+        <v>317566.51379607304</v>
       </c>
       <c r="V46" s="8">
-        <v>316743.25409662857</v>
+        <v>319424.26697382017</v>
       </c>
       <c r="W46" s="8">
-        <v>318199.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <v>320892.53645366861</v>
+      </c>
+      <c r="X46" s="8">
+        <v>325373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>67797.928870014774</v>
+        <v>68133.941793588732</v>
       </c>
       <c r="C47" s="7">
-        <v>66516.024128508143</v>
+        <v>66845.683811398834</v>
       </c>
       <c r="D47" s="7">
-        <v>66324.665414512565</v>
+        <v>66653.376705586401</v>
       </c>
       <c r="E47" s="7">
-        <v>65874.409616875928</v>
+        <v>66200.889397792431</v>
       </c>
       <c r="F47" s="7">
-        <v>66210.115042466772</v>
+        <v>66538.25861110352</v>
       </c>
       <c r="G47" s="7">
-        <v>66401.473756462336</v>
+        <v>66730.565716915953</v>
       </c>
       <c r="H47" s="7">
-        <v>67525.126827917295</v>
+        <v>67859.787718866501</v>
       </c>
       <c r="I47" s="7">
-        <v>68543.499499630736</v>
+        <v>68883.20754149463</v>
       </c>
       <c r="J47" s="7">
-        <v>67347.010931499273</v>
+        <v>67680.7890632833</v>
       </c>
       <c r="K47" s="7">
-        <v>64366.714835672086</v>
+        <v>64685.722339194079</v>
       </c>
       <c r="L47" s="7">
-        <v>68991.768874630739</v>
+        <v>69333.698581754215</v>
       </c>
       <c r="M47" s="7">
-        <v>69677.746825147711</v>
+        <v>70023.076303628564</v>
       </c>
       <c r="N47" s="7">
-        <v>70848.411899002967</v>
+        <v>71199.54330389289</v>
       </c>
       <c r="O47" s="7">
-        <v>71096.052587703118</v>
+        <v>71448.411323179578</v>
       </c>
       <c r="P47" s="7">
-        <v>70467.680893648459</v>
+        <v>70816.925359802393</v>
       </c>
       <c r="Q47" s="7">
-        <v>70534.557122415077</v>
+        <v>70884.133033460035</v>
       </c>
       <c r="R47" s="7">
-        <v>71099.363292097492</v>
+        <v>71451.738435736886</v>
       </c>
       <c r="S47" s="7">
-        <v>70645.796790066481</v>
+        <v>70995.924015385608</v>
       </c>
       <c r="T47" s="7">
-        <v>70398.15610136633</v>
+        <v>70747.055996098919</v>
       </c>
       <c r="U47" s="7">
-        <v>69873.740525295434</v>
+        <v>70220.041367021229</v>
       </c>
       <c r="V47" s="8">
-        <v>71545.646244460877</v>
+        <v>71900.233208462087</v>
       </c>
       <c r="W47" s="8">
-        <v>71723.100000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+        <v>72078.566441533825</v>
+      </c>
+      <c r="X47" s="8">
+        <v>73005.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>442821.731453249</v>
+        <v>446007.97756126756</v>
       </c>
       <c r="C48" s="7">
-        <v>443335.91082339274</v>
+        <v>446525.85661889403</v>
       </c>
       <c r="D48" s="7">
-        <v>446333.8379984679</v>
+        <v>449545.35485319054</v>
       </c>
       <c r="E48" s="7">
-        <v>444551.64001212234</v>
+        <v>447750.33337379043</v>
       </c>
       <c r="F48" s="7">
-        <v>448652.00261640392</v>
+        <v>451880.1994180826</v>
       </c>
       <c r="G48" s="7">
-        <v>450582.35398058745</v>
+        <v>453824.44028696837</v>
       </c>
       <c r="H48" s="7">
-        <v>456918.08960930724</v>
+        <v>460205.76359026361</v>
       </c>
       <c r="I48" s="7">
-        <v>458774.36428457178</v>
+        <v>462075.39476440655</v>
       </c>
       <c r="J48" s="7">
-        <v>461789.72126880439</v>
+        <v>465112.44822099555</v>
       </c>
       <c r="K48" s="7">
-        <v>411504.72184966621</v>
+        <v>414465.63190735871</v>
       </c>
       <c r="L48" s="7">
-        <v>458268.89981900679</v>
+        <v>461566.29331792629</v>
       </c>
       <c r="M48" s="7">
-        <v>466038.23725092394</v>
+        <v>469391.53365477332</v>
       </c>
       <c r="N48" s="7">
-        <v>479559.41170478752</v>
+        <v>483009.9973481195</v>
       </c>
       <c r="O48" s="7">
-        <v>482378.68333599914</v>
+        <v>485849.55455391877</v>
       </c>
       <c r="P48" s="7">
-        <v>485694.70452819706</v>
+        <v>489189.43559505197</v>
       </c>
       <c r="Q48" s="7">
-        <v>497189.66366751131</v>
+        <v>500767.10469690413</v>
       </c>
       <c r="R48" s="7">
-        <v>500453.39543223695</v>
+        <v>504054.32007116009</v>
       </c>
       <c r="S48" s="7">
-        <v>501011.14932527422</v>
+        <v>504616.08718451764</v>
       </c>
       <c r="T48" s="7">
-        <v>506017.86200574128</v>
+        <v>509658.82478801574</v>
       </c>
       <c r="U48" s="7">
-        <v>513477.8203251143</v>
+        <v>517172.4599291723</v>
       </c>
       <c r="V48" s="8">
-        <v>516689.26266236772</v>
+        <v>520407.00963655097</v>
       </c>
       <c r="W48" s="8">
-        <v>517617.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>521341.82522362244</v>
+      </c>
+      <c r="X48" s="8">
+        <v>527938.19999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>2156595.6526154992</v>
+        <v>2181725.3842078312</v>
       </c>
       <c r="C49" s="7">
-        <v>2181331.6072387812</v>
+        <v>2206749.5745509667</v>
       </c>
       <c r="D49" s="7">
-        <v>2194596.4193301871</v>
+        <v>2220168.9548698817</v>
       </c>
       <c r="E49" s="7">
-        <v>2206568.1208089087</v>
+        <v>2232280.156604249</v>
       </c>
       <c r="F49" s="7">
-        <v>2217476.1345255836</v>
+        <v>2243315.275954552</v>
       </c>
       <c r="G49" s="7">
-        <v>2235600.5397259477</v>
+        <v>2261650.8757928186</v>
       </c>
       <c r="H49" s="7">
-        <v>2277126.0756913396</v>
+        <v>2303660.288080493</v>
       </c>
       <c r="I49" s="7">
-        <v>2290912.303352376</v>
+        <v>2317607.1597641455</v>
       </c>
       <c r="J49" s="7">
-        <v>2251806.1356300712</v>
+        <v>2278045.3074088525</v>
       </c>
       <c r="K49" s="7">
-        <v>2101721.8780675605</v>
+        <v>2126212.1929828837</v>
       </c>
       <c r="L49" s="7">
-        <v>2245424.009057791</v>
+        <v>2271588.8131044684</v>
       </c>
       <c r="M49" s="7">
-        <v>2268449.7206126838</v>
+        <v>2294882.8317712652</v>
       </c>
       <c r="N49" s="7">
-        <v>2304302.2551804935</v>
+        <v>2331153.1380105983</v>
       </c>
       <c r="O49" s="7">
-        <v>2337380.8589178668</v>
+        <v>2364617.1901895292</v>
       </c>
       <c r="P49" s="7">
-        <v>2352856.4730245075</v>
+        <v>2380273.1338949306</v>
       </c>
       <c r="Q49" s="7">
-        <v>2379657.2333035269</v>
+        <v>2407386.1900424245</v>
       </c>
       <c r="R49" s="7">
-        <v>2384245.6903162776</v>
+        <v>2412028.1140521122</v>
       </c>
       <c r="S49" s="7">
-        <v>2373421.1030907435</v>
+        <v>2401077.393320167</v>
       </c>
       <c r="T49" s="7">
-        <v>2408856.505202848</v>
+        <v>2436925.7064677104</v>
       </c>
       <c r="U49" s="7">
-        <v>2460539.2164646466</v>
+        <v>2489210.650540466</v>
       </c>
       <c r="V49" s="8">
-        <v>2489133.646303196</v>
+        <v>2518138.2769826562</v>
       </c>
       <c r="W49" s="8">
-        <v>2519062.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2548416.2813185742</v>
+      </c>
+      <c r="X49" s="8">
+        <v>2596143.7000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>221370.83220576704</v>
+        <v>223029.82686737302</v>
       </c>
       <c r="C50" s="7">
-        <v>224572.3091259182</v>
+        <v>226255.29625783686</v>
       </c>
       <c r="D50" s="7">
-        <v>227230.25967147649</v>
+        <v>228933.16598480649</v>
       </c>
       <c r="E50" s="7">
-        <v>229118.74738868949</v>
+        <v>230835.80638424124</v>
       </c>
       <c r="F50" s="7">
-        <v>235826.50229395967</v>
+        <v>237593.83046665782</v>
       </c>
       <c r="G50" s="7">
-        <v>235664.5101195712</v>
+        <v>237430.62429243996</v>
       </c>
       <c r="H50" s="7">
-        <v>241044.35549005162</v>
+        <v>242850.7872362021</v>
       </c>
       <c r="I50" s="7">
-        <v>242240.11351415602</v>
+        <v>244055.50649588933</v>
       </c>
       <c r="J50" s="7">
-        <v>239328.51732712105</v>
+        <v>241122.09025928908</v>
       </c>
       <c r="K50" s="7">
-        <v>230821.7966957473</v>
+        <v>232551.61866318973</v>
       </c>
       <c r="L50" s="7">
-        <v>244844.77716024441</v>
+        <v>246679.68998133994</v>
       </c>
       <c r="M50" s="7">
-        <v>249960.31950935416</v>
+        <v>251833.56916716768</v>
       </c>
       <c r="N50" s="7">
-        <v>256165.04608362852</v>
+        <v>258084.79512964454</v>
       </c>
       <c r="O50" s="7">
-        <v>258516.06408824021</v>
+        <v>260453.43210546454</v>
       </c>
       <c r="P50" s="7">
-        <v>260494.07379656265</v>
+        <v>262446.26539065124</v>
       </c>
       <c r="Q50" s="7">
-        <v>265200.37275774364</v>
+        <v>267187.83424161276</v>
       </c>
       <c r="R50" s="7">
-        <v>264620.61129151116</v>
+        <v>266603.72793388559</v>
       </c>
       <c r="S50" s="7">
-        <v>263866.06879501749</v>
+        <v>265843.53075397603</v>
       </c>
       <c r="T50" s="7">
-        <v>264614.21686357481</v>
+        <v>266597.28558490332</v>
       </c>
       <c r="U50" s="7">
-        <v>266713.72070268862</v>
+        <v>268712.52350075345</v>
       </c>
       <c r="V50" s="8">
-        <v>267378.74120807287</v>
+        <v>269382.52779491106</v>
       </c>
       <c r="W50" s="8">
-        <v>268994.40000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+        <v>271010.2946377683</v>
+      </c>
+      <c r="X50" s="8">
+        <v>275047.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>40298.317273272485</v>
+        <v>40620.755793664786</v>
       </c>
       <c r="C51" s="7">
-        <v>40381.003021159355</v>
+        <v>40704.103134193989</v>
       </c>
       <c r="D51" s="7">
-        <v>40178.882304102553</v>
+        <v>40500.36519067816</v>
       </c>
       <c r="E51" s="7">
-        <v>40091.003731469158</v>
+        <v>40411.783476106059</v>
       </c>
       <c r="F51" s="7">
-        <v>40563.151335344941</v>
+        <v>40887.708869852526</v>
       </c>
       <c r="G51" s="7">
-        <v>40343.454903761456</v>
+        <v>40666.254583422276</v>
       </c>
       <c r="H51" s="7">
-        <v>40878.315852652886</v>
+        <v>41205.395109840647</v>
       </c>
       <c r="I51" s="7">
-        <v>41025.712185842531</v>
+        <v>41353.970803827484</v>
       </c>
       <c r="J51" s="7">
-        <v>40971.786698090218</v>
+        <v>41299.61384261278</v>
       </c>
       <c r="K51" s="7">
-        <v>36511.949136945484</v>
+        <v>36804.091828078737</v>
       </c>
       <c r="L51" s="7">
-        <v>40206.843668122274</v>
+        <v>40528.550281678377</v>
       </c>
       <c r="M51" s="7">
-        <v>40705.354843788067</v>
+        <v>41031.050189796464</v>
       </c>
       <c r="N51" s="7">
-        <v>41063.659751297862</v>
+        <v>41392.221998756344</v>
       </c>
       <c r="O51" s="7">
-        <v>41253.797026631932</v>
+        <v>41583.880617557792</v>
       </c>
       <c r="P51" s="7">
-        <v>41664.030181606911</v>
+        <v>41997.396166946637</v>
       </c>
       <c r="Q51" s="7">
-        <v>42031.921842494892</v>
+        <v>42368.231435678019</v>
       </c>
       <c r="R51" s="7">
-        <v>42377.843860224522</v>
+        <v>42716.921275766377</v>
       </c>
       <c r="S51" s="7">
-        <v>42465.722432857918</v>
+        <v>42805.502990338478</v>
       </c>
       <c r="T51" s="7">
-        <v>42083.051193845225</v>
+        <v>42419.769887792696</v>
       </c>
       <c r="U51" s="7">
-        <v>42756.920066720391</v>
+        <v>43099.030580897845</v>
       </c>
       <c r="V51" s="8">
-        <v>42826.424028712252</v>
+        <v>43169.09066424123</v>
       </c>
       <c r="W51" s="8">
-        <v>42626.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>42967.768585668273</v>
+      </c>
+      <c r="X51" s="8">
+        <v>43383.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>624955.85548242147</v>
+        <v>629948.68864915567</v>
       </c>
       <c r="C52" s="7">
-        <v>628359.1655907185</v>
+        <v>633379.18813320831</v>
       </c>
       <c r="D52" s="7">
-        <v>632210.92630895332</v>
+        <v>637261.72094277677</v>
       </c>
       <c r="E52" s="7">
-        <v>631842.33676653856</v>
+        <v>636890.18670262664</v>
       </c>
       <c r="F52" s="7">
-        <v>636351.41550208</v>
+        <v>641435.28890712955</v>
       </c>
       <c r="G52" s="7">
-        <v>640049.59724430868</v>
+        <v>645163.01578330202</v>
       </c>
       <c r="H52" s="7">
-        <v>650517.54024888983</v>
+        <v>655714.58820356475</v>
       </c>
       <c r="I52" s="7">
-        <v>653896.27772102575</v>
+        <v>659120.31873827393</v>
       </c>
       <c r="J52" s="7">
-        <v>645953.17308198626</v>
+        <v>651113.75586303941</v>
       </c>
       <c r="K52" s="7">
-        <v>605807.62875397119</v>
+        <v>610647.48487335828</v>
       </c>
       <c r="L52" s="7">
-        <v>642807.87565337983</v>
+        <v>647943.33034709201</v>
       </c>
       <c r="M52" s="7">
-        <v>651703.16994365759</v>
+        <v>656909.69000938081</v>
       </c>
       <c r="N52" s="7">
-        <v>661022.34220771235</v>
+        <v>666303.3140478424</v>
       </c>
       <c r="O52" s="7">
-        <v>667398.94129148906</v>
+        <v>672730.85640243907</v>
       </c>
       <c r="P52" s="7">
-        <v>672282.7527284855</v>
+        <v>677653.68508442782</v>
       </c>
       <c r="Q52" s="7">
-        <v>684182.05178944417</v>
+        <v>689648.04880394007</v>
       </c>
       <c r="R52" s="7">
-        <v>680600.59006898012</v>
+        <v>686037.97443714831</v>
       </c>
       <c r="S52" s="7">
-        <v>683309.72320572904</v>
+        <v>688768.75110225147</v>
       </c>
       <c r="T52" s="7">
-        <v>691461.69525213703</v>
+        <v>696985.85004690441</v>
       </c>
       <c r="U52" s="7">
-        <v>696652.66464114585</v>
+        <v>702218.2905956849</v>
       </c>
       <c r="V52" s="8">
-        <v>697647.85640566587</v>
+        <v>703221.43304409005</v>
       </c>
       <c r="W52" s="8">
-        <v>699988.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+        <v>705580.6754690432</v>
+      </c>
+      <c r="X52" s="8">
+        <v>712899.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>658602.81006619171</v>
+        <v>661564.23173109931</v>
       </c>
       <c r="C53" s="7">
-        <v>664459.54029162251</v>
+        <v>667447.2968696371</v>
       </c>
       <c r="D53" s="7">
-        <v>675639.42939290067</v>
+        <v>678677.45658210875</v>
       </c>
       <c r="E53" s="7">
-        <v>677102.04262175946</v>
+        <v>680146.64648272959</v>
       </c>
       <c r="F53" s="7">
-        <v>690102.35162161745</v>
+        <v>693205.41165090958</v>
       </c>
       <c r="G53" s="7">
-        <v>694785.22487796401</v>
+        <v>697909.34154731827</v>
       </c>
       <c r="H53" s="7">
-        <v>705582.19806954067</v>
+        <v>708754.86356048554</v>
       </c>
       <c r="I53" s="7">
-        <v>714621.52446248871</v>
+        <v>717834.83547848614</v>
       </c>
       <c r="J53" s="7">
-        <v>705588.47537953593</v>
+        <v>708761.16909653973</v>
       </c>
       <c r="K53" s="7">
-        <v>666819.80884978117</v>
+        <v>669818.1784260039</v>
       </c>
       <c r="L53" s="7">
-        <v>720767.0109476943</v>
+        <v>724007.95527551556</v>
       </c>
       <c r="M53" s="7">
-        <v>718921.48180913413</v>
+        <v>722154.12767559057</v>
       </c>
       <c r="N53" s="7">
-        <v>732380.03443863441</v>
+        <v>735673.19697572466</v>
       </c>
       <c r="O53" s="7">
-        <v>747866.15819655301</v>
+        <v>751228.95442135492</v>
       </c>
       <c r="P53" s="7">
-        <v>750904.37623418274</v>
+        <v>754280.8338715717</v>
       </c>
       <c r="Q53" s="7">
-        <v>773465.02835658193</v>
+        <v>776942.93045024807</v>
       </c>
       <c r="R53" s="7">
-        <v>747250.98181703291</v>
+        <v>750611.01188804652</v>
       </c>
       <c r="S53" s="7">
-        <v>755417.76212066156</v>
+        <v>758814.51429451781</v>
       </c>
       <c r="T53" s="7">
-        <v>769026.97019004438</v>
+        <v>772484.91645995202</v>
       </c>
       <c r="U53" s="7">
-        <v>782090.05228985322</v>
+        <v>785606.73698867357</v>
       </c>
       <c r="V53" s="8">
-        <v>789070.42100440746</v>
+        <v>792618.49308090738</v>
       </c>
       <c r="W53" s="8">
-        <v>794720</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>798293.47552965768</v>
+      </c>
+      <c r="X53" s="8">
+        <v>808344.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>93672.301772966035</v>
+        <v>95071.622941643698</v>
       </c>
       <c r="C54" s="7">
-        <v>94992.058923771896</v>
+        <v>96411.095249264123</v>
       </c>
       <c r="D54" s="7">
-        <v>95969.417541046991</v>
+        <v>97403.05411204038</v>
       </c>
       <c r="E54" s="7">
-        <v>95499.657827927978</v>
+        <v>96926.276906041225</v>
       </c>
       <c r="F54" s="7">
-        <v>93996.242164527474</v>
+        <v>95400.402508059618</v>
       </c>
       <c r="G54" s="7">
-        <v>94375.556981996851</v>
+        <v>95785.38370976031</v>
       </c>
       <c r="H54" s="7">
-        <v>94999.442180559621</v>
+        <v>96418.588800635422</v>
       </c>
       <c r="I54" s="7">
-        <v>93718.447127889318</v>
+        <v>95118.457637714338</v>
       </c>
       <c r="J54" s="7">
-        <v>92974.584006526027</v>
+        <v>94363.482337055553</v>
       </c>
       <c r="K54" s="7">
-        <v>86222.595674151467</v>
+        <v>87510.629607998882</v>
       </c>
       <c r="L54" s="7">
-        <v>91946.4654988353</v>
+        <v>93320.005308601598</v>
       </c>
       <c r="M54" s="7">
-        <v>92029.527137697223</v>
+        <v>93404.307761528762</v>
       </c>
       <c r="N54" s="7">
-        <v>92357.15915765251</v>
+        <v>93736.834103630346</v>
       </c>
       <c r="O54" s="7">
-        <v>92342.392644077074</v>
+        <v>93721.847000887734</v>
       </c>
       <c r="P54" s="7">
-        <v>92843.531198543904</v>
+        <v>94230.471800214931</v>
       </c>
       <c r="Q54" s="7">
-        <v>93329.903239435298</v>
+        <v>94724.109496799516</v>
       </c>
       <c r="R54" s="7">
-        <v>92031.37295189414</v>
+        <v>93406.18114937158</v>
       </c>
       <c r="S54" s="7">
-        <v>92547.278019936435</v>
+        <v>93929.793051441389</v>
       </c>
       <c r="T54" s="7">
-        <v>94010.085771004466</v>
+        <v>95414.452916880808</v>
       </c>
       <c r="U54" s="7">
-        <v>97219.033752369462</v>
+        <v>98671.33768163342</v>
       </c>
       <c r="V54" s="8">
-        <v>96999.381862934635</v>
+        <v>98448.404528337152</v>
       </c>
       <c r="W54" s="8">
-        <v>97862.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>99324.213344858203</v>
+      </c>
+      <c r="X54" s="8">
+        <v>100240.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>403035.68837240728</v>
+        <v>406165.53015417478</v>
       </c>
       <c r="C55" s="7">
-        <v>401263.67791365454</v>
+        <v>404379.75884859991</v>
       </c>
       <c r="D55" s="7">
-        <v>403525.06319843256</v>
+        <v>406658.70530315314</v>
       </c>
       <c r="E55" s="7">
-        <v>404870.84397000202</v>
+        <v>408014.93696284358</v>
       </c>
       <c r="F55" s="7">
-        <v>405450.98993311264</v>
+        <v>408599.58814751956</v>
       </c>
       <c r="G55" s="7">
-        <v>408351.71974866564</v>
+        <v>411522.84407089942</v>
       </c>
       <c r="H55" s="7">
-        <v>409654.08823728131</v>
+        <v>412835.32632221276</v>
       </c>
       <c r="I55" s="7">
-        <v>413103.39144652401</v>
+        <v>416311.41567872162</v>
       </c>
       <c r="J55" s="7">
-        <v>402581.8326869806</v>
+        <v>405708.14997568668</v>
       </c>
       <c r="K55" s="7">
-        <v>372954.92285656376</v>
+        <v>375851.16736777878</v>
       </c>
       <c r="L55" s="7">
-        <v>401772.7855955679</v>
+        <v>404892.82009229512</v>
       </c>
       <c r="M55" s="7">
-        <v>406646.80099993246</v>
+        <v>409804.68548736186</v>
       </c>
       <c r="N55" s="7">
-        <v>405711.46363083576</v>
+        <v>408862.08459778223</v>
       </c>
       <c r="O55" s="7">
-        <v>409421.24053780147</v>
+        <v>412600.67040455376</v>
       </c>
       <c r="P55" s="7">
-        <v>409618.56909668271</v>
+        <v>412799.53135172243</v>
       </c>
       <c r="Q55" s="7">
-        <v>415822.57898790628</v>
+        <v>419051.71953070624</v>
       </c>
       <c r="R55" s="7">
-        <v>412420.63463279512</v>
+        <v>415623.35680151795</v>
       </c>
       <c r="S55" s="7">
-        <v>409437.02682251204</v>
+        <v>412616.57928032725</v>
       </c>
       <c r="T55" s="7">
-        <v>412432.47434632794</v>
+        <v>415635.28845834808</v>
       </c>
       <c r="U55" s="7">
-        <v>412022.03094385524</v>
+        <v>415221.6576882372</v>
       </c>
       <c r="V55" s="8">
-        <v>409018.69027768396</v>
+        <v>412194.9940723296</v>
       </c>
       <c r="W55" s="8">
-        <v>408892.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>412067.72306614165</v>
+      </c>
+      <c r="X55" s="8">
+        <v>417134.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="7">
-        <v>47625.662465421854</v>
+        <v>48250.982946514843</v>
       </c>
       <c r="C56" s="7">
-        <v>47888.043203473186</v>
+        <v>48516.808719046632</v>
       </c>
       <c r="D56" s="7">
-        <v>47953.045303135084</v>
+        <v>48582.664290180175</v>
       </c>
       <c r="E56" s="7">
-        <v>48121.006932918404</v>
+        <v>48752.831240408486</v>
       </c>
       <c r="F56" s="7">
-        <v>48080.677163055174</v>
+        <v>48711.97194444971</v>
       </c>
       <c r="G56" s="7">
-        <v>48311.26855309667</v>
+        <v>48945.59097781399</v>
       </c>
       <c r="H56" s="7">
-        <v>49134.944794067931</v>
+        <v>49780.08201057199</v>
       </c>
       <c r="I56" s="7">
-        <v>48991.655494083301</v>
+        <v>49634.91133551846</v>
       </c>
       <c r="J56" s="7">
-        <v>48106.772896496092</v>
+        <v>48738.410312423039</v>
       </c>
       <c r="K56" s="7">
-        <v>43912.002362840023</v>
+        <v>44488.562835111115</v>
       </c>
       <c r="L56" s="7">
-        <v>45457.818718303373</v>
+        <v>46054.675614330925</v>
       </c>
       <c r="M56" s="7">
-        <v>45051.674212386664</v>
+        <v>45643.198469146097</v>
       </c>
       <c r="N56" s="7">
-        <v>46139.154595051485</v>
+        <v>46744.957367234427</v>
       </c>
       <c r="O56" s="7">
-        <v>46586.103338712164</v>
+        <v>47197.774505977533</v>
       </c>
       <c r="P56" s="7">
-        <v>46598.913971492242</v>
+        <v>47210.753341164433</v>
       </c>
       <c r="Q56" s="7">
-        <v>46978.488276087301</v>
+        <v>47595.311420776423</v>
       </c>
       <c r="R56" s="7">
-        <v>47423.064680344251</v>
+        <v>48045.725071521949</v>
       </c>
       <c r="S56" s="7">
-        <v>46098.824825188269</v>
+        <v>46704.098071275657</v>
       </c>
       <c r="T56" s="7">
-        <v>46696.654354925471</v>
+        <v>47309.777046664516</v>
       </c>
       <c r="U56" s="7">
-        <v>47923.153826648231</v>
+        <v>48552.380341410739</v>
       </c>
       <c r="V56" s="8">
-        <v>48378.168524281544</v>
+        <v>49013.369339345598</v>
       </c>
       <c r="W56" s="8">
-        <v>49397.8</v>
+        <v>50046.388480703288</v>
+      </c>
+      <c r="X56" s="8">
+        <v>50743.4</v>
       </c>
     </row>
   </sheetData>
@@ -4475,13 +4638,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4489,15 +4652,15 @@
     <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="8.88671875" style="2"/>
+    <col min="6" max="20" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4555,1686 +4718,1773 @@
       <c r="S4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>1.8512176746279463</v>
+        <v>1.8512176746279545</v>
       </c>
       <c r="C5" s="9">
-        <v>2.1538761010268193</v>
+        <v>2.1538761010267993</v>
       </c>
       <c r="D5" s="9">
-        <v>2.6705743524268328</v>
+        <v>2.6705743524268262</v>
       </c>
       <c r="E5" s="9">
-        <v>3.1825908897732127</v>
+        <v>3.1825908897732154</v>
       </c>
       <c r="F5" s="9">
-        <v>1.2258033527066596</v>
+        <v>1.2258033527066536</v>
       </c>
       <c r="G5" s="9">
-        <v>-7.5277730139674857</v>
+        <v>-7.5277730139674945</v>
       </c>
       <c r="H5" s="9">
-        <v>-1.4696599998115787</v>
+        <v>-1.4696599998115811</v>
       </c>
       <c r="I5" s="9">
-        <v>-1.0830595261497571</v>
+        <v>-1.0830595261497524</v>
       </c>
       <c r="J5" s="9">
-        <v>1.5734879615833464</v>
+        <v>1.5734879615833577</v>
       </c>
       <c r="K5" s="9">
-        <v>11.949679054576178</v>
+        <v>11.949679054576182</v>
       </c>
       <c r="L5" s="9">
-        <v>4.7357702200082281</v>
+        <v>4.7357702200082272</v>
       </c>
       <c r="M5" s="9">
-        <v>5.4215955332639414</v>
+        <v>5.4215955332639343</v>
       </c>
       <c r="N5" s="9">
-        <v>3.5644544936419065</v>
+        <v>3.5644544936419149</v>
       </c>
       <c r="O5" s="9">
-        <v>1.8710597763563503</v>
+        <v>1.8710597763563621</v>
       </c>
       <c r="P5" s="9">
-        <v>1.7135293043636932</v>
+        <v>1.7135293043636974</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.65171141572186375</v>
+        <v>0.65171141572185987</v>
       </c>
       <c r="R5" s="9">
-        <v>1.7177294215293752</v>
+        <v>1.7177294215293712</v>
       </c>
       <c r="S5" s="9">
-        <v>2.382372072853431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.3823720728534248</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2.9259448737625351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9">
-        <v>1.008819798825987</v>
+        <v>1.0088197988259984</v>
       </c>
       <c r="C6" s="9">
-        <v>1.5728061811282972</v>
+        <v>1.5728061811282728</v>
       </c>
       <c r="D6" s="9">
-        <v>2.530178467945511</v>
+        <v>2.5301784679454884</v>
       </c>
       <c r="E6" s="9">
-        <v>2.3756097560975609</v>
+        <v>2.3756097560975711</v>
       </c>
       <c r="F6" s="9">
-        <v>1.3978526024783764</v>
+        <v>1.3978526024783653</v>
       </c>
       <c r="G6" s="9">
-        <v>-6.9525496230487152</v>
+        <v>-6.9525496230486947</v>
       </c>
       <c r="H6" s="9">
-        <v>0.48281874179735601</v>
+        <v>0.4828187417973544</v>
       </c>
       <c r="I6" s="9">
-        <v>-4.0024777243062609E-2</v>
+        <v>-4.0024777243067543E-2</v>
       </c>
       <c r="J6" s="9">
-        <v>1.856669706715302</v>
+        <v>1.8566697067153126</v>
       </c>
       <c r="K6" s="9">
-        <v>11.067658224556666</v>
+        <v>11.067658224556652</v>
       </c>
       <c r="L6" s="9">
-        <v>1.9572699278298233</v>
+        <v>1.957269927829838</v>
       </c>
       <c r="M6" s="9">
-        <v>3.3262467466847294</v>
+        <v>3.326246746684733</v>
       </c>
       <c r="N6" s="9">
-        <v>1.8162282396629568</v>
+        <v>1.8162282396629357</v>
       </c>
       <c r="O6" s="9">
-        <v>1.0600640533403312</v>
+        <v>1.0600640533403367</v>
       </c>
       <c r="P6" s="9">
-        <v>1.9739302812687269</v>
+        <v>1.9739302812687129</v>
       </c>
       <c r="Q6" s="9">
-        <v>1.8988392906571092</v>
+        <v>1.8988392906571083</v>
       </c>
       <c r="R6" s="9">
-        <v>2.4327476718567613</v>
+        <v>2.4327476718567751</v>
       </c>
       <c r="S6" s="9">
-        <v>2.6019755740469579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.6019755740469468</v>
+      </c>
+      <c r="T6" s="9">
+        <v>2.5693457429737152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <v>-1.6228701096095686</v>
+        <v>-1.6228701096095752</v>
       </c>
       <c r="C7" s="9">
-        <v>-1.0765635682725043</v>
+        <v>-1.0765635682725152</v>
       </c>
       <c r="D7" s="9">
-        <v>0.89513805154198567</v>
+        <v>0.89513805154198167</v>
       </c>
       <c r="E7" s="9">
-        <v>0.64459840903259091</v>
+        <v>0.64459840903259702</v>
       </c>
       <c r="F7" s="9">
-        <v>0.4870664799406923</v>
+        <v>0.48706647994067698</v>
       </c>
       <c r="G7" s="9">
-        <v>-6.7297971983247535</v>
+        <v>-6.729797198324758</v>
       </c>
       <c r="H7" s="9">
-        <v>-5.4416739249326707</v>
+        <v>-5.4416739249326653</v>
       </c>
       <c r="I7" s="9">
-        <v>-3.4379366261103668</v>
+        <v>-3.4379366261103712</v>
       </c>
       <c r="J7" s="9">
-        <v>-2.6725418865604285</v>
+        <v>-2.672541886560428</v>
       </c>
       <c r="K7" s="9">
-        <v>4.851910017916774</v>
+        <v>4.8519100179167891</v>
       </c>
       <c r="L7" s="9">
-        <v>2.2653028436780556</v>
+        <v>2.2653028436780471</v>
       </c>
       <c r="M7" s="9">
-        <v>1.2304345070868785</v>
+        <v>1.2304345070868747</v>
       </c>
       <c r="N7" s="9">
-        <v>-2.3395137770197079</v>
+        <v>-2.3395137770197012</v>
       </c>
       <c r="O7" s="9">
-        <v>-1.4535098359791117</v>
+        <v>-1.4535098359791225</v>
       </c>
       <c r="P7" s="9">
-        <v>-1.4421868454126523</v>
+        <v>-1.4421868454126534</v>
       </c>
       <c r="Q7" s="9">
-        <v>-0.31508550085031323</v>
+        <v>-0.31508550085030279</v>
       </c>
       <c r="R7" s="9">
-        <v>5.0250660341760565</v>
+        <v>5.0250660341760618</v>
       </c>
       <c r="S7" s="9">
-        <v>5.4930587517526952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.493058751752689</v>
+      </c>
+      <c r="T7" s="9">
+        <v>5.6618811302508929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="9">
-        <v>2.6400465206435308</v>
+        <v>2.640046520643534</v>
       </c>
       <c r="C8" s="9">
-        <v>3.5186026065870002</v>
+        <v>3.5186026065869993</v>
       </c>
       <c r="D8" s="9">
-        <v>4.2576826944255552</v>
+        <v>4.2576826944255526</v>
       </c>
       <c r="E8" s="9">
-        <v>4.8607667366011693</v>
+        <v>4.8607667366011755</v>
       </c>
       <c r="F8" s="9">
-        <v>2.5919700861157322</v>
+        <v>2.5919700861157278</v>
       </c>
       <c r="G8" s="9">
-        <v>-3.7340525809853724</v>
+        <v>-3.7340525809853715</v>
       </c>
       <c r="H8" s="9">
-        <v>1.5330351155976403</v>
+        <v>1.5330351155976429</v>
       </c>
       <c r="I8" s="9">
-        <v>2.8538428658475592</v>
+        <v>2.8538428658475676</v>
       </c>
       <c r="J8" s="9">
-        <v>5.0345608335097367</v>
+        <v>5.0345608335097412</v>
       </c>
       <c r="K8" s="9">
-        <v>12.744793888393385</v>
+        <v>12.744793888393383</v>
       </c>
       <c r="L8" s="9">
-        <v>6.9026036295210886</v>
+        <v>6.9026036295210815</v>
       </c>
       <c r="M8" s="9">
-        <v>6.7376983951545268</v>
+        <v>6.7376983951545188</v>
       </c>
       <c r="N8" s="9">
-        <v>5.0938055889028178</v>
+        <v>5.0938055889028107</v>
       </c>
       <c r="O8" s="9">
-        <v>3.639052745627458</v>
+        <v>3.6390527456274477</v>
       </c>
       <c r="P8" s="9">
-        <v>2.6098436124839086</v>
+        <v>2.6098436124839175</v>
       </c>
       <c r="Q8" s="9">
-        <v>1.7272087147413224</v>
+        <v>1.7272087147413295</v>
       </c>
       <c r="R8" s="9">
-        <v>2.508087916486005</v>
+        <v>2.5080879164860028</v>
       </c>
       <c r="S8" s="9">
-        <v>2.3754210709722385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.3754210709722448</v>
+      </c>
+      <c r="T8" s="9">
+        <v>2.988816679312511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9">
-        <v>0.20649779735683835</v>
+        <v>0.20649779735682328</v>
       </c>
       <c r="C9" s="9">
-        <v>0.22228123493946278</v>
+        <v>0.22228123493946658</v>
       </c>
       <c r="D9" s="9">
-        <v>0.74415966674163248</v>
+        <v>0.74415966674162459</v>
       </c>
       <c r="E9" s="9">
-        <v>1.4950733865218813</v>
+        <v>1.4950733865218735</v>
       </c>
       <c r="F9" s="9">
-        <v>2.1431515318038024</v>
+        <v>2.1431515318038157</v>
       </c>
       <c r="G9" s="9">
-        <v>-3.5976800557414701</v>
+        <v>-3.5976800557414745</v>
       </c>
       <c r="H9" s="9">
-        <v>2.3392607547755877</v>
+        <v>2.3392607547755868</v>
       </c>
       <c r="I9" s="9">
-        <v>1.7337925991494592</v>
+        <v>1.7337925991494598</v>
       </c>
       <c r="J9" s="9">
-        <v>3.726582764914979</v>
+        <v>3.7265827649149843</v>
       </c>
       <c r="K9" s="9">
-        <v>11.331222705200917</v>
+        <v>11.331222705200892</v>
       </c>
       <c r="L9" s="9">
-        <v>3.9493901398030933</v>
+        <v>3.9493901398030924</v>
       </c>
       <c r="M9" s="9">
-        <v>4.7911780282968897</v>
+        <v>4.7911780282968879</v>
       </c>
       <c r="N9" s="9">
-        <v>2.052440978429011</v>
+        <v>2.0524409784289896</v>
       </c>
       <c r="O9" s="9">
-        <v>-0.29625836655571158</v>
+        <v>-0.29625836655571564</v>
       </c>
       <c r="P9" s="9">
-        <v>1.6368911841456826</v>
+        <v>1.636891184145709</v>
       </c>
       <c r="Q9" s="9">
-        <v>1.8808324759480708</v>
+        <v>1.880832475948085</v>
       </c>
       <c r="R9" s="9">
-        <v>2.9858873712392602</v>
+        <v>2.9858873712392819</v>
       </c>
       <c r="S9" s="9">
-        <v>3.9655172413792958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.965517241379299</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1.9435866130422292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
-        <v>3.2406549575291863</v>
+        <v>3.2406549575291965</v>
       </c>
       <c r="C10" s="9">
-        <v>3.7247182337501887</v>
+        <v>3.7247182337501927</v>
       </c>
       <c r="D10" s="9">
-        <v>3.89110631552815</v>
+        <v>3.8911063155281296</v>
       </c>
       <c r="E10" s="9">
-        <v>4.8119600444795152</v>
+        <v>4.8119600444795054</v>
       </c>
       <c r="F10" s="9">
-        <v>2.7667573490516046</v>
+        <v>2.7667573490516131</v>
       </c>
       <c r="G10" s="9">
-        <v>-6.9558664830871066</v>
+        <v>-6.9558664830871182</v>
       </c>
       <c r="H10" s="9">
-        <v>-0.6470528763522424</v>
+        <v>-0.64705287635224695</v>
       </c>
       <c r="I10" s="9">
-        <v>-0.21944142183533691</v>
+        <v>-0.21944142183533644</v>
       </c>
       <c r="J10" s="9">
-        <v>3.0728079931613204</v>
+        <v>3.0728079931613146</v>
       </c>
       <c r="K10" s="9">
-        <v>13.782932560115979</v>
+        <v>13.782932560115984</v>
       </c>
       <c r="L10" s="9">
-        <v>6.8429281108633884</v>
+        <v>6.8429281108633937</v>
       </c>
       <c r="M10" s="9">
-        <v>7.0302986241116718</v>
+        <v>7.0302986241116745</v>
       </c>
       <c r="N10" s="9">
-        <v>3.3503959477777108</v>
+        <v>3.3503959477777041</v>
       </c>
       <c r="O10" s="9">
-        <v>1.3514938488576429</v>
+        <v>1.3514938488576465</v>
       </c>
       <c r="P10" s="9">
-        <v>0.22771745718392652</v>
+        <v>0.22771745718393466</v>
       </c>
       <c r="Q10" s="9">
-        <v>-2.081104488257171</v>
+        <v>-2.0811044882571808</v>
       </c>
       <c r="R10" s="9">
-        <v>0.48579292968513993</v>
+        <v>0.48579292968513399</v>
       </c>
       <c r="S10" s="9">
-        <v>1.6620714768766593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.6620714768766558</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2.4871066112632407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>2.2961826203721398</v>
+        <v>2.2961826203721367</v>
       </c>
       <c r="C11" s="9">
-        <v>4.5737045660079607</v>
+        <v>4.5737045660079669</v>
       </c>
       <c r="D11" s="9">
-        <v>6.9965296136431343</v>
+        <v>6.9965296136431414</v>
       </c>
       <c r="E11" s="9">
-        <v>6.2724612260850607</v>
+        <v>6.2724612260850598</v>
       </c>
       <c r="F11" s="9">
-        <v>4.2586307123970961</v>
+        <v>4.2586307123970952</v>
       </c>
       <c r="G11" s="9">
-        <v>-5.4178626628394717</v>
+        <v>-5.417862662839469</v>
       </c>
       <c r="H11" s="9">
-        <v>-1.1257760487327015</v>
+        <v>-1.125776048732718</v>
       </c>
       <c r="I11" s="9">
-        <v>-0.40813397558372538</v>
+        <v>-0.40813397558372638</v>
       </c>
       <c r="J11" s="9">
-        <v>2.2060146048419007</v>
+        <v>2.2060146048418985</v>
       </c>
       <c r="K11" s="9">
-        <v>12.428142052583956</v>
+        <v>12.428142052583963</v>
       </c>
       <c r="L11" s="9">
-        <v>6.1255088688572314</v>
+        <v>6.1255088688572217</v>
       </c>
       <c r="M11" s="9">
-        <v>7.0000360269481376</v>
+        <v>7.0000360269481581</v>
       </c>
       <c r="N11" s="9">
-        <v>4.2156112240318926</v>
+        <v>4.2156112240318766</v>
       </c>
       <c r="O11" s="9">
-        <v>1.8514673311185057</v>
+        <v>1.8514673311184975</v>
       </c>
       <c r="P11" s="9">
-        <v>1.900007706205191</v>
+        <v>1.9000077062052083</v>
       </c>
       <c r="Q11" s="9">
-        <v>1.0976430976431082</v>
+        <v>1.0976430976431024</v>
       </c>
       <c r="R11" s="9">
-        <v>1.8059777102330199</v>
+        <v>1.8059777102330428</v>
       </c>
       <c r="S11" s="9">
-        <v>3.0809350684652146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.0809350684652261</v>
+      </c>
+      <c r="T11" s="9">
+        <v>3.4115353589674657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="9">
-        <v>-0.81294341237224665</v>
+        <v>-0.8129434123722481</v>
       </c>
       <c r="C12" s="9">
-        <v>0.19559656953710503</v>
+        <v>0.19559656953709462</v>
       </c>
       <c r="D12" s="9">
-        <v>-0.84601363132034302</v>
+        <v>-0.84601363132033403</v>
       </c>
       <c r="E12" s="9">
-        <v>0.94598382317609331</v>
+        <v>0.94598382317608998</v>
       </c>
       <c r="F12" s="9">
-        <v>-2.8550791517024119</v>
+        <v>-2.8550791517024172</v>
       </c>
       <c r="G12" s="9">
-        <v>-10.959054960456504</v>
+        <v>-10.959054960456509</v>
       </c>
       <c r="H12" s="9">
-        <v>-4.5549005894694679</v>
+        <v>-4.5549005894694758</v>
       </c>
       <c r="I12" s="9">
-        <v>-4.3871044515623447</v>
+        <v>-4.3871044515623563</v>
       </c>
       <c r="J12" s="9">
-        <v>-1.0812094675533903</v>
+        <v>-1.0812094675533905</v>
       </c>
       <c r="K12" s="9">
-        <v>10.226774451052934</v>
+        <v>10.226774451052918</v>
       </c>
       <c r="L12" s="9">
-        <v>3.4397211376411838</v>
+        <v>3.4397211376411714</v>
       </c>
       <c r="M12" s="9">
-        <v>3.7275584181212693</v>
+        <v>3.7275584181212844</v>
       </c>
       <c r="N12" s="9">
-        <v>5.1644760880685681</v>
+        <v>5.1644760880685574</v>
       </c>
       <c r="O12" s="9">
-        <v>2.2684849906669751</v>
+        <v>2.2684849906669866</v>
       </c>
       <c r="P12" s="9">
-        <v>2.1393080138032929</v>
+        <v>2.1393080138033089</v>
       </c>
       <c r="Q12" s="9">
-        <v>2.1387647358790813</v>
+        <v>2.1387647358790631</v>
       </c>
       <c r="R12" s="9">
-        <v>1.456281766200767</v>
+        <v>1.4562817662007697</v>
       </c>
       <c r="S12" s="9">
-        <v>2.1284023019458798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.1284023019458931</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2.6295191764670842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="9">
-        <v>4.7229501499586544</v>
+        <v>4.7229501499586437</v>
       </c>
       <c r="C13" s="9">
-        <v>5.8854466429833048</v>
+        <v>5.8854466429832986</v>
       </c>
       <c r="D13" s="9">
-        <v>5.2302516432655235</v>
+        <v>5.2302516432655546</v>
       </c>
       <c r="E13" s="9">
-        <v>5.2801422208480888</v>
+        <v>5.2801422208481119</v>
       </c>
       <c r="F13" s="9">
-        <v>0.67363773893682855</v>
+        <v>0.67363773893683399</v>
       </c>
       <c r="G13" s="9">
-        <v>-6.7091513987160729</v>
+        <v>-6.7091513987160738</v>
       </c>
       <c r="H13" s="9">
-        <v>-2.0605601397115167</v>
+        <v>-2.0605601397115461</v>
       </c>
       <c r="I13" s="9">
-        <v>-2.8375823651414191</v>
+        <v>-2.8375823651414245</v>
       </c>
       <c r="J13" s="9">
-        <v>0.33645531098490522</v>
+        <v>0.33645531098489279</v>
       </c>
       <c r="K13" s="9">
-        <v>7.4257127358206256</v>
+        <v>7.4257127358206203</v>
       </c>
       <c r="L13" s="9">
-        <v>0.81892200428331585</v>
+        <v>0.8189220042833163</v>
       </c>
       <c r="M13" s="9">
-        <v>2.1072217919413765</v>
+        <v>2.1072217919413645</v>
       </c>
       <c r="N13" s="9">
-        <v>1.5146234634766491</v>
+        <v>1.5146234634766511</v>
       </c>
       <c r="O13" s="9">
-        <v>0.97252613663991117</v>
+        <v>0.97252613663991139</v>
       </c>
       <c r="P13" s="9">
-        <v>1.051833690495118</v>
+        <v>1.0518336904951173</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.42643726007121679</v>
+        <v>0.42643726007123051</v>
       </c>
       <c r="R13" s="9">
-        <v>-1.4140833047238346</v>
+        <v>-1.4140833047238219</v>
       </c>
       <c r="S13" s="9">
-        <v>-1.7781399914797378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.7781399914797276</v>
+      </c>
+      <c r="T13" s="9">
+        <v>-0.99550863545862267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="9">
-        <v>0.32655951842307429</v>
+        <v>0.32655951842307435</v>
       </c>
       <c r="C14" s="9">
-        <v>0.42695468236716083</v>
+        <v>0.42695468236714557</v>
       </c>
       <c r="D14" s="9">
-        <v>0.10507948443572576</v>
+        <v>0.10507948443571022</v>
       </c>
       <c r="E14" s="9">
-        <v>1.487273396699897</v>
+        <v>1.4872733966998901</v>
       </c>
       <c r="F14" s="9">
-        <v>2.3559285476185789</v>
+        <v>2.3559285476185652</v>
       </c>
       <c r="G14" s="9">
-        <v>-3.9679689395777658</v>
+        <v>-3.9679689395777751</v>
       </c>
       <c r="H14" s="9">
-        <v>-1.2596302003081838</v>
+        <v>-1.2596302003081732</v>
       </c>
       <c r="I14" s="9">
-        <v>-0.28450316963264283</v>
+        <v>-0.28450316963263822</v>
       </c>
       <c r="J14" s="9">
-        <v>-0.66761812626316042</v>
+        <v>-0.66761812626314232</v>
       </c>
       <c r="K14" s="9">
-        <v>7.0105218472361175</v>
+        <v>7.0105218472361397</v>
       </c>
       <c r="L14" s="9">
-        <v>4.5634533609019616</v>
+        <v>4.563453360901967</v>
       </c>
       <c r="M14" s="9">
-        <v>3.5597342167244541</v>
+        <v>3.5597342167244355</v>
       </c>
       <c r="N14" s="9">
-        <v>3.4868471804366163</v>
+        <v>3.4868471804366186</v>
       </c>
       <c r="O14" s="9">
-        <v>1.2552775495168751</v>
+        <v>1.2552775495168642</v>
       </c>
       <c r="P14" s="9">
-        <v>-0.17348966057587648</v>
+        <v>-0.17348966057587023</v>
       </c>
       <c r="Q14" s="9">
-        <v>-0.67397655412152668</v>
+        <v>-0.67397655412151924</v>
       </c>
       <c r="R14" s="9">
-        <v>0.29724189340292273</v>
+        <v>0.29724189340290075</v>
       </c>
       <c r="S14" s="9">
-        <v>0.79662692860206763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.7966269286020673</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1.5743985050221747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="9">
-        <v>2.0955118370200516</v>
+        <v>2.0955118370200481</v>
       </c>
       <c r="C15" s="9">
-        <v>2.564924343958205</v>
+        <v>2.5649243439582015</v>
       </c>
       <c r="D15" s="9">
-        <v>2.6894019492877659</v>
+        <v>2.6894019492877548</v>
       </c>
       <c r="E15" s="9">
-        <v>3.6238849584743229</v>
+        <v>3.6238849584743313</v>
       </c>
       <c r="F15" s="9">
-        <v>1.6634962906600732</v>
+        <v>1.6634962906600825</v>
       </c>
       <c r="G15" s="9">
-        <v>-6.3537454903557578</v>
+        <v>-6.3537454903557427</v>
       </c>
       <c r="H15" s="9">
-        <v>0.51012767232018386</v>
+        <v>0.51012767232019207</v>
       </c>
       <c r="I15" s="9">
-        <v>0.11224281553217397</v>
+        <v>0.11224281553217259</v>
       </c>
       <c r="J15" s="9">
-        <v>3.7131978033286899</v>
+        <v>3.7131978033287041</v>
       </c>
       <c r="K15" s="9">
-        <v>15.459518488932941</v>
+        <v>15.45951848893292</v>
       </c>
       <c r="L15" s="9">
-        <v>7.9474022406198612</v>
+        <v>7.9474022406198452</v>
       </c>
       <c r="M15" s="9">
-        <v>9.4548891339195311</v>
+        <v>9.45488913391954</v>
       </c>
       <c r="N15" s="9">
-        <v>6.8051020224070511</v>
+        <v>6.8051020224070262</v>
       </c>
       <c r="O15" s="9">
-        <v>4.1633825512759772</v>
+        <v>4.1633825512759897</v>
       </c>
       <c r="P15" s="9">
-        <v>4.2470775999654773</v>
+        <v>4.247077599965503</v>
       </c>
       <c r="Q15" s="9">
-        <v>3.3226950654803837</v>
+        <v>3.322695065480378</v>
       </c>
       <c r="R15" s="9">
-        <v>4.9154575091636943</v>
+        <v>4.9154575091636978</v>
       </c>
       <c r="S15" s="9">
-        <v>5.039515722212883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.039515722212875</v>
+      </c>
+      <c r="T15" s="9">
+        <v>4.9189824392988868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9">
-        <v>3.0717764549613746</v>
+        <v>3.0717764549613764</v>
       </c>
       <c r="C16" s="9">
-        <v>3.360975609756085</v>
+        <v>3.3609756097560815</v>
       </c>
       <c r="D16" s="9">
-        <v>3.3333654745489816</v>
+        <v>3.3333654745489634</v>
       </c>
       <c r="E16" s="9">
-        <v>3.4474475628621182</v>
+        <v>3.4474475628621186</v>
       </c>
       <c r="F16" s="9">
-        <v>0.46679458174631627</v>
+        <v>0.46679458174633703</v>
       </c>
       <c r="G16" s="9">
-        <v>-8.0957100382273737</v>
+        <v>-8.0957100382273826</v>
       </c>
       <c r="H16" s="9">
-        <v>-2.2759084037847832</v>
+        <v>-2.2759084037847765</v>
       </c>
       <c r="I16" s="9">
         <v>-1.9820740259137117</v>
       </c>
       <c r="J16" s="9">
-        <v>1.7815403910837579</v>
+        <v>1.7815403910837446</v>
       </c>
       <c r="K16" s="9">
-        <v>12.142593049051028</v>
+        <v>12.14259304905103</v>
       </c>
       <c r="L16" s="9">
-        <v>5.1486245189874742</v>
+        <v>5.1486245189874662</v>
       </c>
       <c r="M16" s="9">
-        <v>5.8883171769432652</v>
+        <v>5.8883171769432625</v>
       </c>
       <c r="N16" s="9">
-        <v>3.2309257755248715</v>
+        <v>3.2309257755248595</v>
       </c>
       <c r="O16" s="9">
-        <v>2.8143345147493739</v>
+        <v>2.8143345147493872</v>
       </c>
       <c r="P16" s="9">
-        <v>2.2039793314505225</v>
+        <v>2.2039793314505296</v>
       </c>
       <c r="Q16" s="9">
-        <v>2.1584858382925245</v>
+        <v>2.1584858382925223</v>
       </c>
       <c r="R16" s="9">
-        <v>1.6069523068853906</v>
+        <v>1.6069523068854015</v>
       </c>
       <c r="S16" s="9">
-        <v>0.15944559253188992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.15944559253189813</v>
+      </c>
+      <c r="T16" s="9">
+        <v>1.0102535852007146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="9">
-        <v>-0.12163525246732959</v>
+        <v>-0.12163525246732035</v>
       </c>
       <c r="C17" s="9">
-        <v>-0.64091868282866904</v>
+        <v>-0.64091868282868247</v>
       </c>
       <c r="D17" s="9">
-        <v>0.41977566087631707</v>
+        <v>0.41977566087630808</v>
       </c>
       <c r="E17" s="9">
-        <v>0.83204657887228928</v>
+        <v>0.83204657887229549</v>
       </c>
       <c r="F17" s="9">
-        <v>-2.1722987356310308</v>
+        <v>-2.1722987356310255</v>
       </c>
       <c r="G17" s="9">
-        <v>-15.444721036826316</v>
+        <v>-15.444721036826325</v>
       </c>
       <c r="H17" s="9">
-        <v>-13.072208951717123</v>
+        <v>-13.072208951717105</v>
       </c>
       <c r="I17" s="9">
-        <v>-11.317460472284255</v>
+        <v>-11.317460472284257</v>
       </c>
       <c r="J17" s="9">
-        <v>-6.3478568898335244</v>
+        <v>-6.3478568898335102</v>
       </c>
       <c r="K17" s="9">
         <v>12.569365748799614</v>
       </c>
       <c r="L17" s="9">
-        <v>10.963455149501666</v>
+        <v>10.963455149501662</v>
       </c>
       <c r="M17" s="9">
         <v>7.145842498900131</v>
       </c>
       <c r="N17" s="9">
-        <v>4.2395685863421768</v>
+        <v>4.239568586342167</v>
       </c>
       <c r="O17" s="9">
-        <v>0.2947403379135608</v>
+        <v>0.29474033791359011</v>
       </c>
       <c r="P17" s="9">
-        <v>-0.76930883994723009</v>
+        <v>-0.76930883994722632</v>
       </c>
       <c r="Q17" s="9">
-        <v>1.5767268546557649</v>
+        <v>1.5767268546557558</v>
       </c>
       <c r="R17" s="9">
-        <v>2.3710292775980744</v>
+        <v>2.3710292775980544</v>
       </c>
       <c r="S17" s="9">
-        <v>2.3354718543046498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.3354718543046382</v>
+      </c>
+      <c r="T17" s="9">
+        <v>2.0823957779323399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="9">
-        <v>3.5860091525359503</v>
+        <v>3.5860091525359392</v>
       </c>
       <c r="C18" s="9">
-        <v>4.1802583199773764</v>
+        <v>4.1802583199773853</v>
       </c>
       <c r="D18" s="9">
-        <v>5.253451907325065</v>
+        <v>5.2534519073250667</v>
       </c>
       <c r="E18" s="9">
-        <v>5.5467821046373489</v>
+        <v>5.5467821046373471</v>
       </c>
       <c r="F18" s="9">
-        <v>4.1199600377624712</v>
+        <v>4.1199600377624845</v>
       </c>
       <c r="G18" s="9">
-        <v>-4.2333309201476981</v>
+        <v>-4.2333309201476963</v>
       </c>
       <c r="H18" s="9">
-        <v>3.6900664372048304</v>
+        <v>3.6900664372048282</v>
       </c>
       <c r="I18" s="9">
-        <v>4.0266152668127617</v>
+        <v>4.0266152668127688</v>
       </c>
       <c r="J18" s="9">
-        <v>5.0713921019736388</v>
+        <v>5.0713921019736077</v>
       </c>
       <c r="K18" s="9">
-        <v>12.745450078430631</v>
+        <v>12.745450078430624</v>
       </c>
       <c r="L18" s="9">
-        <v>2.6195255004889217</v>
+        <v>2.6195255004889044</v>
       </c>
       <c r="M18" s="9">
-        <v>5.1398548149652337</v>
+        <v>5.1398548149652301</v>
       </c>
       <c r="N18" s="9">
-        <v>4.5333824847728277</v>
+        <v>4.5333824847728463</v>
       </c>
       <c r="O18" s="9">
-        <v>4.6314766079420835</v>
+        <v>4.631476607942095</v>
       </c>
       <c r="P18" s="9">
-        <v>5.1663323303242885</v>
+        <v>5.1663323303243152</v>
       </c>
       <c r="Q18" s="9">
-        <v>2.5130965888516115</v>
+        <v>2.5130965888515964</v>
       </c>
       <c r="R18" s="9">
-        <v>2.822793940851164</v>
+        <v>2.8227939408511697</v>
       </c>
       <c r="S18" s="9">
-        <v>2.9910285165011263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.9910285165011223</v>
+      </c>
+      <c r="T18" s="9">
+        <v>3.9421082331248378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="9">
-        <v>0.7184218274609796</v>
+        <v>0.71842182746096983</v>
       </c>
       <c r="C19" s="9">
-        <v>0.80841931975189807</v>
+        <v>0.80841931975189607</v>
       </c>
       <c r="D19" s="9">
-        <v>1.0945487181488314</v>
+        <v>1.0945487181488252</v>
       </c>
       <c r="E19" s="9">
-        <v>0.41549220220620342</v>
+        <v>0.41549220220622829</v>
       </c>
       <c r="F19" s="9">
-        <v>-2.4975151526963035</v>
+        <v>-2.4975151526962986</v>
       </c>
       <c r="G19" s="9">
-        <v>-10.631245382790951</v>
+        <v>-10.631245382790949</v>
       </c>
       <c r="H19" s="9">
-        <v>-5.1529479880343434</v>
+        <v>-5.1529479880343461</v>
       </c>
       <c r="I19" s="9">
-        <v>-3.9881501626924307</v>
+        <v>-3.9881501626924578</v>
       </c>
       <c r="J19" s="9">
-        <v>0.66360847100210474</v>
+        <v>0.66360847100211395</v>
       </c>
       <c r="K19" s="9">
-        <v>11.160660872970137</v>
+        <v>11.16066087297013</v>
       </c>
       <c r="L19" s="9">
-        <v>4.3035914131651314</v>
+        <v>4.3035914131651136</v>
       </c>
       <c r="M19" s="9">
-        <v>5.338445507794721</v>
+        <v>5.3384455077947415</v>
       </c>
       <c r="N19" s="9">
-        <v>3.2346137426407142</v>
+        <v>3.2346137426406867</v>
       </c>
       <c r="O19" s="9">
-        <v>1.324853228962831</v>
+        <v>1.3248532289628219</v>
       </c>
       <c r="P19" s="9">
-        <v>0.91299258681232121</v>
+        <v>0.91299258681234352</v>
       </c>
       <c r="Q19" s="9">
-        <v>-6.0503620613494936E-2</v>
+        <v>-6.0503620613512339E-2</v>
       </c>
       <c r="R19" s="9">
-        <v>0.2356199690328015</v>
+        <v>0.2356199690328287</v>
       </c>
       <c r="S19" s="9">
-        <v>0.93477799022731112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.93477799022733732</v>
+      </c>
+      <c r="T19" s="9">
+        <v>2.0627126507887308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="9">
-        <v>4.9594492094065648E-2</v>
+        <v>4.9594492094051229E-2</v>
       </c>
       <c r="C20" s="9">
-        <v>0.50350411648635696</v>
+        <v>0.50350411648636428</v>
       </c>
       <c r="D20" s="9">
-        <v>0.8835512372620522</v>
+        <v>0.88355123726205032</v>
       </c>
       <c r="E20" s="9">
-        <v>1.0346426570318892</v>
+        <v>1.0346426570318941</v>
       </c>
       <c r="F20" s="9">
-        <v>-0.2118870583661423</v>
+        <v>-0.21188705836613198</v>
       </c>
       <c r="G20" s="9">
-        <v>-10.354265597647915</v>
+        <v>-10.354265597647899</v>
       </c>
       <c r="H20" s="9">
-        <v>-1.4849490627937778</v>
+        <v>-1.484949062793776</v>
       </c>
       <c r="I20" s="9">
-        <v>-0.76110340871060889</v>
+        <v>-0.76110340871061444</v>
       </c>
       <c r="J20" s="9">
         <v>2.8256401764929309</v>
       </c>
       <c r="K20" s="9">
-        <v>15.139549686593091</v>
+        <v>15.13954968659308</v>
       </c>
       <c r="L20" s="9">
-        <v>4.5366024654813284</v>
+        <v>4.5366024654813186</v>
       </c>
       <c r="M20" s="9">
-        <v>5.9987089190569334</v>
+        <v>5.9987089190569298</v>
       </c>
       <c r="N20" s="9">
-        <v>4.8499545316762713</v>
+        <v>4.8499545316762722</v>
       </c>
       <c r="O20" s="9">
-        <v>3.609309995877219</v>
+        <v>3.6093099958772066</v>
       </c>
       <c r="P20" s="9">
-        <v>3.4464450385163445</v>
+        <v>3.4464450385163494</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.64263964004908036</v>
+        <v>0.64263964004908536</v>
       </c>
       <c r="R20" s="9">
-        <v>0.32704538884070522</v>
+        <v>0.32704538884069356</v>
       </c>
       <c r="S20" s="9">
-        <v>0.77864997829547189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.778649978295472</v>
+      </c>
+      <c r="T20" s="9">
+        <v>1.5154380183149139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="9">
-        <v>-1.6235308085005162</v>
+        <v>-1.6235308085005273</v>
       </c>
       <c r="C21" s="9">
-        <v>-1.4674680009079293</v>
+        <v>-1.4674680009079168</v>
       </c>
       <c r="D21" s="9">
-        <v>1.0860550531174722E-2</v>
+        <v>1.0860550531179944E-2</v>
       </c>
       <c r="E21" s="9">
-        <v>1.1255342568994857</v>
+        <v>1.1255342568994797</v>
       </c>
       <c r="F21" s="9">
-        <v>1.0620003017046293</v>
+        <v>1.0620003017046344</v>
       </c>
       <c r="G21" s="9">
-        <v>-4.6602700212331225</v>
+        <v>-4.6602700212331234</v>
       </c>
       <c r="H21" s="9">
-        <v>0.24581667407077551</v>
+        <v>0.24581667407076752</v>
       </c>
       <c r="I21" s="9">
-        <v>0.80705263983682984</v>
+        <v>0.80705263983682252</v>
       </c>
       <c r="J21" s="9">
-        <v>5.4283468171279026</v>
+        <v>5.4283468171278919</v>
       </c>
       <c r="K21" s="9">
-        <v>12.003235600004224</v>
+        <v>12.003235600004217</v>
       </c>
       <c r="L21" s="9">
-        <v>3.9322855116993716</v>
+        <v>3.9322855116993813</v>
       </c>
       <c r="M21" s="9">
-        <v>3.2626776525063459</v>
+        <v>3.2626776525063561</v>
       </c>
       <c r="N21" s="9">
-        <v>0.75793328676873117</v>
+        <v>0.75793328676872807</v>
       </c>
       <c r="O21" s="9">
-        <v>-1.1818002757534085</v>
+        <v>-1.1818002757534025</v>
       </c>
       <c r="P21" s="9">
-        <v>0.33826999061941132</v>
+        <v>0.33826999061940405</v>
       </c>
       <c r="Q21" s="9">
-        <v>-1.1643571071943442</v>
+        <v>-1.1643571071943382</v>
       </c>
       <c r="R21" s="9">
-        <v>-0.45152647799980294</v>
+        <v>-0.45152647799978374</v>
       </c>
       <c r="S21" s="9">
-        <v>1.1190523648167685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.1190523648167592</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1.6167110506733011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="9">
-        <v>0.15710996709582575</v>
+        <v>0.15710996709583203</v>
       </c>
       <c r="C22" s="9">
-        <v>0.69844887373892028</v>
+        <v>0.69844887373891573</v>
       </c>
       <c r="D22" s="9">
-        <v>2.7248751909842554E-2</v>
+        <v>2.7248751909845114E-2</v>
       </c>
       <c r="E22" s="9">
-        <v>0.42543249058110622</v>
+        <v>0.42543249058110527</v>
       </c>
       <c r="F22" s="9">
-        <v>1.8586847141926903</v>
+        <v>1.8586847141926892</v>
       </c>
       <c r="G22" s="9">
-        <v>-6.5994849182502859</v>
+        <v>-6.599484918250285</v>
       </c>
       <c r="H22" s="9">
-        <v>0.25003648392275729</v>
+        <v>0.25003648392275174</v>
       </c>
       <c r="I22" s="9">
-        <v>0.25786187909572378</v>
+        <v>0.2578618790957275</v>
       </c>
       <c r="J22" s="9">
-        <v>-1.2446002750711775</v>
+        <v>-1.2446002750711773</v>
       </c>
       <c r="K22" s="9">
-        <v>8.6063733118870331</v>
+        <v>8.6063733118870349</v>
       </c>
       <c r="L22" s="9">
-        <v>1.3712854952349487</v>
+        <v>1.3712854952349447</v>
       </c>
       <c r="M22" s="9">
-        <v>1.9106186304654882</v>
+        <v>1.9106186304654875</v>
       </c>
       <c r="N22" s="9">
-        <v>4.1417797000813996</v>
+        <v>4.1417797000814005</v>
       </c>
       <c r="O22" s="9">
-        <v>-0.24811748074205398</v>
+        <v>-0.24811748074205098</v>
       </c>
       <c r="P22" s="9">
-        <v>0.84534009860704773</v>
+        <v>0.84534009860705495</v>
       </c>
       <c r="Q22" s="9">
-        <v>-0.1385225526101142</v>
+        <v>-0.1385225526101147</v>
       </c>
       <c r="R22" s="9">
-        <v>0.68371882769531833</v>
+        <v>0.68371882769531112</v>
       </c>
       <c r="S22" s="9">
-        <v>4.928416485900228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.9284164859002244</v>
+      </c>
+      <c r="T22" s="9">
+        <v>5.7424671058877212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="9">
-        <v>1.947774185525988</v>
+        <v>1.9477741855259887</v>
       </c>
       <c r="C23" s="9">
-        <v>2.267499827247506</v>
+        <v>2.2674998272474909</v>
       </c>
       <c r="D23" s="9">
-        <v>3.2678834352797024</v>
+        <v>3.2678834352797073</v>
       </c>
       <c r="E23" s="9">
-        <v>3.7728980973181248</v>
+        <v>3.7728980973181243</v>
       </c>
       <c r="F23" s="9">
-        <v>1.3124127904140166</v>
+        <v>1.312412790414015</v>
       </c>
       <c r="G23" s="9">
-        <v>-9.0716036989131066</v>
+        <v>-9.0716036989130941</v>
       </c>
       <c r="H23" s="9">
-        <v>-0.81527979790247895</v>
+        <v>-0.81527979790247906</v>
       </c>
       <c r="I23" s="9">
-        <v>-1.7131047297617366</v>
+        <v>-1.713104729761731</v>
       </c>
       <c r="J23" s="9">
-        <v>0.92267981661979392</v>
+        <v>0.92267981661980603</v>
       </c>
       <c r="K23" s="9">
-        <v>11.438428874734585</v>
+        <v>11.438428874734587</v>
       </c>
       <c r="L23" s="9">
-        <v>1.5474858179292443</v>
+        <v>1.5474858179292246</v>
       </c>
       <c r="M23" s="9">
-        <v>2.8232729517526103</v>
+        <v>2.8232729517525965</v>
       </c>
       <c r="N23" s="9">
-        <v>1.423854331685523</v>
+        <v>1.423854331685533</v>
       </c>
       <c r="O23" s="9">
-        <v>1.4870207192188605</v>
+        <v>1.4870207192188878</v>
       </c>
       <c r="P23" s="9">
-        <v>1.8402751387094261</v>
+        <v>1.8402751387094329</v>
       </c>
       <c r="Q23" s="9">
-        <v>0.85458860611061249</v>
+        <v>0.85458860611063237</v>
       </c>
       <c r="R23" s="9">
-        <v>2.782325598900997</v>
+        <v>2.7823255989009761</v>
       </c>
       <c r="S23" s="9">
-        <v>3.2064278741458394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.2064278741458287</v>
+      </c>
+      <c r="T23" s="9">
+        <v>3.8090173798662219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="9">
-        <v>1.0433024497487324</v>
+        <v>1.0433024497487422</v>
       </c>
       <c r="C24" s="9">
-        <v>0.29146249621001086</v>
+        <v>0.29146249621000042</v>
       </c>
       <c r="D24" s="9">
-        <v>0.69096275446877486</v>
+        <v>0.69096275446877842</v>
       </c>
       <c r="E24" s="9">
-        <v>-0.16286644951140708</v>
+        <v>-0.16286644951138982</v>
       </c>
       <c r="F24" s="9">
-        <v>-3.9086555740109179</v>
+        <v>-3.908655574010933</v>
       </c>
       <c r="G24" s="9">
-        <v>-11.304746394125273</v>
+        <v>-11.304746394125283</v>
       </c>
       <c r="H24" s="9">
-        <v>-6.1226074465193907</v>
+        <v>-6.1226074465193925</v>
       </c>
       <c r="I24" s="9">
-        <v>-7.1524162116224117</v>
+        <v>-7.152416211622441</v>
       </c>
       <c r="J24" s="9">
-        <v>-3.1245261657585957</v>
+        <v>-3.1245261657586072</v>
       </c>
       <c r="K24" s="9">
-        <v>7.9594058208446423</v>
+        <v>7.9594058208446654</v>
       </c>
       <c r="L24" s="9">
-        <v>1.3265095119933783</v>
+        <v>1.3265095119933978</v>
       </c>
       <c r="M24" s="9">
-        <v>3.3908825973971308</v>
+        <v>3.390882597397133</v>
       </c>
       <c r="N24" s="9">
-        <v>0.69285028590508346</v>
+        <v>0.69285028590509912</v>
       </c>
       <c r="O24" s="9">
-        <v>-2.2864301136595033</v>
+        <v>-2.2864301136595073</v>
       </c>
       <c r="P24" s="9">
-        <v>-1.6836219299409274</v>
+        <v>-1.6836219299409361</v>
       </c>
       <c r="Q24" s="9">
-        <v>-1.3828964506675472</v>
+        <v>-1.3828964506675427</v>
       </c>
       <c r="R24" s="9">
-        <v>1.3056994818652836</v>
+        <v>1.3056994818652961</v>
       </c>
       <c r="S24" s="9">
-        <v>2.704730933992054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.7047309339920536</v>
+      </c>
+      <c r="T24" s="9">
+        <v>3.9033553703569277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="9">
-        <v>1.2873733871204092</v>
+        <v>1.2873733871203938</v>
       </c>
       <c r="C25" s="9">
-        <v>1.1174595771144322</v>
+        <v>1.1174595771144047</v>
       </c>
       <c r="D25" s="9">
-        <v>2.4270388964663443</v>
+        <v>2.4270388964663212</v>
       </c>
       <c r="E25" s="9">
-        <v>4.7005720066928651</v>
+        <v>4.7005720066928722</v>
       </c>
       <c r="F25" s="9">
-        <v>3.4108990616893347</v>
+        <v>3.4108990616893324</v>
       </c>
       <c r="G25" s="9">
-        <v>-3.0895043339547583</v>
+        <v>-3.0895043339547494</v>
       </c>
       <c r="H25" s="9">
-        <v>2.8521239823961495</v>
+        <v>2.8521239823961806</v>
       </c>
       <c r="I25" s="9">
-        <v>3.2026981826290548</v>
+        <v>3.2026981826290708</v>
       </c>
       <c r="J25" s="9">
-        <v>3.5296640990730621</v>
+        <v>3.529664099073079</v>
       </c>
       <c r="K25" s="9">
-        <v>10.962150584548874</v>
+        <v>10.962150584548882</v>
       </c>
       <c r="L25" s="9">
-        <v>3.7637963013975324</v>
+        <v>3.7637963013975408</v>
       </c>
       <c r="M25" s="9">
         <v>2.6675669592617441</v>
       </c>
       <c r="N25" s="9">
-        <v>3.317450166187768</v>
+        <v>3.3174501661877462</v>
       </c>
       <c r="O25" s="9">
-        <v>2.6469589462207974</v>
+        <v>2.6469589462207992</v>
       </c>
       <c r="P25" s="9">
-        <v>0.85925401530906598</v>
+        <v>0.85925401530903955</v>
       </c>
       <c r="Q25" s="9">
-        <v>1.9160279906697892</v>
+        <v>1.916027990669783</v>
       </c>
       <c r="R25" s="9">
-        <v>1.0932677721399835</v>
+        <v>1.0932677721399906</v>
       </c>
       <c r="S25" s="9">
-        <v>1.1056553837581871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.1056553837581726</v>
+      </c>
+      <c r="T25" s="9">
+        <v>3.1234645890363009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="9">
-        <v>-1.0022493381372379</v>
+        <v>-1.0022493381372282</v>
       </c>
       <c r="C26" s="9">
-        <v>-0.30247133960093053</v>
+        <v>-0.30247133960093497</v>
       </c>
       <c r="D26" s="9">
-        <v>0.32242063492062906</v>
+        <v>0.322420634920628</v>
       </c>
       <c r="E26" s="9">
-        <v>0.84742395040632545</v>
+        <v>0.84742395040632978</v>
       </c>
       <c r="F26" s="9">
-        <v>-0.75703499653150086</v>
+        <v>-0.75703499653150941</v>
       </c>
       <c r="G26" s="9">
-        <v>-7.8781669335826772</v>
+        <v>-7.8781669335826656</v>
       </c>
       <c r="H26" s="9">
-        <v>-2.46328800988874</v>
+        <v>-2.4632880098887622</v>
       </c>
       <c r="I26" s="9">
-        <v>-2.6204056703214436</v>
+        <v>-2.6204056703214533</v>
       </c>
       <c r="J26" s="9">
-        <v>2.4474745223575032</v>
+        <v>2.4474745223575054</v>
       </c>
       <c r="K26" s="9">
-        <v>8.7732558767317013</v>
+        <v>8.7732558767316977</v>
       </c>
       <c r="L26" s="9">
-        <v>2.8134314739339277</v>
+        <v>2.8134314739339485</v>
       </c>
       <c r="M26" s="9">
-        <v>4.1162962438417559</v>
+        <v>4.1162962438417541</v>
       </c>
       <c r="N26" s="9">
-        <v>1.2508652229803201</v>
+        <v>1.2508652229803197</v>
       </c>
       <c r="O26" s="9">
-        <v>2.1332989199491807</v>
+        <v>2.1332989199491772</v>
       </c>
       <c r="P26" s="9">
-        <v>2.1082941356289844</v>
+        <v>2.1082941356289826</v>
       </c>
       <c r="Q26" s="9">
-        <v>0.80645161290321277</v>
+        <v>0.80645161290321987</v>
       </c>
       <c r="R26" s="9">
-        <v>2.1241271546462306</v>
+        <v>2.124127154646227</v>
       </c>
       <c r="S26" s="9">
-        <v>2.0508334548282052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.0508334548282021</v>
+      </c>
+      <c r="T26" s="9">
+        <v>2.0763518015973501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="9">
-        <v>2.5672454885938163</v>
+        <v>2.5672454885937968</v>
       </c>
       <c r="C27" s="9">
-        <v>2.7830102104886891</v>
+        <v>2.7830102104887051</v>
       </c>
       <c r="D27" s="9">
-        <v>3.499807544264812</v>
+        <v>3.4998075442648253</v>
       </c>
       <c r="E27" s="9">
-        <v>3.8435331714666816</v>
+        <v>3.8435331714667003</v>
       </c>
       <c r="F27" s="9">
-        <v>2.1605933569816291</v>
+        <v>2.160593356981618</v>
       </c>
       <c r="G27" s="9">
-        <v>-7.4528674273040032</v>
+        <v>-7.4528674273039952</v>
       </c>
       <c r="H27" s="9">
-        <v>-2.0686705653746507</v>
+        <v>-2.0686705653746484</v>
       </c>
       <c r="I27" s="9">
-        <v>-4.9904811193462864E-2</v>
+        <v>-4.9904811193465161E-2</v>
       </c>
       <c r="J27" s="9">
-        <v>0.96275252525250055</v>
+        <v>0.96275252525253363</v>
       </c>
       <c r="K27" s="9">
-        <v>12.773174100251849</v>
+        <v>12.773174100251845</v>
       </c>
       <c r="L27" s="9">
-        <v>7.152622185090963</v>
+        <v>7.1526221850909533</v>
       </c>
       <c r="M27" s="9">
-        <v>5.3628226939862458</v>
+        <v>5.3628226939862484</v>
       </c>
       <c r="N27" s="9">
-        <v>4.3982013627711529</v>
+        <v>4.3982013627711458</v>
       </c>
       <c r="O27" s="9">
-        <v>2.5538045925258896</v>
+        <v>2.5538045925258857</v>
       </c>
       <c r="P27" s="9">
-        <v>0.31098825155494036</v>
+        <v>0.31098825155493837</v>
       </c>
       <c r="Q27" s="9">
-        <v>1.24613872507721</v>
+        <v>1.2461387250772138</v>
       </c>
       <c r="R27" s="9">
-        <v>0.88168974386076115</v>
+        <v>0.88168974386077448</v>
       </c>
       <c r="S27" s="9">
-        <v>1.2872521644451442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.2872521644451602</v>
+      </c>
+      <c r="T27" s="9">
+        <v>3.0755098615932241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="9">
-        <v>-0.94368133207249505</v>
+        <v>-0.94368133207248972</v>
       </c>
       <c r="C28" s="9">
-        <v>-0.65761271969136614</v>
+        <v>-0.65761271969136326</v>
       </c>
       <c r="D28" s="9">
-        <v>0.5518655987497596</v>
+        <v>0.55186559874975094</v>
       </c>
       <c r="E28" s="9">
-        <v>1.841763687853992</v>
+        <v>1.8417636878539894</v>
       </c>
       <c r="F28" s="9">
-        <v>0.44976330836836664</v>
+        <v>0.44976330836836587</v>
       </c>
       <c r="G28" s="9">
-        <v>-11.361296080181237</v>
+        <v>-11.361296080181232</v>
       </c>
       <c r="H28" s="9">
-        <v>-0.67706056632182476</v>
+        <v>-0.67706056632180456</v>
       </c>
       <c r="I28" s="9">
-        <v>-0.32924909963407412</v>
+        <v>-0.32924909963406401</v>
       </c>
       <c r="J28" s="9">
-        <v>1.0600983677228368</v>
+        <v>1.0600983677228459</v>
       </c>
       <c r="K28" s="9">
         <v>16.964285714285705</v>
       </c>
       <c r="L28" s="9">
-        <v>3.3096001877787407</v>
+        <v>3.309600187778722</v>
       </c>
       <c r="M28" s="9">
-        <v>3.0805595381098354</v>
+        <v>3.0805595381098221</v>
       </c>
       <c r="N28" s="9">
-        <v>3.3640981890099666</v>
+        <v>3.3640981890099577</v>
       </c>
       <c r="O28" s="9">
-        <v>1.1086201840763625</v>
+        <v>1.1086201840763528</v>
       </c>
       <c r="P28" s="9">
-        <v>1.2287943047561434</v>
+        <v>1.2287943047561369</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.66818284339522382</v>
+        <v>0.66818284339522471</v>
       </c>
       <c r="R28" s="9">
-        <v>0.81036973118985389</v>
+        <v>0.81036973118984679</v>
       </c>
       <c r="S28" s="9">
-        <v>1.0936579068005214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.0936579068005192</v>
+      </c>
+      <c r="T28" s="9">
+        <v>1.7796689422986989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
-        <v>0.59913121071572328</v>
+        <v>0.59913121071573006</v>
       </c>
       <c r="C29" s="9">
-        <v>0.63737099084877336</v>
+        <v>0.63737099084875404</v>
       </c>
       <c r="D29" s="9">
-        <v>1.1692682643764851</v>
+        <v>1.1692682643764973</v>
       </c>
       <c r="E29" s="9">
-        <v>1.8505441354292602</v>
+        <v>1.8505441354292651</v>
       </c>
       <c r="F29" s="9">
-        <v>0.68523861509669992</v>
+        <v>0.68523861509669648</v>
       </c>
       <c r="G29" s="9">
-        <v>-7.5390023532146184</v>
+        <v>-7.5390023532146104</v>
       </c>
       <c r="H29" s="9">
-        <v>-2.6231514143412888</v>
+        <v>-2.6231514143413071</v>
       </c>
       <c r="I29" s="9">
-        <v>-1.9793328774409253</v>
+        <v>-1.9793328774409347</v>
       </c>
       <c r="J29" s="9">
-        <v>0.87419526598575648</v>
+        <v>0.87419526598577391</v>
       </c>
       <c r="K29" s="9">
         <v>11.190012358868021</v>
       </c>
       <c r="L29" s="9">
-        <v>3.6009149543995336</v>
+        <v>3.6009149543995531</v>
       </c>
       <c r="M29" s="9">
-        <v>3.363241734816476</v>
+        <v>3.3632417348164885</v>
       </c>
       <c r="N29" s="9">
-        <v>1.7841033417148151</v>
+        <v>1.7841033417148109</v>
       </c>
       <c r="O29" s="9">
-        <v>0.39467982894066933</v>
+        <v>0.39467982894067544</v>
       </c>
       <c r="P29" s="9">
-        <v>2.0174166832494627</v>
+        <v>2.0174166832494644</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.49683618467307511</v>
+        <v>0.49683618467307467</v>
       </c>
       <c r="R29" s="9">
-        <v>1.182383058166848</v>
+        <v>1.1823830581668398</v>
       </c>
       <c r="S29" s="9">
-        <v>0.85005770259238855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.85005770259238156</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0.84804012632360271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="9">
-        <v>-1.0824154956323508</v>
+        <v>-1.082415495632373</v>
       </c>
       <c r="C30" s="9">
-        <v>-1.0378382685431333</v>
+        <v>-1.0378382685431393</v>
       </c>
       <c r="D30" s="9">
-        <v>0.86572278834880789</v>
+        <v>0.86572278834882566</v>
       </c>
       <c r="E30" s="9">
-        <v>2.5936512409670009</v>
+        <v>2.5936512409670045</v>
       </c>
       <c r="F30" s="9">
-        <v>2.5199300805286335</v>
+        <v>2.5199300805286442</v>
       </c>
       <c r="G30" s="9">
-        <v>-6.1222435813564857</v>
+        <v>-6.122243581356499</v>
       </c>
       <c r="H30" s="9">
-        <v>1.139422838126434</v>
+        <v>1.1394228381264546</v>
       </c>
       <c r="I30" s="9">
-        <v>0.10594987001519991</v>
+        <v>0.10594987001521983</v>
       </c>
       <c r="J30" s="9">
-        <v>1.8351155570886457</v>
+        <v>1.8351155570886473</v>
       </c>
       <c r="K30" s="9">
-        <v>11.309447231870992</v>
+        <v>11.309447231871001</v>
       </c>
       <c r="L30" s="9">
-        <v>1.5214316583507006</v>
+        <v>1.5214316583506831</v>
       </c>
       <c r="M30" s="9">
-        <v>1.6189253549973883</v>
+        <v>1.6189253549973817</v>
       </c>
       <c r="N30" s="9">
-        <v>-0.26033853687805575</v>
+        <v>-0.26033853687805303</v>
       </c>
       <c r="O30" s="9">
-        <v>-0.92174331808331256</v>
+        <v>-0.92174331808330145</v>
       </c>
       <c r="P30" s="9">
-        <v>2.225210669401631E-2</v>
+        <v>2.2252106694018798E-2</v>
       </c>
       <c r="Q30" s="9">
-        <v>1.0000482183326387</v>
+        <v>1.0000482183326351</v>
       </c>
       <c r="R30" s="9">
-        <v>1.1731258126491937</v>
+        <v>1.1731258126491682</v>
       </c>
       <c r="S30" s="9">
-        <v>0.9079597153633957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.90795971536338171</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0.59390234465680902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="9">
-        <v>1.5664572739056748</v>
+        <v>1.5664572739056624</v>
       </c>
       <c r="C31" s="9">
-        <v>1.4444290547893639</v>
+        <v>1.4444290547893617</v>
       </c>
       <c r="D31" s="9">
-        <v>2.5017792187252743</v>
+        <v>2.5017792187252783</v>
       </c>
       <c r="E31" s="9">
-        <v>3.0088040868353589</v>
+        <v>3.0088040868353687</v>
       </c>
       <c r="F31" s="9">
-        <v>0.65972256310069888</v>
+        <v>0.65972256310069954</v>
       </c>
       <c r="G31" s="9">
-        <v>-6.8891532895121683</v>
+        <v>-6.8891532895121674</v>
       </c>
       <c r="H31" s="9">
-        <v>-0.85343156636033579</v>
+        <v>-0.85343156636034301</v>
       </c>
       <c r="I31" s="9">
-        <v>7.0984575243654993E-2</v>
+        <v>7.0984575243638645E-2</v>
       </c>
       <c r="J31" s="9">
-        <v>2.0959105848848565</v>
+        <v>2.0959105848848654</v>
       </c>
       <c r="K31" s="9">
-        <v>11.161153821982939</v>
+        <v>11.161153821982934</v>
       </c>
       <c r="L31" s="9">
-        <v>3.2495574532651301</v>
+        <v>3.2495574532651328</v>
       </c>
       <c r="M31" s="9">
-        <v>2.8057360863480292</v>
+        <v>2.8057360863480367</v>
       </c>
       <c r="N31" s="9">
-        <v>2.4684281920483064</v>
+        <v>2.4684281920483016</v>
       </c>
       <c r="O31" s="9">
-        <v>1.6027513426929365</v>
+        <v>1.6027513426929303</v>
       </c>
       <c r="P31" s="9">
-        <v>2.2683811407846957</v>
+        <v>2.2683811407847054</v>
       </c>
       <c r="Q31" s="9">
-        <v>1.5571240757489535</v>
+        <v>1.5571240757489568</v>
       </c>
       <c r="R31" s="9">
-        <v>2.3660805847146258</v>
+        <v>2.3660805847146267</v>
       </c>
       <c r="S31" s="9">
-        <v>1.8120948521297093</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.8120948521297169</v>
+      </c>
+      <c r="T31" s="9">
+        <v>2.1112165286515707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="9">
-        <v>1.229983298948816</v>
+        <v>1.2299832989488055</v>
       </c>
       <c r="C32" s="9">
-        <v>0.96022888721230137</v>
+        <v>0.9602288872123067</v>
       </c>
       <c r="D32" s="9">
-        <v>2.6860457128276529</v>
+        <v>2.6860457128276436</v>
       </c>
       <c r="E32" s="9">
-        <v>2.1108050557737181</v>
+        <v>2.1108050557736973</v>
       </c>
       <c r="F32" s="9">
-        <v>-0.52599910716017906</v>
+        <v>-0.52599910716018239</v>
       </c>
       <c r="G32" s="9">
-        <v>-5.8492415493162841</v>
+        <v>-5.8492415493162886</v>
       </c>
       <c r="H32" s="9">
-        <v>1.2911673069939005</v>
+        <v>1.2911673069939034</v>
       </c>
       <c r="I32" s="9">
-        <v>3.7325782722237624</v>
+        <v>3.7325782722237744</v>
       </c>
       <c r="J32" s="9">
-        <v>5.7170731707316973</v>
+        <v>5.7170731707316857</v>
       </c>
       <c r="K32" s="9">
-        <v>12.845833505133392</v>
+        <v>12.845833505133397</v>
       </c>
       <c r="L32" s="9">
-        <v>3.039109307920937</v>
+        <v>3.0391093079209366</v>
       </c>
       <c r="M32" s="9">
-        <v>1.385084977084295</v>
+        <v>1.385084977084305</v>
       </c>
       <c r="N32" s="9">
-        <v>5.5001845699520127</v>
+        <v>5.5001845699520153</v>
       </c>
       <c r="O32" s="9">
-        <v>1.372928731936355</v>
+        <v>1.3729287319363432</v>
       </c>
       <c r="P32" s="9">
-        <v>0.38917275607565727</v>
+        <v>0.38917275607568208</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.56574770562930277</v>
+        <v>0.56574770562928745</v>
       </c>
       <c r="R32" s="9">
-        <v>-1.5762771168649525</v>
+        <v>-1.5762771168649148</v>
       </c>
       <c r="S32" s="9">
-        <v>1.9796894852086508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.9796894852086599</v>
+      </c>
+      <c r="T32" s="9">
+        <v>4.3017029854694266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="9">
-        <v>-0.71178209872917464</v>
+        <v>-0.71178209872917342</v>
       </c>
       <c r="C33" s="9">
-        <v>0.84294587400177257</v>
+        <v>0.84294587400175636</v>
       </c>
       <c r="D33" s="9">
-        <v>2.4156634215007875</v>
+        <v>2.4156634215007844</v>
       </c>
       <c r="E33" s="9">
-        <v>3.6244835770165991</v>
+        <v>3.6244835770166199</v>
       </c>
       <c r="F33" s="9">
-        <v>1.9948526293991806</v>
+        <v>1.9948526293991762</v>
       </c>
       <c r="G33" s="9">
-        <v>-4.8599501393166138</v>
+        <v>-4.8599501393166129</v>
       </c>
       <c r="H33" s="9">
-        <v>0.57092876846627949</v>
+        <v>0.57092876846626883</v>
       </c>
       <c r="I33" s="9">
-        <v>0.40999830345530808</v>
+        <v>0.40999830345529947</v>
       </c>
       <c r="J33" s="9">
         <v>4.17270916719841</v>
@@ -6243,305 +6493,320 @@
         <v>11.62011632447542</v>
       </c>
       <c r="L33" s="9">
-        <v>3.3478281645720824</v>
+        <v>3.3478281645721011</v>
       </c>
       <c r="M33" s="9">
-        <v>2.173035585217721</v>
+        <v>2.1730355852177241</v>
       </c>
       <c r="N33" s="9">
-        <v>1.9220417633410523</v>
+        <v>1.9220417633410718</v>
       </c>
       <c r="O33" s="9">
-        <v>1.6644878569718942</v>
+        <v>1.6644878569718882</v>
       </c>
       <c r="P33" s="9">
-        <v>3.8090218054708003</v>
+        <v>3.809021805470771</v>
       </c>
       <c r="Q33" s="9">
-        <v>3.335844480376315</v>
+        <v>3.3358444803763012</v>
       </c>
       <c r="R33" s="9">
-        <v>4.4399522859926757</v>
+        <v>4.4399522859926428</v>
       </c>
       <c r="S33" s="9">
-        <v>5.3599565335506494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.3599565335506698</v>
+      </c>
+      <c r="T33" s="9">
+        <v>5.5372938881316989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="9">
-        <v>2.8899765493485483</v>
+        <v>2.8899765493485385</v>
       </c>
       <c r="C34" s="9">
-        <v>3.6760778143605117</v>
+        <v>3.6760778143605228</v>
       </c>
       <c r="D34" s="9">
-        <v>5.0903629051795258</v>
+        <v>5.0903629051795107</v>
       </c>
       <c r="E34" s="9">
-        <v>5.2420358983200135</v>
+        <v>5.2420358983200153</v>
       </c>
       <c r="F34" s="9">
-        <v>2.2669024673961196</v>
+        <v>2.26690246739614</v>
       </c>
       <c r="G34" s="9">
-        <v>-14.144527297935321</v>
+        <v>-14.14452729793533</v>
       </c>
       <c r="H34" s="9">
-        <v>-5.3989008557096376</v>
+        <v>-5.3989008557096367</v>
       </c>
       <c r="I34" s="9">
-        <v>-5.3668125847523172</v>
+        <v>-5.3668125847523083</v>
       </c>
       <c r="J34" s="9">
-        <v>-1.6997114744395796</v>
+        <v>-1.6997114744395907</v>
       </c>
       <c r="K34" s="9">
-        <v>20.468308437626145</v>
+        <v>20.468308437626153</v>
       </c>
       <c r="L34" s="9">
         <v>9.9928845047907693</v>
       </c>
       <c r="M34" s="9">
-        <v>9.9536458233155596</v>
+        <v>9.9536458233155578</v>
       </c>
       <c r="N34" s="9">
-        <v>6.3980507629494463</v>
+        <v>6.3980507629494481</v>
       </c>
       <c r="O34" s="9">
-        <v>3.9526121295558303</v>
+        <v>3.9526121295558325</v>
       </c>
       <c r="P34" s="9">
-        <v>1.9797066773007268</v>
+        <v>1.9797066773007117</v>
       </c>
       <c r="Q34" s="9">
-        <v>1.407305041458218</v>
+        <v>1.4073050414582218</v>
       </c>
       <c r="R34" s="9">
-        <v>2.5703145032228276</v>
+        <v>2.5703145032228187</v>
       </c>
       <c r="S34" s="9">
-        <v>1.5317324783048156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.5317324783048143</v>
+      </c>
+      <c r="T34" s="9">
+        <v>2.8258848269449794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="9">
-        <v>1.6666339104970478</v>
+        <v>1.6666339104970387</v>
       </c>
       <c r="C35" s="9">
-        <v>1.9180651530108619</v>
+        <v>1.9180651530108601</v>
       </c>
       <c r="D35" s="9">
-        <v>2.2752601213077659</v>
+        <v>2.2752601213077561</v>
       </c>
       <c r="E35" s="9">
-        <v>2.7092375686227763</v>
+        <v>2.7092375686227834</v>
       </c>
       <c r="F35" s="9">
-        <v>0.7742272226410627</v>
+        <v>0.77422722264106825</v>
       </c>
       <c r="G35" s="9">
-        <v>-8.0460660771190042</v>
+        <v>-8.046066077119022</v>
       </c>
       <c r="H35" s="9">
-        <v>0.55061618869452733</v>
+        <v>0.55061618869452378</v>
       </c>
       <c r="I35" s="9">
-        <v>2.6541756715035589</v>
+        <v>2.6541756715035638</v>
       </c>
       <c r="J35" s="9">
-        <v>1.35048293192915</v>
+        <v>1.3504829319291507</v>
       </c>
       <c r="K35" s="9">
-        <v>16.868205949271069</v>
+        <v>16.868205949271086</v>
       </c>
       <c r="L35" s="9">
-        <v>7.1408705992922537</v>
+        <v>7.1408705992922421</v>
       </c>
       <c r="M35" s="9">
-        <v>7.6918016146768284</v>
+        <v>7.6918016146768275</v>
       </c>
       <c r="N35" s="9">
-        <v>4.0220693310115712</v>
+        <v>4.0220693310115747</v>
       </c>
       <c r="O35" s="9">
-        <v>0.3397926994141508</v>
+        <v>0.33979269941413809</v>
       </c>
       <c r="P35" s="9">
-        <v>-0.20497856228574826</v>
+        <v>-0.20497856228573572</v>
       </c>
       <c r="Q35" s="9">
-        <v>-2.7185533630643159</v>
+        <v>-2.7185533630643266</v>
       </c>
       <c r="R35" s="9">
-        <v>1.3646660662135925</v>
+        <v>1.3646660662135992</v>
       </c>
       <c r="S35" s="9">
-        <v>0.26049386042919143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.26049386042919787</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1.2153556372768883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="9">
-        <v>1.3923110016035167</v>
+        <v>1.3923110016035085</v>
       </c>
       <c r="C36" s="9">
-        <v>1.5409222126862672</v>
+        <v>1.5409222126862678</v>
       </c>
       <c r="D36" s="9">
-        <v>1.984461838391488</v>
+        <v>1.9844618383914829</v>
       </c>
       <c r="E36" s="9">
-        <v>1.8138946066351631</v>
+        <v>1.8138946066351602</v>
       </c>
       <c r="F36" s="9">
-        <v>0.7454194792671085</v>
+        <v>0.74541947926711838</v>
       </c>
       <c r="G36" s="9">
-        <v>-9.9754120404164599</v>
+        <v>-9.9754120404164439</v>
       </c>
       <c r="H36" s="9">
-        <v>-2.7580435010033688</v>
+        <v>-2.7580435010033559</v>
       </c>
       <c r="I36" s="9">
-        <v>-1.7236797144918019</v>
+        <v>-1.7236797144918083</v>
       </c>
       <c r="J36" s="9">
-        <v>0.40393211643200783</v>
+        <v>0.403932116432002</v>
       </c>
       <c r="K36" s="9">
-        <v>12.444254774351883</v>
+        <v>12.444254774351863</v>
       </c>
       <c r="L36" s="9">
-        <v>4.5517227889326923</v>
+        <v>4.551722788932679</v>
       </c>
       <c r="M36" s="9">
         <v>5.4626231408151389</v>
       </c>
       <c r="N36" s="9">
-        <v>3.7332570665904092</v>
+        <v>3.733257066590399</v>
       </c>
       <c r="O36" s="9">
-        <v>3.8844716017989476</v>
+        <v>3.8844716017989533</v>
       </c>
       <c r="P36" s="9">
-        <v>2.6491800825062408</v>
+        <v>2.6491800825062497</v>
       </c>
       <c r="Q36" s="9">
-        <v>1.0705520348730659</v>
+        <v>1.0705520348730757</v>
       </c>
       <c r="R36" s="9">
-        <v>1.0072511051272188</v>
+        <v>1.0072511051272339</v>
       </c>
       <c r="S36" s="9">
-        <v>0.95992254858980475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.9599225485898043</v>
+      </c>
+      <c r="T36" s="9">
+        <v>1.9110021597878424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="9">
-        <v>3.2418364841640064</v>
+        <v>3.2418364841640144</v>
       </c>
       <c r="C37" s="9">
-        <v>3.9972038020524896</v>
+        <v>3.9972038020524905</v>
       </c>
       <c r="D37" s="9">
         <v>5.7393221912720449</v>
       </c>
       <c r="E37" s="9">
-        <v>5.1849361129791349</v>
+        <v>5.1849361129791447</v>
       </c>
       <c r="F37" s="9">
-        <v>3.4815364419839052</v>
+        <v>3.4815364419839074</v>
       </c>
       <c r="G37" s="9">
-        <v>-6.9785462217823975</v>
+        <v>-6.9785462217824072</v>
       </c>
       <c r="H37" s="9">
-        <v>-3.983498893218437</v>
+        <v>-3.9834988932184374</v>
       </c>
       <c r="I37" s="9">
-        <v>-4.0388356608546907</v>
+        <v>-4.0388356608547102</v>
       </c>
       <c r="J37" s="9">
-        <v>-2.9231702608791545</v>
+        <v>-2.9231702608791665</v>
       </c>
       <c r="K37" s="9">
-        <v>6.5225463924768432</v>
+        <v>6.5225463924768521</v>
       </c>
       <c r="L37" s="9">
-        <v>2.0729534823903784</v>
+        <v>2.0729534823903837</v>
       </c>
       <c r="M37" s="9">
-        <v>3.1865987721886357</v>
+        <v>3.1865987721886508</v>
       </c>
       <c r="N37" s="9">
-        <v>1.2442474859382981</v>
+        <v>1.2442474859383041</v>
       </c>
       <c r="O37" s="9">
-        <v>0.9807985829768836</v>
+        <v>0.98079858297689138</v>
       </c>
       <c r="P37" s="9">
-        <v>1.8777940586297375</v>
+        <v>1.8777940586297197</v>
       </c>
       <c r="Q37" s="9">
-        <v>2.868659662586583</v>
+        <v>2.8686596625865861</v>
       </c>
       <c r="R37" s="9">
-        <v>4.0993265993265968</v>
+        <v>4.0993265993265915</v>
       </c>
       <c r="S37" s="9">
-        <v>4.7947825600164089</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.7947825600164062</v>
+      </c>
+      <c r="T37" s="9">
+        <v>4.3386253080368986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="9">
-        <v>1.9617070086173969</v>
+        <v>1.9617070086173982</v>
       </c>
       <c r="C38" s="9">
-        <v>2.7160614184742937</v>
+        <v>2.7160614184742862</v>
       </c>
       <c r="D38" s="9">
-        <v>2.4771977488841492</v>
+        <v>2.4771977488841355</v>
       </c>
       <c r="E38" s="9">
-        <v>3.5491911441278656</v>
+        <v>3.5491911441278479</v>
       </c>
       <c r="F38" s="9">
-        <v>1.4076381677627732</v>
+        <v>1.4076381677627687</v>
       </c>
       <c r="G38" s="9">
-        <v>-8.9843490475603041</v>
+        <v>-8.9843490475603058</v>
       </c>
       <c r="H38" s="9">
-        <v>-3.2732712828913026</v>
+        <v>-3.273271282891296</v>
       </c>
       <c r="I38" s="9">
-        <v>-2.9376227156018961</v>
+        <v>-2.9376227156018899</v>
       </c>
       <c r="J38" s="9">
-        <v>-2.0214662267227954</v>
+        <v>-2.0214662267227999</v>
       </c>
       <c r="K38" s="9">
         <v>9.8451431252932959</v>
       </c>
       <c r="L38" s="9">
-        <v>4.3218215278593348</v>
+        <v>4.3218215278593277</v>
       </c>
       <c r="M38" s="9">
-        <v>6.2923052983739227</v>
+        <v>6.2923052983739218</v>
       </c>
       <c r="N38" s="9">
         <v>6.0675853526360495</v>
@@ -6550,1078 +6815,1135 @@
         <v>2.7265132528290441</v>
       </c>
       <c r="P38" s="9">
-        <v>1.8081842152180299</v>
+        <v>1.808184215218035</v>
       </c>
       <c r="Q38" s="9">
-        <v>-1.3312716160081892</v>
+        <v>-1.3312716160081988</v>
       </c>
       <c r="R38" s="9">
-        <v>-0.88681276572450152</v>
+        <v>-0.88681276572448819</v>
       </c>
       <c r="S38" s="9">
-        <v>0.49719059588939329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.49719059588938158</v>
+      </c>
+      <c r="T38" s="9">
+        <v>1.0829692713229762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="9">
-        <v>1.2930438390264258</v>
+        <v>1.2930438390264283</v>
       </c>
       <c r="C39" s="9">
-        <v>1.3056700019619329</v>
+        <v>1.3056700019619416</v>
       </c>
       <c r="D39" s="9">
-        <v>2.6226352081409821</v>
+        <v>2.6226352081409678</v>
       </c>
       <c r="E39" s="9">
-        <v>3.3251110980599385</v>
+        <v>3.325111098059939</v>
       </c>
       <c r="F39" s="9">
-        <v>2.2712423081048909</v>
+        <v>2.27124230810489</v>
       </c>
       <c r="G39" s="9">
-        <v>-5.9368070416670689</v>
+        <v>-5.936807041667068</v>
       </c>
       <c r="H39" s="9">
-        <v>0.57142310195642165</v>
+        <v>0.57142310195642343</v>
       </c>
       <c r="I39" s="9">
-        <v>0.48503680406218141</v>
+        <v>0.48503680406217653</v>
       </c>
       <c r="J39" s="9">
-        <v>2.6727820581279973</v>
+        <v>2.6727820581279951</v>
       </c>
       <c r="K39" s="9">
         <v>11.836524603664822</v>
       </c>
       <c r="L39" s="9">
-        <v>4.0105450496321806</v>
+        <v>4.0105450496321726</v>
       </c>
       <c r="M39" s="9">
         <v>4.9730840663329454</v>
       </c>
       <c r="N39" s="9">
-        <v>3.9702809380079032</v>
+        <v>3.9702809380078912</v>
       </c>
       <c r="O39" s="9">
-        <v>1.5887626797253198</v>
+        <v>1.5887626797253349</v>
       </c>
       <c r="P39" s="9">
-        <v>1.4420745376851634</v>
+        <v>1.4420745376851662</v>
       </c>
       <c r="Q39" s="9">
-        <v>0.90798052916135286</v>
+        <v>0.9079805291613362</v>
       </c>
       <c r="R39" s="9">
-        <v>1.1951764180437638</v>
+        <v>1.1951764180437803</v>
       </c>
       <c r="S39" s="9">
-        <v>2.9221485266934906</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.9221485266934732</v>
+      </c>
+      <c r="T39" s="9">
+        <v>3.616174918593221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="9">
-        <v>2.1311603854893151</v>
+        <v>2.1311603854892982</v>
       </c>
       <c r="C40" s="9">
-        <v>1.408206009246463</v>
+        <v>1.4082060092464748</v>
       </c>
       <c r="D40" s="9">
-        <v>0.56732296270784976</v>
+        <v>0.56732296270785454</v>
       </c>
       <c r="E40" s="9">
-        <v>0.19264667636321692</v>
+        <v>0.19264667636318983</v>
       </c>
       <c r="F40" s="9">
-        <v>-1.1037591100882393</v>
+        <v>-1.1037591100882329</v>
       </c>
       <c r="G40" s="9">
-        <v>-9.2570384329849826</v>
+        <v>-9.2570384329849684</v>
       </c>
       <c r="H40" s="9">
-        <v>-6.6962204739390696</v>
+        <v>-6.6962204739390661</v>
       </c>
       <c r="I40" s="9">
-        <v>-6.1980253227837716</v>
+        <v>-6.1980253227837618</v>
       </c>
       <c r="J40" s="9">
-        <v>-4.3896479166868589</v>
+        <v>-4.3896479166868492</v>
       </c>
       <c r="K40" s="9">
-        <v>3.7182714495489839</v>
+        <v>3.7182714495489897</v>
       </c>
       <c r="L40" s="9">
-        <v>8.4624796084825343E-2</v>
+        <v>8.4624796084822429E-2</v>
       </c>
       <c r="M40" s="9">
-        <v>-1.2401352874859004</v>
+        <v>-1.2401352874859009</v>
       </c>
       <c r="N40" s="9">
-        <v>-1.925924423439684</v>
+        <v>-1.9259244234396904</v>
       </c>
       <c r="O40" s="9">
-        <v>-3.15518025989785</v>
+        <v>-3.1551802598978629</v>
       </c>
       <c r="P40" s="9">
-        <v>-1.6462414555382372</v>
+        <v>-1.6462414555382343</v>
       </c>
       <c r="Q40" s="9">
-        <v>2.4626400996264204</v>
+        <v>2.4626400996263982</v>
       </c>
       <c r="R40" s="9">
-        <v>4.8674808434071286</v>
+        <v>4.8674808434071348</v>
       </c>
       <c r="S40" s="9">
-        <v>6.855322925912378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6.8553229259123816</v>
+      </c>
+      <c r="T40" s="9">
+        <v>6.7583663914984529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="9">
-        <v>1.9940029985007526</v>
+        <v>1.9940029985007666</v>
       </c>
       <c r="C41" s="9">
-        <v>2.6967413543590295</v>
+        <v>2.6967413543590029</v>
       </c>
       <c r="D41" s="9">
-        <v>3.1241324608367882</v>
+        <v>3.124132460836802</v>
       </c>
       <c r="E41" s="9">
-        <v>3.0947871039027661</v>
+        <v>3.0947871039027555</v>
       </c>
       <c r="F41" s="9">
-        <v>0.36356509383115021</v>
+        <v>0.36356509383114355</v>
       </c>
       <c r="G41" s="9">
-        <v>-8.9021059894846442</v>
+        <v>-8.9021059894846406</v>
       </c>
       <c r="H41" s="9">
-        <v>-1.820961244483744</v>
+        <v>-1.8209612444837473</v>
       </c>
       <c r="I41" s="9">
-        <v>-1.2430503057387092</v>
+        <v>-1.2430503057387083</v>
       </c>
       <c r="J41" s="9">
-        <v>1.2029370410873261</v>
+        <v>1.2029370410873237</v>
       </c>
       <c r="K41" s="9">
-        <v>11.828840265850204</v>
+        <v>11.828840265850214</v>
       </c>
       <c r="L41" s="9">
-        <v>3.1042823428028585</v>
+        <v>3.1042823428028541</v>
       </c>
       <c r="M41" s="9">
-        <v>3.781903451483501</v>
+        <v>3.7819034514835148</v>
       </c>
       <c r="N41" s="9">
-        <v>2.080117320160547</v>
+        <v>2.0801173201605532</v>
       </c>
       <c r="O41" s="9">
-        <v>0.76222275220605562</v>
+        <v>0.76222275220605817</v>
       </c>
       <c r="P41" s="9">
-        <v>0.22224966045189851</v>
+        <v>0.22224966045190864</v>
       </c>
       <c r="Q41" s="9">
-        <v>-0.98874935810652931</v>
+        <v>-0.98874935810652953</v>
       </c>
       <c r="R41" s="9">
-        <v>9.6404672791208068E-2</v>
+        <v>9.6404672791193732E-2</v>
       </c>
       <c r="S41" s="9">
-        <v>0.72900098462471252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.72900098462470597</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1.9645378645008988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="9">
-        <v>1.9105252211118449</v>
+        <v>1.9105252211118502</v>
       </c>
       <c r="C42" s="9">
-        <v>1.6802749899045464</v>
+        <v>1.6802749899045488</v>
       </c>
       <c r="D42" s="9">
-        <v>2.6120062013069791</v>
+        <v>2.6120062013069765</v>
       </c>
       <c r="E42" s="9">
-        <v>0.80998035821941394</v>
+        <v>0.80998035821939973</v>
       </c>
       <c r="F42" s="9">
-        <v>-1.2099595708287918</v>
+        <v>-1.2099595708288</v>
       </c>
       <c r="G42" s="9">
-        <v>-8.2179838623749095</v>
+        <v>-8.2179838623749131</v>
       </c>
       <c r="H42" s="9">
-        <v>-3.7360388616891069</v>
+        <v>-3.7360388616890896</v>
       </c>
       <c r="I42" s="9">
-        <v>-4.3019049915601588</v>
+        <v>-4.3019049915601606</v>
       </c>
       <c r="J42" s="9">
-        <v>-1.8947182024771054</v>
+        <v>-1.894718202477099</v>
       </c>
       <c r="K42" s="9">
-        <v>6.6172047323039731</v>
+        <v>6.6172047323039784</v>
       </c>
       <c r="L42" s="9">
-        <v>-0.50760412838112745</v>
+        <v>-0.507604128381136</v>
       </c>
       <c r="M42" s="9">
-        <v>1.9281358665524173</v>
+        <v>1.9281358665524273</v>
       </c>
       <c r="N42" s="9">
-        <v>-1.4941087991978017</v>
+        <v>-1.4941087991977966</v>
       </c>
       <c r="O42" s="9">
-        <v>-2.686516931787807</v>
+        <v>-2.686516931787811</v>
       </c>
       <c r="P42" s="9">
-        <v>-0.36741947722598511</v>
+        <v>-0.36741947722598095</v>
       </c>
       <c r="Q42" s="9">
-        <v>0.54782058381458876</v>
+        <v>0.54782058381458043</v>
       </c>
       <c r="R42" s="9">
-        <v>4.7905532651295442</v>
+        <v>4.7905532651295397</v>
       </c>
       <c r="S42" s="9">
         <v>5.881455411000009</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" s="9">
+        <v>5.8332498246317295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="9">
-        <v>1.8472572203915278</v>
+        <v>1.8472572203915223</v>
       </c>
       <c r="C43" s="9">
-        <v>2.0097589255519606</v>
+        <v>2.0097589255519641</v>
       </c>
       <c r="D43" s="9">
-        <v>2.4589613454730443</v>
+        <v>2.4589613454730506</v>
       </c>
       <c r="E43" s="9">
-        <v>3.2363480005733134</v>
+        <v>3.2363480005733085</v>
       </c>
       <c r="F43" s="9">
-        <v>2.5626629617646488</v>
+        <v>2.5626629617646546</v>
       </c>
       <c r="G43" s="9">
-        <v>-5.3857447312337383</v>
+        <v>-5.3857447312337481</v>
       </c>
       <c r="H43" s="9">
-        <v>-0.30619697735828888</v>
+        <v>-0.30619697735827534</v>
       </c>
       <c r="I43" s="9">
-        <v>-0.60439458729012618</v>
+        <v>-0.60439458729012596</v>
       </c>
       <c r="J43" s="9">
-        <v>1.8946176899024911</v>
+        <v>1.8946176899025029</v>
       </c>
       <c r="K43" s="9">
-        <v>10.406551271911841</v>
+        <v>10.406551271911853</v>
       </c>
       <c r="L43" s="9">
-        <v>3.5729380934937582</v>
+        <v>3.5729380934937436</v>
       </c>
       <c r="M43" s="9">
-        <v>5.4037191891161998</v>
+        <v>5.4037191891162015</v>
       </c>
       <c r="N43" s="9">
-        <v>3.573087114486305</v>
+        <v>3.5730871144862815</v>
       </c>
       <c r="O43" s="9">
-        <v>1.8452359363098787</v>
+        <v>1.8452359363098803</v>
       </c>
       <c r="P43" s="9">
-        <v>2.1828041824232951</v>
+        <v>2.1828041824233044</v>
       </c>
       <c r="Q43" s="9">
-        <v>-0.16962329493249237</v>
+        <v>-0.16962329493249387</v>
       </c>
       <c r="R43" s="9">
-        <v>0.32968482131083832</v>
+        <v>0.32968482131082594</v>
       </c>
       <c r="S43" s="9">
-        <v>2.0432874224307627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.0432874224307458</v>
+      </c>
+      <c r="T43" s="9">
+        <v>2.9073998473526332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="9">
-        <v>0.52521528871976153</v>
+        <v>0.52521528871977408</v>
       </c>
       <c r="C44" s="9">
-        <v>1.0386989553656389</v>
+        <v>1.0386989553656492</v>
       </c>
       <c r="D44" s="9">
-        <v>1.2945589147363299</v>
+        <v>1.2945589147363274</v>
       </c>
       <c r="E44" s="9">
-        <v>1.6811359985809957</v>
+        <v>1.6811359985809908</v>
       </c>
       <c r="F44" s="9">
-        <v>-0.41304797862796588</v>
+        <v>-0.41304797862797221</v>
       </c>
       <c r="G44" s="9">
         <v>-10.999823767843514</v>
       </c>
       <c r="H44" s="9">
-        <v>-4.0157832332303203</v>
+        <v>-4.0157832332303176</v>
       </c>
       <c r="I44" s="9">
-        <v>-3.2330280564035476</v>
+        <v>-3.2330280564035405</v>
       </c>
       <c r="J44" s="9">
-        <v>-1.329413395102063</v>
+        <v>-1.3294133951020575</v>
       </c>
       <c r="K44" s="9">
-        <v>10.942433143020569</v>
+        <v>10.942433143020576</v>
       </c>
       <c r="L44" s="9">
-        <v>2.7044814807314661</v>
+        <v>2.7044814807314639</v>
       </c>
       <c r="M44" s="9">
         <v>3.6485092489659361</v>
       </c>
       <c r="N44" s="9">
-        <v>2.0505823694057832</v>
+        <v>2.0505823694057854</v>
       </c>
       <c r="O44" s="9">
-        <v>1.1789786812097283</v>
+        <v>1.1789786812097161</v>
       </c>
       <c r="P44" s="9">
-        <v>1.2786765648260365</v>
+        <v>1.2786765648260277</v>
       </c>
       <c r="Q44" s="9">
-        <v>-0.41452479418699062</v>
+        <v>-0.41452479418698696</v>
       </c>
       <c r="R44" s="9">
-        <v>1.5119491167189381</v>
+        <v>1.5119491167189285</v>
       </c>
       <c r="S44" s="9">
-        <v>1.7787316614235718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.7787316614235629</v>
+      </c>
+      <c r="T44" s="9">
+        <v>2.4822349849119081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="9">
-        <v>1.4147453458377635</v>
+        <v>1.4147453458377672</v>
       </c>
       <c r="C45" s="9">
-        <v>1.4867582467058187</v>
+        <v>1.4867582467058236</v>
       </c>
       <c r="D45" s="9">
-        <v>2.2173327707115047</v>
+        <v>2.2173327707115038</v>
       </c>
       <c r="E45" s="9">
-        <v>2.5517275764072407</v>
+        <v>2.5517275764072189</v>
       </c>
       <c r="F45" s="9">
-        <v>0.13605039779952605</v>
+        <v>0.13605039779950831</v>
       </c>
       <c r="G45" s="9">
-        <v>-9.4770049785577033</v>
+        <v>-9.4770049785576873</v>
       </c>
       <c r="H45" s="9">
-        <v>-1.3151040386864736</v>
+        <v>-1.3151040386864672</v>
       </c>
       <c r="I45" s="9">
-        <v>-0.81288164598809087</v>
+        <v>-0.81288164598808332</v>
       </c>
       <c r="J45" s="9">
-        <v>-1.1991611778952693</v>
+        <v>-1.1991611778952698</v>
       </c>
       <c r="K45" s="9">
-        <v>12.67343338197818</v>
+        <v>12.673433381978166</v>
       </c>
       <c r="L45" s="9">
-        <v>3.0118621953527343</v>
+        <v>3.0118621953527414</v>
       </c>
       <c r="M45" s="9">
-        <v>4.3173084463963809</v>
+        <v>4.3173084463963685</v>
       </c>
       <c r="N45" s="9">
-        <v>3.8075593156158978</v>
+        <v>3.8075593156158942</v>
       </c>
       <c r="O45" s="9">
-        <v>2.8987328313631542</v>
+        <v>2.8987328313631475</v>
       </c>
       <c r="P45" s="9">
-        <v>3.2051591944076621</v>
+        <v>3.2051591944076376</v>
       </c>
       <c r="Q45" s="9">
-        <v>-0.48208848626096423</v>
+        <v>-0.48208848626095052</v>
       </c>
       <c r="R45" s="9">
-        <v>2.3374354445446683</v>
+        <v>2.3374354445446937</v>
       </c>
       <c r="S45" s="9">
-        <v>0.30528471322024014</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.3052847132202367</v>
+      </c>
+      <c r="T45" s="9">
+        <v>1.0024170429634065</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="9">
-        <v>2.3202287908170152</v>
+        <v>2.3202287908170245</v>
       </c>
       <c r="C46" s="9">
-        <v>1.6202083819298532</v>
+        <v>1.6202083819298643</v>
       </c>
       <c r="D46" s="9">
-        <v>2.7873348775452866</v>
+        <v>2.7873348775452982</v>
       </c>
       <c r="E46" s="9">
-        <v>3.3616603075500096</v>
+        <v>3.3616603075500007</v>
       </c>
       <c r="F46" s="9">
-        <v>0.15889577011801514</v>
+        <v>0.15889577011802036</v>
       </c>
       <c r="G46" s="9">
-        <v>-6.4769738415188112</v>
+        <v>-6.4769738415188236</v>
       </c>
       <c r="H46" s="9">
-        <v>0.44975814891993121</v>
+        <v>0.44975814891993005</v>
       </c>
       <c r="I46" s="9">
-        <v>-0.5854004120174896</v>
+        <v>-0.58540041201748194</v>
       </c>
       <c r="J46" s="9">
-        <v>2.6157095482477515</v>
+        <v>2.615709548247759</v>
       </c>
       <c r="K46" s="9">
-        <v>11.07759017416114</v>
+        <v>11.077590174161152</v>
       </c>
       <c r="L46" s="9">
-        <v>2.2969192933711158</v>
+        <v>2.2969192933711065</v>
       </c>
       <c r="M46" s="9">
-        <v>3.5621524815047478</v>
+        <v>3.562152481504739</v>
       </c>
       <c r="N46" s="9">
-        <v>2.7176038892096903</v>
+        <v>2.7176038892096752</v>
       </c>
       <c r="O46" s="9">
-        <v>1.9177829949822693</v>
+        <v>1.9177829949822769</v>
       </c>
       <c r="P46" s="9">
-        <v>2.5839366495077116</v>
+        <v>2.5839366495077152</v>
       </c>
       <c r="Q46" s="9">
-        <v>2.6129943502824884</v>
+        <v>2.6129943502825004</v>
       </c>
       <c r="R46" s="9">
-        <v>3.3592644978783572</v>
+        <v>3.3592644978783603</v>
       </c>
       <c r="S46" s="9">
-        <v>3.4535402626967215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.4535402626967118</v>
+      </c>
+      <c r="T46" s="9">
+        <v>3.8668300580516601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="9">
-        <v>-2.3419798421751632</v>
+        <v>-2.3419798421751712</v>
       </c>
       <c r="C47" s="9">
-        <v>-0.17221470096363156</v>
+        <v>-0.17221470096361055</v>
       </c>
       <c r="D47" s="9">
-        <v>1.8099773378458017</v>
+        <v>1.8099773378457915</v>
       </c>
       <c r="E47" s="9">
-        <v>4.0517856604380587</v>
+        <v>4.0517856604380382</v>
       </c>
       <c r="F47" s="9">
-        <v>1.7171030261815781</v>
+        <v>1.7171030261815745</v>
       </c>
       <c r="G47" s="9">
-        <v>-3.0643279518961313</v>
+        <v>-3.0643279518961339</v>
       </c>
       <c r="H47" s="9">
-        <v>2.1719945087272059</v>
+        <v>2.1719945087271992</v>
       </c>
       <c r="I47" s="9">
-        <v>1.6547846751289461</v>
+        <v>1.654784675128967</v>
       </c>
       <c r="J47" s="9">
-        <v>5.1990443511517936</v>
+        <v>5.1990443511517901</v>
       </c>
       <c r="K47" s="9">
-        <v>10.454685731920604</v>
+        <v>10.4546857319206</v>
       </c>
       <c r="L47" s="9">
-        <v>2.1392581217908648</v>
+        <v>2.1392581217908697</v>
       </c>
       <c r="M47" s="9">
-        <v>1.2296756659159516</v>
+        <v>1.2296756659159394</v>
       </c>
       <c r="N47" s="9">
-        <v>0.35420891784033981</v>
+        <v>0.35420891784035918</v>
       </c>
       <c r="O47" s="9">
-        <v>-0.63330632468125792</v>
+        <v>-0.63330632468124926</v>
       </c>
       <c r="P47" s="9">
-        <v>-9.8661955949788618E-2</v>
+        <v>-9.8661955949775934E-2</v>
       </c>
       <c r="Q47" s="9">
-        <v>-0.93686927951184817</v>
+        <v>-0.93686927951186083</v>
       </c>
       <c r="R47" s="9">
-        <v>0.62768909832556508</v>
+        <v>0.62768909832553998</v>
       </c>
       <c r="S47" s="9">
-        <v>1.5249360314172362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.5249360314172351</v>
+      </c>
+      <c r="T47" s="9">
+        <v>3.1922798370940186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="9">
-        <v>1.3166181217035526</v>
+        <v>1.3166181217035253</v>
       </c>
       <c r="C48" s="9">
-        <v>1.6345265475418251</v>
+        <v>1.6345265475418183</v>
       </c>
       <c r="D48" s="9">
-        <v>2.3713755735624202</v>
+        <v>2.3713755735624216</v>
       </c>
       <c r="E48" s="9">
-        <v>3.1993413120828005</v>
+        <v>3.1993413120827952</v>
       </c>
       <c r="F48" s="9">
-        <v>2.9282647967211211</v>
+        <v>2.9282647967211282</v>
       </c>
       <c r="G48" s="9">
-        <v>-8.6726947439678987</v>
+        <v>-8.6726947439679023</v>
       </c>
       <c r="H48" s="9">
-        <v>0.29563509093163332</v>
+        <v>0.2956350909316306</v>
       </c>
       <c r="I48" s="9">
-        <v>1.5833214607968953</v>
+        <v>1.5833214607968835</v>
       </c>
       <c r="J48" s="9">
-        <v>3.8480047557488875</v>
+        <v>3.8480047557488808</v>
       </c>
       <c r="K48" s="9">
         <v>17.223122293168998</v>
       </c>
       <c r="L48" s="9">
-        <v>5.9846532723521246</v>
+        <v>5.9846532723521237</v>
       </c>
       <c r="M48" s="9">
-        <v>6.6843069788316205</v>
+        <v>6.6843069788316267</v>
       </c>
       <c r="N48" s="9">
-        <v>4.3569124528644609</v>
+        <v>4.3569124528644751</v>
       </c>
       <c r="O48" s="9">
-        <v>3.8626221748477847</v>
+        <v>3.8626221748477887</v>
       </c>
       <c r="P48" s="9">
-        <v>4.1843481693476754</v>
+        <v>4.1843481693476736</v>
       </c>
       <c r="Q48" s="9">
-        <v>3.2760449075818814</v>
+        <v>3.2760449075818832</v>
       </c>
       <c r="R48" s="9">
-        <v>3.2442316064431931</v>
+        <v>3.2442316064431855</v>
       </c>
       <c r="S48" s="9">
-        <v>3.3145471307554542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.3145471307554386</v>
+      </c>
+      <c r="T48" s="9">
+        <v>3.5865905431122904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="9">
-        <v>2.8229901064786573</v>
+        <v>2.8229901064786671</v>
       </c>
       <c r="C49" s="9">
-        <v>2.4878809029802817</v>
+        <v>2.4878809029802711</v>
       </c>
       <c r="D49" s="9">
-        <v>3.7605846630489488</v>
+        <v>3.7605846630489643</v>
       </c>
       <c r="E49" s="9">
-        <v>3.8224146242331924</v>
+        <v>3.8224146242331947</v>
       </c>
       <c r="F49" s="9">
-        <v>1.5481565086531262</v>
+        <v>1.5481565086531384</v>
       </c>
       <c r="G49" s="9">
-        <v>-5.9884876246629801</v>
+        <v>-5.9884876246629846</v>
       </c>
       <c r="H49" s="9">
-        <v>-1.3921963729620803</v>
+        <v>-1.3921963729620872</v>
       </c>
       <c r="I49" s="9">
-        <v>-0.98050818910972104</v>
+        <v>-0.98050818910970328</v>
       </c>
       <c r="J49" s="9">
-        <v>2.3312894800214901</v>
+        <v>2.3312894800214883</v>
       </c>
       <c r="K49" s="9">
-        <v>11.212662498759553</v>
+        <v>11.212662498759583</v>
       </c>
       <c r="L49" s="9">
-        <v>4.7845067806056196</v>
+        <v>4.7845067806056276</v>
       </c>
       <c r="M49" s="9">
-        <v>4.9023573976683572</v>
+        <v>4.9023573976683368</v>
       </c>
       <c r="N49" s="9">
-        <v>3.4693120208538879</v>
+        <v>3.4693120208538728</v>
       </c>
       <c r="O49" s="9">
-        <v>1.5419072178747195</v>
+        <v>1.5419072178746784</v>
       </c>
       <c r="P49" s="9">
-        <v>2.3800870482488277</v>
+        <v>2.380087048248833</v>
       </c>
       <c r="Q49" s="9">
-        <v>3.3988921609872538</v>
+        <v>3.3988921609872453</v>
       </c>
       <c r="R49" s="9">
-        <v>4.3992092095594693</v>
+        <v>4.3992092095594648</v>
       </c>
       <c r="S49" s="9">
-        <v>6.1363656335404215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6.1363656335404357</v>
+      </c>
+      <c r="T49" s="9">
+        <v>6.5335596037958004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="9">
-        <v>6.5300699031369636</v>
+        <v>6.5300699031369618</v>
       </c>
       <c r="C50" s="9">
-        <v>4.9392558845861929</v>
+        <v>4.9392558845861769</v>
       </c>
       <c r="D50" s="9">
-        <v>6.0793381297663336</v>
+        <v>6.0793381297663434</v>
       </c>
       <c r="E50" s="9">
-        <v>5.7268845413189764</v>
+        <v>5.7268845413189684</v>
       </c>
       <c r="F50" s="9">
-        <v>1.4849963846710044</v>
+        <v>1.4849963846710192</v>
       </c>
       <c r="G50" s="9">
-        <v>-2.0549184182916713</v>
+        <v>-2.0549184182916624</v>
       </c>
       <c r="H50" s="9">
-        <v>1.5766482739105854</v>
+        <v>1.5766482739105798</v>
       </c>
       <c r="I50" s="9">
-        <v>3.1870056049767257</v>
+        <v>3.1870056049767306</v>
       </c>
       <c r="J50" s="9">
-        <v>7.0349028793316846</v>
+        <v>7.0349028793316801</v>
       </c>
       <c r="K50" s="9">
-        <v>11.998116204336414</v>
+        <v>11.998116204336423</v>
       </c>
       <c r="L50" s="9">
-        <v>6.3915174413037139</v>
+        <v>6.3915174413037281</v>
       </c>
       <c r="M50" s="9">
-        <v>6.0969890254197558</v>
+        <v>6.0969890254197541</v>
       </c>
       <c r="N50" s="9">
-        <v>3.3008270789302792</v>
+        <v>3.3008270789302823</v>
       </c>
       <c r="O50" s="9">
-        <v>2.0695057096920473</v>
+        <v>2.0695057096920459</v>
       </c>
       <c r="P50" s="9">
-        <v>1.5816647983438807</v>
+        <v>1.5816647983438767</v>
       </c>
       <c r="Q50" s="9">
-        <v>0.57064321939222917</v>
+        <v>0.57064321939222251</v>
       </c>
       <c r="R50" s="9">
-        <v>1.0422959508332856</v>
+        <v>1.0422959508332834</v>
       </c>
       <c r="S50" s="9">
-        <v>1.943535683993701</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.943535683993693</v>
+      </c>
+      <c r="T50" s="9">
+        <v>3.1696550835306745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="9">
-        <v>0.65718392228775424</v>
+        <v>0.65718392228776179</v>
       </c>
       <c r="C51" s="9">
-        <v>-9.2984608079754255E-2</v>
+        <v>-9.2984608079761819E-2</v>
       </c>
       <c r="D51" s="9">
-        <v>1.7407989183385404</v>
+        <v>1.7407989183385479</v>
       </c>
       <c r="E51" s="9">
-        <v>2.3314668313970888</v>
+        <v>2.3314668313970968</v>
       </c>
       <c r="F51" s="9">
-        <v>1.0074053649505541</v>
+        <v>1.007405364950545</v>
       </c>
       <c r="G51" s="9">
-        <v>-9.4972177666884399</v>
+        <v>-9.4972177666884559</v>
       </c>
       <c r="H51" s="9">
-        <v>-1.6426121539619043</v>
+        <v>-1.6426121539619114</v>
       </c>
       <c r="I51" s="9">
-        <v>-0.78086966681596059</v>
+        <v>-0.78086966681596659</v>
       </c>
       <c r="J51" s="9">
-        <v>0.22423492020162905</v>
+        <v>0.22423492020162969</v>
       </c>
       <c r="K51" s="9">
-        <v>12.987112443384445</v>
+        <v>12.987112443384454</v>
       </c>
       <c r="L51" s="9">
-        <v>3.6242250834525418</v>
+        <v>3.6242250834525325</v>
       </c>
       <c r="M51" s="9">
-        <v>3.2589495996231777</v>
+        <v>3.2589495996231723</v>
       </c>
       <c r="N51" s="9">
-        <v>3.200357973171458</v>
+        <v>3.2003579731714686</v>
       </c>
       <c r="O51" s="9">
-        <v>2.937730569245812</v>
+        <v>2.9377305692458289</v>
       </c>
       <c r="P51" s="9">
-        <v>1.0057140665746158</v>
+        <v>1.0057140665746349</v>
       </c>
       <c r="Q51" s="9">
-        <v>1.7248752672843888</v>
+        <v>1.7248752672844032</v>
       </c>
       <c r="R51" s="9">
-        <v>1.0585252283416975</v>
+        <v>1.0585252283417061</v>
       </c>
       <c r="S51" s="9">
-        <v>0.37907648314849512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.37907648314848447</v>
+      </c>
+      <c r="T51" s="9">
+        <v>2.272360540278874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="9">
-        <v>1.8234183934258792</v>
+        <v>1.8234183934258883</v>
       </c>
       <c r="C52" s="9">
-        <v>1.8604696634925402</v>
+        <v>1.8604696634925437</v>
       </c>
       <c r="D52" s="9">
-        <v>2.8956497235529111</v>
+        <v>2.8956497235529026</v>
       </c>
       <c r="E52" s="9">
-        <v>3.4904183640729936</v>
+        <v>3.4904183640729984</v>
       </c>
       <c r="F52" s="9">
-        <v>1.5088765964841131</v>
+        <v>1.5088765964841007</v>
       </c>
       <c r="G52" s="9">
-        <v>-5.3498929829444508</v>
+        <v>-5.3498929829444615</v>
       </c>
       <c r="H52" s="9">
-        <v>-1.1851586034959574</v>
+        <v>-1.185158603495974</v>
       </c>
       <c r="I52" s="9">
-        <v>-0.33539077252613064</v>
+        <v>-0.33539077252615013</v>
       </c>
       <c r="J52" s="9">
-        <v>2.3328578221588012</v>
+        <v>2.3328578221588203</v>
       </c>
       <c r="K52" s="9">
-        <v>10.166810322973193</v>
+        <v>10.166810322973198</v>
       </c>
       <c r="L52" s="9">
-        <v>4.5853322884611574</v>
+        <v>4.5853322884611671</v>
       </c>
       <c r="M52" s="9">
-        <v>4.9836924759157633</v>
+        <v>4.9836924759157908</v>
       </c>
       <c r="N52" s="9">
-        <v>2.9618133323420577</v>
+        <v>2.9618133323420488</v>
       </c>
       <c r="O52" s="9">
-        <v>2.3839986745335406</v>
+        <v>2.383998674533558</v>
       </c>
       <c r="P52" s="9">
-        <v>2.8528089476954519</v>
+        <v>2.8528089476954621</v>
       </c>
       <c r="Q52" s="9">
-        <v>1.8227038869384848</v>
+        <v>1.8227038869384846</v>
       </c>
       <c r="R52" s="9">
-        <v>2.504738694828045</v>
+        <v>2.5047386948280388</v>
       </c>
       <c r="S52" s="9">
-        <v>2.44086630525663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.440866305256626</v>
+      </c>
+      <c r="T52" s="9">
+        <v>2.2832672933065514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="9">
-        <v>4.7827827446196185</v>
+        <v>4.7827827446196034</v>
       </c>
       <c r="C53" s="9">
-        <v>4.563962551133204</v>
+        <v>4.5639625511332156</v>
       </c>
       <c r="D53" s="9">
-        <v>4.4317675040879765</v>
+        <v>4.4317675040879925</v>
       </c>
       <c r="E53" s="9">
-        <v>5.5411857414360597</v>
+        <v>5.5411857414360632</v>
       </c>
       <c r="F53" s="9">
-        <v>2.244032891864352</v>
+        <v>2.2440328918643608</v>
       </c>
       <c r="G53" s="9">
-        <v>-4.0250447227191453</v>
+        <v>-4.0250447227191595</v>
       </c>
       <c r="H53" s="9">
-        <v>2.1520969377769155</v>
+        <v>2.1520969377768955</v>
       </c>
       <c r="I53" s="9">
-        <v>0.60171114351469923</v>
+        <v>0.60171114351469479</v>
       </c>
       <c r="J53" s="9">
-        <v>3.7970516801152829</v>
+        <v>3.7970516801152892</v>
       </c>
       <c r="K53" s="9">
-        <v>12.154160430022509</v>
+        <v>12.154160430022522</v>
       </c>
       <c r="L53" s="9">
-        <v>4.1812908788462142</v>
+        <v>4.1812908788462178</v>
       </c>
       <c r="M53" s="9">
-        <v>7.5868572476359137</v>
+        <v>7.58685724763592</v>
       </c>
       <c r="N53" s="9">
-        <v>2.0304960101482021</v>
+        <v>2.0304960101482088</v>
       </c>
       <c r="O53" s="9">
-        <v>1.0097533952223376</v>
+        <v>1.0097533952223359</v>
       </c>
       <c r="P53" s="9">
-        <v>2.4134356556486214</v>
+        <v>2.4134356556486298</v>
       </c>
       <c r="Q53" s="9">
-        <v>1.1151149201402546</v>
+        <v>1.1151149201402373</v>
       </c>
       <c r="R53" s="9">
-        <v>5.596438172043003</v>
+        <v>5.5964381720430012</v>
       </c>
       <c r="S53" s="9">
-        <v>5.2027156164565751</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.2027156164565591</v>
+      </c>
+      <c r="T53" s="9">
+        <v>4.6421079267645551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="9">
-        <v>0.34582302925209862</v>
+        <v>0.34582302925209324</v>
       </c>
       <c r="C54" s="9">
-        <v>-0.64900366279013677</v>
+        <v>-0.64900366279013777</v>
       </c>
       <c r="D54" s="9">
-        <v>-1.0107129805935335</v>
+        <v>-1.0107129805935564</v>
       </c>
       <c r="E54" s="9">
-        <v>-1.8651487770229078</v>
+        <v>-1.8651487770229296</v>
       </c>
       <c r="F54" s="9">
-        <v>-1.0869138323776544</v>
+        <v>-1.0869138323776613</v>
       </c>
       <c r="G54" s="9">
-        <v>-8.6388484143205098</v>
+        <v>-8.638848414320492</v>
       </c>
       <c r="H54" s="9">
-        <v>-3.213678534997833</v>
+        <v>-3.2136785349978108</v>
       </c>
       <c r="I54" s="9">
-        <v>-1.8021211852639578</v>
+        <v>-1.8021211852639611</v>
       </c>
       <c r="J54" s="9">
-        <v>-0.66407917332566879</v>
+        <v>-0.66407917332564215</v>
       </c>
       <c r="K54" s="9">
-        <v>7.0976719293551147</v>
+        <v>7.0976719293551023</v>
       </c>
       <c r="L54" s="9">
-        <v>0.97563913396972024</v>
+        <v>0.97563913396971569</v>
       </c>
       <c r="M54" s="9">
-        <v>1.4129987865659841</v>
+        <v>1.412998786565979</v>
       </c>
       <c r="N54" s="9">
-        <v>-0.3527460228635409</v>
+        <v>-0.3527460228635575</v>
       </c>
       <c r="O54" s="9">
-        <v>0.22187574958022588</v>
+        <v>0.22187574958022935</v>
       </c>
       <c r="P54" s="9">
-        <v>1.2564737224028131</v>
+        <v>1.2564737224027949</v>
       </c>
       <c r="Q54" s="9">
-        <v>4.1670786939066105</v>
+        <v>4.167078693906614</v>
       </c>
       <c r="R54" s="9">
-        <v>5.3981688544811028</v>
+        <v>5.3981688544811002</v>
       </c>
       <c r="S54" s="9">
-        <v>5.7430343644667889</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5.7430343644667854</v>
+      </c>
+      <c r="T54" s="9">
+        <v>5.0577736764085159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="9">
-        <v>0.59927734202872884</v>
+        <v>0.59927734202871752</v>
       </c>
       <c r="C55" s="9">
-        <v>1.7664299624289272</v>
+        <v>1.7664299624289252</v>
       </c>
       <c r="D55" s="9">
-        <v>1.5188709693193985</v>
+        <v>1.5188709693193738</v>
       </c>
       <c r="E55" s="9">
-        <v>2.0333762233399932</v>
+        <v>2.0333762233399724</v>
       </c>
       <c r="F55" s="9">
-        <v>-0.70764588504404879</v>
+        <v>-0.70764588504405546</v>
       </c>
       <c r="G55" s="9">
-        <v>-8.6682130086015245</v>
+        <v>-8.6682130086015157</v>
       </c>
       <c r="H55" s="9">
-        <v>-1.923892100192681</v>
+        <v>-1.9238921001926588</v>
       </c>
       <c r="I55" s="9">
-        <v>-1.5629478189426469</v>
+        <v>-1.5629478189426291</v>
       </c>
       <c r="J55" s="9">
-        <v>0.77739000862677676</v>
+        <v>0.77739000862678209</v>
       </c>
       <c r="K55" s="9">
-        <v>9.7776743103247448</v>
+        <v>9.7776743103247501</v>
       </c>
       <c r="L55" s="9">
-        <v>1.9527911751127234</v>
+        <v>1.9527911751127063</v>
       </c>
       <c r="M55" s="9">
-        <v>2.256449077039548</v>
+        <v>2.2564490770395427</v>
       </c>
       <c r="N55" s="9">
-        <v>1.653680411669155</v>
+        <v>1.6536804116691604</v>
       </c>
       <c r="O55" s="9">
-        <v>3.8557561619996369E-3</v>
+        <v>3.8557561619780231E-3</v>
       </c>
       <c r="P55" s="9">
-        <v>0.68695744332358766</v>
+        <v>0.68695744332361319</v>
       </c>
       <c r="Q55" s="9">
-        <v>-0.91398308704193243</v>
+        <v>-0.91398308704192854</v>
       </c>
       <c r="R55" s="9">
-        <v>-0.82487248925848089</v>
+        <v>-0.82487248925848256</v>
       </c>
       <c r="S55" s="9">
-        <v>-0.13301845872090765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.13301845872090071</v>
+      </c>
+      <c r="T55" s="9">
+        <v>0.36075174156012368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="9">
-        <v>0.95539814897835562</v>
+        <v>0.95539814897835873</v>
       </c>
       <c r="C56" s="9">
-        <v>0.88378083820470033</v>
+        <v>0.88378083820469344</v>
       </c>
       <c r="D56" s="9">
-        <v>2.4647016335698209</v>
+        <v>2.4647016335698257</v>
       </c>
       <c r="E56" s="9">
-        <v>1.8092899892527132</v>
+        <v>1.8092899892526999</v>
       </c>
       <c r="F56" s="9">
-        <v>5.4274887502976862E-2</v>
+        <v>5.4274887502971568E-2</v>
       </c>
       <c r="G56" s="9">
-        <v>-9.1060870931625768</v>
+        <v>-9.1060870931625946</v>
       </c>
       <c r="H56" s="9">
-        <v>-7.4837289248536978</v>
+        <v>-7.4837289248536933</v>
       </c>
       <c r="I56" s="9">
-        <v>-8.042147671806001</v>
+        <v>-8.0421476718059868</v>
       </c>
       <c r="J56" s="9">
-        <v>-4.0901066169581304</v>
+        <v>-4.0901066169581171</v>
       </c>
       <c r="K56" s="9">
-        <v>6.0896812533765594</v>
+        <v>6.0896812533765701</v>
       </c>
       <c r="L56" s="9">
-        <v>2.5102287909151531</v>
+        <v>2.5102287909151375</v>
       </c>
       <c r="M56" s="9">
-        <v>4.2768978009941998</v>
+        <v>4.2768978009941971</v>
       </c>
       <c r="N56" s="9">
-        <v>2.7826909629385965</v>
+        <v>2.7826909629385752</v>
       </c>
       <c r="O56" s="9">
-        <v>-1.0459739677754425</v>
+        <v>-1.0459739677754354</v>
       </c>
       <c r="P56" s="9">
-        <v>0.20974820034008412</v>
+        <v>0.20974820034007335</v>
       </c>
       <c r="Q56" s="9">
-        <v>2.0108470604869981</v>
+        <v>2.0108470604869995</v>
       </c>
       <c r="R56" s="9">
-        <v>2.0140070035017401</v>
+        <v>2.0140070035017517</v>
       </c>
       <c r="S56" s="9">
-        <v>7.1563107895305462</v>
+        <v>7.1563107895305533</v>
+      </c>
+      <c r="T56" s="9">
+        <v>7.2577449476219131</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/state_gdp.xlsx
+++ b/static/data/source/state_gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD4642-306E-4983-93C9-33F16BFB1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350E71C-D7C5-43D0-821A-552AF59DEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Geography</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
   </si>
 </sst>
 </file>
@@ -687,28 +690,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:X56"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
-    <col min="2" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="24" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,3852 +784,4011 @@
       <c r="X4" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>24606834.08167287</v>
+        <v>24402130.007903907</v>
       </c>
       <c r="C5" s="7">
-        <v>24737328.334016412</v>
+        <v>24531538.679511238</v>
       </c>
       <c r="D5" s="7">
-        <v>24891658.252378419</v>
+        <v>24684584.728404779</v>
       </c>
       <c r="E5" s="7">
-        <v>24926809.840648077</v>
+        <v>24719443.890867267</v>
       </c>
       <c r="F5" s="7">
-        <v>25062360.143359173</v>
+        <v>24853866.551595915</v>
       </c>
       <c r="G5" s="7">
-        <v>25270139.737035323</v>
+        <v>25059917.628343381</v>
       </c>
       <c r="H5" s="7">
-        <v>25556408.493560173</v>
+        <v>25343804.917164624</v>
       </c>
       <c r="I5" s="7">
-        <v>25720128.219747636</v>
+        <v>25506162.660140611</v>
       </c>
       <c r="J5" s="7">
-        <v>25369575.394263886</v>
+        <v>25158526.081062619</v>
       </c>
       <c r="K5" s="7">
-        <v>23367860.977318902</v>
+        <v>23173463.911794465</v>
       </c>
       <c r="L5" s="7">
-        <v>25180816.180541869</v>
+        <v>24971337.153866779</v>
       </c>
       <c r="M5" s="7">
-        <v>25441563.920925729</v>
+        <v>25229915.735694706</v>
       </c>
       <c r="N5" s="7">
-        <v>25768762.608997442</v>
+        <v>25554392.460259948</v>
       </c>
       <c r="O5" s="7">
-        <v>26160245.366028059</v>
+        <v>25942618.475081939</v>
       </c>
       <c r="P5" s="7">
-        <v>26373321.774374984</v>
+        <v>26153922.302337449</v>
       </c>
       <c r="Q5" s="7">
-        <v>26820902.614055127</v>
+        <v>26597779.720267385</v>
       </c>
       <c r="R5" s="7">
-        <v>26687278.425769769</v>
+        <v>26465267.150632571</v>
       </c>
       <c r="S5" s="7">
-        <v>26649719.194467939</v>
+        <v>26428020.37430279</v>
       </c>
       <c r="T5" s="7">
-        <v>26825236.371513031</v>
+        <v>26602077.425228514</v>
       </c>
       <c r="U5" s="7">
-        <v>26995697.498190567</v>
+        <v>26771120.48703292</v>
       </c>
       <c r="V5" s="8">
-        <v>27145693.659094676</v>
+        <v>26919868.830965333</v>
       </c>
       <c r="W5" s="8">
-        <v>27284614.662050802</v>
+        <v>27057634.15110819</v>
       </c>
       <c r="X5" s="8">
+        <v>27380439.545966327</v>
+      </c>
+      <c r="Y5" s="7">
         <v>27610128</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>274848.04550810409</v>
+        <v>271628.05214917433</v>
       </c>
       <c r="C6" s="7">
-        <v>274918.30940575915</v>
+        <v>271697.49286730337</v>
       </c>
       <c r="D6" s="7">
-        <v>275139.91092913278</v>
+        <v>271916.49820909498</v>
       </c>
       <c r="E6" s="7">
-        <v>277001.90421699133</v>
+        <v>273756.67723951471</v>
       </c>
       <c r="F6" s="7">
-        <v>277620.76700787613</v>
+        <v>274368.28971842059</v>
       </c>
       <c r="G6" s="7">
-        <v>279242.24156914628</v>
+        <v>275970.76782909088</v>
       </c>
       <c r="H6" s="7">
-        <v>282101.44171218609</v>
+        <v>278796.47089757293</v>
       </c>
       <c r="I6" s="7">
-        <v>283582.38847814623</v>
+        <v>280260.06757198519</v>
       </c>
       <c r="J6" s="7">
-        <v>281501.49612451612</v>
+        <v>278203.55399662495</v>
       </c>
       <c r="K6" s="7">
-        <v>259827.78615553788</v>
+        <v>256783.76325066481</v>
       </c>
       <c r="L6" s="7">
-        <v>283463.48034365306</v>
+        <v>280142.55251053604</v>
       </c>
       <c r="M6" s="7">
-        <v>283468.88525885728</v>
+        <v>280147.89410423825</v>
       </c>
       <c r="N6" s="7">
-        <v>286728.0491270104</v>
+        <v>283368.87510668562</v>
       </c>
       <c r="O6" s="7">
-        <v>288584.63749966474</v>
+        <v>285203.71254340315</v>
       </c>
       <c r="P6" s="7">
-        <v>289011.62580079923</v>
+        <v>285625.69844587962</v>
       </c>
       <c r="Q6" s="7">
-        <v>292897.7598326435</v>
+        <v>289466.30431778624</v>
       </c>
       <c r="R6" s="7">
-        <v>291935.68492628977</v>
+        <v>288515.50063878845</v>
       </c>
       <c r="S6" s="7">
-        <v>291643.8195052612</v>
+        <v>288227.05457886786</v>
       </c>
       <c r="T6" s="7">
-        <v>294716.51379886823</v>
+        <v>291263.75059858814</v>
       </c>
       <c r="U6" s="7">
-        <v>298459.41757780022</v>
+        <v>294962.80423738546</v>
       </c>
       <c r="V6" s="8">
-        <v>299037.74350465322</v>
+        <v>295534.35476352449</v>
       </c>
       <c r="W6" s="8">
-        <v>299232.32045200566</v>
+        <v>295726.65213680494</v>
       </c>
       <c r="X6" s="8">
+        <v>298747.32337541855</v>
+      </c>
+      <c r="Y6" s="7">
         <v>302288.8</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>67184.809357242717</v>
+        <v>66452.985090424379</v>
       </c>
       <c r="C7" s="7">
-        <v>66696.818714485431</v>
+        <v>65970.3099854764</v>
       </c>
       <c r="D7" s="7">
-        <v>66604.93763112108</v>
+        <v>65879.429735590791</v>
       </c>
       <c r="E7" s="7">
-        <v>66307.515161267613</v>
+        <v>65585.247000775926</v>
       </c>
       <c r="F7" s="7">
-        <v>66094.487167985848</v>
+        <v>65374.539458448562</v>
       </c>
       <c r="G7" s="7">
-        <v>65978.785063008516</v>
+        <v>65260.097662296321</v>
       </c>
       <c r="H7" s="7">
-        <v>67201.143772063049</v>
+        <v>66469.141579292918</v>
       </c>
       <c r="I7" s="7">
-        <v>66734.932349066192</v>
+        <v>66008.00845950302</v>
       </c>
       <c r="J7" s="7">
-        <v>66416.411260069799</v>
+        <v>65692.956926566258</v>
       </c>
       <c r="K7" s="7">
-        <v>61538.546634349455</v>
+        <v>60868.225438195106</v>
       </c>
       <c r="L7" s="7">
-        <v>63544.276654162182</v>
+        <v>62852.107633845975</v>
       </c>
       <c r="M7" s="7">
-        <v>64440.627667427667</v>
+        <v>63738.694960507732</v>
       </c>
       <c r="N7" s="7">
-        <v>64641.404849594197</v>
+        <v>63937.28513618368</v>
       </c>
       <c r="O7" s="7">
-        <v>64524.341543381852</v>
+        <v>63821.496965959064</v>
       </c>
       <c r="P7" s="7">
-        <v>64983.746960203564</v>
+        <v>64275.898215387075</v>
       </c>
       <c r="Q7" s="7">
-        <v>65233.527386831069</v>
+        <v>64522.957857668662</v>
       </c>
       <c r="R7" s="7">
-        <v>63129.11027747886</v>
+        <v>62441.463541770296</v>
       </c>
       <c r="S7" s="7">
-        <v>63586.473892448033</v>
+        <v>62893.845230089741</v>
       </c>
       <c r="T7" s="7">
-        <v>64046.559909887263</v>
+        <v>63348.919666553928</v>
       </c>
       <c r="U7" s="7">
-        <v>65027.986000341953</v>
+        <v>64319.655372739398</v>
       </c>
       <c r="V7" s="8">
-        <v>66301.389755709999</v>
+        <v>65579.188317450215</v>
       </c>
       <c r="W7" s="8">
-        <v>67079.316261528089</v>
+        <v>66348.64109981498</v>
       </c>
       <c r="X7" s="8">
+        <v>66935.660195372344</v>
+      </c>
+      <c r="Y7" s="7">
         <v>67672.800000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>423461.54069637082</v>
+        <v>418779.96195514448</v>
       </c>
       <c r="C8" s="7">
-        <v>424803.58298952563</v>
+        <v>420107.16730074759</v>
       </c>
       <c r="D8" s="7">
-        <v>428562.94305230788</v>
+        <v>423824.96576121385</v>
       </c>
       <c r="E8" s="7">
-        <v>430356.43688138633</v>
+        <v>425598.63162062847</v>
       </c>
       <c r="F8" s="7">
-        <v>434641.12236778886</v>
+        <v>429835.94776989351</v>
       </c>
       <c r="G8" s="7">
-        <v>439750.73293347005</v>
+        <v>434889.06903985044</v>
       </c>
       <c r="H8" s="7">
-        <v>446809.79331336683</v>
+        <v>441870.08798308414</v>
       </c>
       <c r="I8" s="7">
-        <v>451275.05941413878</v>
+        <v>446285.98833787377</v>
       </c>
       <c r="J8" s="7">
-        <v>445906.89024151961</v>
+        <v>440977.1669554612</v>
       </c>
       <c r="K8" s="7">
-        <v>423330.20934046572</v>
+        <v>418650.08253294474</v>
       </c>
       <c r="L8" s="7">
-        <v>453659.54434478999</v>
+        <v>448644.111597187</v>
       </c>
       <c r="M8" s="7">
-        <v>464153.74050257856</v>
+        <v>459022.28917733143</v>
       </c>
       <c r="N8" s="7">
-        <v>468356.34389154043</v>
+        <v>463178.43068772176</v>
       </c>
       <c r="O8" s="7">
-        <v>477282.77198821231</v>
+        <v>472006.1726653573</v>
       </c>
       <c r="P8" s="7">
-        <v>484973.86451840226</v>
+        <v>479612.23632792704</v>
       </c>
       <c r="Q8" s="7">
-        <v>495427.01962747046</v>
+        <v>489949.82658863405</v>
       </c>
       <c r="R8" s="7">
-        <v>492213.50551266858</v>
+        <v>486771.83947668527</v>
       </c>
       <c r="S8" s="7">
-        <v>494651.34380665614</v>
+        <v>489182.72625126713</v>
       </c>
       <c r="T8" s="7">
-        <v>497630.92394375219</v>
+        <v>492129.36564242269</v>
       </c>
       <c r="U8" s="7">
-        <v>503984.07828565937</v>
+        <v>498412.28269133298</v>
       </c>
       <c r="V8" s="8">
-        <v>504558.65296774398</v>
+        <v>498980.5051634566</v>
       </c>
       <c r="W8" s="8">
-        <v>506401.39605528681</v>
+        <v>500802.87580619613</v>
       </c>
       <c r="X8" s="8">
+        <v>506838.21020653826</v>
+      </c>
+      <c r="Y8" s="7">
         <v>512504.2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>158403.22708067315</v>
+        <v>157540.31177011534</v>
       </c>
       <c r="C9" s="7">
-        <v>158367.40193294999</v>
+        <v>157504.68178298988</v>
       </c>
       <c r="D9" s="7">
-        <v>159286.39485280521</v>
+        <v>158418.66840925213</v>
       </c>
       <c r="E9" s="7">
-        <v>159504.46096938103</v>
+        <v>158635.54659175506</v>
       </c>
       <c r="F9" s="7">
-        <v>158730.32625553687</v>
+        <v>157865.62904386973</v>
       </c>
       <c r="G9" s="7">
-        <v>158719.4229497081</v>
+        <v>157854.78513474457</v>
       </c>
       <c r="H9" s="7">
-        <v>160471.7399579066</v>
+        <v>159597.55624414296</v>
       </c>
       <c r="I9" s="7">
-        <v>161889.16971564942</v>
+        <v>161007.26443041189</v>
       </c>
       <c r="J9" s="7">
-        <v>162132.1576741196</v>
+        <v>161248.92869091514</v>
       </c>
       <c r="K9" s="7">
-        <v>153009.20592565849</v>
+        <v>152175.67501291833</v>
       </c>
       <c r="L9" s="7">
-        <v>164225.59239324744</v>
+        <v>163330.95924294309</v>
       </c>
       <c r="M9" s="7">
-        <v>164695.99215900386</v>
+        <v>163798.79646519941</v>
       </c>
       <c r="N9" s="7">
-        <v>168174.14671838813</v>
+        <v>167258.00347612082</v>
       </c>
       <c r="O9" s="7">
-        <v>170347.01980855429</v>
+        <v>169419.03965177483</v>
       </c>
       <c r="P9" s="7">
-        <v>170711.50174625957</v>
+        <v>169781.53604252971</v>
       </c>
       <c r="Q9" s="7">
-        <v>172586.87034881162</v>
+        <v>171646.68841205476</v>
       </c>
       <c r="R9" s="7">
-        <v>171625.82182075962</v>
+        <v>170690.87527916694</v>
       </c>
       <c r="S9" s="7">
-        <v>169842.35251019313</v>
+        <v>168917.12157226814</v>
       </c>
       <c r="T9" s="7">
-        <v>173505.86326866684</v>
+        <v>172560.67503831701</v>
       </c>
       <c r="U9" s="7">
-        <v>175832.94025555448</v>
+        <v>174875.07507159811</v>
       </c>
       <c r="V9" s="8">
-        <v>176750.37556029132</v>
+        <v>175787.51256798534</v>
       </c>
       <c r="W9" s="8">
-        <v>176577.48028214904</v>
+        <v>175615.55915185806</v>
       </c>
       <c r="X9" s="8">
+        <v>175914.54121773707</v>
+      </c>
+      <c r="Y9" s="7">
         <v>176878.1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>3369306.3634318421</v>
+        <v>3343518.9143721089</v>
       </c>
       <c r="C10" s="7">
-        <v>3405154.5923598236</v>
+        <v>3379092.7739558849</v>
       </c>
       <c r="D10" s="7">
-        <v>3441101.3957028226</v>
+        <v>3414764.4535018532</v>
       </c>
       <c r="E10" s="7">
-        <v>3457234.7416273309</v>
+        <v>3430774.3206472555</v>
       </c>
       <c r="F10" s="7">
-        <v>3478493.9571327427</v>
+        <v>3451870.8258266347</v>
       </c>
       <c r="G10" s="7">
-        <v>3531987.006348832</v>
+        <v>3504954.4586427552</v>
       </c>
       <c r="H10" s="7">
-        <v>3574998.3094347417</v>
+        <v>3547636.5688124737</v>
       </c>
       <c r="I10" s="7">
-        <v>3623595.4960383023</v>
+        <v>3595861.810173064</v>
       </c>
       <c r="J10" s="7">
-        <v>3574735.4443280292</v>
+        <v>3547375.7155799619</v>
       </c>
       <c r="K10" s="7">
-        <v>3286306.7059872216</v>
+        <v>3261154.5062065562</v>
       </c>
       <c r="L10" s="7">
-        <v>3551866.180044</v>
+        <v>3524681.4843514482</v>
       </c>
       <c r="M10" s="7">
-        <v>3615643.8265602347</v>
+        <v>3587970.9998895871</v>
       </c>
       <c r="N10" s="7">
-        <v>3684580.2007957115</v>
+        <v>3656379.7601157664</v>
       </c>
       <c r="O10" s="7">
-        <v>3739256.1429920094</v>
+        <v>3710637.2324781893</v>
       </c>
       <c r="P10" s="7">
-        <v>3794917.8293384807</v>
+        <v>3765872.9044625307</v>
       </c>
       <c r="Q10" s="7">
-        <v>3869834.3847516775</v>
+        <v>3840216.0757283503</v>
       </c>
       <c r="R10" s="7">
-        <v>3808028.2265357906</v>
+        <v>3778882.9594340487</v>
       </c>
       <c r="S10" s="7">
-        <v>3789791.9597575781</v>
+        <v>3760786.2664285535</v>
       </c>
       <c r="T10" s="7">
-        <v>3803559.5197216701</v>
+        <v>3774448.4544813517</v>
       </c>
       <c r="U10" s="7">
-        <v>3789299.0876824907</v>
+        <v>3760297.1666175942</v>
       </c>
       <c r="V10" s="8">
-        <v>3826527.3584207157</v>
+        <v>3797240.5056720562</v>
       </c>
       <c r="W10" s="8">
-        <v>3852781.0109536736</v>
+        <v>3823293.2222691569</v>
       </c>
       <c r="X10" s="8">
+        <v>3868323.0115314801</v>
+      </c>
+      <c r="Y10" s="7">
         <v>3898158.1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>445501.99388955708</v>
+        <v>442510.40665052464</v>
       </c>
       <c r="C11" s="7">
-        <v>444143.18289726006</v>
+        <v>441160.72020016139</v>
       </c>
       <c r="D11" s="7">
-        <v>444489.29513114702</v>
+        <v>441504.50825827278</v>
       </c>
       <c r="E11" s="7">
-        <v>448249.52680794359</v>
+        <v>445239.48963034712</v>
       </c>
       <c r="F11" s="7">
-        <v>455731.53324666043</v>
+        <v>452671.25370137201</v>
       </c>
       <c r="G11" s="7">
-        <v>464456.97993304516</v>
+        <v>461338.1082033898</v>
       </c>
       <c r="H11" s="7">
-        <v>475588.12029447139</v>
+        <v>472394.50192413235</v>
       </c>
       <c r="I11" s="7">
-        <v>476365.80457308161</v>
+        <v>473166.96398062957</v>
       </c>
       <c r="J11" s="7">
-        <v>475139.45628758089</v>
+        <v>471948.85073769168</v>
       </c>
       <c r="K11" s="7">
-        <v>439293.3386323009</v>
+        <v>436343.44308958837</v>
       </c>
       <c r="L11" s="7">
-        <v>470234.06314557808</v>
+        <v>467076.39776594029</v>
       </c>
       <c r="M11" s="7">
-        <v>474421.59387655609</v>
+        <v>471235.80883938668</v>
       </c>
       <c r="N11" s="7">
-        <v>485621.10208665131</v>
+        <v>482360.11131234869</v>
       </c>
       <c r="O11" s="7">
-        <v>493889.33878506196</v>
+        <v>490572.82603389828</v>
       </c>
       <c r="P11" s="7">
-        <v>499038.29238794814</v>
+        <v>495687.20393543178</v>
       </c>
       <c r="Q11" s="7">
-        <v>507631.27636753669</v>
+        <v>504222.48523002421</v>
       </c>
       <c r="R11" s="7">
-        <v>506092.99977248348</v>
+        <v>502694.53830508474</v>
       </c>
       <c r="S11" s="7">
-        <v>503033.53854454454</v>
+        <v>499655.6216432607</v>
       </c>
       <c r="T11" s="7">
-        <v>508520.05840023403</v>
+        <v>505105.29900887812</v>
       </c>
       <c r="U11" s="7">
-        <v>513203.25603406254</v>
+        <v>509757.04853591602</v>
       </c>
       <c r="V11" s="8">
-        <v>515232.9265414243</v>
+        <v>511773.08961743338</v>
       </c>
       <c r="W11" s="8">
-        <v>518531.67523970496</v>
+        <v>515049.68691202579</v>
       </c>
       <c r="X11" s="8">
+        <v>522337.1448845843</v>
+      </c>
+      <c r="Y11" s="7">
         <v>525868.4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>332962.01104213932</v>
+        <v>330426.03864533437</v>
       </c>
       <c r="C12" s="7">
-        <v>330298.28844909981</v>
+        <v>327782.60403333971</v>
       </c>
       <c r="D12" s="7">
-        <v>334436.33511415747</v>
+        <v>331889.1336731175</v>
       </c>
       <c r="E12" s="7">
-        <v>330964.21909735969</v>
+        <v>328443.4626863384</v>
       </c>
       <c r="F12" s="7">
-        <v>330255.21830767009</v>
+        <v>327739.86193140451</v>
       </c>
       <c r="G12" s="7">
-        <v>330944.34057054599</v>
+        <v>328423.7355623683</v>
       </c>
       <c r="H12" s="7">
-        <v>331606.95813100354</v>
+        <v>329081.30636137194</v>
       </c>
       <c r="I12" s="7">
-        <v>334095.08707052178</v>
+        <v>331550.48471163056</v>
       </c>
       <c r="J12" s="7">
-        <v>320826.1704223585</v>
+        <v>318382.62946158269</v>
       </c>
       <c r="K12" s="7">
-        <v>294675.96839889948</v>
+        <v>292431.59787890402</v>
       </c>
       <c r="L12" s="7">
-        <v>316502.59084037266</v>
+        <v>314091.97999808396</v>
       </c>
       <c r="M12" s="7">
-        <v>319437.98663319979</v>
+        <v>317005.01863767009</v>
       </c>
       <c r="N12" s="7">
-        <v>317357.36749336298</v>
+        <v>314940.24632879865</v>
       </c>
       <c r="O12" s="7">
-        <v>324811.81504851091</v>
+        <v>322337.91781758965</v>
       </c>
       <c r="P12" s="7">
-        <v>327389.39735869091</v>
+        <v>324895.86822571378</v>
       </c>
       <c r="Q12" s="7">
-        <v>331345.22419462277</v>
+        <v>328821.5658957655</v>
       </c>
       <c r="R12" s="7">
-        <v>333747.21285128157</v>
+        <v>331205.26004215371</v>
       </c>
       <c r="S12" s="7">
-        <v>332180.12232079939</v>
+        <v>329650.10510251008</v>
       </c>
       <c r="T12" s="7">
-        <v>334393.26497272775</v>
+        <v>331846.39157118223</v>
       </c>
       <c r="U12" s="7">
-        <v>338431.91900371679</v>
+        <v>335854.28559110948</v>
       </c>
       <c r="V12" s="8">
-        <v>338607.51265723805</v>
+        <v>336028.5418528454</v>
       </c>
       <c r="W12" s="8">
-        <v>339250.25169088197</v>
+        <v>336666.38552787894</v>
       </c>
       <c r="X12" s="8">
+        <v>340572.35607396055</v>
+      </c>
+      <c r="Y12" s="7">
         <v>343186.2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>88350.911497521287</v>
+        <v>87579.237735044313</v>
       </c>
       <c r="C13" s="7">
-        <v>88714.488249929855</v>
+        <v>87939.638938545409</v>
       </c>
       <c r="D13" s="7">
-        <v>90536.773667570844</v>
+        <v>89746.008166747008</v>
       </c>
       <c r="E13" s="7">
-        <v>91115.151213169956</v>
+        <v>90319.33405221971</v>
       </c>
       <c r="F13" s="7">
-        <v>92523.681004583297</v>
+        <v>91715.561474984235</v>
       </c>
       <c r="G13" s="7">
-        <v>93935.732120475164</v>
+        <v>93115.27946630567</v>
       </c>
       <c r="H13" s="7">
-        <v>95272.074760078583</v>
+        <v>94439.950233653508</v>
       </c>
       <c r="I13" s="7">
-        <v>95926.160781966144</v>
+        <v>95088.323343099793</v>
       </c>
       <c r="J13" s="7">
-        <v>93146.955437283701</v>
+        <v>92333.392109557535</v>
       </c>
       <c r="K13" s="7">
-        <v>87633.441635020121</v>
+        <v>86868.03439157363</v>
       </c>
       <c r="L13" s="7">
-        <v>93308.936363296219</v>
+        <v>92493.958263175446</v>
       </c>
       <c r="M13" s="7">
-        <v>93204.176960059864</v>
+        <v>92390.113848607347</v>
       </c>
       <c r="N13" s="7">
-        <v>93460.353315873173</v>
+        <v>92644.052711122655</v>
       </c>
       <c r="O13" s="7">
-        <v>94140.84927134974</v>
+        <v>93318.605084745766</v>
       </c>
       <c r="P13" s="7">
-        <v>94073.063775137969</v>
+        <v>93251.411640025224</v>
       </c>
       <c r="Q13" s="7">
-        <v>95168.195687961837</v>
+        <v>94336.978461224629</v>
       </c>
       <c r="R13" s="7">
-        <v>94875.925756243567</v>
+        <v>94047.261271000985</v>
       </c>
       <c r="S13" s="7">
-        <v>95056.3936357684</v>
+        <v>94226.152909542696</v>
       </c>
       <c r="T13" s="7">
-        <v>95062.555953605828</v>
+        <v>94232.261404517296</v>
       </c>
       <c r="U13" s="7">
-        <v>95574.028334112809</v>
+        <v>94739.266487408662</v>
       </c>
       <c r="V13" s="8">
-        <v>93534.301129922358</v>
+        <v>92717.354650817768</v>
       </c>
       <c r="W13" s="8">
-        <v>93366.157886072411</v>
+        <v>92550.680002225272</v>
       </c>
       <c r="X13" s="8">
+        <v>93294.171104847381</v>
+      </c>
+      <c r="Y13" s="7">
         <v>94116.2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>165055.32615030816</v>
+        <v>164711.38828680795</v>
       </c>
       <c r="C14" s="7">
-        <v>166550.57486063841</v>
+        <v>166203.52123796323</v>
       </c>
       <c r="D14" s="7">
-        <v>168407.86533253611</v>
+        <v>168056.94153776951</v>
       </c>
       <c r="E14" s="7">
-        <v>167560.39537944994</v>
+        <v>167211.23751985093</v>
       </c>
       <c r="F14" s="7">
-        <v>165594.33002851624</v>
+        <v>165249.26900318533</v>
       </c>
       <c r="G14" s="7">
-        <v>167261.67033851531</v>
+        <v>166913.1349541478</v>
       </c>
       <c r="H14" s="7">
-        <v>168584.82744917672</v>
+        <v>168233.53490549585</v>
       </c>
       <c r="I14" s="7">
-        <v>170052.47656333365</v>
+        <v>169698.12577177634</v>
       </c>
       <c r="J14" s="7">
-        <v>169495.61412289576</v>
+        <v>169142.42370636237</v>
       </c>
       <c r="K14" s="7">
-        <v>160624.77921166405</v>
+        <v>160290.07360309167</v>
       </c>
       <c r="L14" s="7">
-        <v>166461.28204948947</v>
+        <v>166114.41449278023</v>
       </c>
       <c r="M14" s="7">
-        <v>169568.67187747217</v>
+        <v>169215.32922514848</v>
       </c>
       <c r="N14" s="7">
-        <v>168364.03067979027</v>
+        <v>168013.19822649786</v>
       </c>
       <c r="O14" s="7">
-        <v>171885.41445037257</v>
+        <v>171527.24423198731</v>
       </c>
       <c r="P14" s="7">
-        <v>174057.6650197774</v>
+        <v>173694.96832389361</v>
       </c>
       <c r="Q14" s="7">
-        <v>175604.86591113973</v>
+        <v>175238.94519951896</v>
       </c>
       <c r="R14" s="7">
-        <v>174234.62713641798</v>
+        <v>173871.56169161992</v>
       </c>
       <c r="S14" s="7">
-        <v>174043.05346886211</v>
+        <v>173680.38722013641</v>
       </c>
       <c r="T14" s="7">
-        <v>173755.6929675283</v>
+        <v>173393.62551291112</v>
       </c>
       <c r="U14" s="7">
-        <v>174421.33028700211</v>
+        <v>174057.87579518437</v>
       </c>
       <c r="V14" s="8">
-        <v>174752.52544108176</v>
+        <v>174388.38081368129</v>
       </c>
       <c r="W14" s="8">
-        <v>175429.52730015636</v>
+        <v>175063.97195443237</v>
       </c>
       <c r="X14" s="8">
+        <v>176123.53216079017</v>
+      </c>
+      <c r="Y14" s="7">
         <v>176491.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>1295862.4651149218</v>
+        <v>1281389.2012744318</v>
       </c>
       <c r="C15" s="7">
-        <v>1295661.1309065956</v>
+        <v>1281190.1157330712</v>
       </c>
       <c r="D15" s="7">
-        <v>1309150.5228644446</v>
+        <v>1294528.8470042273</v>
       </c>
       <c r="E15" s="7">
-        <v>1309075.0225363222</v>
+        <v>1294454.1899262171</v>
       </c>
       <c r="F15" s="7">
-        <v>1323017.4164629048</v>
+        <v>1308240.8636654343</v>
       </c>
       <c r="G15" s="7">
-        <v>1328893.858668423</v>
+        <v>1314051.6729038951</v>
       </c>
       <c r="H15" s="7">
-        <v>1344358.8425454719</v>
+        <v>1329343.9310496515</v>
       </c>
       <c r="I15" s="7">
-        <v>1356514.3953731605</v>
+        <v>1341363.720609294</v>
       </c>
       <c r="J15" s="7">
-        <v>1345025.7621105521</v>
+        <v>1330003.4019054081</v>
       </c>
       <c r="K15" s="7">
-        <v>1244459.3250516637</v>
+        <v>1230560.1739958196</v>
       </c>
       <c r="L15" s="7">
-        <v>1351216.7890165797</v>
+        <v>1336125.2823022448</v>
       </c>
       <c r="M15" s="7">
-        <v>1358036.9853236265</v>
+        <v>1342869.3050158329</v>
       </c>
       <c r="N15" s="7">
-        <v>1394969.2291634462</v>
+        <v>1379389.0590091567</v>
       </c>
       <c r="O15" s="7">
-        <v>1436846.7444952754</v>
+        <v>1420798.8516121486</v>
       </c>
       <c r="P15" s="7">
-        <v>1458603.4223825149</v>
+        <v>1442312.5329254218</v>
       </c>
       <c r="Q15" s="7">
-        <v>1486437.8766835986</v>
+        <v>1469836.109018516</v>
       </c>
       <c r="R15" s="7">
-        <v>1489898.3083892036</v>
+        <v>1473257.8917606503</v>
       </c>
       <c r="S15" s="7">
-        <v>1496668.1711441688</v>
+        <v>1479952.1430888984</v>
       </c>
       <c r="T15" s="7">
-        <v>1520551.4416068529</v>
+        <v>1503568.6654327922</v>
       </c>
       <c r="U15" s="7">
-        <v>1535827.6746635959</v>
+        <v>1518674.2808835232</v>
       </c>
       <c r="V15" s="8">
-        <v>1563133.6266678236</v>
+        <v>1545675.2574305458</v>
       </c>
       <c r="W15" s="8">
-        <v>1572092.9989383351</v>
+        <v>1554534.5640210898</v>
       </c>
       <c r="X15" s="8">
+        <v>1577528.9440482319</v>
+      </c>
+      <c r="Y15" s="7">
         <v>1595347.1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>725313.77042301837</v>
+        <v>718957.91506522056</v>
       </c>
       <c r="C16" s="7">
-        <v>731486.80541505769</v>
+        <v>725076.85634068085</v>
       </c>
       <c r="D16" s="7">
-        <v>740114.78149063629</v>
+        <v>733629.22628522606</v>
       </c>
       <c r="E16" s="7">
-        <v>742740.99753349228</v>
+        <v>736232.42904750281</v>
       </c>
       <c r="F16" s="7">
-        <v>747593.78804746526</v>
+        <v>741042.6950212752</v>
       </c>
       <c r="G16" s="7">
-        <v>756071.89853364171</v>
+        <v>749446.51263427734</v>
       </c>
       <c r="H16" s="7">
-        <v>764785.51208887866</v>
+        <v>758083.76962541859</v>
       </c>
       <c r="I16" s="7">
-        <v>768346.60395133845</v>
+        <v>761613.65597970155</v>
       </c>
       <c r="J16" s="7">
-        <v>751083.51534354303</v>
+        <v>744501.84217006143</v>
       </c>
       <c r="K16" s="7">
-        <v>694862.50994783733</v>
+        <v>688773.49607979914</v>
       </c>
       <c r="L16" s="7">
-        <v>747379.69434831943</v>
+        <v>740830.47740478523</v>
       </c>
       <c r="M16" s="7">
-        <v>753117.40548542887</v>
+        <v>746517.90952671599</v>
       </c>
       <c r="N16" s="7">
-        <v>764464.37154015992</v>
+        <v>757765.44320068357</v>
       </c>
       <c r="O16" s="7">
-        <v>779236.83678122493</v>
+        <v>772408.45873849059</v>
       </c>
       <c r="P16" s="7">
-        <v>785859.46854147059</v>
+        <v>778973.05700857984</v>
       </c>
       <c r="Q16" s="7">
-        <v>797463.34703517682</v>
+        <v>790475.25182233541</v>
       </c>
       <c r="R16" s="7">
-        <v>789163.64796495507</v>
+        <v>782248.28222307481</v>
       </c>
       <c r="S16" s="7">
-        <v>801167.16803040029</v>
+        <v>794146.61658761161</v>
       </c>
       <c r="T16" s="7">
-        <v>803179.64880237158</v>
+        <v>796141.46218261728</v>
       </c>
       <c r="U16" s="7">
-        <v>814676.48044650466</v>
+        <v>807537.54818812781</v>
       </c>
       <c r="V16" s="8">
-        <v>801845.13141102891</v>
+        <v>794818.63903982984</v>
       </c>
       <c r="W16" s="8">
-        <v>802444.59376863739</v>
+        <v>795412.84836600174</v>
       </c>
       <c r="X16" s="8">
+        <v>804184.50984758663</v>
+      </c>
+      <c r="Y16" s="7">
         <v>811293.8</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>110428.02438882654</v>
+        <v>110169.73129485616</v>
       </c>
       <c r="C17" s="7">
-        <v>111261.24151871595</v>
+        <v>111000.99951520364</v>
       </c>
       <c r="D17" s="7">
-        <v>111082.1489770359</v>
+        <v>110822.32587413288</v>
       </c>
       <c r="E17" s="7">
-        <v>111034.09975853639</v>
+        <v>110774.3890436017</v>
       </c>
       <c r="F17" s="7">
-        <v>110293.70498256652</v>
+        <v>110035.7260640531</v>
       </c>
       <c r="G17" s="7">
-        <v>110548.14743507536</v>
+        <v>110289.57337118409</v>
       </c>
       <c r="H17" s="7">
-        <v>111548.44480201986</v>
+        <v>111287.53102496952</v>
       </c>
       <c r="I17" s="7">
-        <v>111957.95518695895</v>
+        <v>111696.08355790569</v>
       </c>
       <c r="J17" s="7">
-        <v>107897.79622374961</v>
+        <v>107645.42137802124</v>
       </c>
       <c r="K17" s="7">
-        <v>93474.294452348491</v>
+        <v>93255.656431298863</v>
       </c>
       <c r="L17" s="7">
-        <v>96966.599015109008</v>
+        <v>96739.792432178496</v>
       </c>
       <c r="M17" s="7">
-        <v>99287.157863097149</v>
+        <v>99054.923452150106</v>
       </c>
       <c r="N17" s="7">
-        <v>101048.5985321818</v>
+        <v>100812.2440804862</v>
       </c>
       <c r="O17" s="7">
-        <v>105223.42040317408</v>
+        <v>104977.30096959278</v>
       </c>
       <c r="P17" s="7">
-        <v>107597.48860812761</v>
+        <v>107345.81618720139</v>
       </c>
       <c r="Q17" s="7">
-        <v>106382.06178562841</v>
+        <v>106133.23226944683</v>
       </c>
       <c r="R17" s="7">
-        <v>105332.62317249119</v>
+        <v>105086.24831170909</v>
       </c>
       <c r="S17" s="7">
-        <v>105533.55626803463</v>
+        <v>105286.7114212031</v>
       </c>
       <c r="T17" s="7">
-        <v>106769.73161670407</v>
+        <v>106519.99533395976</v>
       </c>
       <c r="U17" s="7">
-        <v>108059.41632233889</v>
+        <v>107806.66344435337</v>
       </c>
       <c r="V17" s="8">
-        <v>107830.09050677299</v>
+        <v>107577.87402590911</v>
       </c>
       <c r="W17" s="8">
-        <v>107998.26277152133</v>
+        <v>107745.65293276825</v>
       </c>
       <c r="X17" s="8">
+        <v>108738.16321944784</v>
+      </c>
+      <c r="Y17" s="7">
         <v>108993.1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>96490.216428991975</v>
+        <v>94955.318069152316</v>
       </c>
       <c r="C18" s="7">
-        <v>97171.802371904167</v>
+        <v>95626.061823243901</v>
       </c>
       <c r="D18" s="7">
-        <v>97863.465526337925</v>
+        <v>96306.722487678242</v>
       </c>
       <c r="E18" s="7">
-        <v>98617.424170177619</v>
+        <v>97048.687688776845</v>
       </c>
       <c r="F18" s="7">
-        <v>99950.364421437363</v>
+        <v>98360.424465931734</v>
       </c>
       <c r="G18" s="7">
-        <v>101233.83472522767</v>
+        <v>99623.478228676773</v>
       </c>
       <c r="H18" s="7">
-        <v>103004.67562260573</v>
+        <v>101366.14983708943</v>
       </c>
       <c r="I18" s="7">
-        <v>104087.51780610334</v>
+        <v>102431.76693028331</v>
       </c>
       <c r="J18" s="7">
-        <v>104068.27949319856</v>
+        <v>102412.83464690168</v>
       </c>
       <c r="K18" s="7">
-        <v>96948.271498153394</v>
+        <v>95406.086721095591</v>
       </c>
       <c r="L18" s="7">
-        <v>106805.61658650721</v>
+        <v>105106.62811091462</v>
       </c>
       <c r="M18" s="7">
-        <v>108278.72168893035</v>
+        <v>106556.30009556416</v>
       </c>
       <c r="N18" s="7">
-        <v>109345.99000007645</v>
+        <v>107606.59105459196</v>
       </c>
       <c r="O18" s="7">
-        <v>109304.76504385192</v>
+        <v>107566.02187591707</v>
       </c>
       <c r="P18" s="7">
-        <v>109603.41694894517</v>
+        <v>107859.92303698408</v>
       </c>
       <c r="Q18" s="7">
-        <v>113844.09077924164</v>
+        <v>112033.13921667481</v>
       </c>
       <c r="R18" s="7">
-        <v>114303.06195854138</v>
+        <v>112484.80940592196</v>
       </c>
       <c r="S18" s="7">
-        <v>114367.18966822399</v>
+        <v>112547.91701719402</v>
       </c>
       <c r="T18" s="7">
-        <v>115265.89371391869</v>
+        <v>113432.3251123067</v>
       </c>
       <c r="U18" s="7">
-        <v>116705.10274122388</v>
+        <v>114848.64021671243</v>
       </c>
       <c r="V18" s="8">
-        <v>117529.60186571445</v>
+        <v>115660.02379021031</v>
       </c>
       <c r="W18" s="8">
-        <v>117787.94492472149</v>
+        <v>115914.25730990633</v>
       </c>
       <c r="X18" s="8">
+        <v>117903.95013958389</v>
+      </c>
+      <c r="Y18" s="7">
         <v>119809.8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>1053972.4891466997</v>
+        <v>1048017.2815613523</v>
       </c>
       <c r="C19" s="7">
-        <v>1055637.9084297756</v>
+        <v>1049673.2908098693</v>
       </c>
       <c r="D19" s="7">
-        <v>1060365.2165811157</v>
+        <v>1054373.8884904417</v>
       </c>
       <c r="E19" s="7">
-        <v>1060582.4451832559</v>
+        <v>1054589.8896967699</v>
       </c>
       <c r="F19" s="7">
-        <v>1061544.4575641633</v>
+        <v>1055546.4664676525</v>
       </c>
       <c r="G19" s="7">
-        <v>1064171.8892281468</v>
+        <v>1058159.0524870516</v>
       </c>
       <c r="H19" s="7">
-        <v>1071971.4304669003</v>
+        <v>1065914.5243714098</v>
       </c>
       <c r="I19" s="7">
-        <v>1064989.0825409605</v>
+        <v>1058971.628453715</v>
       </c>
       <c r="J19" s="7">
-        <v>1035032.2238838905</v>
+        <v>1029184.0335238724</v>
       </c>
       <c r="K19" s="7">
-        <v>951037.16438962019</v>
+        <v>945663.56707693764</v>
       </c>
       <c r="L19" s="7">
-        <v>1016733.3002083532</v>
+        <v>1010988.5033336474</v>
       </c>
       <c r="M19" s="7">
-        <v>1022515.7187129463</v>
+        <v>1016738.2497306715</v>
       </c>
       <c r="N19" s="7">
-        <v>1041900.7853991856</v>
+        <v>1036013.785952538</v>
       </c>
       <c r="O19" s="7">
-        <v>1057179.1970830571</v>
+        <v>1051205.8707976269</v>
       </c>
       <c r="P19" s="7">
-        <v>1060489.3472109102</v>
+        <v>1054497.3177512006</v>
       </c>
       <c r="Q19" s="7">
-        <v>1077102.1631650727</v>
+        <v>1071016.2671494493</v>
       </c>
       <c r="R19" s="7">
-        <v>1075602.2513883889</v>
+        <v>1069524.830248611</v>
       </c>
       <c r="S19" s="7">
-        <v>1071185.2698115353</v>
+        <v>1065132.805719936</v>
       </c>
       <c r="T19" s="7">
-        <v>1070171.5363348804</v>
+        <v>1064124.8000904042</v>
       </c>
       <c r="U19" s="7">
-        <v>1076450.4773586513</v>
+        <v>1070368.2635304644</v>
       </c>
       <c r="V19" s="8">
-        <v>1078136.5850800266</v>
+        <v>1072044.8443224409</v>
       </c>
       <c r="W19" s="8">
-        <v>1081198.4739482908</v>
+        <v>1075089.4327544968</v>
       </c>
       <c r="X19" s="8">
+        <v>1086074.6369620492</v>
+      </c>
+      <c r="Y19" s="7">
         <v>1092246.1000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>457222.36601383716</v>
+        <v>452454.61646302929</v>
       </c>
       <c r="C20" s="7">
-        <v>457422.44581692392</v>
+        <v>452652.60990625655</v>
       </c>
       <c r="D20" s="7">
-        <v>459441.02871917689</v>
+        <v>454650.14375570533</v>
       </c>
       <c r="E20" s="7">
-        <v>460245.79414937022</v>
+        <v>455446.5173829085</v>
       </c>
       <c r="F20" s="7">
-        <v>457449.12312400213</v>
+        <v>452679.00903202023</v>
       </c>
       <c r="G20" s="7">
-        <v>459725.58666134474</v>
+        <v>454931.73443051754</v>
       </c>
       <c r="H20" s="7">
-        <v>463500.42561291467</v>
+        <v>458667.2107260726</v>
       </c>
       <c r="I20" s="7">
-        <v>465007.69346283481</v>
+        <v>460158.76133171824</v>
       </c>
       <c r="J20" s="7">
-        <v>456479.84763349302</v>
+        <v>451719.8407959413</v>
       </c>
       <c r="K20" s="7">
-        <v>412124.37839808414</v>
+        <v>407826.89435959555</v>
       </c>
       <c r="L20" s="7">
-        <v>456617.68038673053</v>
+        <v>451856.23627905344</v>
       </c>
       <c r="M20" s="7">
-        <v>461468.50405712257</v>
+        <v>456656.47731374198</v>
       </c>
       <c r="N20" s="7">
-        <v>469378.32560581871</v>
+        <v>464483.81810266135</v>
       </c>
       <c r="O20" s="7">
-        <v>474518.15343622497</v>
+        <v>469570.04966645601</v>
       </c>
       <c r="P20" s="7">
-        <v>477332.60933297855</v>
+        <v>472355.15743452002</v>
       </c>
       <c r="Q20" s="7">
-        <v>489150.65636863577</v>
+        <v>484049.97014781268</v>
       </c>
       <c r="R20" s="7">
-        <v>492142.96097924432</v>
+        <v>487011.0720876343</v>
       </c>
       <c r="S20" s="7">
-        <v>491644.98458045057</v>
+        <v>486518.28840671293</v>
       </c>
       <c r="T20" s="7">
-        <v>493783.61536455562</v>
+        <v>488634.61832209816</v>
       </c>
       <c r="U20" s="7">
-        <v>492294.13238602091</v>
+        <v>487160.66713362822</v>
       </c>
       <c r="V20" s="8">
-        <v>493752.49183963099</v>
+        <v>488603.81934204057</v>
       </c>
       <c r="W20" s="8">
-        <v>495473.17814617703</v>
+        <v>490306.56295379536</v>
       </c>
       <c r="X20" s="8">
+        <v>496039.57309879921</v>
+      </c>
+      <c r="Y20" s="7">
         <v>501266.6</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>235598.11847294759</v>
+        <v>234612.6259638342</v>
       </c>
       <c r="C21" s="7">
-        <v>236192.49814973143</v>
+        <v>235204.51938681077</v>
       </c>
       <c r="D21" s="7">
-        <v>236082.94581714776</v>
+        <v>235095.42530492882</v>
       </c>
       <c r="E21" s="7">
-        <v>235050.35681002919</v>
+        <v>234067.15555442442</v>
       </c>
       <c r="F21" s="7">
-        <v>231773.11043529172</v>
+        <v>230803.61770067926</v>
       </c>
       <c r="G21" s="7">
-        <v>232726.4488188391</v>
+        <v>231752.96832812004</v>
       </c>
       <c r="H21" s="7">
-        <v>236108.58572477373</v>
+        <v>235120.95796239053</v>
       </c>
       <c r="I21" s="7">
-        <v>237695.92909689053</v>
+        <v>236701.6615743397</v>
       </c>
       <c r="J21" s="7">
-        <v>234234.54156738473</v>
+        <v>233254.75281700565</v>
       </c>
       <c r="K21" s="7">
-        <v>221880.76789305429</v>
+        <v>220952.65422180679</v>
       </c>
       <c r="L21" s="7">
-        <v>236688.9799973979</v>
+        <v>235698.92448129706</v>
       </c>
       <c r="M21" s="7">
-        <v>239614.26036745164</v>
+        <v>238611.96858261304</v>
       </c>
       <c r="N21" s="7">
-        <v>246949.60484917197</v>
+        <v>245916.62976734713</v>
       </c>
       <c r="O21" s="7">
-        <v>248513.63921435611</v>
+        <v>247474.12187251291</v>
       </c>
       <c r="P21" s="7">
-        <v>245996.26646562462</v>
+        <v>244967.27913990634</v>
       </c>
       <c r="Q21" s="7">
-        <v>247432.10129267888</v>
+        <v>246397.10795776339</v>
       </c>
       <c r="R21" s="7">
-        <v>248821.31810586769</v>
+        <v>247780.51376205368</v>
       </c>
       <c r="S21" s="7">
-        <v>245576.70434083603</v>
+        <v>244549.47201780524</v>
       </c>
       <c r="T21" s="7">
-        <v>246828.39801312197</v>
+        <v>245795.92993207352</v>
       </c>
       <c r="U21" s="7">
-        <v>244551.10803579728</v>
+        <v>243528.1657193359</v>
       </c>
       <c r="V21" s="8">
-        <v>247697.82397171162</v>
+        <v>246661.71913509408</v>
       </c>
       <c r="W21" s="8">
-        <v>248324.83625820122</v>
+        <v>247286.1086675674</v>
       </c>
       <c r="X21" s="8">
+        <v>249769.73989339056</v>
+      </c>
+      <c r="Y21" s="7">
         <v>250818.9</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>209323.95058938657</v>
+        <v>209036.81983414022</v>
       </c>
       <c r="C22" s="7">
-        <v>210552.55474786105</v>
+        <v>210263.73870987986</v>
       </c>
       <c r="D22" s="7">
-        <v>212538.17763024411</v>
+        <v>212246.63790299447</v>
       </c>
       <c r="E22" s="7">
-        <v>212459.58005781643</v>
+        <v>212168.14814326697</v>
       </c>
       <c r="F22" s="7">
-        <v>209652.81937928125</v>
+        <v>209365.2375129998</v>
       </c>
       <c r="G22" s="7">
-        <v>212023.156695126</v>
+        <v>211732.32342478033</v>
       </c>
       <c r="H22" s="7">
-        <v>212596.09163098029</v>
+        <v>212304.47246279361</v>
       </c>
       <c r="I22" s="7">
-        <v>213363.45214073456</v>
+        <v>213070.7803801327</v>
       </c>
       <c r="J22" s="7">
-        <v>213549.60428595796</v>
+        <v>213256.67717948716</v>
       </c>
       <c r="K22" s="7">
-        <v>198030.72044583299</v>
+        <v>197759.08067330104</v>
       </c>
       <c r="L22" s="7">
-        <v>213127.65942345158</v>
+        <v>212835.31110095032</v>
       </c>
       <c r="M22" s="7">
-        <v>213913.63514772817</v>
+        <v>213620.20869822483</v>
       </c>
       <c r="N22" s="7">
-        <v>210891.76532360152</v>
+        <v>210602.48398870358</v>
       </c>
       <c r="O22" s="7">
-        <v>215073.98351962079</v>
+        <v>214778.96541420117</v>
       </c>
       <c r="P22" s="7">
-        <v>216050.2481034591</v>
+        <v>215753.89085081583</v>
       </c>
       <c r="Q22" s="7">
-        <v>218000.70891396664</v>
+        <v>217701.67620405235</v>
       </c>
       <c r="R22" s="7">
-        <v>219626.43764891775</v>
+        <v>219325.17491841491</v>
       </c>
       <c r="S22" s="7">
-        <v>214540.34736998033</v>
+        <v>214246.06125605162</v>
       </c>
       <c r="T22" s="7">
-        <v>217876.60748381767</v>
+        <v>217577.74500448268</v>
       </c>
       <c r="U22" s="7">
-        <v>217698.72876727086</v>
+        <v>217400.11028509948</v>
       </c>
       <c r="V22" s="8">
-        <v>221128.06495371991</v>
+        <v>220824.74243320781</v>
       </c>
       <c r="W22" s="8">
-        <v>225113.78921867005</v>
+        <v>224804.99945938675</v>
       </c>
       <c r="X22" s="8">
+        <v>230072.07544109735</v>
+      </c>
+      <c r="Y22" s="7">
         <v>230388.1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>253353.15497052378</v>
+        <v>251446.00136014985</v>
       </c>
       <c r="C23" s="7">
-        <v>255308.90775099758</v>
+        <v>253387.03192026401</v>
       </c>
       <c r="D23" s="7">
-        <v>255046.79655361446</v>
+        <v>253126.89380396006</v>
       </c>
       <c r="E23" s="7">
-        <v>256178.41124231645</v>
+        <v>254249.99009454157</v>
       </c>
       <c r="F23" s="7">
-        <v>258287.9023212553</v>
+        <v>256343.60166518018</v>
       </c>
       <c r="G23" s="7">
-        <v>261098.0367931989</v>
+        <v>259132.58243132359</v>
       </c>
       <c r="H23" s="7">
-        <v>263381.42857040156</v>
+        <v>261398.78563681772</v>
       </c>
       <c r="I23" s="7">
-        <v>265843.76164581761</v>
+        <v>263842.58313325007</v>
       </c>
       <c r="J23" s="7">
-        <v>261677.70578741151</v>
+        <v>259707.88788084197</v>
       </c>
       <c r="K23" s="7">
-        <v>237412.2576296776</v>
+        <v>235625.10149839459</v>
       </c>
       <c r="L23" s="7">
-        <v>261234.13299184013</v>
+        <v>259267.65414555834</v>
       </c>
       <c r="M23" s="7">
-        <v>261289.5795912866</v>
+        <v>259322.68336246882</v>
       </c>
       <c r="N23" s="7">
-        <v>264092.15316330572</v>
+        <v>262104.16014448807</v>
       </c>
       <c r="O23" s="7">
-        <v>264568.4898585499</v>
+        <v>262576.91114430968</v>
       </c>
       <c r="P23" s="7">
-        <v>265276.69415147923</v>
+        <v>263279.78432393866</v>
       </c>
       <c r="Q23" s="7">
-        <v>268666.49761763547</v>
+        <v>266644.07053960045</v>
       </c>
       <c r="R23" s="7">
-        <v>267852.44072576304</v>
+        <v>265836.14158223337</v>
       </c>
       <c r="S23" s="7">
-        <v>268502.67811927106</v>
+        <v>266481.4842169105</v>
       </c>
       <c r="T23" s="7">
-        <v>270158.51520273916</v>
+        <v>268124.8567400999</v>
       </c>
       <c r="U23" s="7">
-        <v>270962.49089471227</v>
+        <v>268922.78038530145</v>
       </c>
       <c r="V23" s="8">
-        <v>275304.96775135701</v>
+        <v>273232.56860060646</v>
       </c>
       <c r="W23" s="8">
-        <v>277112.02283331542</v>
+        <v>275026.02080627898</v>
       </c>
       <c r="X23" s="8">
+        <v>278337.77913307172</v>
+      </c>
+      <c r="Y23" s="7">
         <v>280448.90000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>318886.21563417703</v>
+        <v>316524.47023130843</v>
       </c>
       <c r="C24" s="7">
-        <v>319997.28471542441</v>
+        <v>317627.31047679478</v>
       </c>
       <c r="D24" s="7">
-        <v>320241.40693609283</v>
+        <v>317869.62467157765</v>
       </c>
       <c r="E24" s="7">
-        <v>320920.56747308065</v>
+        <v>318543.75518783275</v>
       </c>
       <c r="F24" s="7">
-        <v>322213.16333379946</v>
+        <v>319826.77778328583</v>
       </c>
       <c r="G24" s="7">
-        <v>320929.95678926021</v>
+        <v>318553.07496455516</v>
       </c>
       <c r="H24" s="7">
-        <v>322454.15578240802</v>
+        <v>320065.98538582801</v>
       </c>
       <c r="I24" s="7">
-        <v>320397.89553908544</v>
+        <v>318024.95428361802</v>
       </c>
       <c r="J24" s="7">
-        <v>309618.96056495595</v>
+        <v>307325.85060627997</v>
       </c>
       <c r="K24" s="7">
-        <v>284649.63907145848</v>
+        <v>282541.45770912443</v>
       </c>
       <c r="L24" s="7">
-        <v>302711.55362886307</v>
+        <v>300469.60153081967</v>
       </c>
       <c r="M24" s="7">
-        <v>297481.70451685076</v>
+        <v>295278.48589643172</v>
       </c>
       <c r="N24" s="7">
-        <v>299944.83512795408</v>
+        <v>297723.37398994656</v>
       </c>
       <c r="O24" s="7">
-        <v>307306.05901272548</v>
+        <v>305030.07894032379</v>
       </c>
       <c r="P24" s="7">
-        <v>306727.05118165293</v>
+        <v>304455.35937577457</v>
       </c>
       <c r="Q24" s="7">
-        <v>307568.95986575302</v>
+        <v>305291.03268855158</v>
       </c>
       <c r="R24" s="7">
-        <v>302023.00377569569</v>
+        <v>299786.15123784216</v>
       </c>
       <c r="S24" s="7">
-        <v>300279.72073835827</v>
+        <v>298055.77935971285</v>
       </c>
       <c r="T24" s="7">
-        <v>301562.92728289746</v>
+        <v>299329.48217844358</v>
       </c>
       <c r="U24" s="7">
-        <v>303315.59963641444</v>
+        <v>301069.1738332953</v>
       </c>
       <c r="V24" s="8">
-        <v>305966.51657110895</v>
+        <v>303700.45746125857</v>
       </c>
       <c r="W24" s="8">
-        <v>308401.4792336736</v>
+        <v>306117.38622460613</v>
       </c>
       <c r="X24" s="8">
+        <v>311013.37559611746</v>
+      </c>
+      <c r="Y24" s="7">
         <v>313334</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>79977.757756772407</v>
+        <v>79113.497186500594</v>
       </c>
       <c r="C25" s="7">
-        <v>80394.133623740825</v>
+        <v>79525.373586938236</v>
       </c>
       <c r="D25" s="7">
-        <v>80757.388366968415</v>
+        <v>79884.702904393198</v>
       </c>
       <c r="E25" s="7">
-        <v>80303.515236182953</v>
+        <v>79435.734445379567</v>
       </c>
       <c r="F25" s="7">
-        <v>81007.370125748712</v>
+        <v>80131.983294899852</v>
       </c>
       <c r="G25" s="7">
-        <v>81292.505569357469</v>
+        <v>80414.037490321498</v>
       </c>
       <c r="H25" s="7">
-        <v>82717.401594405106</v>
+        <v>81823.535716209401</v>
       </c>
       <c r="I25" s="7">
-        <v>84078.239793765315</v>
+        <v>83169.668342029967</v>
       </c>
       <c r="J25" s="7">
-        <v>83770.449753267079</v>
+        <v>82865.204361218654</v>
       </c>
       <c r="K25" s="7">
-        <v>78780.970086611764</v>
+        <v>77929.642316950005</v>
       </c>
       <c r="L25" s="7">
-        <v>85076.604442894095</v>
+        <v>84157.244401615899</v>
       </c>
       <c r="M25" s="7">
-        <v>86771.012051626749</v>
+        <v>85833.341798518784</v>
       </c>
       <c r="N25" s="7">
-        <v>86727.2652438402</v>
+        <v>85790.067730180119</v>
       </c>
       <c r="O25" s="7">
-        <v>87417.058659474555</v>
+        <v>86472.407057734395</v>
       </c>
       <c r="P25" s="7">
-        <v>88278.714534270359</v>
+        <v>87324.751653761996</v>
       </c>
       <c r="Q25" s="7">
-        <v>89085.68689933297</v>
+        <v>88123.003664366275</v>
       </c>
       <c r="R25" s="7">
-        <v>89604.399048802064</v>
+        <v>88636.11047466757</v>
       </c>
       <c r="S25" s="7">
-        <v>89730.9523141846</v>
+        <v>88761.296172361559</v>
       </c>
       <c r="T25" s="7">
-        <v>89037.252933569282</v>
+        <v>88075.093088705617</v>
       </c>
       <c r="U25" s="7">
-        <v>90792.593596004634</v>
+        <v>89811.465080794485</v>
       </c>
       <c r="V25" s="8">
-        <v>90584.01506602233</v>
+        <v>89605.1405049655</v>
       </c>
       <c r="W25" s="8">
-        <v>90723.067419343861</v>
+        <v>89742.690222184829</v>
       </c>
       <c r="X25" s="8">
+        <v>90826.087433092078</v>
+      </c>
+      <c r="Y25" s="7">
         <v>91818.3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>490934.84072017181</v>
+        <v>489369.92370066495</v>
       </c>
       <c r="C26" s="7">
-        <v>492703.64073152503</v>
+        <v>491133.08543782716</v>
       </c>
       <c r="D26" s="7">
-        <v>492527.73796796508</v>
+        <v>490957.74338661763</v>
       </c>
       <c r="E26" s="7">
-        <v>491833.89928947843</v>
+        <v>490266.11640684685</v>
       </c>
       <c r="F26" s="7">
-        <v>486014.44952836883</v>
+        <v>484465.21687933232</v>
       </c>
       <c r="G26" s="7">
-        <v>491213.3534291418</v>
+        <v>489647.54861507996</v>
       </c>
       <c r="H26" s="7">
-        <v>494115.7490278816</v>
+        <v>492540.69246003684</v>
       </c>
       <c r="I26" s="7">
-        <v>496001.81754827482</v>
+        <v>494420.7488980054</v>
       </c>
       <c r="J26" s="7">
-        <v>482335.15005723911</v>
+        <v>480797.64564153348</v>
       </c>
       <c r="K26" s="7">
-        <v>452514.7454459446</v>
+        <v>451072.29734898865</v>
       </c>
       <c r="L26" s="7">
-        <v>481944.25502710574</v>
+        <v>480407.99663884571</v>
       </c>
       <c r="M26" s="7">
-        <v>483004.55779634236</v>
+        <v>481464.91955863632</v>
       </c>
       <c r="N26" s="7">
-        <v>494140.17996726488</v>
+        <v>492565.04552270478</v>
       </c>
       <c r="O26" s="7">
-        <v>492215.02194385842</v>
+        <v>490646.02418446745</v>
       </c>
       <c r="P26" s="7">
-        <v>495503.42638485483</v>
+        <v>493923.94641957851</v>
       </c>
       <c r="Q26" s="7">
-        <v>502886.45626649767</v>
+        <v>501283.44195784413</v>
       </c>
       <c r="R26" s="7">
-        <v>500321.20763124776</v>
+        <v>498726.37037770549</v>
       </c>
       <c r="S26" s="7">
-        <v>502715.43969081435</v>
+        <v>501112.97051916824</v>
       </c>
       <c r="T26" s="7">
-        <v>505950.0960651674</v>
+        <v>504337.31601640972</v>
       </c>
       <c r="U26" s="7">
-        <v>506941.99220413069</v>
+        <v>505326.05036072998</v>
       </c>
       <c r="V26" s="8">
-        <v>510948.66626299702</v>
+        <v>509319.95263827982</v>
       </c>
       <c r="W26" s="8">
-        <v>513025.29611058027</v>
+        <v>511389.96296505874</v>
       </c>
       <c r="X26" s="8">
+        <v>514809.13296364417</v>
+      </c>
+      <c r="Y26" s="7">
         <v>516455.4</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>653016.07422942785</v>
+        <v>648205.86778803216</v>
       </c>
       <c r="C27" s="7">
-        <v>657628.06576491648</v>
+        <v>652783.88675796369</v>
       </c>
       <c r="D27" s="7">
-        <v>660162.75532780914</v>
+        <v>655299.90544805001</v>
       </c>
       <c r="E27" s="7">
-        <v>661947.83745104913</v>
+        <v>657071.83841024106</v>
       </c>
       <c r="F27" s="7">
-        <v>669780.59993487515</v>
+        <v>664846.90368562064</v>
       </c>
       <c r="G27" s="7">
-        <v>675929.92198219348</v>
+        <v>670950.92897886282</v>
       </c>
       <c r="H27" s="7">
-        <v>683267.18124319834</v>
+        <v>678234.14097648114</v>
       </c>
       <c r="I27" s="7">
-        <v>687390.02216128667</v>
+        <v>682326.61247990478</v>
       </c>
       <c r="J27" s="7">
-        <v>684251.83508341969</v>
+        <v>679211.54172075016</v>
       </c>
       <c r="K27" s="7">
-        <v>625553.76099538128</v>
+        <v>620945.84573980351</v>
       </c>
       <c r="L27" s="7">
-        <v>669132.63418195525</v>
+        <v>664203.71093777905</v>
       </c>
       <c r="M27" s="7">
-        <v>687046.98146856437</v>
+        <v>681986.09867222386</v>
       </c>
       <c r="N27" s="7">
-        <v>690839.48690477211</v>
+        <v>685750.66799047333</v>
       </c>
       <c r="O27" s="7">
-        <v>705456.83197799465</v>
+        <v>700260.33968442981</v>
       </c>
       <c r="P27" s="7">
-        <v>716993.16342213727</v>
+        <v>711711.69292051194</v>
       </c>
       <c r="Q27" s="7">
-        <v>723892.09290910803</v>
+        <v>718559.80394164927</v>
       </c>
       <c r="R27" s="7">
-        <v>721223.99863237899</v>
+        <v>715911.36321524263</v>
       </c>
       <c r="S27" s="7">
-        <v>723472.8209513363</v>
+        <v>718143.62039892818</v>
       </c>
       <c r="T27" s="7">
-        <v>719222.92792483221</v>
+        <v>713925.03267043759</v>
       </c>
       <c r="U27" s="7">
-        <v>732912.79260662035</v>
+        <v>727514.05592140509</v>
       </c>
       <c r="V27" s="8">
-        <v>727582.95665858325</v>
+        <v>722223.48027984519</v>
       </c>
       <c r="W27" s="8">
-        <v>732785.74049820483</v>
+        <v>727387.93969633814</v>
       </c>
       <c r="X27" s="8">
+        <v>735881.86745459947</v>
+      </c>
+      <c r="Y27" s="7">
         <v>741342.7</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>626257.97170711088</v>
+        <v>622904.00967656448</v>
       </c>
       <c r="C28" s="7">
-        <v>626667.02328889223</v>
+        <v>623310.87055812986</v>
       </c>
       <c r="D28" s="7">
-        <v>625055.23795172421</v>
+        <v>621707.71723375283</v>
       </c>
       <c r="E28" s="7">
-        <v>620879.24866906181</v>
+        <v>617554.0927115035</v>
       </c>
       <c r="F28" s="7">
-        <v>620348.09213749506</v>
+        <v>617025.78082051559</v>
       </c>
       <c r="G28" s="7">
-        <v>622545.98123363324</v>
+        <v>619211.89899012051</v>
       </c>
       <c r="H28" s="7">
-        <v>628504.70278316317</v>
+        <v>625138.70824993833</v>
       </c>
       <c r="I28" s="7">
-        <v>632314.37721646926</v>
+        <v>628927.97974392027</v>
       </c>
       <c r="J28" s="7">
-        <v>623138.19024009269</v>
+        <v>619800.93638581969</v>
       </c>
       <c r="K28" s="7">
-        <v>551816.68907041068</v>
+        <v>548861.40178214025</v>
       </c>
       <c r="L28" s="7">
-        <v>624249.34528314031</v>
+        <v>620906.14057156444</v>
       </c>
       <c r="M28" s="7">
-        <v>630232.4878226273</v>
+        <v>626857.2400332666</v>
       </c>
       <c r="N28" s="7">
-        <v>629744.0680234856</v>
+        <v>626371.43599557667</v>
       </c>
       <c r="O28" s="7">
-        <v>645428.44882342673</v>
+        <v>641971.81815589627</v>
       </c>
       <c r="P28" s="7">
-        <v>644909.50278683857</v>
+        <v>641455.65136585059</v>
       </c>
       <c r="Q28" s="7">
-        <v>649647.17483851407</v>
+        <v>646167.95053144335</v>
       </c>
       <c r="R28" s="7">
-        <v>650929.27681126131</v>
+        <v>647443.18613037956</v>
       </c>
       <c r="S28" s="7">
-        <v>652583.79888085416</v>
+        <v>649088.84730805433</v>
       </c>
       <c r="T28" s="7">
-        <v>652834.11402791436</v>
+        <v>649337.82187737059</v>
       </c>
       <c r="U28" s="7">
-        <v>653988.0058033868</v>
+        <v>650485.53391641309</v>
       </c>
       <c r="V28" s="8">
-        <v>656204.21064199274</v>
+        <v>652689.86973743129</v>
       </c>
       <c r="W28" s="8">
-        <v>659720.83319581382</v>
+        <v>656187.65880879923</v>
       </c>
       <c r="X28" s="8">
+        <v>660893.88542392093</v>
+      </c>
+      <c r="Y28" s="7">
         <v>664452.4</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>446714.97133173072</v>
+        <v>444089.04072151263</v>
       </c>
       <c r="C29" s="7">
-        <v>449465.84651432681</v>
+        <v>446823.74539761018</v>
       </c>
       <c r="D29" s="7">
-        <v>452921.96199055016</v>
+        <v>450259.54474385385</v>
       </c>
       <c r="E29" s="7">
-        <v>452821.21337717486</v>
+        <v>450159.38836240442</v>
       </c>
       <c r="F29" s="7">
-        <v>449391.38014791894</v>
+        <v>446749.71676784323</v>
       </c>
       <c r="G29" s="7">
-        <v>452330.61143378192</v>
+        <v>449671.67033099849</v>
       </c>
       <c r="H29" s="7">
-        <v>458217.83475449705</v>
+        <v>455524.28670786979</v>
       </c>
       <c r="I29" s="7">
-        <v>461200.86978530581</v>
+        <v>458489.78652382916</v>
       </c>
       <c r="J29" s="7">
-        <v>452470.78341760847</v>
+        <v>449811.01833997166</v>
       </c>
       <c r="K29" s="7">
-        <v>418229.39599347906</v>
+        <v>415770.91252300504</v>
       </c>
       <c r="L29" s="7">
-        <v>446198.08714137034</v>
+        <v>443575.19493842422</v>
       </c>
       <c r="M29" s="7">
-        <v>452072.1693386017</v>
+        <v>449414.74743945431</v>
       </c>
       <c r="N29" s="7">
-        <v>456426.26158621395</v>
+        <v>453743.244968182</v>
       </c>
       <c r="O29" s="7">
-        <v>465029.31709356845</v>
+        <v>462295.7290189077</v>
       </c>
       <c r="P29" s="7">
-        <v>462265.3007874887</v>
+        <v>459547.96046696883</v>
       </c>
       <c r="Q29" s="7">
-        <v>467276.44920928782</v>
+        <v>464529.65178775805</v>
       </c>
       <c r="R29" s="7">
-        <v>464569.37777163758</v>
+        <v>461838.49336446461</v>
       </c>
       <c r="S29" s="7">
-        <v>466864.69400679733</v>
+        <v>464120.31701139954</v>
       </c>
       <c r="T29" s="7">
-        <v>471591.11808644881</v>
+        <v>468818.95768896211</v>
       </c>
       <c r="U29" s="7">
-        <v>469598.04769141506</v>
+        <v>466837.60318637552</v>
       </c>
       <c r="V29" s="8">
-        <v>470062.36738784052</v>
+        <v>467299.19346609898</v>
       </c>
       <c r="W29" s="8">
-        <v>470833.31329888647</v>
+        <v>468065.60751545115</v>
       </c>
       <c r="X29" s="8">
+        <v>472794.73056997661</v>
+      </c>
+      <c r="Y29" s="7">
         <v>475590.40000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>141161.11056943404</v>
+        <v>139994.02257187813</v>
       </c>
       <c r="C30" s="7">
-        <v>141650.67525817803</v>
+        <v>140479.53965097983</v>
       </c>
       <c r="D30" s="7">
-        <v>140804.16570991749</v>
+        <v>139640.02885138037</v>
       </c>
       <c r="E30" s="7">
-        <v>140179.15949345179</v>
+        <v>139020.19004434274</v>
       </c>
       <c r="F30" s="7">
-        <v>139633.16083482374</v>
+        <v>138478.70557860108</v>
       </c>
       <c r="G30" s="7">
-        <v>140180.57034269889</v>
+        <v>139021.58922900874</v>
       </c>
       <c r="H30" s="7">
-        <v>142023.13945941269</v>
+        <v>140848.92440280362</v>
       </c>
       <c r="I30" s="7">
-        <v>143814.91800323082</v>
+        <v>142625.88892862253</v>
       </c>
       <c r="J30" s="7">
-        <v>143151.8188570934</v>
+        <v>141968.27213560292</v>
       </c>
       <c r="K30" s="7">
-        <v>131598.37437258408</v>
+        <v>130510.34890573595</v>
       </c>
       <c r="L30" s="7">
-        <v>143641.38354583742</v>
+        <v>142453.78921470462</v>
       </c>
       <c r="M30" s="7">
-        <v>143967.28972191774</v>
+        <v>142777.00087255044</v>
       </c>
       <c r="N30" s="7">
-        <v>145778.82015519528</v>
+        <v>144573.55398369333</v>
       </c>
       <c r="O30" s="7">
-        <v>146481.42308025152</v>
+        <v>145270.34794736089</v>
       </c>
       <c r="P30" s="7">
-        <v>145826.78902959672</v>
+        <v>144621.12626233729</v>
       </c>
       <c r="Q30" s="7">
-        <v>146298.01267812841</v>
+        <v>145088.45394078101</v>
       </c>
       <c r="R30" s="7">
-        <v>145399.30170772516</v>
+        <v>144197.17330853955</v>
       </c>
       <c r="S30" s="7">
-        <v>145131.24035077597</v>
+        <v>143931.32822199972</v>
       </c>
       <c r="T30" s="7">
-        <v>145859.23856228005</v>
+        <v>144653.30750965528</v>
       </c>
       <c r="U30" s="7">
-        <v>147761.06334737208</v>
+        <v>146539.40843942211</v>
       </c>
       <c r="V30" s="8">
-        <v>147105.01844747012</v>
+        <v>145888.78756973252</v>
       </c>
       <c r="W30" s="8">
-        <v>146448.97354756822</v>
+        <v>145238.16670004293</v>
       </c>
       <c r="X30" s="8">
+        <v>145512.40689457877</v>
+      </c>
+      <c r="Y30" s="7">
         <v>146725.5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>384679.16530603042</v>
+        <v>381564.14522190409</v>
       </c>
       <c r="C31" s="7">
-        <v>387701.67185963644</v>
+        <v>384562.17639584822</v>
       </c>
       <c r="D31" s="7">
-        <v>388046.88199900772</v>
+        <v>384904.59112383681</v>
       </c>
       <c r="E31" s="7">
-        <v>388181.13038654102</v>
+        <v>385037.75240694347</v>
       </c>
       <c r="F31" s="7">
-        <v>390705.00007216632</v>
+        <v>387541.18452934857</v>
       </c>
       <c r="G31" s="7">
-        <v>393301.74745388114</v>
+        <v>390116.90420544019</v>
       </c>
       <c r="H31" s="7">
-        <v>397754.95825177029</v>
+        <v>394534.05419649248</v>
       </c>
       <c r="I31" s="7">
-        <v>399860.74010193499</v>
+        <v>396622.78403722262</v>
       </c>
       <c r="J31" s="7">
-        <v>393282.56911280501</v>
+        <v>390097.88116499642</v>
       </c>
       <c r="K31" s="7">
-        <v>366206.58718145324</v>
+        <v>363241.15266642807</v>
       </c>
       <c r="L31" s="7">
-        <v>394360.39188128628</v>
+        <v>391166.97603793844</v>
       </c>
       <c r="M31" s="7">
-        <v>400144.57954986242</v>
+        <v>396904.32503579097</v>
       </c>
       <c r="N31" s="7">
-        <v>401525.42010734743</v>
+        <v>398273.98394774518</v>
       </c>
       <c r="O31" s="7">
-        <v>407079.46768300928</v>
+        <v>403783.056460272</v>
       </c>
       <c r="P31" s="7">
-        <v>407175.35938839021</v>
+        <v>403878.17166249105</v>
       </c>
       <c r="Q31" s="7">
-        <v>411371.58041585854</v>
+        <v>408040.41291159624</v>
       </c>
       <c r="R31" s="7">
-        <v>411436.78677551757</v>
+        <v>408105.09124910523</v>
       </c>
       <c r="S31" s="7">
-        <v>413603.93931712594</v>
+        <v>410254.69481925556</v>
       </c>
       <c r="T31" s="7">
-        <v>416411.6484506788</v>
+        <v>413039.66794022906</v>
       </c>
       <c r="U31" s="7">
-        <v>417777.14633530285</v>
+        <v>414394.10841982818</v>
       </c>
       <c r="V31" s="8">
-        <v>421171.71270578681</v>
+        <v>417761.18657838221</v>
       </c>
       <c r="W31" s="8">
-        <v>421098.8350096973</v>
+        <v>417688.89902469574</v>
       </c>
       <c r="X31" s="8">
+        <v>421759.82967967069</v>
+      </c>
+      <c r="Y31" s="7">
         <v>425203</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>63281.481105757048</v>
+        <v>62685.039372807216</v>
       </c>
       <c r="C32" s="7">
-        <v>63448.714806684919</v>
+        <v>62850.696859704592</v>
       </c>
       <c r="D32" s="7">
-        <v>63348.001574155867</v>
+        <v>62750.932871312863</v>
       </c>
       <c r="E32" s="7">
-        <v>63647.032838640283</v>
+        <v>63047.145701043875</v>
       </c>
       <c r="F32" s="7">
-        <v>64059.832754685303</v>
+        <v>63456.054888032224</v>
       </c>
       <c r="G32" s="7">
-        <v>64057.967694823659</v>
+        <v>63454.207406765716</v>
       </c>
       <c r="H32" s="7">
-        <v>65049.557854600469</v>
+        <v>64436.451613462115</v>
       </c>
       <c r="I32" s="7">
-        <v>64990.497625648248</v>
+        <v>64377.948040022529</v>
       </c>
       <c r="J32" s="7">
-        <v>63722.878606347353</v>
+        <v>63122.2766058821</v>
       </c>
       <c r="K32" s="7">
-        <v>60311.062432770428</v>
+        <v>59742.617542339845</v>
       </c>
       <c r="L32" s="7">
-        <v>65889.456478963155</v>
+        <v>65268.434010482088</v>
       </c>
       <c r="M32" s="7">
-        <v>67416.318819033302</v>
+        <v>66780.905340667916</v>
       </c>
       <c r="N32" s="7">
-        <v>67365.962202768758</v>
+        <v>66731.023346472037</v>
       </c>
       <c r="O32" s="7">
-        <v>68058.521098061174</v>
+        <v>67417.054723437439</v>
       </c>
       <c r="P32" s="7">
-        <v>67891.909083753839</v>
+        <v>67252.013063628881</v>
       </c>
       <c r="Q32" s="7">
-        <v>68350.092123098992</v>
+        <v>67705.877628102389</v>
       </c>
       <c r="R32" s="7">
-        <v>71071.214461245152</v>
+        <v>70401.352795945757</v>
       </c>
       <c r="S32" s="7">
-        <v>68992.916088747414</v>
+        <v>68342.642837960753</v>
       </c>
       <c r="T32" s="7">
-        <v>68156.12589748748</v>
+        <v>67513.739576384978</v>
       </c>
       <c r="U32" s="7">
-        <v>68736.781201080928</v>
+        <v>68088.922077359544</v>
       </c>
       <c r="V32" s="8">
-        <v>69950.935171014557</v>
+        <v>69291.632381859919</v>
       </c>
       <c r="W32" s="8">
-        <v>70358.76159409518</v>
+        <v>69695.614952137577</v>
       </c>
       <c r="X32" s="8">
+        <v>70417.980127344388</v>
+      </c>
+      <c r="Y32" s="7">
         <v>71088</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>156153.03811501357</v>
+        <v>156076.62876884529</v>
       </c>
       <c r="C33" s="7">
-        <v>155070.61677344207</v>
+        <v>154994.73708143862</v>
       </c>
       <c r="D33" s="7">
-        <v>155310.64523477925</v>
+        <v>155234.64809121663</v>
       </c>
       <c r="E33" s="7">
-        <v>156533.72019700691</v>
+        <v>156457.12457416204</v>
       </c>
       <c r="F33" s="7">
-        <v>155041.56874308916</v>
+        <v>154965.70326496867</v>
       </c>
       <c r="G33" s="7">
-        <v>156377.77813932288</v>
+        <v>156301.2588225865</v>
       </c>
       <c r="H33" s="7">
-        <v>159062.42768141266</v>
+        <v>158984.59470265164</v>
       </c>
       <c r="I33" s="7">
-        <v>162207.25917804058</v>
+        <v>162127.88735942496</v>
       </c>
       <c r="J33" s="7">
-        <v>158134.4195538224</v>
+        <v>158057.04067121679</v>
       </c>
       <c r="K33" s="7">
-        <v>148777.89609278063</v>
+        <v>148705.09557668457</v>
       </c>
       <c r="L33" s="7">
-        <v>159970.5608408667</v>
+        <v>159892.28349123857</v>
       </c>
       <c r="M33" s="7">
-        <v>162872.30618875189</v>
+        <v>162792.60894702651</v>
       </c>
       <c r="N33" s="7">
-        <v>164732.90897504074</v>
+        <v>164652.30129670718</v>
       </c>
       <c r="O33" s="7">
-        <v>166066.06068386891</v>
+        <v>165984.80066311767</v>
       </c>
       <c r="P33" s="7">
-        <v>165326.10033172119</v>
+        <v>165245.20239093571</v>
       </c>
       <c r="Q33" s="7">
-        <v>166411.57936069823</v>
+        <v>166330.15026954975</v>
       </c>
       <c r="R33" s="7">
-        <v>167899.14428350766</v>
+        <v>167816.98729193208</v>
       </c>
       <c r="S33" s="7">
-        <v>168830.21009850348</v>
+        <v>168747.59751457427</v>
       </c>
       <c r="T33" s="7">
-        <v>171623.40754349093</v>
+        <v>171539.42818250079</v>
       </c>
       <c r="U33" s="7">
-        <v>171962.81084550911</v>
+        <v>171878.66540651812</v>
       </c>
       <c r="V33" s="8">
-        <v>175353.78617828534</v>
+        <v>175267.98145548423</v>
       </c>
       <c r="W33" s="8">
-        <v>177879.43597528554</v>
+        <v>177792.39539276646</v>
       </c>
       <c r="X33" s="8">
+        <v>181038.07045498645</v>
+      </c>
+      <c r="Y33" s="7">
         <v>181126.7</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>209680.59875349654</v>
+        <v>206329.28019342554</v>
       </c>
       <c r="C34" s="7">
-        <v>210076.41885642812</v>
+        <v>206718.77391582745</v>
       </c>
       <c r="D34" s="7">
-        <v>210549.77073209893</v>
+        <v>207184.56022302975</v>
       </c>
       <c r="E34" s="7">
-        <v>213020.58591070809</v>
+        <v>209615.88443864186</v>
       </c>
       <c r="F34" s="7">
-        <v>215740.31888600619</v>
+        <v>212292.14800545518</v>
       </c>
       <c r="G34" s="7">
-        <v>217798.99148321236</v>
+        <v>214317.91690186525</v>
       </c>
       <c r="H34" s="7">
-        <v>221267.5181583862</v>
+        <v>217731.00622188218</v>
       </c>
       <c r="I34" s="7">
-        <v>224187.20149495904</v>
+        <v>220604.02434949647</v>
       </c>
       <c r="J34" s="7">
-        <v>220630.94149800137</v>
+        <v>217104.60394667907</v>
       </c>
       <c r="K34" s="7">
-        <v>186992.35367824155</v>
+        <v>184003.66064131455</v>
       </c>
       <c r="L34" s="7">
-        <v>209321.50422712561</v>
+        <v>205975.92506382379</v>
       </c>
       <c r="M34" s="7">
-        <v>212155.49455172356</v>
+        <v>208764.61980823762</v>
       </c>
       <c r="N34" s="7">
-        <v>216880.85206919574</v>
+        <v>213414.45208186074</v>
       </c>
       <c r="O34" s="7">
-        <v>225266.5253838808</v>
+        <v>221666.09743790174</v>
       </c>
       <c r="P34" s="7">
-        <v>230238.760388233</v>
+        <v>226558.86136312608</v>
       </c>
       <c r="Q34" s="7">
-        <v>233272.70107410566</v>
+        <v>229544.31066834091</v>
       </c>
       <c r="R34" s="7">
-        <v>230756.99907970018</v>
+        <v>227068.81706152862</v>
       </c>
       <c r="S34" s="7">
-        <v>234170.43739003304</v>
+        <v>230427.69849234531</v>
       </c>
       <c r="T34" s="7">
-        <v>234796.81250137324</v>
+        <v>231044.06226954833</v>
       </c>
       <c r="U34" s="7">
-        <v>236555.55955666731</v>
+        <v>232774.69932475698</v>
       </c>
       <c r="V34" s="8">
-        <v>236688.17969424746</v>
+        <v>232905.19979875762</v>
       </c>
       <c r="W34" s="8">
-        <v>237757.30203412462</v>
+        <v>233957.23438916286</v>
       </c>
       <c r="X34" s="8">
+        <v>237573.1013687808</v>
+      </c>
+      <c r="Y34" s="7">
         <v>241431.9</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>101058.60720457265</v>
+        <v>100240.48072359052</v>
       </c>
       <c r="C35" s="7">
-        <v>100599.80061145819</v>
+        <v>99785.388428880324</v>
       </c>
       <c r="D35" s="7">
-        <v>100694.14395852719</v>
+        <v>99878.968013290432</v>
       </c>
       <c r="E35" s="7">
-        <v>100216.46869599893</v>
+        <v>99405.159801698217</v>
       </c>
       <c r="F35" s="7">
-        <v>102742.88422172006</v>
+        <v>101911.12256737513</v>
       </c>
       <c r="G35" s="7">
-        <v>102529.37033098498</v>
+        <v>101699.33719213121</v>
       </c>
       <c r="H35" s="7">
-        <v>102985.19766050778</v>
+        <v>102151.47434207056</v>
       </c>
       <c r="I35" s="7">
-        <v>102931.57091585803</v>
+        <v>102098.28173619533</v>
       </c>
       <c r="J35" s="7">
-        <v>103538.34760069121</v>
+        <v>102700.14622119087</v>
       </c>
       <c r="K35" s="7">
-        <v>94279.789445699862</v>
+        <v>93516.541321660246</v>
       </c>
       <c r="L35" s="7">
-        <v>103552.25083078559</v>
+        <v>102713.93689678815</v>
       </c>
       <c r="M35" s="7">
-        <v>105663.55562940317</v>
+        <v>104808.14949106058</v>
       </c>
       <c r="N35" s="7">
-        <v>104936.61531304002</v>
+        <v>104087.0941669743</v>
       </c>
       <c r="O35" s="7">
-        <v>110183.09849793966</v>
+        <v>109291.10410843311</v>
       </c>
       <c r="P35" s="7">
-        <v>110946.78306526651</v>
+        <v>110048.60621802647</v>
       </c>
       <c r="Q35" s="7">
-        <v>113790.98670743055</v>
+        <v>112869.7844259269</v>
       </c>
       <c r="R35" s="7">
-        <v>109157.2387345474</v>
+        <v>108273.54925900532</v>
       </c>
       <c r="S35" s="7">
-        <v>110557.49262262395</v>
+        <v>109662.46730130266</v>
       </c>
       <c r="T35" s="7">
-        <v>110719.36594443706</v>
+        <v>109823.03016718526</v>
       </c>
       <c r="U35" s="7">
-        <v>110697.51801143162</v>
+        <v>109801.35910553241</v>
       </c>
       <c r="V35" s="8">
-        <v>110646.87053037353</v>
+        <v>109751.12164442804</v>
       </c>
       <c r="W35" s="8">
-        <v>110845.48810315035</v>
+        <v>109948.13129581773</v>
       </c>
       <c r="X35" s="8">
+        <v>111157.77055535045</v>
+      </c>
+      <c r="Y35" s="7">
         <v>112065</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>737955.22469820257</v>
+        <v>732063.62794287223</v>
       </c>
       <c r="C36" s="7">
-        <v>739831.21083787899</v>
+        <v>733924.63681362546</v>
       </c>
       <c r="D36" s="7">
-        <v>743907.87302602164</v>
+        <v>737968.75224430044</v>
       </c>
       <c r="E36" s="7">
-        <v>746635.26825985871</v>
+        <v>740674.37283331854</v>
       </c>
       <c r="F36" s="7">
-        <v>748229.85647858353</v>
+        <v>742256.2303734587</v>
       </c>
       <c r="G36" s="7">
-        <v>751231.43430206564</v>
+        <v>745233.84456666373</v>
       </c>
       <c r="H36" s="7">
-        <v>758670.44087901281</v>
+        <v>752613.46051184251</v>
       </c>
       <c r="I36" s="7">
-        <v>760178.44512206025</v>
+        <v>754109.42533487093</v>
       </c>
       <c r="J36" s="7">
-        <v>753807.3075784673</v>
+        <v>747789.15290073631</v>
       </c>
       <c r="K36" s="7">
-        <v>676293.00335330423</v>
+        <v>670893.69790650229</v>
       </c>
       <c r="L36" s="7">
-        <v>737745.98009031569</v>
+        <v>731856.05387651909</v>
       </c>
       <c r="M36" s="7">
-        <v>747075.40346955205</v>
+        <v>741110.99414530303</v>
       </c>
       <c r="N36" s="7">
-        <v>756852.17738978809</v>
+        <v>750809.71345249715</v>
       </c>
       <c r="O36" s="7">
-        <v>760452.6277117054</v>
+        <v>754381.41893905797</v>
       </c>
       <c r="P36" s="7">
-        <v>771326.13199052133</v>
+        <v>765168.11266300012</v>
       </c>
       <c r="Q36" s="7">
-        <v>787885.31733881787</v>
+        <v>781595.09481060936</v>
       </c>
       <c r="R36" s="7">
-        <v>785107.41478583566</v>
+        <v>778839.37013660953</v>
       </c>
       <c r="S36" s="7">
-        <v>789992.19408030051</v>
+        <v>783685.15092699369</v>
       </c>
       <c r="T36" s="7">
-        <v>791759.95025038009</v>
+        <v>785438.79390135722</v>
       </c>
       <c r="U36" s="7">
-        <v>796320.03963605477</v>
+        <v>789962.47700257238</v>
       </c>
       <c r="V36" s="8">
-        <v>793015.41789770185</v>
+        <v>786684.23829947656</v>
       </c>
       <c r="W36" s="8">
-        <v>797575.50728337665</v>
+        <v>791207.92140069185</v>
       </c>
       <c r="X36" s="8">
+        <v>800448.54621662374</v>
+      </c>
+      <c r="Y36" s="7">
         <v>806890.5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>117595.42569910882</v>
+        <v>116397.67274718208</v>
       </c>
       <c r="C37" s="7">
-        <v>118948.94240835856</v>
+        <v>117737.40338759156</v>
       </c>
       <c r="D37" s="7">
-        <v>119405.11911497431</v>
+        <v>118188.93376554528</v>
       </c>
       <c r="E37" s="7">
-        <v>120211.22377628517</v>
+        <v>118986.82795241033</v>
       </c>
       <c r="F37" s="7">
-        <v>121407.67711313051</v>
+        <v>120171.09496901806</v>
       </c>
       <c r="G37" s="7">
-        <v>123703.5740568067</v>
+        <v>122443.60735223826</v>
       </c>
       <c r="H37" s="7">
-        <v>126258.16361385485</v>
+        <v>124972.17746877905</v>
       </c>
       <c r="I37" s="7">
-        <v>126444.09892971595</v>
+        <v>125156.21896460322</v>
       </c>
       <c r="J37" s="7">
-        <v>125634.52963519031</v>
+        <v>124354.89543309549</v>
       </c>
       <c r="K37" s="7">
-        <v>115070.86296325561</v>
+        <v>113898.82361754456</v>
       </c>
       <c r="L37" s="7">
-        <v>121228.67106369902</v>
+        <v>119993.91216247926</v>
       </c>
       <c r="M37" s="7">
-        <v>121337.22957109618</v>
+        <v>120101.36496128341</v>
       </c>
       <c r="N37" s="7">
-        <v>121962.018427499</v>
+        <v>120719.79011184786</v>
       </c>
       <c r="O37" s="7">
-        <v>122576.41338425742</v>
+        <v>121327.92722848427</v>
       </c>
       <c r="P37" s="7">
-        <v>123741.68502216955</v>
+        <v>122481.33014330782</v>
       </c>
       <c r="Q37" s="7">
-        <v>125203.76023881645</v>
+        <v>123928.51358252148</v>
       </c>
       <c r="R37" s="7">
-        <v>123479.52777558277</v>
+        <v>122221.84306534454</v>
       </c>
       <c r="S37" s="7">
-        <v>123778.64110979412</v>
+        <v>122517.90981949648</v>
       </c>
       <c r="T37" s="7">
-        <v>126065.29903156415</v>
+        <v>124781.27728366952</v>
       </c>
       <c r="U37" s="7">
-        <v>128795.430004829</v>
+        <v>127483.60086210642</v>
       </c>
       <c r="V37" s="8">
-        <v>128541.3569024101</v>
+        <v>127232.1155883094</v>
       </c>
       <c r="W37" s="8">
-        <v>129713.55780675182</v>
+        <v>128392.37719241832</v>
       </c>
       <c r="X37" s="8">
+        <v>130195.0693595905</v>
+      </c>
+      <c r="Y37" s="7">
         <v>131534.79999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>2016504.4340867854</v>
+        <v>2008683.8401416896</v>
       </c>
       <c r="C38" s="7">
-        <v>2027812.3420531948</v>
+        <v>2019947.8927338787</v>
       </c>
       <c r="D38" s="7">
-        <v>2037400.340940797</v>
+        <v>2029498.706557675</v>
       </c>
       <c r="E38" s="7">
-        <v>2022474.6931879318</v>
+        <v>2014630.9448319715</v>
       </c>
       <c r="F38" s="7">
-        <v>2056062.3428993465</v>
+        <v>2048088.3318147142</v>
       </c>
       <c r="G38" s="7">
-        <v>2082888.9707147614</v>
+        <v>2074810.9181217079</v>
       </c>
       <c r="H38" s="7">
-        <v>2087870.7763223401</v>
+        <v>2079773.4028301546</v>
       </c>
       <c r="I38" s="7">
-        <v>2094256.1858907847</v>
+        <v>2086134.047912807</v>
       </c>
       <c r="J38" s="7">
-        <v>2085004.2611909951</v>
+        <v>2076918.0048828342</v>
       </c>
       <c r="K38" s="7">
-        <v>1895754.9553126111</v>
+        <v>1888402.6631607632</v>
       </c>
       <c r="L38" s="7">
-        <v>2019529.1017771014</v>
+        <v>2011696.7772861042</v>
       </c>
       <c r="M38" s="7">
-        <v>2032734.8404511593</v>
+        <v>2024851.3002434154</v>
       </c>
       <c r="N38" s="7">
-        <v>2042856.6042252879</v>
+        <v>2034933.8088574025</v>
       </c>
       <c r="O38" s="7">
-        <v>2082394.7439679776</v>
+        <v>2074318.6081307905</v>
       </c>
       <c r="P38" s="7">
-        <v>2106809.5452590883</v>
+        <v>2098638.7216821075</v>
       </c>
       <c r="Q38" s="7">
-        <v>2160640.7225187602</v>
+        <v>2152261.125892825</v>
       </c>
       <c r="R38" s="7">
-        <v>2166808.6723186197</v>
+        <v>2158405.1545794732</v>
       </c>
       <c r="S38" s="7">
-        <v>2139171.5126384799</v>
+        <v>2130875.1798873753</v>
       </c>
       <c r="T38" s="7">
-        <v>2144904.54290117</v>
+        <v>2136585.9757820168</v>
       </c>
       <c r="U38" s="7">
-        <v>2131876.7258559535</v>
+        <v>2123608.6844214355</v>
       </c>
       <c r="V38" s="8">
-        <v>2147593.1364036729</v>
+        <v>2139264.1421326073</v>
       </c>
       <c r="W38" s="8">
-        <v>2149807.2722292631</v>
+        <v>2141469.6908919164</v>
       </c>
       <c r="X38" s="8">
+        <v>2159724.5453551318</v>
+      </c>
+      <c r="Y38" s="7">
         <v>2168133.2000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>681548.08757921855</v>
+        <v>675229.12983000849</v>
       </c>
       <c r="C39" s="7">
-        <v>686301.16411309969</v>
+        <v>679938.13832181937</v>
       </c>
       <c r="D39" s="7">
-        <v>685399.02210808557</v>
+        <v>679044.36050609325</v>
       </c>
       <c r="E39" s="7">
-        <v>687795.7575840936</v>
+        <v>681418.87470309704</v>
       </c>
       <c r="F39" s="7">
-        <v>690360.80313566409</v>
+        <v>683960.13849258714</v>
       </c>
       <c r="G39" s="7">
-        <v>695261.99253604002</v>
+        <v>688815.88662578585</v>
       </c>
       <c r="H39" s="7">
-        <v>703374.53817814612</v>
+        <v>696853.21698362171</v>
       </c>
       <c r="I39" s="7">
-        <v>710665.73065150774</v>
+        <v>704076.80933012487</v>
       </c>
       <c r="J39" s="7">
-        <v>706040.569775054</v>
+        <v>699494.53052860347</v>
       </c>
       <c r="K39" s="7">
-        <v>653985.62960512564</v>
+        <v>647922.21656446473</v>
       </c>
       <c r="L39" s="7">
-        <v>707393.78278257535</v>
+        <v>700835.19725219277</v>
       </c>
       <c r="M39" s="7">
-        <v>714112.72099902492</v>
+        <v>707491.84098424274</v>
       </c>
       <c r="N39" s="7">
-        <v>724911.49544710631</v>
+        <v>718190.49483815883</v>
       </c>
       <c r="O39" s="7">
-        <v>731394.79955776862</v>
+        <v>724613.68914072809</v>
       </c>
       <c r="P39" s="7">
-        <v>735764.12911936769</v>
+        <v>728942.50856167043</v>
       </c>
       <c r="Q39" s="7">
-        <v>749626.14694268408</v>
+        <v>742676.00499883574</v>
       </c>
       <c r="R39" s="7">
-        <v>753692.51836827071</v>
+        <v>746704.67515330273</v>
       </c>
       <c r="S39" s="7">
-        <v>743014.92717459437</v>
+        <v>736126.08100597688</v>
       </c>
       <c r="T39" s="7">
-        <v>746374.3962828191</v>
+        <v>739454.40287200175</v>
       </c>
       <c r="U39" s="7">
-        <v>756432.606398426</v>
+        <v>749419.35851897846</v>
       </c>
       <c r="V39" s="8">
-        <v>762700.47361236857</v>
+        <v>755629.11334316537</v>
       </c>
       <c r="W39" s="8">
-        <v>764726.92692213936</v>
+        <v>757636.77843669953</v>
       </c>
       <c r="X39" s="8">
+        <v>766194.36752309243</v>
+      </c>
+      <c r="Y39" s="7">
         <v>773364.6</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>73838.174992238433</v>
+        <v>73396.678362843799</v>
       </c>
       <c r="C40" s="7">
-        <v>74925.093986727719</v>
+        <v>74477.098401033829</v>
       </c>
       <c r="D40" s="7">
-        <v>75589.683844302999</v>
+        <v>75137.714512209233</v>
       </c>
       <c r="E40" s="7">
-        <v>75076.958916097487</v>
+        <v>74628.055292597317</v>
       </c>
       <c r="F40" s="7">
-        <v>75411.784927041284</v>
+        <v>74960.879296377738</v>
       </c>
       <c r="G40" s="7">
-        <v>75980.193662682388</v>
+        <v>75525.889376229607</v>
       </c>
       <c r="H40" s="7">
-        <v>76018.521478189999</v>
+        <v>75563.988020290868</v>
       </c>
       <c r="I40" s="7">
-        <v>75221.592182163906</v>
+        <v>74771.823760752988</v>
       </c>
       <c r="J40" s="7">
-        <v>74579.420480828921</v>
+        <v>74133.491762141726</v>
       </c>
       <c r="K40" s="7">
-        <v>68946.67793387147</v>
+        <v>68534.428769818318</v>
       </c>
       <c r="L40" s="7">
-        <v>70928.153678981675</v>
+        <v>70504.056783551292</v>
       </c>
       <c r="M40" s="7">
-        <v>70559.338850512257</v>
+        <v>70137.447189754268</v>
       </c>
       <c r="N40" s="7">
-        <v>71305.64650341509</v>
+        <v>70879.292485437647</v>
       </c>
       <c r="O40" s="7">
-        <v>71510.302574899106</v>
+        <v>71082.724867877943</v>
       </c>
       <c r="P40" s="7">
-        <v>70988.176484399242</v>
+        <v>70563.720697835903</v>
       </c>
       <c r="Q40" s="7">
-        <v>69684.307590810306</v>
+        <v>69267.647957412337</v>
       </c>
       <c r="R40" s="7">
-        <v>69932.353642114249</v>
+        <v>69514.210880299346</v>
       </c>
       <c r="S40" s="7">
-        <v>69254.023624262656</v>
+        <v>68839.936764649159</v>
       </c>
       <c r="T40" s="7">
-        <v>69819.539694582418</v>
+        <v>69402.071475137898</v>
       </c>
       <c r="U40" s="7">
-        <v>71400.381292688602</v>
+        <v>70973.460832079625</v>
       </c>
       <c r="V40" s="8">
-        <v>73336.297558987892</v>
+        <v>72897.80177834355</v>
       </c>
       <c r="W40" s="8">
-        <v>74001.610582893511</v>
+        <v>73559.136731859733</v>
       </c>
       <c r="X40" s="8">
+        <v>74092.517748717364</v>
+      </c>
+      <c r="Y40" s="7">
         <v>74538.2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>819108.25459598121</v>
+        <v>813498.13123061589</v>
       </c>
       <c r="C41" s="7">
-        <v>820295.3680084392</v>
+        <v>814677.11402950087</v>
       </c>
       <c r="D41" s="7">
-        <v>825739.71572764288</v>
+        <v>820084.1730726629</v>
       </c>
       <c r="E41" s="7">
-        <v>829865.95820956572</v>
+        <v>824182.15466326987</v>
       </c>
       <c r="F41" s="7">
-        <v>835441.29775359237</v>
+        <v>829719.308360102</v>
       </c>
       <c r="G41" s="7">
-        <v>842416.61242541415</v>
+        <v>836646.84866803291</v>
       </c>
       <c r="H41" s="7">
-        <v>851536.9182287117</v>
+        <v>845704.68892981089</v>
       </c>
       <c r="I41" s="7">
-        <v>855548.54286391439</v>
+        <v>849688.83769845671</v>
       </c>
       <c r="J41" s="7">
-        <v>838478.67069167434</v>
+        <v>832735.87814207643</v>
       </c>
       <c r="K41" s="7">
-        <v>767423.79271427775</v>
+        <v>762167.65944192151</v>
       </c>
       <c r="L41" s="7">
-        <v>836030.7609652956</v>
+        <v>830304.73430161725</v>
       </c>
       <c r="M41" s="7">
-        <v>844913.64408610144</v>
+        <v>839126.77800361835</v>
       </c>
       <c r="N41" s="7">
-        <v>848565.0412030411</v>
+        <v>842753.16647467134</v>
       </c>
       <c r="O41" s="7">
-        <v>858201.12731657911</v>
+        <v>852323.25443527545</v>
       </c>
       <c r="P41" s="7">
-        <v>861983.51625834161</v>
+        <v>856079.73755999864</v>
       </c>
       <c r="Q41" s="7">
-        <v>876867.46235384885</v>
+        <v>870861.74258325959</v>
       </c>
       <c r="R41" s="7">
-        <v>866216.18959793309</v>
+        <v>860283.42105671251</v>
       </c>
       <c r="S41" s="7">
-        <v>864742.53156867495</v>
+        <v>858819.85620292427</v>
       </c>
       <c r="T41" s="7">
-        <v>863899.2716963772</v>
+        <v>857982.3718699232</v>
       </c>
       <c r="U41" s="7">
-        <v>868197.44094838016</v>
+        <v>862251.10269347229</v>
       </c>
       <c r="V41" s="8">
-        <v>867051.26248117932</v>
+        <v>861112.77447385923</v>
       </c>
       <c r="W41" s="8">
-        <v>871046.5131382792</v>
+        <v>865080.66141079611</v>
       </c>
       <c r="X41" s="8">
+        <v>874837.76043605083</v>
+      </c>
+      <c r="Y41" s="7">
         <v>880870.9</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>245673.87457651191</v>
+        <v>244072.31682627182</v>
       </c>
       <c r="C42" s="7">
-        <v>247046.20479590195</v>
+        <v>245435.70077043198</v>
       </c>
       <c r="D42" s="7">
-        <v>247978.12407609055</v>
+        <v>246361.54483180313</v>
       </c>
       <c r="E42" s="7">
-        <v>250236.1425931011</v>
+        <v>248604.84323637869</v>
       </c>
       <c r="F42" s="7">
-        <v>250367.53591197886</v>
+        <v>248735.3799969898</v>
       </c>
       <c r="G42" s="7">
-        <v>251197.26038859587</v>
+        <v>249559.69546677454</v>
       </c>
       <c r="H42" s="7">
-        <v>254455.32805484274</v>
+        <v>252796.5236604455</v>
       </c>
       <c r="I42" s="7">
-        <v>252263.00619727111</v>
+        <v>250618.4936361755</v>
       </c>
       <c r="J42" s="7">
-        <v>247338.18994896364</v>
+        <v>245725.78246067881</v>
       </c>
       <c r="K42" s="7">
-        <v>230553.91006713317</v>
+        <v>229050.91996632301</v>
       </c>
       <c r="L42" s="7">
-        <v>244948.77811307536</v>
+        <v>243351.94729549217</v>
       </c>
       <c r="M42" s="7">
-        <v>241410.89134181099</v>
+        <v>239837.12414866799</v>
       </c>
       <c r="N42" s="7">
-        <v>242651.82824232324</v>
+        <v>241069.97133221704</v>
       </c>
       <c r="O42" s="7">
-        <v>245810.13431460736</v>
+        <v>244207.68828172036</v>
       </c>
       <c r="P42" s="7">
-        <v>243705.40800295424</v>
+        <v>242116.68276452439</v>
       </c>
       <c r="Q42" s="7">
-        <v>246065.62132353635</v>
+        <v>244461.50976068634</v>
       </c>
       <c r="R42" s="7">
-        <v>239026.34592514037</v>
+        <v>237468.12367831878</v>
       </c>
       <c r="S42" s="7">
-        <v>239206.40343619508</v>
+        <v>237647.00738730433</v>
       </c>
       <c r="T42" s="7">
-        <v>242809.98686689834</v>
+        <v>241227.09891443411</v>
       </c>
       <c r="U42" s="7">
-        <v>247413.61944683793</v>
+        <v>245800.72023065924</v>
       </c>
       <c r="V42" s="8">
-        <v>250477.03034437701</v>
+        <v>248844.16063083234</v>
       </c>
       <c r="W42" s="8">
-        <v>253275.22139455169</v>
+        <v>251624.11016236452</v>
       </c>
       <c r="X42" s="8">
+        <v>255298.47823882452</v>
+      </c>
+      <c r="Y42" s="7">
         <v>256973.7</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>284324.28299153119</v>
+        <v>282664.1909375402</v>
       </c>
       <c r="C43" s="7">
-        <v>285192.30149455823</v>
+        <v>283527.1413169289</v>
       </c>
       <c r="D43" s="7">
-        <v>287220.43361591664</v>
+        <v>285543.43172718305</v>
       </c>
       <c r="E43" s="7">
-        <v>288388.81407713407</v>
+        <v>286704.99033309042</v>
       </c>
       <c r="F43" s="7">
-        <v>289576.48383841867</v>
+        <v>287885.72561409522</v>
       </c>
       <c r="G43" s="7">
-        <v>290923.97922883218</v>
+        <v>289225.35334590817</v>
       </c>
       <c r="H43" s="7">
-        <v>294283.07305483212</v>
+        <v>292564.83433789172</v>
       </c>
       <c r="I43" s="7">
-        <v>297722.07969539647</v>
+        <v>295983.76155527926</v>
       </c>
       <c r="J43" s="7">
-        <v>296997.35313572624</v>
+        <v>295263.26647661504</v>
       </c>
       <c r="K43" s="7">
-        <v>275255.55634561979</v>
+        <v>273648.41411668877</v>
       </c>
       <c r="L43" s="7">
-        <v>293381.98718026117</v>
+        <v>291669.00965833582</v>
       </c>
       <c r="M43" s="7">
-        <v>295922.6635605499</v>
+        <v>294194.85172118142</v>
       </c>
       <c r="N43" s="7">
-        <v>302624.31752677792</v>
+        <v>300857.37655506493</v>
       </c>
       <c r="O43" s="7">
-        <v>303900.16694551293</v>
+        <v>302125.77663651563</v>
       </c>
       <c r="P43" s="7">
-        <v>303864.34395967366</v>
+        <v>302090.16281133448</v>
       </c>
       <c r="Q43" s="7">
-        <v>311913.49331631511</v>
+        <v>310092.31537703087</v>
       </c>
       <c r="R43" s="7">
-        <v>313437.34802162927</v>
+        <v>311607.27270973549</v>
       </c>
       <c r="S43" s="7">
-        <v>309507.84203649726</v>
+        <v>307700.71003986796</v>
       </c>
       <c r="T43" s="7">
-        <v>310497.10756851855</v>
+        <v>308684.19951986964</v>
       </c>
       <c r="U43" s="7">
-        <v>311384.41537161294</v>
+        <v>309566.32657435589</v>
       </c>
       <c r="V43" s="8">
-        <v>314470.70338237577</v>
+        <v>312634.59458996012</v>
       </c>
       <c r="W43" s="8">
-        <v>315831.97684426582</v>
+        <v>313987.91994684271</v>
       </c>
       <c r="X43" s="8">
+        <v>317658.88346551202</v>
+      </c>
+      <c r="Y43" s="7">
         <v>319524.5</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>934115.24136873102</v>
+        <v>925482.79357907816</v>
       </c>
       <c r="C44" s="7">
-        <v>935753.69899696042</v>
+        <v>927106.10971372644</v>
       </c>
       <c r="D44" s="7">
-        <v>940298.79897131457</v>
+        <v>931609.20701379608</v>
       </c>
       <c r="E44" s="7">
-        <v>939373.11669547867</v>
+        <v>930692.07925410778</v>
       </c>
       <c r="F44" s="7">
-        <v>939021.35743066121</v>
+        <v>930343.57070542627</v>
       </c>
       <c r="G44" s="7">
-        <v>945473.36289323727</v>
+        <v>936735.95119045395</v>
       </c>
       <c r="H44" s="7">
-        <v>952471.52089855634</v>
+        <v>943669.43705369753</v>
       </c>
       <c r="I44" s="7">
-        <v>955165.25632123859</v>
+        <v>946338.27883439057</v>
       </c>
       <c r="J44" s="7">
-        <v>935142.74869490892</v>
+        <v>926500.80539233226</v>
       </c>
       <c r="K44" s="7">
-        <v>841472.9592030776</v>
+        <v>833696.64738947141</v>
       </c>
       <c r="L44" s="7">
-        <v>914222.32926101831</v>
+        <v>905773.71802337631</v>
       </c>
       <c r="M44" s="7">
-        <v>924284.49559935415</v>
+        <v>915742.89677118836</v>
       </c>
       <c r="N44" s="7">
-        <v>922710.83573043323</v>
+        <v>914183.77957971813</v>
       </c>
       <c r="O44" s="7">
-        <v>933550.57518047118</v>
+        <v>924923.34564566833</v>
       </c>
       <c r="P44" s="7">
-        <v>938947.30284859438</v>
+        <v>930270.20048465126</v>
       </c>
       <c r="Q44" s="7">
-        <v>958007.10090805474</v>
+        <v>949153.86105663364</v>
       </c>
       <c r="R44" s="7">
-        <v>941631.78144851828</v>
+        <v>932929.87098774721</v>
       </c>
       <c r="S44" s="7">
-        <v>944556.93744015961</v>
+        <v>935827.99470836238</v>
       </c>
       <c r="T44" s="7">
-        <v>950953.40196618543</v>
+        <v>942165.34752780874</v>
       </c>
       <c r="U44" s="7">
-        <v>954035.9239447189</v>
+        <v>945219.3829675708</v>
       </c>
       <c r="V44" s="8">
-        <v>955868.77485087386</v>
+        <v>947035.29593175359</v>
       </c>
       <c r="W44" s="8">
-        <v>961358.07074658049</v>
+        <v>952473.86354670534</v>
       </c>
       <c r="X44" s="8">
+        <v>965552.10539986077</v>
+      </c>
+      <c r="Y44" s="7">
         <v>974558.3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>72313.314577227022</v>
+        <v>71689.591459310337</v>
       </c>
       <c r="C45" s="7">
-        <v>72263.427369866055</v>
+        <v>71640.134543448265</v>
       </c>
       <c r="D45" s="7">
-        <v>71963.381122695064</v>
+        <v>71342.676281379318</v>
       </c>
       <c r="E45" s="7">
-        <v>72506.356379623787</v>
+        <v>71880.96822068964</v>
       </c>
       <c r="F45" s="7">
-        <v>73336.363829629365</v>
+        <v>72703.816617931036</v>
       </c>
       <c r="G45" s="7">
-        <v>73337.809835639811</v>
+        <v>72705.250151724133</v>
       </c>
       <c r="H45" s="7">
-        <v>73559.048755240598</v>
+        <v>72924.580822068965</v>
       </c>
       <c r="I45" s="7">
-        <v>74356.521070010742</v>
+        <v>73715.174708965511</v>
       </c>
       <c r="J45" s="7">
-        <v>73436.13824435127</v>
+        <v>72802.730449655166</v>
       </c>
       <c r="K45" s="7">
-        <v>66387.581946351056</v>
+        <v>65814.969975172411</v>
       </c>
       <c r="L45" s="7">
-        <v>72591.670734241081</v>
+        <v>71965.546714482756</v>
       </c>
       <c r="M45" s="7">
-        <v>73752.090557637363</v>
+        <v>73115.957583448268</v>
       </c>
       <c r="N45" s="7">
-        <v>72555.520583979509</v>
+        <v>71929.708369655156</v>
       </c>
       <c r="O45" s="7">
-        <v>74801.16791822802</v>
+        <v>74155.986350344829</v>
       </c>
       <c r="P45" s="7">
-        <v>74778.031822060628</v>
+        <v>74133.049809655175</v>
       </c>
       <c r="Q45" s="7">
-        <v>76936.195792676139</v>
+        <v>76272.598995862063</v>
       </c>
       <c r="R45" s="7">
-        <v>75318.115066968428</v>
+        <v>74668.474681379303</v>
       </c>
       <c r="S45" s="7">
-        <v>76969.453930916774</v>
+        <v>76305.57027310344</v>
       </c>
       <c r="T45" s="7">
-        <v>77174.786784402473</v>
+        <v>76509.132071724132</v>
       </c>
       <c r="U45" s="7">
-        <v>76565.295250992465</v>
+        <v>75904.897577931028</v>
       </c>
       <c r="V45" s="8">
-        <v>77078.627384706706</v>
+        <v>76413.802074482752</v>
       </c>
       <c r="W45" s="8">
-        <v>77204.429907616955</v>
+        <v>76538.519514482745</v>
       </c>
       <c r="X45" s="8">
+        <v>77276.072651034483</v>
+      </c>
+      <c r="Y45" s="7">
         <v>77948.399999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>286093.98937306233</v>
+        <v>282522.31559342792</v>
       </c>
       <c r="C46" s="7">
-        <v>288296.393592835</v>
+        <v>284697.22441065416</v>
       </c>
       <c r="D46" s="7">
-        <v>289117.39160351356</v>
+        <v>285507.97286287713</v>
       </c>
       <c r="E46" s="7">
-        <v>290818.23048570444</v>
+        <v>287187.57801816514</v>
       </c>
       <c r="F46" s="7">
-        <v>292732.02448329312</v>
+        <v>289077.47970030957</v>
       </c>
       <c r="G46" s="7">
-        <v>292967.39592662762</v>
+        <v>289309.91270367726</v>
       </c>
       <c r="H46" s="7">
-        <v>297176.06149672752</v>
+        <v>293466.03616865666</v>
       </c>
       <c r="I46" s="7">
-        <v>300594.55150706164</v>
+        <v>296841.84883661603</v>
       </c>
       <c r="J46" s="7">
-        <v>293197.16328797792</v>
+        <v>289536.81158791715</v>
       </c>
       <c r="K46" s="7">
-        <v>273991.97432828107</v>
+        <v>270571.38533693913</v>
       </c>
       <c r="L46" s="7">
-        <v>298512.63504994835</v>
+        <v>294785.92358063749</v>
       </c>
       <c r="M46" s="7">
-        <v>298834.8697640372</v>
+        <v>295104.13543048612</v>
       </c>
       <c r="N46" s="7">
-        <v>300866.34948329313</v>
+        <v>297110.25361431437</v>
       </c>
       <c r="O46" s="7">
-        <v>304343.68235446088</v>
+        <v>300544.17453311564</v>
       </c>
       <c r="P46" s="7">
-        <v>305369.2293575611</v>
+        <v>301556.91833350342</v>
       </c>
       <c r="Q46" s="7">
-        <v>309479.8234929383</v>
+        <v>305616.19471374626</v>
       </c>
       <c r="R46" s="7">
-        <v>309042.70509817428</v>
+        <v>305184.53342177777</v>
       </c>
       <c r="S46" s="7">
-        <v>310180.33374095761</v>
+        <v>306307.95960472157</v>
       </c>
       <c r="T46" s="7">
-        <v>313259.77679125039</v>
+        <v>309348.95806544885</v>
       </c>
       <c r="U46" s="7">
-        <v>317566.51379607304</v>
+        <v>313601.92861516483</v>
       </c>
       <c r="V46" s="8">
-        <v>319424.26697382017</v>
+        <v>315436.48910603125</v>
       </c>
       <c r="W46" s="8">
-        <v>320892.53645366861</v>
+        <v>316886.42831751541</v>
       </c>
       <c r="X46" s="8">
+        <v>321310.95656019327</v>
+      </c>
+      <c r="Y46" s="7">
         <v>325373</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>68133.941793588732</v>
+        <v>67775.644474264001</v>
       </c>
       <c r="C47" s="7">
-        <v>66845.683811398834</v>
+        <v>66494.161080032281</v>
       </c>
       <c r="D47" s="7">
-        <v>66653.376705586401</v>
+        <v>66302.865263434665</v>
       </c>
       <c r="E47" s="7">
-        <v>66200.889397792431</v>
+        <v>65852.757459675588</v>
       </c>
       <c r="F47" s="7">
-        <v>66538.25861110352</v>
+        <v>66188.352542772438</v>
       </c>
       <c r="G47" s="7">
-        <v>66730.565716915953</v>
+        <v>66379.64835937004</v>
       </c>
       <c r="H47" s="7">
-        <v>67859.787718866501</v>
+        <v>67502.932099045269</v>
       </c>
       <c r="I47" s="7">
-        <v>68883.20754149463</v>
+        <v>68520.97004342977</v>
       </c>
       <c r="J47" s="7">
-        <v>67680.7890632833</v>
+        <v>67324.874747264097</v>
       </c>
       <c r="K47" s="7">
-        <v>64685.722339194079</v>
+        <v>64345.558240323488</v>
       </c>
       <c r="L47" s="7">
-        <v>69333.698581754215</v>
+        <v>68969.092077466383</v>
       </c>
       <c r="M47" s="7">
-        <v>70023.076303628564</v>
+        <v>69654.844554958152</v>
       </c>
       <c r="N47" s="7">
-        <v>71199.54330389289</v>
+        <v>70825.124844731748</v>
       </c>
       <c r="O47" s="7">
-        <v>71448.411323179578</v>
+        <v>71072.684136799246</v>
       </c>
       <c r="P47" s="7">
-        <v>70816.925359802393</v>
+        <v>70444.518981259011</v>
       </c>
       <c r="Q47" s="7">
-        <v>70884.133033460035</v>
+        <v>70511.373228582059</v>
       </c>
       <c r="R47" s="7">
-        <v>71451.738435736886</v>
+        <v>71075.993753003364</v>
       </c>
       <c r="S47" s="7">
-        <v>70995.924015385608</v>
+        <v>70622.576333040168</v>
       </c>
       <c r="T47" s="7">
-        <v>70747.055996098919</v>
+        <v>70375.017040972671</v>
       </c>
       <c r="U47" s="7">
-        <v>70220.041367021229</v>
+        <v>69850.77383424151</v>
       </c>
       <c r="V47" s="8">
-        <v>71900.233208462087</v>
+        <v>71522.130017317511</v>
       </c>
       <c r="W47" s="8">
-        <v>72078.566441533825</v>
+        <v>71699.525445857842</v>
       </c>
       <c r="X47" s="8">
+        <v>72621.584520323129</v>
+      </c>
+      <c r="Y47" s="7">
         <v>73005.5</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>446007.97756126756</v>
+        <v>442977.26653841388</v>
       </c>
       <c r="C48" s="7">
-        <v>446525.85661889403</v>
+        <v>443491.62650703877</v>
       </c>
       <c r="D48" s="7">
-        <v>449545.35485319054</v>
+        <v>446490.60666308878</v>
       </c>
       <c r="E48" s="7">
-        <v>447750.33337379043</v>
+        <v>444707.78270404163</v>
       </c>
       <c r="F48" s="7">
-        <v>451880.1994180826</v>
+        <v>448809.58550468564</v>
       </c>
       <c r="G48" s="7">
-        <v>453824.44028696837</v>
+        <v>450740.6148784213</v>
       </c>
       <c r="H48" s="7">
-        <v>460205.76359026361</v>
+        <v>457078.57584774791</v>
       </c>
       <c r="I48" s="7">
-        <v>462075.39476440655</v>
+        <v>458935.5025141394</v>
       </c>
       <c r="J48" s="7">
-        <v>465112.44822099555</v>
+        <v>461951.91860132926</v>
       </c>
       <c r="K48" s="7">
-        <v>414465.63190735871</v>
+        <v>411649.2572629319</v>
       </c>
       <c r="L48" s="7">
-        <v>461566.29331792629</v>
+        <v>458429.86051108449</v>
       </c>
       <c r="M48" s="7">
-        <v>469391.53365477332</v>
+        <v>466201.92681666184</v>
       </c>
       <c r="N48" s="7">
-        <v>483009.9973481195</v>
+        <v>479727.85039838171</v>
       </c>
       <c r="O48" s="7">
-        <v>485849.55455391877</v>
+        <v>482548.11226024845</v>
       </c>
       <c r="P48" s="7">
-        <v>489189.43559505197</v>
+        <v>485865.29815960029</v>
       </c>
       <c r="Q48" s="7">
-        <v>500767.10469690413</v>
+        <v>497364.29474631546</v>
       </c>
       <c r="R48" s="7">
-        <v>504054.32007116009</v>
+        <v>500629.17285224784</v>
       </c>
       <c r="S48" s="7">
-        <v>504616.08718451764</v>
+        <v>501187.12264872226</v>
       </c>
       <c r="T48" s="7">
-        <v>509658.82478801574</v>
+        <v>506195.59386863717</v>
       </c>
       <c r="U48" s="7">
-        <v>517172.4599291723</v>
+        <v>513658.17239648267</v>
       </c>
       <c r="V48" s="8">
-        <v>520407.00963655097</v>
+        <v>516870.74270899553</v>
       </c>
       <c r="W48" s="8">
-        <v>521341.82522362244</v>
+        <v>517799.20604219125</v>
       </c>
       <c r="X48" s="8">
+        <v>524350.75716798089</v>
+      </c>
+      <c r="Y48" s="7">
         <v>527938.19999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>2181725.3842078312</v>
+        <v>2155344.563732055</v>
       </c>
       <c r="C49" s="7">
-        <v>2206749.5745509667</v>
+        <v>2180066.1684804256</v>
       </c>
       <c r="D49" s="7">
-        <v>2220168.9548698817</v>
+        <v>2193323.2853606641</v>
       </c>
       <c r="E49" s="7">
-        <v>2232280.156604249</v>
+        <v>2205288.0417903136</v>
       </c>
       <c r="F49" s="7">
-        <v>2243315.275954552</v>
+        <v>2216189.7275267364</v>
       </c>
       <c r="G49" s="7">
-        <v>2261650.8757928186</v>
+        <v>2234303.6183583839</v>
       </c>
       <c r="H49" s="7">
-        <v>2303660.288080493</v>
+        <v>2275805.0644410192</v>
       </c>
       <c r="I49" s="7">
-        <v>2317607.1597641455</v>
+        <v>2289583.2944061728</v>
       </c>
       <c r="J49" s="7">
-        <v>2278045.3074088525</v>
+        <v>2250499.813037544</v>
       </c>
       <c r="K49" s="7">
-        <v>2126212.1929828837</v>
+        <v>2100502.6226755949</v>
       </c>
       <c r="L49" s="7">
-        <v>2271588.8131044684</v>
+        <v>2244121.3888781834</v>
       </c>
       <c r="M49" s="7">
-        <v>2294882.8317712652</v>
+        <v>2267133.7427080325</v>
       </c>
       <c r="N49" s="7">
-        <v>2331153.1380105983</v>
+        <v>2302965.4784267913</v>
       </c>
       <c r="O49" s="7">
-        <v>2364617.1901895292</v>
+        <v>2336024.8925338024</v>
       </c>
       <c r="P49" s="7">
-        <v>2380273.1338949306</v>
+        <v>2351491.5288940812</v>
       </c>
       <c r="Q49" s="7">
-        <v>2407386.1900424245</v>
+        <v>2378276.7414587149</v>
       </c>
       <c r="R49" s="7">
-        <v>2412028.1140521122</v>
+        <v>2382862.5366059677</v>
       </c>
       <c r="S49" s="7">
-        <v>2401077.393320167</v>
+        <v>2372044.2289631306</v>
       </c>
       <c r="T49" s="7">
-        <v>2436925.7064677104</v>
+        <v>2407459.0742139579</v>
       </c>
       <c r="U49" s="7">
-        <v>2489210.650540466</v>
+        <v>2459111.803190738</v>
       </c>
       <c r="V49" s="8">
-        <v>2518138.2769826562</v>
+        <v>2487689.6447674795</v>
       </c>
       <c r="W49" s="8">
-        <v>2548416.2813185742</v>
+        <v>2517601.5358416033</v>
       </c>
       <c r="X49" s="8">
+        <v>2564751.8477647174</v>
+      </c>
+      <c r="Y49" s="7">
         <v>2596143.7000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>223029.82686737302</v>
+        <v>220120.23406075177</v>
       </c>
       <c r="C50" s="7">
-        <v>226255.29625783686</v>
+        <v>223303.62476304959</v>
       </c>
       <c r="D50" s="7">
-        <v>228933.16598480649</v>
+        <v>225946.55965370568</v>
       </c>
       <c r="E50" s="7">
-        <v>230835.80638424124</v>
+        <v>227824.37866984142</v>
       </c>
       <c r="F50" s="7">
-        <v>237593.83046665782</v>
+        <v>234494.23921586759</v>
       </c>
       <c r="G50" s="7">
-        <v>237430.62429243996</v>
+        <v>234333.16218965276</v>
       </c>
       <c r="H50" s="7">
-        <v>242850.7872362021</v>
+        <v>239682.61500762863</v>
       </c>
       <c r="I50" s="7">
-        <v>244055.50649588933</v>
+        <v>240871.61779324056</v>
       </c>
       <c r="J50" s="7">
-        <v>241122.09025928908</v>
+        <v>237976.47019048501</v>
       </c>
       <c r="K50" s="7">
-        <v>232551.61866318973</v>
+        <v>229517.80687965231</v>
       </c>
       <c r="L50" s="7">
-        <v>246679.68998133994</v>
+        <v>243461.56682001016</v>
       </c>
       <c r="M50" s="7">
-        <v>251833.56916716768</v>
+        <v>248548.20975310926</v>
       </c>
       <c r="N50" s="7">
-        <v>258084.79512964454</v>
+        <v>254717.88374404734</v>
       </c>
       <c r="O50" s="7">
-        <v>260453.43210546454</v>
+        <v>257055.62005871747</v>
       </c>
       <c r="P50" s="7">
-        <v>262446.26539065124</v>
+        <v>259022.45532618242</v>
       </c>
       <c r="Q50" s="7">
-        <v>267187.83424161276</v>
+        <v>263702.1668246336</v>
       </c>
       <c r="R50" s="7">
-        <v>266603.72793388559</v>
+        <v>263125.68062554905</v>
       </c>
       <c r="S50" s="7">
-        <v>265843.53075397603</v>
+        <v>262375.40079291695</v>
       </c>
       <c r="T50" s="7">
-        <v>266597.28558490332</v>
+        <v>263119.32232188265</v>
       </c>
       <c r="U50" s="7">
-        <v>268712.52350075345</v>
+        <v>265206.96535900875</v>
       </c>
       <c r="V50" s="8">
-        <v>269382.52779491106</v>
+        <v>265868.22894031159</v>
       </c>
       <c r="W50" s="8">
-        <v>271010.2946377683</v>
+        <v>267474.76033334871</v>
       </c>
       <c r="X50" s="8">
+        <v>271459.29729760968</v>
+      </c>
+      <c r="Y50" s="7">
         <v>275047.5</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>40620.755793664786</v>
+        <v>40221.700618475224</v>
       </c>
       <c r="C51" s="7">
-        <v>40704.103134193989</v>
+        <v>40304.229161152769</v>
       </c>
       <c r="D51" s="7">
-        <v>40500.36519067816</v>
+        <v>40102.492723496543</v>
       </c>
       <c r="E51" s="7">
-        <v>40411.783476106059</v>
+        <v>40014.781228863401</v>
       </c>
       <c r="F51" s="7">
-        <v>40887.708869852526</v>
+        <v>40486.031168210553</v>
       </c>
       <c r="G51" s="7">
-        <v>40666.254583422276</v>
+        <v>40266.752431627698</v>
       </c>
       <c r="H51" s="7">
-        <v>41205.395109840647</v>
+        <v>40800.59648305396</v>
       </c>
       <c r="I51" s="7">
-        <v>41353.970803827484</v>
+        <v>40947.712580870459</v>
       </c>
       <c r="J51" s="7">
-        <v>41299.61384261278</v>
+        <v>40893.88961825466</v>
       </c>
       <c r="K51" s="7">
-        <v>36804.091828078737</v>
+        <v>36442.531265622696</v>
       </c>
       <c r="L51" s="7">
-        <v>40528.550281678377</v>
+        <v>40130.400926334361</v>
       </c>
       <c r="M51" s="7">
-        <v>41031.050189796464</v>
+        <v>40627.964314071454</v>
       </c>
       <c r="N51" s="7">
-        <v>41392.221998756344</v>
+        <v>40985.587999007497</v>
       </c>
       <c r="O51" s="7">
-        <v>41583.880617557792</v>
+        <v>41175.363778304658</v>
       </c>
       <c r="P51" s="7">
-        <v>41997.396166946637</v>
+        <v>41584.816982796641</v>
       </c>
       <c r="Q51" s="7">
-        <v>42368.231435678019</v>
+        <v>41952.00919441993</v>
       </c>
       <c r="R51" s="7">
-        <v>42716.921275766377</v>
+        <v>42297.273532384941</v>
       </c>
       <c r="S51" s="7">
-        <v>42805.502990338478</v>
+        <v>42384.985027018083</v>
       </c>
       <c r="T51" s="7">
-        <v>42419.769887792696</v>
+        <v>42003.041336751943</v>
       </c>
       <c r="U51" s="7">
-        <v>43099.030580897845</v>
+        <v>42675.62902514336</v>
       </c>
       <c r="V51" s="8">
-        <v>43169.09066424123</v>
+        <v>42745.00084362593</v>
       </c>
       <c r="W51" s="8">
-        <v>42967.768585668273</v>
+        <v>42545.656537641516</v>
       </c>
       <c r="X51" s="8">
+        <v>42957.501873805319</v>
+      </c>
+      <c r="Y51" s="7">
         <v>43383.7</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>629948.68864915567</v>
+        <v>624744.65380964277</v>
       </c>
       <c r="C52" s="7">
-        <v>633379.18813320831</v>
+        <v>628146.81378104351</v>
       </c>
       <c r="D52" s="7">
-        <v>637261.72094277677</v>
+        <v>631997.27281004761</v>
       </c>
       <c r="E52" s="7">
-        <v>636890.18670262664</v>
+        <v>631628.80783119553</v>
       </c>
       <c r="F52" s="7">
-        <v>641435.28890712955</v>
+        <v>636136.36273915251</v>
       </c>
       <c r="G52" s="7">
-        <v>645163.01578330202</v>
+        <v>639833.29469363496</v>
       </c>
       <c r="H52" s="7">
-        <v>655714.58820356475</v>
+        <v>650297.70009303372</v>
       </c>
       <c r="I52" s="7">
-        <v>659120.31873827393</v>
+        <v>653675.29573251097</v>
       </c>
       <c r="J52" s="7">
-        <v>651113.75586303941</v>
+        <v>645734.87543824886</v>
       </c>
       <c r="K52" s="7">
-        <v>610647.48487335828</v>
+        <v>605602.89815827785</v>
       </c>
       <c r="L52" s="7">
-        <v>647943.33034709201</v>
+        <v>642590.64095204463</v>
       </c>
       <c r="M52" s="7">
-        <v>656909.69000938081</v>
+        <v>651482.92910834122</v>
       </c>
       <c r="N52" s="7">
-        <v>666303.3140478424</v>
+        <v>660798.95199031755</v>
       </c>
       <c r="O52" s="7">
-        <v>672730.85640243907</v>
+        <v>667173.39612445841</v>
       </c>
       <c r="P52" s="7">
-        <v>677653.68508442782</v>
+        <v>672055.55709424836</v>
       </c>
       <c r="Q52" s="7">
-        <v>689648.04880394007</v>
+        <v>683950.83482818922</v>
       </c>
       <c r="R52" s="7">
-        <v>686037.97443714831</v>
+        <v>680370.58345034334</v>
       </c>
       <c r="S52" s="7">
-        <v>688768.75110225147</v>
+        <v>683078.80104490602</v>
       </c>
       <c r="T52" s="7">
-        <v>696985.85004690441</v>
+        <v>691228.01816051756</v>
       </c>
       <c r="U52" s="7">
-        <v>702218.2905956849</v>
+        <v>696417.23327935091</v>
       </c>
       <c r="V52" s="8">
-        <v>703221.43304409005</v>
+        <v>697412.08872225136</v>
       </c>
       <c r="W52" s="8">
-        <v>705580.6754690432</v>
+        <v>699751.84133796208</v>
       </c>
       <c r="X52" s="8">
+        <v>707010.6014213477</v>
+      </c>
+      <c r="Y52" s="7">
         <v>712899.9</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>661564.23173109931</v>
+        <v>654963.30355708639</v>
       </c>
       <c r="C53" s="7">
-        <v>667447.2968696371</v>
+        <v>660787.66889209801</v>
       </c>
       <c r="D53" s="7">
-        <v>678677.45658210875</v>
+        <v>671905.77678240463</v>
       </c>
       <c r="E53" s="7">
-        <v>680146.64648272959</v>
+        <v>673360.30746092298</v>
       </c>
       <c r="F53" s="7">
-        <v>693205.41165090958</v>
+        <v>686288.77542320534</v>
       </c>
       <c r="G53" s="7">
-        <v>697909.34154731827</v>
+        <v>690945.77064283949</v>
       </c>
       <c r="H53" s="7">
-        <v>708754.86356048554</v>
+        <v>701683.07865593722</v>
       </c>
       <c r="I53" s="7">
-        <v>717834.83547848614</v>
+        <v>710672.45280643774</v>
       </c>
       <c r="J53" s="7">
-        <v>708761.16909653973</v>
+        <v>701689.3212768751</v>
       </c>
       <c r="K53" s="7">
-        <v>669818.1784260039</v>
+        <v>663134.89436472883</v>
       </c>
       <c r="L53" s="7">
-        <v>724007.95527551556</v>
+        <v>716783.97870459035</v>
       </c>
       <c r="M53" s="7">
-        <v>722154.12767559057</v>
+        <v>714948.64814886323</v>
       </c>
       <c r="N53" s="7">
-        <v>735673.19697572466</v>
+        <v>728332.82743960829</v>
       </c>
       <c r="O53" s="7">
-        <v>751228.95442135492</v>
+        <v>743733.37329327816</v>
       </c>
       <c r="P53" s="7">
-        <v>754280.8338715717</v>
+        <v>746754.80182719626</v>
       </c>
       <c r="Q53" s="7">
-        <v>776942.93045024807</v>
+        <v>769190.78147782024</v>
       </c>
       <c r="R53" s="7">
-        <v>750611.01188804652</v>
+        <v>743121.59644136915</v>
       </c>
       <c r="S53" s="7">
-        <v>758814.51429451781</v>
+        <v>751243.24628150871</v>
       </c>
       <c r="T53" s="7">
-        <v>772484.91645995202</v>
+        <v>764777.24847476208</v>
       </c>
       <c r="U53" s="7">
-        <v>785606.73698867357</v>
+        <v>777768.14264642284</v>
       </c>
       <c r="V53" s="8">
-        <v>792618.49308090738</v>
+        <v>784709.93712930928</v>
       </c>
       <c r="W53" s="8">
-        <v>798293.47552965768</v>
+        <v>790328.29597337206</v>
       </c>
       <c r="X53" s="8">
+        <v>800279.03374830098</v>
+      </c>
+      <c r="Y53" s="7">
         <v>808344.5</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>95071.622941643698</v>
+        <v>93982.631094175798</v>
       </c>
       <c r="C54" s="7">
-        <v>96411.095249264123</v>
+        <v>95306.760501593468</v>
       </c>
       <c r="D54" s="7">
-        <v>97403.05411204038</v>
+        <v>96287.357034779008</v>
       </c>
       <c r="E54" s="7">
-        <v>96926.276906041225</v>
+        <v>95816.041042907949</v>
       </c>
       <c r="F54" s="7">
-        <v>95400.402508059618</v>
+        <v>94307.644675996504</v>
       </c>
       <c r="G54" s="7">
-        <v>95785.38370976031</v>
+        <v>94688.216135051509</v>
       </c>
       <c r="H54" s="7">
-        <v>96418.588800635422</v>
+        <v>95314.168218558043</v>
       </c>
       <c r="I54" s="7">
-        <v>95118.457637714338</v>
+        <v>94028.929325204386</v>
       </c>
       <c r="J54" s="7">
-        <v>94363.482337055553</v>
+        <v>93282.601841023512</v>
       </c>
       <c r="K54" s="7">
-        <v>87510.629607998882</v>
+        <v>86508.244676920236</v>
       </c>
       <c r="L54" s="7">
-        <v>93320.005308601598</v>
+        <v>92251.07725370652</v>
       </c>
       <c r="M54" s="7">
-        <v>93404.307761528762</v>
+        <v>92334.414069557984</v>
       </c>
       <c r="N54" s="7">
-        <v>93736.834103630346</v>
+        <v>92663.131509860992</v>
       </c>
       <c r="O54" s="7">
-        <v>93721.847000887734</v>
+        <v>92648.316075931842</v>
       </c>
       <c r="P54" s="7">
-        <v>94230.471800214931</v>
+        <v>93151.114864902323</v>
       </c>
       <c r="Q54" s="7">
-        <v>94724.109496799516</v>
+        <v>93639.098219943669</v>
       </c>
       <c r="R54" s="7">
-        <v>93406.18114937158</v>
+        <v>92336.265998799136</v>
       </c>
       <c r="S54" s="7">
-        <v>93929.793051441389</v>
+        <v>92853.880221698782</v>
       </c>
       <c r="T54" s="7">
-        <v>95414.452916880808</v>
+        <v>94321.534145305064</v>
       </c>
       <c r="U54" s="7">
-        <v>98671.33768163342</v>
+        <v>97541.113131033228</v>
       </c>
       <c r="V54" s="8">
-        <v>98448.404528337152</v>
+        <v>97320.733551337136</v>
       </c>
       <c r="W54" s="8">
-        <v>99324.213344858203</v>
+        <v>98186.510471571761</v>
       </c>
       <c r="X54" s="8">
+        <v>99092.103870490973</v>
+      </c>
+      <c r="Y54" s="7">
         <v>100240.3</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>406165.53015417478</v>
+        <v>401938.47154381796</v>
       </c>
       <c r="C55" s="7">
-        <v>404379.75884859991</v>
+        <v>400171.28517323377</v>
       </c>
       <c r="D55" s="7">
-        <v>406658.70530315314</v>
+        <v>402426.51410495926</v>
       </c>
       <c r="E55" s="7">
-        <v>408014.93696284358</v>
+        <v>403768.63114809786</v>
       </c>
       <c r="F55" s="7">
-        <v>408599.58814751956</v>
+        <v>404347.19773267669</v>
       </c>
       <c r="G55" s="7">
-        <v>411522.84407089942</v>
+        <v>407240.03065557068</v>
       </c>
       <c r="H55" s="7">
-        <v>412835.32632221276</v>
+        <v>408538.85360054352</v>
       </c>
       <c r="I55" s="7">
-        <v>416311.41567872162</v>
+        <v>411978.76649116853</v>
       </c>
       <c r="J55" s="7">
-        <v>405708.14997568668</v>
+        <v>401485.85142663046</v>
       </c>
       <c r="K55" s="7">
-        <v>375851.16736777878</v>
+        <v>371939.59734205168</v>
       </c>
       <c r="L55" s="7">
-        <v>404892.82009229512</v>
+        <v>400679.00686990493</v>
       </c>
       <c r="M55" s="7">
-        <v>409804.68548736186</v>
+        <v>405539.75334578805</v>
       </c>
       <c r="N55" s="7">
-        <v>408862.08459778223</v>
+        <v>404606.96232167125</v>
       </c>
       <c r="O55" s="7">
-        <v>412600.67040455376</v>
+        <v>408306.63980129076</v>
       </c>
       <c r="P55" s="7">
-        <v>412799.53135172243</v>
+        <v>408503.43115658971</v>
       </c>
       <c r="Q55" s="7">
-        <v>419051.71953070624</v>
+        <v>414690.55136718752</v>
       </c>
       <c r="R55" s="7">
-        <v>415623.35680151795</v>
+        <v>411297.86840183428</v>
       </c>
       <c r="S55" s="7">
-        <v>412616.57928032725</v>
+        <v>408322.38310971472</v>
       </c>
       <c r="T55" s="7">
-        <v>415635.28845834808</v>
+        <v>411309.67588315223</v>
       </c>
       <c r="U55" s="7">
-        <v>415221.6576882372</v>
+        <v>410900.34986413049</v>
       </c>
       <c r="V55" s="8">
-        <v>412194.9940723296</v>
+        <v>407905.18543648097</v>
       </c>
       <c r="W55" s="8">
-        <v>412067.72306614165</v>
+        <v>407779.2389690897</v>
       </c>
       <c r="X55" s="8">
+        <v>412793.482702106</v>
+      </c>
+      <c r="Y55" s="7">
         <v>417134.7</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="7">
-        <v>48250.982946514843</v>
+        <v>47845.779118133309</v>
       </c>
       <c r="C56" s="7">
-        <v>48516.808719046632</v>
+        <v>48109.372529495755</v>
       </c>
       <c r="D56" s="7">
-        <v>48582.664290180175</v>
+        <v>48174.67505636131</v>
       </c>
       <c r="E56" s="7">
-        <v>48752.831240408486</v>
+        <v>48343.41297249568</v>
       </c>
       <c r="F56" s="7">
-        <v>48711.97194444971</v>
+        <v>48302.896806192228</v>
       </c>
       <c r="G56" s="7">
-        <v>48945.59097781399</v>
+        <v>48534.553945291955</v>
       </c>
       <c r="H56" s="7">
-        <v>49780.08201057199</v>
+        <v>49362.037059442402</v>
       </c>
       <c r="I56" s="7">
-        <v>49634.91133551846</v>
+        <v>49218.085503870141</v>
       </c>
       <c r="J56" s="7">
-        <v>48738.410312423039</v>
+        <v>48329.113149094468</v>
       </c>
       <c r="K56" s="7">
-        <v>44488.562835111115</v>
+        <v>44114.955192755697</v>
       </c>
       <c r="L56" s="7">
-        <v>46054.675614330925</v>
+        <v>45667.916014127906</v>
       </c>
       <c r="M56" s="7">
-        <v>45643.198469146097</v>
+        <v>45259.894386413165</v>
       </c>
       <c r="N56" s="7">
-        <v>46744.957367234427</v>
+        <v>46352.400894266175</v>
       </c>
       <c r="O56" s="7">
-        <v>47197.774505977533</v>
+        <v>46801.415349064402</v>
       </c>
       <c r="P56" s="7">
-        <v>47210.753341164433</v>
+        <v>46814.285190125498</v>
       </c>
       <c r="Q56" s="7">
-        <v>47595.311420776423</v>
+        <v>47195.613814157965</v>
       </c>
       <c r="R56" s="7">
-        <v>48045.725071521949</v>
+        <v>47642.244965055987</v>
       </c>
       <c r="S56" s="7">
-        <v>46704.098071275657</v>
+        <v>46311.88472796273</v>
       </c>
       <c r="T56" s="7">
-        <v>47309.777046664516</v>
+        <v>46912.477310813862</v>
       </c>
       <c r="U56" s="7">
-        <v>48552.380341410739</v>
+        <v>48144.645427218755</v>
       </c>
       <c r="V56" s="8">
-        <v>49013.369339345598</v>
+        <v>48601.763115277674</v>
       </c>
       <c r="W56" s="8">
-        <v>50046.388480703288</v>
+        <v>49626.107131584875</v>
       </c>
       <c r="X56" s="8">
+        <v>50317.265262643719</v>
+      </c>
+      <c r="Y56" s="7">
         <v>50743.4</v>
       </c>
     </row>
@@ -4638,29 +4800,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="2"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="20" width="8.88671875" style="2"/>
+    <col min="6" max="20" width="8.85546875" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4721,3229 +4884,3388 @@
       <c r="T4" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>1.8512176746279545</v>
+        <v>1.851217674627949</v>
       </c>
       <c r="C5" s="9">
-        <v>2.1538761010267993</v>
+        <v>2.153876101026821</v>
       </c>
       <c r="D5" s="9">
-        <v>2.6705743524268262</v>
+        <v>2.6705743524268164</v>
       </c>
       <c r="E5" s="9">
-        <v>3.1825908897732154</v>
+        <v>3.1825908897732202</v>
       </c>
       <c r="F5" s="9">
-        <v>1.2258033527066536</v>
+        <v>1.2258033527066667</v>
       </c>
       <c r="G5" s="9">
         <v>-7.5277730139674945</v>
       </c>
       <c r="H5" s="9">
-        <v>-1.4696599998115811</v>
+        <v>-1.4696599998115636</v>
       </c>
       <c r="I5" s="9">
-        <v>-1.0830595261497524</v>
+        <v>-1.0830595261497555</v>
       </c>
       <c r="J5" s="9">
-        <v>1.5734879615833577</v>
+        <v>1.5734879615833564</v>
       </c>
       <c r="K5" s="9">
-        <v>11.949679054576182</v>
+        <v>11.949679054576183</v>
       </c>
       <c r="L5" s="9">
-        <v>4.7357702200082272</v>
+        <v>4.7357702200082157</v>
       </c>
       <c r="M5" s="9">
-        <v>5.4215955332639343</v>
+        <v>5.4215955332639352</v>
       </c>
       <c r="N5" s="9">
-        <v>3.5644544936419149</v>
+        <v>3.5644544936419034</v>
       </c>
       <c r="O5" s="9">
-        <v>1.8710597763563621</v>
+        <v>1.8710597763563541</v>
       </c>
       <c r="P5" s="9">
-        <v>1.7135293043636974</v>
+        <v>1.7135293043636972</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.65171141572185987</v>
+        <v>0.65171141572185443</v>
       </c>
       <c r="R5" s="9">
-        <v>1.7177294215293712</v>
+        <v>1.7177294215293624</v>
       </c>
       <c r="S5" s="9">
-        <v>2.3823720728534248</v>
+        <v>2.3823720728534172</v>
       </c>
       <c r="T5" s="9">
-        <v>2.9259448737625351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.925944873762532</v>
+      </c>
+      <c r="U5" s="9">
+        <v>3.1340022296544086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9">
-        <v>1.0088197988259984</v>
+        <v>1.0088197988259939</v>
       </c>
       <c r="C6" s="9">
-        <v>1.5728061811282728</v>
+        <v>1.5728061811282776</v>
       </c>
       <c r="D6" s="9">
-        <v>2.5301784679454884</v>
+        <v>2.5301784679455075</v>
       </c>
       <c r="E6" s="9">
-        <v>2.3756097560975711</v>
+        <v>2.3756097560975795</v>
       </c>
       <c r="F6" s="9">
-        <v>1.3978526024783653</v>
+        <v>1.3978526024783768</v>
       </c>
       <c r="G6" s="9">
-        <v>-6.9525496230486947</v>
+        <v>-6.9525496230487045</v>
       </c>
       <c r="H6" s="9">
-        <v>0.4828187417973544</v>
+        <v>0.482818741797363</v>
       </c>
       <c r="I6" s="9">
-        <v>-4.0024777243067543E-2</v>
+        <v>-4.0024777243059743E-2</v>
       </c>
       <c r="J6" s="9">
-        <v>1.8566697067153126</v>
+        <v>1.8566697067152977</v>
       </c>
       <c r="K6" s="9">
-        <v>11.067658224556652</v>
+        <v>11.067658224556673</v>
       </c>
       <c r="L6" s="9">
-        <v>1.957269927829838</v>
+        <v>1.9572699278298178</v>
       </c>
       <c r="M6" s="9">
-        <v>3.326246746684733</v>
+        <v>3.3262467466847245</v>
       </c>
       <c r="N6" s="9">
-        <v>1.8162282396629357</v>
+        <v>1.8162282396629392</v>
       </c>
       <c r="O6" s="9">
-        <v>1.0600640533403367</v>
+        <v>1.0600640533403325</v>
       </c>
       <c r="P6" s="9">
-        <v>1.9739302812687129</v>
+        <v>1.9739302812687285</v>
       </c>
       <c r="Q6" s="9">
-        <v>1.8988392906571083</v>
+        <v>1.8988392906571132</v>
       </c>
       <c r="R6" s="9">
-        <v>2.4327476718567751</v>
+        <v>2.4327476718567738</v>
       </c>
       <c r="S6" s="9">
-        <v>2.6019755740469468</v>
+        <v>2.6019755740469406</v>
       </c>
       <c r="T6" s="9">
-        <v>2.5693457429737152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.5693457429737161</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2.4837015574067389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <v>-1.6228701096095752</v>
+        <v>-1.6228701096095941</v>
       </c>
       <c r="C7" s="9">
-        <v>-1.0765635682725152</v>
+        <v>-1.0765635682725085</v>
       </c>
       <c r="D7" s="9">
-        <v>0.89513805154198167</v>
+        <v>0.89513805154196791</v>
       </c>
       <c r="E7" s="9">
-        <v>0.64459840903259702</v>
+        <v>0.64459840903258769</v>
       </c>
       <c r="F7" s="9">
-        <v>0.48706647994067698</v>
+        <v>0.48706647994067881</v>
       </c>
       <c r="G7" s="9">
-        <v>-6.729797198324758</v>
+        <v>-6.7297971983247518</v>
       </c>
       <c r="H7" s="9">
-        <v>-5.4416739249326653</v>
+        <v>-5.4416739249326413</v>
       </c>
       <c r="I7" s="9">
-        <v>-3.4379366261103712</v>
+        <v>-3.4379366261103743</v>
       </c>
       <c r="J7" s="9">
-        <v>-2.672541886560428</v>
+        <v>-2.6725418865604191</v>
       </c>
       <c r="K7" s="9">
-        <v>4.8519100179167891</v>
+        <v>4.8519100179167793</v>
       </c>
       <c r="L7" s="9">
-        <v>2.2653028436780471</v>
+        <v>2.2653028436780467</v>
       </c>
       <c r="M7" s="9">
-        <v>1.2304345070868747</v>
+        <v>1.230434507086875</v>
       </c>
       <c r="N7" s="9">
-        <v>-2.3395137770197012</v>
+        <v>-2.3395137770196976</v>
       </c>
       <c r="O7" s="9">
-        <v>-1.4535098359791225</v>
+        <v>-1.453509835979109</v>
       </c>
       <c r="P7" s="9">
-        <v>-1.4421868454126534</v>
+        <v>-1.4421868454126665</v>
       </c>
       <c r="Q7" s="9">
-        <v>-0.31508550085030279</v>
+        <v>-0.31508550085030002</v>
       </c>
       <c r="R7" s="9">
-        <v>5.0250660341760618</v>
+        <v>5.0250660341760467</v>
       </c>
       <c r="S7" s="9">
-        <v>5.493058751752689</v>
+        <v>5.4930587517526952</v>
       </c>
       <c r="T7" s="9">
-        <v>5.6618811302508929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.6618811302508973</v>
+      </c>
+      <c r="U7" s="9">
+        <v>5.2132503009053242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="9">
-        <v>2.640046520643534</v>
+        <v>2.6400465206435157</v>
       </c>
       <c r="C8" s="9">
-        <v>3.5186026065869993</v>
+        <v>3.5186026065869842</v>
       </c>
       <c r="D8" s="9">
-        <v>4.2576826944255526</v>
+        <v>4.2576826944255677</v>
       </c>
       <c r="E8" s="9">
-        <v>4.8607667366011755</v>
+        <v>4.8607667366011809</v>
       </c>
       <c r="F8" s="9">
-        <v>2.5919700861157278</v>
+        <v>2.5919700861157349</v>
       </c>
       <c r="G8" s="9">
-        <v>-3.7340525809853715</v>
+        <v>-3.7340525809853502</v>
       </c>
       <c r="H8" s="9">
-        <v>1.5330351155976429</v>
+        <v>1.5330351155976378</v>
       </c>
       <c r="I8" s="9">
-        <v>2.8538428658475676</v>
+        <v>2.8538428658475548</v>
       </c>
       <c r="J8" s="9">
-        <v>5.0345608335097412</v>
+        <v>5.0345608335097518</v>
       </c>
       <c r="K8" s="9">
-        <v>12.744793888393383</v>
+        <v>12.744793888393374</v>
       </c>
       <c r="L8" s="9">
-        <v>6.9026036295210815</v>
+        <v>6.9026036295210789</v>
       </c>
       <c r="M8" s="9">
-        <v>6.7376983951545188</v>
+        <v>6.7376983951545233</v>
       </c>
       <c r="N8" s="9">
-        <v>5.0938055889028107</v>
+        <v>5.0938055889028124</v>
       </c>
       <c r="O8" s="9">
-        <v>3.6390527456274477</v>
+        <v>3.6390527456274722</v>
       </c>
       <c r="P8" s="9">
-        <v>2.6098436124839175</v>
+        <v>2.6098436124839139</v>
       </c>
       <c r="Q8" s="9">
-        <v>1.7272087147413295</v>
+        <v>1.7272087147413306</v>
       </c>
       <c r="R8" s="9">
-        <v>2.5080879164860028</v>
+        <v>2.5080879164859917</v>
       </c>
       <c r="S8" s="9">
-        <v>2.3754210709722448</v>
+        <v>2.3754210709722292</v>
       </c>
       <c r="T8" s="9">
-        <v>2.988816679312511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.9888166793125084</v>
+      </c>
+      <c r="U8" s="9">
+        <v>2.8273615635179215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9">
-        <v>0.20649779735682328</v>
+        <v>0.20649779735684443</v>
       </c>
       <c r="C9" s="9">
-        <v>0.22228123493946658</v>
+        <v>0.2222812349394554</v>
       </c>
       <c r="D9" s="9">
-        <v>0.74415966674162459</v>
+        <v>0.74415966674163903</v>
       </c>
       <c r="E9" s="9">
-        <v>1.4950733865218735</v>
+        <v>1.4950733865218671</v>
       </c>
       <c r="F9" s="9">
-        <v>2.1431515318038157</v>
+        <v>2.1431515318038064</v>
       </c>
       <c r="G9" s="9">
-        <v>-3.5976800557414745</v>
+        <v>-3.5976800557414559</v>
       </c>
       <c r="H9" s="9">
-        <v>2.3392607547755868</v>
+        <v>2.339260754775585</v>
       </c>
       <c r="I9" s="9">
-        <v>1.7337925991494598</v>
+        <v>1.733792599149486</v>
       </c>
       <c r="J9" s="9">
-        <v>3.7265827649149843</v>
+        <v>3.7265827649149745</v>
       </c>
       <c r="K9" s="9">
-        <v>11.331222705200892</v>
+        <v>11.331222705200874</v>
       </c>
       <c r="L9" s="9">
-        <v>3.9493901398030924</v>
+        <v>3.9493901398031026</v>
       </c>
       <c r="M9" s="9">
-        <v>4.7911780282968879</v>
+        <v>4.7911780282968737</v>
       </c>
       <c r="N9" s="9">
-        <v>2.0524409784289896</v>
+        <v>2.052440978429007</v>
       </c>
       <c r="O9" s="9">
-        <v>-0.29625836655571564</v>
+        <v>-0.29625836655569493</v>
       </c>
       <c r="P9" s="9">
-        <v>1.636891184145709</v>
+        <v>1.6368911841456883</v>
       </c>
       <c r="Q9" s="9">
-        <v>1.880832475948085</v>
+        <v>1.8808324759480883</v>
       </c>
       <c r="R9" s="9">
-        <v>2.9858873712392819</v>
+        <v>2.985887371239258</v>
       </c>
       <c r="S9" s="9">
-        <v>3.965517241379299</v>
+        <v>3.9655172413792994</v>
       </c>
       <c r="T9" s="9">
-        <v>1.9435866130422292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.9435866130422446</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1.1454033272504995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
-        <v>3.2406549575291965</v>
+        <v>3.2406549575291863</v>
       </c>
       <c r="C10" s="9">
-        <v>3.7247182337501927</v>
+        <v>3.7247182337502012</v>
       </c>
       <c r="D10" s="9">
-        <v>3.8911063155281296</v>
+        <v>3.891106315528138</v>
       </c>
       <c r="E10" s="9">
-        <v>4.8119600444795054</v>
+        <v>4.8119600444794868</v>
       </c>
       <c r="F10" s="9">
-        <v>2.7667573490516131</v>
+        <v>2.7667573490516193</v>
       </c>
       <c r="G10" s="9">
         <v>-6.9558664830871182</v>
       </c>
       <c r="H10" s="9">
-        <v>-0.64705287635224695</v>
+        <v>-0.64705287635225139</v>
       </c>
       <c r="I10" s="9">
-        <v>-0.21944142183533644</v>
+        <v>-0.21944142183531737</v>
       </c>
       <c r="J10" s="9">
-        <v>3.0728079931613146</v>
+        <v>3.0728079931613173</v>
       </c>
       <c r="K10" s="9">
-        <v>13.782932560115984</v>
+        <v>13.782932560115983</v>
       </c>
       <c r="L10" s="9">
-        <v>6.8429281108633937</v>
+        <v>6.8429281108633973</v>
       </c>
       <c r="M10" s="9">
-        <v>7.0302986241116745</v>
+        <v>7.0302986241116674</v>
       </c>
       <c r="N10" s="9">
-        <v>3.3503959477777041</v>
+        <v>3.3503959477776912</v>
       </c>
       <c r="O10" s="9">
-        <v>1.3514938488576465</v>
+        <v>1.3514938488576433</v>
       </c>
       <c r="P10" s="9">
-        <v>0.22771745718393466</v>
+        <v>0.22771745718393602</v>
       </c>
       <c r="Q10" s="9">
-        <v>-2.0811044882571808</v>
+        <v>-2.0811044882571719</v>
       </c>
       <c r="R10" s="9">
-        <v>0.48579292968513399</v>
+        <v>0.48579292968514803</v>
       </c>
       <c r="S10" s="9">
-        <v>1.6620714768766558</v>
+        <v>1.6620714768766545</v>
       </c>
       <c r="T10" s="9">
-        <v>2.4871066112632407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.4871066112632292</v>
+      </c>
+      <c r="U10" s="9">
+        <v>3.6662244305125622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>2.2961826203721367</v>
+        <v>2.2961826203721265</v>
       </c>
       <c r="C11" s="9">
-        <v>4.5737045660079669</v>
+        <v>4.5737045660079652</v>
       </c>
       <c r="D11" s="9">
-        <v>6.9965296136431414</v>
+        <v>6.9965296136431379</v>
       </c>
       <c r="E11" s="9">
-        <v>6.2724612260850598</v>
+        <v>6.272461226085043</v>
       </c>
       <c r="F11" s="9">
-        <v>4.2586307123970952</v>
+        <v>4.2586307123971103</v>
       </c>
       <c r="G11" s="9">
-        <v>-5.417862662839469</v>
+        <v>-5.4178626628394735</v>
       </c>
       <c r="H11" s="9">
-        <v>-1.125776048732718</v>
+        <v>-1.1257760487327091</v>
       </c>
       <c r="I11" s="9">
-        <v>-0.40813397558372638</v>
+        <v>-0.40813397558371245</v>
       </c>
       <c r="J11" s="9">
-        <v>2.2060146048418985</v>
+        <v>2.2060146048419056</v>
       </c>
       <c r="K11" s="9">
         <v>12.428142052583963</v>
       </c>
       <c r="L11" s="9">
-        <v>6.1255088688572217</v>
+        <v>6.125508868857219</v>
       </c>
       <c r="M11" s="9">
-        <v>7.0000360269481581</v>
+        <v>7.0000360269481385</v>
       </c>
       <c r="N11" s="9">
-        <v>4.2156112240318766</v>
+        <v>4.2156112240318837</v>
       </c>
       <c r="O11" s="9">
-        <v>1.8514673311184975</v>
+        <v>1.851467331118501</v>
       </c>
       <c r="P11" s="9">
-        <v>1.9000077062052083</v>
+        <v>1.9000077062052103</v>
       </c>
       <c r="Q11" s="9">
-        <v>1.0976430976431024</v>
+        <v>1.0976430976430915</v>
       </c>
       <c r="R11" s="9">
-        <v>1.8059777102330428</v>
+        <v>1.8059777102330219</v>
       </c>
       <c r="S11" s="9">
-        <v>3.0809350684652261</v>
+        <v>3.0809350684652146</v>
       </c>
       <c r="T11" s="9">
-        <v>3.4115353589674657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.4115353589674564</v>
+      </c>
+      <c r="U11" s="9">
+        <v>3.1605941517351752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="9">
-        <v>-0.8129434123722481</v>
+        <v>-0.81294341237225909</v>
       </c>
       <c r="C12" s="9">
-        <v>0.19559656953709462</v>
+        <v>0.19559656953709914</v>
       </c>
       <c r="D12" s="9">
-        <v>-0.84601363132033403</v>
+        <v>-0.84601363132033847</v>
       </c>
       <c r="E12" s="9">
-        <v>0.94598382317608998</v>
+        <v>0.94598382317608953</v>
       </c>
       <c r="F12" s="9">
-        <v>-2.8550791517024172</v>
+        <v>-2.8550791517024163</v>
       </c>
       <c r="G12" s="9">
-        <v>-10.959054960456509</v>
+        <v>-10.959054960456502</v>
       </c>
       <c r="H12" s="9">
         <v>-4.5549005894694758</v>
       </c>
       <c r="I12" s="9">
-        <v>-4.3871044515623563</v>
+        <v>-4.3871044515623439</v>
       </c>
       <c r="J12" s="9">
-        <v>-1.0812094675533905</v>
+        <v>-1.0812094675533852</v>
       </c>
       <c r="K12" s="9">
-        <v>10.226774451052918</v>
+        <v>10.22677445105294</v>
       </c>
       <c r="L12" s="9">
-        <v>3.4397211376411714</v>
+        <v>3.4397211376411874</v>
       </c>
       <c r="M12" s="9">
-        <v>3.7275584181212844</v>
+        <v>3.7275584181212813</v>
       </c>
       <c r="N12" s="9">
-        <v>5.1644760880685574</v>
+        <v>5.1644760880685707</v>
       </c>
       <c r="O12" s="9">
-        <v>2.2684849906669866</v>
+        <v>2.2684849906669604</v>
       </c>
       <c r="P12" s="9">
-        <v>2.1393080138033089</v>
+        <v>2.1393080138032832</v>
       </c>
       <c r="Q12" s="9">
-        <v>2.1387647358790631</v>
+        <v>2.1387647358790685</v>
       </c>
       <c r="R12" s="9">
-        <v>1.4562817662007697</v>
+        <v>1.4562817662007601</v>
       </c>
       <c r="S12" s="9">
-        <v>2.1284023019458931</v>
+        <v>2.1284023019458886</v>
       </c>
       <c r="T12" s="9">
-        <v>2.6295191764670842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.6295191764670918</v>
+      </c>
+      <c r="U12" s="9">
+        <v>2.1830641213900939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="9">
-        <v>4.7229501499586437</v>
+        <v>4.7229501499586553</v>
       </c>
       <c r="C13" s="9">
-        <v>5.8854466429832986</v>
+        <v>5.8854466429833057</v>
       </c>
       <c r="D13" s="9">
-        <v>5.2302516432655546</v>
+        <v>5.2302516432655279</v>
       </c>
       <c r="E13" s="9">
-        <v>5.2801422208481119</v>
+        <v>5.2801422208480941</v>
       </c>
       <c r="F13" s="9">
-        <v>0.67363773893683399</v>
+        <v>0.67363773893682755</v>
       </c>
       <c r="G13" s="9">
-        <v>-6.7091513987160738</v>
+        <v>-6.7091513987160871</v>
       </c>
       <c r="H13" s="9">
-        <v>-2.0605601397115461</v>
+        <v>-2.0605601397115216</v>
       </c>
       <c r="I13" s="9">
-        <v>-2.8375823651414245</v>
+        <v>-2.8375823651414143</v>
       </c>
       <c r="J13" s="9">
-        <v>0.33645531098489279</v>
+        <v>0.33645531098490072</v>
       </c>
       <c r="K13" s="9">
-        <v>7.4257127358206203</v>
+        <v>7.425712735820639</v>
       </c>
       <c r="L13" s="9">
-        <v>0.8189220042833163</v>
+        <v>0.81892200428332518</v>
       </c>
       <c r="M13" s="9">
-        <v>2.1072217919413645</v>
+        <v>2.1072217919413561</v>
       </c>
       <c r="N13" s="9">
-        <v>1.5146234634766511</v>
+        <v>1.5146234634766407</v>
       </c>
       <c r="O13" s="9">
-        <v>0.97252613663991139</v>
+        <v>0.97252613663990661</v>
       </c>
       <c r="P13" s="9">
-        <v>1.0518336904951173</v>
+        <v>1.0518336904951184</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.42643726007123051</v>
+        <v>0.42643726007123012</v>
       </c>
       <c r="R13" s="9">
-        <v>-1.4140833047238219</v>
+        <v>-1.4140833047238215</v>
       </c>
       <c r="S13" s="9">
-        <v>-1.7781399914797276</v>
+        <v>-1.7781399914797344</v>
       </c>
       <c r="T13" s="9">
-        <v>-0.99550863545862267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-0.99550863545862545</v>
+      </c>
+      <c r="U13" s="9">
+        <v>-0.6576644621704707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="9">
-        <v>0.32655951842307435</v>
+        <v>0.32655951842308306</v>
       </c>
       <c r="C14" s="9">
-        <v>0.42695468236714557</v>
+        <v>0.42695468236715267</v>
       </c>
       <c r="D14" s="9">
-        <v>0.10507948443571022</v>
+        <v>0.1050794844357264</v>
       </c>
       <c r="E14" s="9">
-        <v>1.4872733966998901</v>
+        <v>1.4872733966998921</v>
       </c>
       <c r="F14" s="9">
-        <v>2.3559285476185652</v>
+        <v>2.3559285476185687</v>
       </c>
       <c r="G14" s="9">
-        <v>-3.9679689395777751</v>
+        <v>-3.9679689395777777</v>
       </c>
       <c r="H14" s="9">
-        <v>-1.2596302003081732</v>
+        <v>-1.2596302003081765</v>
       </c>
       <c r="I14" s="9">
-        <v>-0.28450316963263822</v>
+        <v>-0.28450316963262062</v>
       </c>
       <c r="J14" s="9">
-        <v>-0.66761812626314232</v>
+        <v>-0.6676181262631623</v>
       </c>
       <c r="K14" s="9">
-        <v>7.0105218472361397</v>
+        <v>7.0105218472361415</v>
       </c>
       <c r="L14" s="9">
-        <v>4.563453360901967</v>
+        <v>4.5634533609019563</v>
       </c>
       <c r="M14" s="9">
-        <v>3.5597342167244355</v>
+        <v>3.5597342167244137</v>
       </c>
       <c r="N14" s="9">
-        <v>3.4868471804366186</v>
+        <v>3.4868471804366403</v>
       </c>
       <c r="O14" s="9">
-        <v>1.2552775495168642</v>
+        <v>1.2552775495168693</v>
       </c>
       <c r="P14" s="9">
-        <v>-0.17348966057587023</v>
+        <v>-0.17348966057587062</v>
       </c>
       <c r="Q14" s="9">
-        <v>-0.67397655412151924</v>
+        <v>-0.67397655412150281</v>
       </c>
       <c r="R14" s="9">
-        <v>0.29724189340290075</v>
+        <v>0.29724189340290219</v>
       </c>
       <c r="S14" s="9">
-        <v>0.7966269286020673</v>
+        <v>0.79662692860207329</v>
       </c>
       <c r="T14" s="9">
-        <v>1.5743985050221747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.5743985050221905</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1.3980546376878975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="9">
-        <v>2.0955118370200481</v>
+        <v>2.0955118370200601</v>
       </c>
       <c r="C15" s="9">
-        <v>2.5649243439582015</v>
+        <v>2.5649243439582103</v>
       </c>
       <c r="D15" s="9">
-        <v>2.6894019492877548</v>
+        <v>2.6894019492877654</v>
       </c>
       <c r="E15" s="9">
-        <v>3.6238849584743313</v>
+        <v>3.6238849584743318</v>
       </c>
       <c r="F15" s="9">
-        <v>1.6634962906600825</v>
+        <v>1.6634962906600752</v>
       </c>
       <c r="G15" s="9">
-        <v>-6.3537454903557427</v>
+        <v>-6.353745490355748</v>
       </c>
       <c r="H15" s="9">
-        <v>0.51012767232019207</v>
+        <v>0.51012767232019263</v>
       </c>
       <c r="I15" s="9">
-        <v>0.11224281553217259</v>
+        <v>0.11224281553216436</v>
       </c>
       <c r="J15" s="9">
-        <v>3.7131978033287041</v>
+        <v>3.7131978033286948</v>
       </c>
       <c r="K15" s="9">
-        <v>15.45951848893292</v>
+        <v>15.459518488932927</v>
       </c>
       <c r="L15" s="9">
-        <v>7.9474022406198452</v>
+        <v>7.9474022406198594</v>
       </c>
       <c r="M15" s="9">
-        <v>9.45488913391954</v>
+        <v>9.4548891339195631</v>
       </c>
       <c r="N15" s="9">
-        <v>6.8051020224070262</v>
+        <v>6.8051020224070484</v>
       </c>
       <c r="O15" s="9">
-        <v>4.1633825512759897</v>
+        <v>4.1633825512759888</v>
       </c>
       <c r="P15" s="9">
-        <v>4.247077599965503</v>
+        <v>4.2470775999654791</v>
       </c>
       <c r="Q15" s="9">
-        <v>3.322695065480378</v>
+        <v>3.3226950654803864</v>
       </c>
       <c r="R15" s="9">
-        <v>4.9154575091636978</v>
+        <v>4.9154575091636818</v>
       </c>
       <c r="S15" s="9">
         <v>5.039515722212875</v>
       </c>
       <c r="T15" s="9">
-        <v>4.9189824392988868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.918982439298893</v>
+      </c>
+      <c r="U15" s="9">
+        <v>5.0486677809458111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9">
-        <v>3.0717764549613764</v>
+        <v>3.0717764549613742</v>
       </c>
       <c r="C16" s="9">
-        <v>3.3609756097560815</v>
+        <v>3.3609756097560903</v>
       </c>
       <c r="D16" s="9">
-        <v>3.3333654745489634</v>
+        <v>3.3333654745489785</v>
       </c>
       <c r="E16" s="9">
-        <v>3.4474475628621186</v>
+        <v>3.4474475628621226</v>
       </c>
       <c r="F16" s="9">
-        <v>0.46679458174633703</v>
+        <v>0.46679458174632132</v>
       </c>
       <c r="G16" s="9">
-        <v>-8.0957100382273826</v>
+        <v>-8.0957100382273772</v>
       </c>
       <c r="H16" s="9">
-        <v>-2.2759084037847765</v>
+        <v>-2.275908403784781</v>
       </c>
       <c r="I16" s="9">
-        <v>-1.9820740259137117</v>
+        <v>-1.9820740259137233</v>
       </c>
       <c r="J16" s="9">
-        <v>1.7815403910837446</v>
+        <v>1.7815403910837375</v>
       </c>
       <c r="K16" s="9">
         <v>12.14259304905103</v>
       </c>
       <c r="L16" s="9">
-        <v>5.1486245189874662</v>
+        <v>5.1486245189874582</v>
       </c>
       <c r="M16" s="9">
-        <v>5.8883171769432625</v>
+        <v>5.8883171769432687</v>
       </c>
       <c r="N16" s="9">
-        <v>3.2309257755248595</v>
+        <v>3.2309257755248817</v>
       </c>
       <c r="O16" s="9">
-        <v>2.8143345147493872</v>
+        <v>2.8143345147493748</v>
       </c>
       <c r="P16" s="9">
-        <v>2.2039793314505296</v>
+        <v>2.2039793314505283</v>
       </c>
       <c r="Q16" s="9">
-        <v>2.1584858382925223</v>
+        <v>2.1584858382925391</v>
       </c>
       <c r="R16" s="9">
-        <v>1.6069523068854015</v>
+        <v>1.6069523068853886</v>
       </c>
       <c r="S16" s="9">
-        <v>0.15944559253189813</v>
+        <v>0.15944559253189625</v>
       </c>
       <c r="T16" s="9">
-        <v>1.0102535852007146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.0102535852007224</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0.46514887391925486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="9">
-        <v>-0.12163525246732035</v>
+        <v>-0.1216352524673117</v>
       </c>
       <c r="C17" s="9">
-        <v>-0.64091868282868247</v>
+        <v>-0.64091868282871822</v>
       </c>
       <c r="D17" s="9">
-        <v>0.41977566087630808</v>
+        <v>0.41977566087631268</v>
       </c>
       <c r="E17" s="9">
-        <v>0.83204657887229549</v>
+        <v>0.83204657887231104</v>
       </c>
       <c r="F17" s="9">
-        <v>-2.1722987356310255</v>
+        <v>-2.1722987356310375</v>
       </c>
       <c r="G17" s="9">
-        <v>-15.444721036826325</v>
+        <v>-15.444721036826282</v>
       </c>
       <c r="H17" s="9">
-        <v>-13.072208951717105</v>
+        <v>-13.07220895171711</v>
       </c>
       <c r="I17" s="9">
-        <v>-11.317460472284257</v>
+        <v>-11.317460472284266</v>
       </c>
       <c r="J17" s="9">
-        <v>-6.3478568898335102</v>
+        <v>-6.3478568898335208</v>
       </c>
       <c r="K17" s="9">
-        <v>12.569365748799614</v>
+        <v>12.569365748799603</v>
       </c>
       <c r="L17" s="9">
         <v>10.963455149501662</v>
       </c>
       <c r="M17" s="9">
-        <v>7.145842498900131</v>
+        <v>7.1458424989001212</v>
       </c>
       <c r="N17" s="9">
-        <v>4.239568586342167</v>
+        <v>4.2395685863421742</v>
       </c>
       <c r="O17" s="9">
-        <v>0.29474033791359011</v>
+        <v>0.29474033791357201</v>
       </c>
       <c r="P17" s="9">
-        <v>-0.76930883994722632</v>
+        <v>-0.76930883994721799</v>
       </c>
       <c r="Q17" s="9">
-        <v>1.5767268546557558</v>
+        <v>1.5767268546557573</v>
       </c>
       <c r="R17" s="9">
-        <v>2.3710292775980544</v>
+        <v>2.371029277598065</v>
       </c>
       <c r="S17" s="9">
-        <v>2.3354718543046382</v>
+        <v>2.3354718543046427</v>
       </c>
       <c r="T17" s="9">
-        <v>2.0823957779323399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.0823957779323257</v>
+      </c>
+      <c r="U17" s="9">
+        <v>1.100522470263668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="9">
-        <v>3.5860091525359392</v>
+        <v>3.5860091525359428</v>
       </c>
       <c r="C18" s="9">
-        <v>4.1802583199773853</v>
+        <v>4.1802583199773862</v>
       </c>
       <c r="D18" s="9">
-        <v>5.2534519073250667</v>
+        <v>5.2534519073250587</v>
       </c>
       <c r="E18" s="9">
-        <v>5.5467821046373471</v>
+        <v>5.5467821046373489</v>
       </c>
       <c r="F18" s="9">
-        <v>4.1199600377624845</v>
+        <v>4.1199600377624934</v>
       </c>
       <c r="G18" s="9">
         <v>-4.2333309201476963</v>
       </c>
       <c r="H18" s="9">
-        <v>3.6900664372048282</v>
+        <v>3.6900664372048309</v>
       </c>
       <c r="I18" s="9">
-        <v>4.0266152668127688</v>
+        <v>4.0266152668127608</v>
       </c>
       <c r="J18" s="9">
-        <v>5.0713921019736077</v>
+        <v>5.0713921019736228</v>
       </c>
       <c r="K18" s="9">
-        <v>12.745450078430624</v>
+        <v>12.745450078430634</v>
       </c>
       <c r="L18" s="9">
-        <v>2.6195255004889044</v>
+        <v>2.6195255004889146</v>
       </c>
       <c r="M18" s="9">
-        <v>5.1398548149652301</v>
+        <v>5.1398548149652257</v>
       </c>
       <c r="N18" s="9">
-        <v>4.5333824847728463</v>
+        <v>4.5333824847728286</v>
       </c>
       <c r="O18" s="9">
-        <v>4.631476607942095</v>
+        <v>4.6314766079420737</v>
       </c>
       <c r="P18" s="9">
-        <v>5.1663323303243152</v>
+        <v>5.1663323303243054</v>
       </c>
       <c r="Q18" s="9">
-        <v>2.5130965888515964</v>
+        <v>2.5130965888516017</v>
       </c>
       <c r="R18" s="9">
-        <v>2.8227939408511697</v>
+        <v>2.8227939408511702</v>
       </c>
       <c r="S18" s="9">
-        <v>2.9910285165011223</v>
+        <v>2.9910285165011374</v>
       </c>
       <c r="T18" s="9">
-        <v>3.9421082331248378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.9421082331248476</v>
+      </c>
+      <c r="U18" s="9">
+        <v>4.3197375031399261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="9">
-        <v>0.71842182746096983</v>
+        <v>0.7184218274609997</v>
       </c>
       <c r="C19" s="9">
-        <v>0.80841931975189607</v>
+        <v>0.80841931975187631</v>
       </c>
       <c r="D19" s="9">
-        <v>1.0945487181488252</v>
+        <v>1.0945487181488265</v>
       </c>
       <c r="E19" s="9">
-        <v>0.41549220220622829</v>
+        <v>0.41549220220620753</v>
       </c>
       <c r="F19" s="9">
-        <v>-2.4975151526962986</v>
+        <v>-2.4975151526963097</v>
       </c>
       <c r="G19" s="9">
-        <v>-10.631245382790949</v>
+        <v>-10.631245382790931</v>
       </c>
       <c r="H19" s="9">
-        <v>-5.1529479880343461</v>
+        <v>-5.1529479880343443</v>
       </c>
       <c r="I19" s="9">
-        <v>-3.9881501626924578</v>
+        <v>-3.9881501626924276</v>
       </c>
       <c r="J19" s="9">
-        <v>0.66360847100211395</v>
+        <v>0.66360847100211273</v>
       </c>
       <c r="K19" s="9">
-        <v>11.16066087297013</v>
+        <v>11.160660872970114</v>
       </c>
       <c r="L19" s="9">
-        <v>4.3035914131651136</v>
+        <v>4.3035914131651039</v>
       </c>
       <c r="M19" s="9">
-        <v>5.3384455077947415</v>
+        <v>5.3384455077947308</v>
       </c>
       <c r="N19" s="9">
-        <v>3.2346137426406867</v>
+        <v>3.2346137426407027</v>
       </c>
       <c r="O19" s="9">
-        <v>1.3248532289628219</v>
+        <v>1.3248532289628234</v>
       </c>
       <c r="P19" s="9">
-        <v>0.91299258681234352</v>
+        <v>0.91299258681235551</v>
       </c>
       <c r="Q19" s="9">
-        <v>-6.0503620613512339E-2</v>
+        <v>-6.0503620613497795E-2</v>
       </c>
       <c r="R19" s="9">
-        <v>0.2356199690328287</v>
+        <v>0.23561996903279822</v>
       </c>
       <c r="S19" s="9">
-        <v>0.93477799022733732</v>
+        <v>0.93477799022732888</v>
       </c>
       <c r="T19" s="9">
-        <v>2.0627126507887308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.0627126507887201</v>
+      </c>
+      <c r="U19" s="9">
+        <v>2.043954143163274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="9">
-        <v>4.9594492094051229E-2</v>
+        <v>4.9594492094053561E-2</v>
       </c>
       <c r="C20" s="9">
-        <v>0.50350411648636428</v>
+        <v>0.50350411648636906</v>
       </c>
       <c r="D20" s="9">
-        <v>0.88355123726205032</v>
+        <v>0.88355123726206153</v>
       </c>
       <c r="E20" s="9">
-        <v>1.0346426570318941</v>
+        <v>1.0346426570318925</v>
       </c>
       <c r="F20" s="9">
-        <v>-0.21188705836613198</v>
+        <v>-0.211887058366137</v>
       </c>
       <c r="G20" s="9">
-        <v>-10.354265597647899</v>
+        <v>-10.354265597647901</v>
       </c>
       <c r="H20" s="9">
-        <v>-1.484949062793776</v>
+        <v>-1.4849490627937754</v>
       </c>
       <c r="I20" s="9">
-        <v>-0.76110340871061444</v>
+        <v>-0.76110340871061632</v>
       </c>
       <c r="J20" s="9">
-        <v>2.8256401764929309</v>
+        <v>2.8256401764929358</v>
       </c>
       <c r="K20" s="9">
-        <v>15.13954968659308</v>
+        <v>15.139549686593083</v>
       </c>
       <c r="L20" s="9">
-        <v>4.5366024654813186</v>
+        <v>4.536602465481308</v>
       </c>
       <c r="M20" s="9">
-        <v>5.9987089190569298</v>
+        <v>5.9987089190569458</v>
       </c>
       <c r="N20" s="9">
-        <v>4.8499545316762722</v>
+        <v>4.8499545316762624</v>
       </c>
       <c r="O20" s="9">
-        <v>3.6093099958772066</v>
+        <v>3.6093099958771999</v>
       </c>
       <c r="P20" s="9">
-        <v>3.4464450385163494</v>
+        <v>3.446445038516357</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.64263964004908536</v>
+        <v>0.64263964004907026</v>
       </c>
       <c r="R20" s="9">
-        <v>0.32704538884069356</v>
+        <v>0.32704538884070233</v>
       </c>
       <c r="S20" s="9">
-        <v>0.778649978295472</v>
+        <v>0.77864997829548399</v>
       </c>
       <c r="T20" s="9">
-        <v>1.5154380183149139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.5154380183149148</v>
+      </c>
+      <c r="U20" s="9">
+        <v>2.8955401817163744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="9">
-        <v>-1.6235308085005273</v>
+        <v>-1.6235308085005229</v>
       </c>
       <c r="C21" s="9">
-        <v>-1.4674680009079168</v>
+        <v>-1.4674680009079284</v>
       </c>
       <c r="D21" s="9">
-        <v>1.0860550531179944E-2</v>
+        <v>1.0860550531168184E-2</v>
       </c>
       <c r="E21" s="9">
-        <v>1.1255342568994797</v>
+        <v>1.1255342568994966</v>
       </c>
       <c r="F21" s="9">
-        <v>1.0620003017046344</v>
+        <v>1.0620003017046193</v>
       </c>
       <c r="G21" s="9">
-        <v>-4.6602700212331234</v>
+        <v>-4.6602700212331136</v>
       </c>
       <c r="H21" s="9">
-        <v>0.24581667407076752</v>
+        <v>0.24581667407078936</v>
       </c>
       <c r="I21" s="9">
-        <v>0.80705263983682252</v>
+        <v>0.8070526398368294</v>
       </c>
       <c r="J21" s="9">
-        <v>5.4283468171278919</v>
+        <v>5.4283468171279026</v>
       </c>
       <c r="K21" s="9">
-        <v>12.003235600004217</v>
+        <v>12.003235600004214</v>
       </c>
       <c r="L21" s="9">
-        <v>3.9322855116993813</v>
+        <v>3.9322855116993707</v>
       </c>
       <c r="M21" s="9">
-        <v>3.2626776525063561</v>
+        <v>3.2626776525063335</v>
       </c>
       <c r="N21" s="9">
-        <v>0.75793328676872807</v>
+        <v>0.75793328676873573</v>
       </c>
       <c r="O21" s="9">
-        <v>-1.1818002757534025</v>
+        <v>-1.1818002757534058</v>
       </c>
       <c r="P21" s="9">
-        <v>0.33826999061940405</v>
+        <v>0.33826999061940499</v>
       </c>
       <c r="Q21" s="9">
-        <v>-1.1643571071943382</v>
+        <v>-1.1643571071943262</v>
       </c>
       <c r="R21" s="9">
-        <v>-0.45152647799978374</v>
+        <v>-0.45152647799979551</v>
       </c>
       <c r="S21" s="9">
-        <v>1.1190523648167592</v>
+        <v>1.1190523648167656</v>
       </c>
       <c r="T21" s="9">
-        <v>1.6167110506733011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.616711050673306</v>
+      </c>
+      <c r="U21" s="9">
+        <v>2.9937950951704715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="9">
-        <v>0.15710996709583203</v>
+        <v>0.15710996709582639</v>
       </c>
       <c r="C22" s="9">
-        <v>0.69844887373891573</v>
+        <v>0.69844887373890474</v>
       </c>
       <c r="D22" s="9">
-        <v>2.7248751909845114E-2</v>
+        <v>2.7248751909830334E-2</v>
       </c>
       <c r="E22" s="9">
-        <v>0.42543249058110527</v>
+        <v>0.42543249058111365</v>
       </c>
       <c r="F22" s="9">
-        <v>1.8586847141926892</v>
+        <v>1.8586847141926981</v>
       </c>
       <c r="G22" s="9">
         <v>-6.599484918250285</v>
       </c>
       <c r="H22" s="9">
-        <v>0.25003648392275174</v>
+        <v>0.2500364839227493</v>
       </c>
       <c r="I22" s="9">
-        <v>0.2578618790957275</v>
+        <v>0.25786187909572422</v>
       </c>
       <c r="J22" s="9">
-        <v>-1.2446002750711773</v>
+        <v>-1.2446002750711926</v>
       </c>
       <c r="K22" s="9">
         <v>8.6063733118870349</v>
       </c>
       <c r="L22" s="9">
-        <v>1.3712854952349447</v>
+        <v>1.3712854952349511</v>
       </c>
       <c r="M22" s="9">
-        <v>1.9106186304654875</v>
+        <v>1.9106186304654771</v>
       </c>
       <c r="N22" s="9">
-        <v>4.1417797000814005</v>
+        <v>4.1417797000814121</v>
       </c>
       <c r="O22" s="9">
-        <v>-0.24811748074205098</v>
+        <v>-0.24811748074205001</v>
       </c>
       <c r="P22" s="9">
-        <v>0.84534009860705495</v>
+        <v>0.84534009860705717</v>
       </c>
       <c r="Q22" s="9">
-        <v>-0.1385225526101147</v>
+        <v>-0.13852255261011789</v>
       </c>
       <c r="R22" s="9">
-        <v>0.68371882769531112</v>
+        <v>0.68371882769532144</v>
       </c>
       <c r="S22" s="9">
-        <v>4.9284164859002244</v>
+        <v>4.9284164859002191</v>
       </c>
       <c r="T22" s="9">
-        <v>5.7424671058877212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.7424671058877124</v>
+      </c>
+      <c r="U22" s="9">
+        <v>5.974233268726505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="9">
-        <v>1.9477741855259887</v>
+        <v>1.9477741855259891</v>
       </c>
       <c r="C23" s="9">
-        <v>2.2674998272474909</v>
+        <v>2.2674998272475118</v>
       </c>
       <c r="D23" s="9">
-        <v>3.2678834352797073</v>
+        <v>3.2678834352797024</v>
       </c>
       <c r="E23" s="9">
-        <v>3.7728980973181243</v>
+        <v>3.772898097318131</v>
       </c>
       <c r="F23" s="9">
-        <v>1.312412790414015</v>
+        <v>1.3124127904140204</v>
       </c>
       <c r="G23" s="9">
-        <v>-9.0716036989130941</v>
+        <v>-9.071603698913103</v>
       </c>
       <c r="H23" s="9">
-        <v>-0.81527979790247906</v>
+        <v>-0.81527979790247862</v>
       </c>
       <c r="I23" s="9">
-        <v>-1.713104729761731</v>
+        <v>-1.7131047297617379</v>
       </c>
       <c r="J23" s="9">
-        <v>0.92267981661980603</v>
+        <v>0.92267981661979548</v>
       </c>
       <c r="K23" s="9">
-        <v>11.438428874734587</v>
+        <v>11.438428874734603</v>
       </c>
       <c r="L23" s="9">
-        <v>1.5474858179292246</v>
+        <v>1.5474858179292301</v>
       </c>
       <c r="M23" s="9">
-        <v>2.8232729517525965</v>
+        <v>2.8232729517526045</v>
       </c>
       <c r="N23" s="9">
-        <v>1.423854331685533</v>
+        <v>1.423854331685541</v>
       </c>
       <c r="O23" s="9">
-        <v>1.4870207192188878</v>
+        <v>1.4870207192188745</v>
       </c>
       <c r="P23" s="9">
-        <v>1.8402751387094329</v>
+        <v>1.840275138709428</v>
       </c>
       <c r="Q23" s="9">
-        <v>0.85458860611063237</v>
+        <v>0.85458860611062371</v>
       </c>
       <c r="R23" s="9">
-        <v>2.7823255989009761</v>
+        <v>2.7823255989009676</v>
       </c>
       <c r="S23" s="9">
-        <v>3.2064278741458287</v>
+        <v>3.2064278741458079</v>
       </c>
       <c r="T23" s="9">
-        <v>3.8090173798662219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.8090173798662215</v>
+      </c>
+      <c r="U23" s="9">
+        <v>4.2860331869930937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="9">
-        <v>1.0433024497487422</v>
+        <v>1.0433024497487202</v>
       </c>
       <c r="C24" s="9">
-        <v>0.29146249621000042</v>
+        <v>0.29146249621000675</v>
       </c>
       <c r="D24" s="9">
-        <v>0.69096275446877842</v>
+        <v>0.69096275446879729</v>
       </c>
       <c r="E24" s="9">
-        <v>-0.16286644951138982</v>
+        <v>-0.16286644951140697</v>
       </c>
       <c r="F24" s="9">
-        <v>-3.908655574010933</v>
+        <v>-3.9086555740108997</v>
       </c>
       <c r="G24" s="9">
-        <v>-11.304746394125283</v>
+        <v>-11.304746394125273</v>
       </c>
       <c r="H24" s="9">
-        <v>-6.1226074465193925</v>
+        <v>-6.1226074465193827</v>
       </c>
       <c r="I24" s="9">
-        <v>-7.152416211622441</v>
+        <v>-7.1524162116224232</v>
       </c>
       <c r="J24" s="9">
-        <v>-3.1245261657586072</v>
+        <v>-3.1245261657586036</v>
       </c>
       <c r="K24" s="9">
-        <v>7.9594058208446654</v>
+        <v>7.9594058208446441</v>
       </c>
       <c r="L24" s="9">
-        <v>1.3265095119933978</v>
+        <v>1.3265095119933714</v>
       </c>
       <c r="M24" s="9">
-        <v>3.390882597397133</v>
+        <v>3.3908825973971353</v>
       </c>
       <c r="N24" s="9">
-        <v>0.69285028590509912</v>
+        <v>0.69285028590508257</v>
       </c>
       <c r="O24" s="9">
-        <v>-2.2864301136595073</v>
+        <v>-2.2864301136595104</v>
       </c>
       <c r="P24" s="9">
-        <v>-1.6836219299409361</v>
+        <v>-1.6836219299409241</v>
       </c>
       <c r="Q24" s="9">
-        <v>-1.3828964506675427</v>
+        <v>-1.3828964506675492</v>
       </c>
       <c r="R24" s="9">
-        <v>1.3056994818652961</v>
+        <v>1.3056994818652934</v>
       </c>
       <c r="S24" s="9">
-        <v>2.7047309339920536</v>
+        <v>2.7047309339920633</v>
       </c>
       <c r="T24" s="9">
-        <v>3.9033553703569277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.9033553703569357</v>
+      </c>
+      <c r="U24" s="9">
+        <v>4.0737568747227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="9">
-        <v>1.2873733871203938</v>
+        <v>1.2873733871204041</v>
       </c>
       <c r="C25" s="9">
-        <v>1.1174595771144047</v>
+        <v>1.1174595771144187</v>
       </c>
       <c r="D25" s="9">
-        <v>2.4270388964663212</v>
+        <v>2.4270388964663447</v>
       </c>
       <c r="E25" s="9">
-        <v>4.7005720066928722</v>
+        <v>4.7005720066928731</v>
       </c>
       <c r="F25" s="9">
-        <v>3.4108990616893324</v>
+        <v>3.4108990616893449</v>
       </c>
       <c r="G25" s="9">
-        <v>-3.0895043339547494</v>
+        <v>-3.0895043339547659</v>
       </c>
       <c r="H25" s="9">
-        <v>2.8521239823961806</v>
+        <v>2.8521239823961628</v>
       </c>
       <c r="I25" s="9">
-        <v>3.2026981826290708</v>
+        <v>3.2026981826290686</v>
       </c>
       <c r="J25" s="9">
-        <v>3.529664099073079</v>
+        <v>3.5296640990730683</v>
       </c>
       <c r="K25" s="9">
-        <v>10.962150584548882</v>
+        <v>10.962150584548885</v>
       </c>
       <c r="L25" s="9">
-        <v>3.7637963013975408</v>
+        <v>3.7637963013975275</v>
       </c>
       <c r="M25" s="9">
-        <v>2.6675669592617441</v>
+        <v>2.6675669592617486</v>
       </c>
       <c r="N25" s="9">
-        <v>3.3174501661877462</v>
+        <v>3.3174501661877591</v>
       </c>
       <c r="O25" s="9">
-        <v>2.6469589462207992</v>
+        <v>2.6469589462207961</v>
       </c>
       <c r="P25" s="9">
-        <v>0.85925401530903955</v>
+        <v>0.85925401530906687</v>
       </c>
       <c r="Q25" s="9">
-        <v>1.916027990669783</v>
+        <v>1.9160279906697759</v>
       </c>
       <c r="R25" s="9">
-        <v>1.0932677721399906</v>
+        <v>1.0932677721399808</v>
       </c>
       <c r="S25" s="9">
-        <v>1.1056553837581726</v>
+        <v>1.1056553837581919</v>
       </c>
       <c r="T25" s="9">
-        <v>3.1234645890363009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.1234645890362818</v>
+      </c>
+      <c r="U25" s="9">
+        <v>2.2344974746822879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="9">
-        <v>-1.0022493381372282</v>
+        <v>-1.0022493381372393</v>
       </c>
       <c r="C26" s="9">
-        <v>-0.30247133960093497</v>
+        <v>-0.3024713396009362</v>
       </c>
       <c r="D26" s="9">
-        <v>0.322420634920628</v>
+        <v>0.32242063492064582</v>
       </c>
       <c r="E26" s="9">
-        <v>0.84742395040632978</v>
+        <v>0.84742395040632112</v>
       </c>
       <c r="F26" s="9">
-        <v>-0.75703499653150941</v>
+        <v>-0.75703499653151263</v>
       </c>
       <c r="G26" s="9">
-        <v>-7.8781669335826656</v>
+        <v>-7.8781669335826594</v>
       </c>
       <c r="H26" s="9">
-        <v>-2.4632880098887622</v>
+        <v>-2.4632880098887533</v>
       </c>
       <c r="I26" s="9">
-        <v>-2.6204056703214533</v>
+        <v>-2.6204056703214444</v>
       </c>
       <c r="J26" s="9">
-        <v>2.4474745223575054</v>
+        <v>2.4474745223575143</v>
       </c>
       <c r="K26" s="9">
-        <v>8.7732558767316977</v>
+        <v>8.7732558767316906</v>
       </c>
       <c r="L26" s="9">
-        <v>2.8134314739339485</v>
+        <v>2.8134314739339423</v>
       </c>
       <c r="M26" s="9">
-        <v>4.1162962438417541</v>
+        <v>4.1162962438417416</v>
       </c>
       <c r="N26" s="9">
-        <v>1.2508652229803197</v>
+        <v>1.2508652229803232</v>
       </c>
       <c r="O26" s="9">
-        <v>2.1332989199491772</v>
+        <v>2.1332989199491723</v>
       </c>
       <c r="P26" s="9">
-        <v>2.1082941356289826</v>
+        <v>2.1082941356289822</v>
       </c>
       <c r="Q26" s="9">
-        <v>0.80645161290321987</v>
+        <v>0.80645161290322698</v>
       </c>
       <c r="R26" s="9">
-        <v>2.124127154646227</v>
+        <v>2.1241271546462213</v>
       </c>
       <c r="S26" s="9">
-        <v>2.0508334548282021</v>
+        <v>2.0508334548282048</v>
       </c>
       <c r="T26" s="9">
         <v>2.0763518015973501</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="9">
+        <v>2.2024096385542156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="9">
-        <v>2.5672454885937968</v>
+        <v>2.5672454885937888</v>
       </c>
       <c r="C27" s="9">
-        <v>2.7830102104887051</v>
+        <v>2.783010210488702</v>
       </c>
       <c r="D27" s="9">
-        <v>3.4998075442648253</v>
+        <v>3.4998075442648275</v>
       </c>
       <c r="E27" s="9">
-        <v>3.8435331714667003</v>
+        <v>3.8435331714667047</v>
       </c>
       <c r="F27" s="9">
-        <v>2.160593356981618</v>
+        <v>2.160593356981622</v>
       </c>
       <c r="G27" s="9">
-        <v>-7.4528674273039952</v>
+        <v>-7.4528674273040085</v>
       </c>
       <c r="H27" s="9">
-        <v>-2.0686705653746484</v>
+        <v>-2.0686705653746529</v>
       </c>
       <c r="I27" s="9">
-        <v>-4.9904811193465161E-2</v>
+        <v>-4.9904811193474001E-2</v>
       </c>
       <c r="J27" s="9">
-        <v>0.96275252525253363</v>
+        <v>0.9627525252525313</v>
       </c>
       <c r="K27" s="9">
-        <v>12.773174100251845</v>
+        <v>12.773174100251836</v>
       </c>
       <c r="L27" s="9">
-        <v>7.1526221850909533</v>
+        <v>7.1526221850909408</v>
       </c>
       <c r="M27" s="9">
-        <v>5.3628226939862484</v>
+        <v>5.3628226939862396</v>
       </c>
       <c r="N27" s="9">
-        <v>4.3982013627711458</v>
+        <v>4.3982013627711547</v>
       </c>
       <c r="O27" s="9">
-        <v>2.5538045925258857</v>
+        <v>2.5538045925258901</v>
       </c>
       <c r="P27" s="9">
-        <v>0.31098825155493837</v>
+        <v>0.31098825155495258</v>
       </c>
       <c r="Q27" s="9">
-        <v>1.2461387250772138</v>
+        <v>1.2461387250772171</v>
       </c>
       <c r="R27" s="9">
-        <v>0.88168974386077448</v>
+        <v>0.88168974386076127</v>
       </c>
       <c r="S27" s="9">
-        <v>1.2872521644451602</v>
+        <v>1.2872521644451502</v>
       </c>
       <c r="T27" s="9">
-        <v>3.0755098615932241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.0755098615932139</v>
+      </c>
+      <c r="U27" s="9">
+        <v>1.900807821655174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="9">
-        <v>-0.94368133207248972</v>
+        <v>-0.94368133207251248</v>
       </c>
       <c r="C28" s="9">
-        <v>-0.65761271969136326</v>
+        <v>-0.65761271969138246</v>
       </c>
       <c r="D28" s="9">
-        <v>0.55186559874975094</v>
+        <v>0.55186559874975649</v>
       </c>
       <c r="E28" s="9">
-        <v>1.8417636878539894</v>
+        <v>1.8417636878540111</v>
       </c>
       <c r="F28" s="9">
-        <v>0.44976330836836587</v>
+        <v>0.44976330836836698</v>
       </c>
       <c r="G28" s="9">
-        <v>-11.361296080181232</v>
+        <v>-11.361296080181219</v>
       </c>
       <c r="H28" s="9">
-        <v>-0.67706056632180456</v>
+        <v>-0.67706056632181144</v>
       </c>
       <c r="I28" s="9">
-        <v>-0.32924909963406401</v>
+        <v>-0.32924909963408</v>
       </c>
       <c r="J28" s="9">
-        <v>1.0600983677228459</v>
+        <v>1.0600983677228448</v>
       </c>
       <c r="K28" s="9">
-        <v>16.964285714285705</v>
+        <v>16.964285714285726</v>
       </c>
       <c r="L28" s="9">
-        <v>3.309600187778722</v>
+        <v>3.3096001877787282</v>
       </c>
       <c r="M28" s="9">
-        <v>3.0805595381098221</v>
+        <v>3.0805595381098176</v>
       </c>
       <c r="N28" s="9">
-        <v>3.3640981890099577</v>
+        <v>3.3640981890099622</v>
       </c>
       <c r="O28" s="9">
-        <v>1.1086201840763528</v>
+        <v>1.108620184076331</v>
       </c>
       <c r="P28" s="9">
-        <v>1.2287943047561369</v>
+        <v>1.2287943047561445</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.66818284339522471</v>
+        <v>0.6681828433952387</v>
       </c>
       <c r="R28" s="9">
-        <v>0.81036973118984679</v>
+        <v>0.81036973118984601</v>
       </c>
       <c r="S28" s="9">
-        <v>1.0936579068005192</v>
+        <v>1.0936579068005206</v>
       </c>
       <c r="T28" s="9">
-        <v>1.7796689422986989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.7796689422986887</v>
+      </c>
+      <c r="U28" s="9">
+        <v>2.1471447642341683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
-        <v>0.59913121071573006</v>
+        <v>0.59913121071571385</v>
       </c>
       <c r="C29" s="9">
-        <v>0.63737099084875404</v>
+        <v>0.6373709908487637</v>
       </c>
       <c r="D29" s="9">
-        <v>1.1692682643764973</v>
+        <v>1.1692682643764878</v>
       </c>
       <c r="E29" s="9">
-        <v>1.8505441354292651</v>
+        <v>1.8505441354292667</v>
       </c>
       <c r="F29" s="9">
-        <v>0.68523861509669648</v>
+        <v>0.68523861509670747</v>
       </c>
       <c r="G29" s="9">
-        <v>-7.5390023532146104</v>
+        <v>-7.5390023532146158</v>
       </c>
       <c r="H29" s="9">
-        <v>-2.6231514143413071</v>
+        <v>-2.6231514143412924</v>
       </c>
       <c r="I29" s="9">
-        <v>-1.9793328774409347</v>
+        <v>-1.9793328774409216</v>
       </c>
       <c r="J29" s="9">
-        <v>0.87419526598577391</v>
+        <v>0.87419526598575248</v>
       </c>
       <c r="K29" s="9">
-        <v>11.190012358868021</v>
+        <v>11.190012358868032</v>
       </c>
       <c r="L29" s="9">
-        <v>3.6009149543995531</v>
+        <v>3.6009149543995354</v>
       </c>
       <c r="M29" s="9">
-        <v>3.3632417348164885</v>
+        <v>3.3632417348164649</v>
       </c>
       <c r="N29" s="9">
-        <v>1.7841033417148109</v>
+        <v>1.7841033417148224</v>
       </c>
       <c r="O29" s="9">
-        <v>0.39467982894067544</v>
+        <v>0.39467982894066839</v>
       </c>
       <c r="P29" s="9">
         <v>2.0174166832494644</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.49683618467307467</v>
+        <v>0.49683618467308654</v>
       </c>
       <c r="R29" s="9">
-        <v>1.1823830581668398</v>
+        <v>1.1823830581668304</v>
       </c>
       <c r="S29" s="9">
-        <v>0.85005770259238156</v>
+        <v>0.85005770259238678</v>
       </c>
       <c r="T29" s="9">
-        <v>0.84804012632360271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.84804012632360992</v>
+      </c>
+      <c r="U29" s="9">
+        <v>1.8749125507205824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="9">
-        <v>-1.082415495632373</v>
+        <v>-1.0824154956323468</v>
       </c>
       <c r="C30" s="9">
-        <v>-1.0378382685431393</v>
+        <v>-1.037838268543134</v>
       </c>
       <c r="D30" s="9">
-        <v>0.86572278834882566</v>
+        <v>0.86572278834880878</v>
       </c>
       <c r="E30" s="9">
-        <v>2.5936512409670045</v>
+        <v>2.5936512409670072</v>
       </c>
       <c r="F30" s="9">
-        <v>2.5199300805286442</v>
+        <v>2.51993008052863</v>
       </c>
       <c r="G30" s="9">
-        <v>-6.122243581356499</v>
+        <v>-6.1222435813564955</v>
       </c>
       <c r="H30" s="9">
-        <v>1.1394228381264546</v>
+        <v>1.1394228381264502</v>
       </c>
       <c r="I30" s="9">
-        <v>0.10594987001521983</v>
+        <v>0.10594987001521022</v>
       </c>
       <c r="J30" s="9">
-        <v>1.8351155570886473</v>
+        <v>1.8351155570886568</v>
       </c>
       <c r="K30" s="9">
-        <v>11.309447231871001</v>
+        <v>11.309447231870998</v>
       </c>
       <c r="L30" s="9">
-        <v>1.5214316583506831</v>
+        <v>1.5214316583506833</v>
       </c>
       <c r="M30" s="9">
-        <v>1.6189253549973817</v>
+        <v>1.6189253549973894</v>
       </c>
       <c r="N30" s="9">
-        <v>-0.26033853687805303</v>
+        <v>-0.26033853687807262</v>
       </c>
       <c r="O30" s="9">
-        <v>-0.92174331808330145</v>
+        <v>-0.92174331808330701</v>
       </c>
       <c r="P30" s="9">
-        <v>2.2252106694018798E-2</v>
+        <v>2.2252106694020151E-2</v>
       </c>
       <c r="Q30" s="9">
-        <v>1.0000482183326351</v>
+        <v>1.0000482183326069</v>
       </c>
       <c r="R30" s="9">
-        <v>1.1731258126491682</v>
+        <v>1.1731258126491917</v>
       </c>
       <c r="S30" s="9">
-        <v>0.90795971536338171</v>
+        <v>0.90795971536338616</v>
       </c>
       <c r="T30" s="9">
-        <v>0.59390234465680902</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.59390234465682834</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0.12699079555436771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="9">
-        <v>1.5664572739056624</v>
+        <v>1.5664572739056601</v>
       </c>
       <c r="C31" s="9">
-        <v>1.4444290547893617</v>
+        <v>1.4444290547893688</v>
       </c>
       <c r="D31" s="9">
-        <v>2.5017792187252783</v>
+        <v>2.5017792187252814</v>
       </c>
       <c r="E31" s="9">
-        <v>3.0088040868353687</v>
+        <v>3.0088040868353643</v>
       </c>
       <c r="F31" s="9">
-        <v>0.65972256310069954</v>
+        <v>0.65972256310070509</v>
       </c>
       <c r="G31" s="9">
-        <v>-6.8891532895121674</v>
+        <v>-6.889153289512171</v>
       </c>
       <c r="H31" s="9">
-        <v>-0.85343156636034301</v>
+        <v>-0.85343156636033002</v>
       </c>
       <c r="I31" s="9">
-        <v>7.0984575243638645E-2</v>
+        <v>7.0984575243647277E-2</v>
       </c>
       <c r="J31" s="9">
-        <v>2.0959105848848654</v>
+        <v>2.0959105848848685</v>
       </c>
       <c r="K31" s="9">
-        <v>11.161153821982934</v>
+        <v>11.161153821982941</v>
       </c>
       <c r="L31" s="9">
-        <v>3.2495574532651328</v>
+        <v>3.2495574532651186</v>
       </c>
       <c r="M31" s="9">
-        <v>2.8057360863480367</v>
+        <v>2.8057360863480314</v>
       </c>
       <c r="N31" s="9">
-        <v>2.4684281920483016</v>
+        <v>2.468428192048298</v>
       </c>
       <c r="O31" s="9">
-        <v>1.6027513426929303</v>
+        <v>1.6027513426929298</v>
       </c>
       <c r="P31" s="9">
-        <v>2.2683811407847054</v>
+        <v>2.2683811407847023</v>
       </c>
       <c r="Q31" s="9">
-        <v>1.5571240757489568</v>
+        <v>1.5571240757489599</v>
       </c>
       <c r="R31" s="9">
-        <v>2.3660805847146267</v>
+        <v>2.3660805847146253</v>
       </c>
       <c r="S31" s="9">
-        <v>1.8120948521297169</v>
+        <v>1.8120948521297102</v>
       </c>
       <c r="T31" s="9">
-        <v>2.1112165286515707</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.1112165286515574</v>
+      </c>
+      <c r="U31" s="9">
+        <v>2.608360341170969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="9">
-        <v>1.2299832989488055</v>
+        <v>1.2299832989487995</v>
       </c>
       <c r="C32" s="9">
-        <v>0.9602288872123067</v>
+        <v>0.96022888721230948</v>
       </c>
       <c r="D32" s="9">
-        <v>2.6860457128276436</v>
+        <v>2.686045712827644</v>
       </c>
       <c r="E32" s="9">
-        <v>2.1108050557736973</v>
+        <v>2.1108050557737141</v>
       </c>
       <c r="F32" s="9">
-        <v>-0.52599910716018239</v>
+        <v>-0.52599910716018139</v>
       </c>
       <c r="G32" s="9">
-        <v>-5.8492415493162886</v>
+        <v>-5.8492415493162833</v>
       </c>
       <c r="H32" s="9">
-        <v>1.2911673069939034</v>
+        <v>1.2911673069939094</v>
       </c>
       <c r="I32" s="9">
-        <v>3.7325782722237744</v>
+        <v>3.7325782722237659</v>
       </c>
       <c r="J32" s="9">
-        <v>5.7170731707316857</v>
+        <v>5.7170731707316982</v>
       </c>
       <c r="K32" s="9">
         <v>12.845833505133397</v>
       </c>
       <c r="L32" s="9">
-        <v>3.0391093079209366</v>
+        <v>3.0391093079209339</v>
       </c>
       <c r="M32" s="9">
-        <v>1.385084977084305</v>
+        <v>1.3850849770842928</v>
       </c>
       <c r="N32" s="9">
-        <v>5.5001845699520153</v>
+        <v>5.5001845699519976</v>
       </c>
       <c r="O32" s="9">
-        <v>1.3729287319363432</v>
+        <v>1.3729287319363344</v>
       </c>
       <c r="P32" s="9">
-        <v>0.38917275607568208</v>
+        <v>0.38917275607567392</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.56574770562928745</v>
+        <v>0.56574770562927679</v>
       </c>
       <c r="R32" s="9">
-        <v>-1.5762771168649148</v>
+        <v>-1.5762771168649243</v>
       </c>
       <c r="S32" s="9">
-        <v>1.9796894852086599</v>
+        <v>1.9796894852086684</v>
       </c>
       <c r="T32" s="9">
-        <v>4.3017029854694266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.301702985469432</v>
+      </c>
+      <c r="U32" s="9">
+        <v>4.4046488490933067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="9">
-        <v>-0.71178209872917342</v>
+        <v>-0.71178209872916409</v>
       </c>
       <c r="C33" s="9">
-        <v>0.84294587400175636</v>
+        <v>0.84294587400177157</v>
       </c>
       <c r="D33" s="9">
-        <v>2.4156634215007844</v>
+        <v>2.4156634215007982</v>
       </c>
       <c r="E33" s="9">
-        <v>3.6244835770166199</v>
+        <v>3.6244835770166106</v>
       </c>
       <c r="F33" s="9">
-        <v>1.9948526293991762</v>
+        <v>1.9948526293991526</v>
       </c>
       <c r="G33" s="9">
-        <v>-4.8599501393166129</v>
+        <v>-4.8599501393166245</v>
       </c>
       <c r="H33" s="9">
-        <v>0.57092876846626883</v>
+        <v>0.57092876846626794</v>
       </c>
       <c r="I33" s="9">
-        <v>0.40999830345529947</v>
+        <v>0.4099983034552952</v>
       </c>
       <c r="J33" s="9">
-        <v>4.17270916719841</v>
+        <v>4.172709167198418</v>
       </c>
       <c r="K33" s="9">
-        <v>11.62011632447542</v>
+        <v>11.620116324475417</v>
       </c>
       <c r="L33" s="9">
-        <v>3.3478281645721011</v>
+        <v>3.34782816457209</v>
       </c>
       <c r="M33" s="9">
-        <v>2.1730355852177241</v>
+        <v>2.173035585217733</v>
       </c>
       <c r="N33" s="9">
-        <v>1.9220417633410718</v>
+        <v>1.9220417633410762</v>
       </c>
       <c r="O33" s="9">
-        <v>1.6644878569718882</v>
+        <v>1.6644878569718966</v>
       </c>
       <c r="P33" s="9">
-        <v>3.809021805470771</v>
+        <v>3.8090218054707923</v>
       </c>
       <c r="Q33" s="9">
-        <v>3.3358444803763012</v>
+        <v>3.3358444803762959</v>
       </c>
       <c r="R33" s="9">
-        <v>4.4399522859926428</v>
+        <v>4.4399522859926623</v>
       </c>
       <c r="S33" s="9">
-        <v>5.3599565335506698</v>
+        <v>5.3599565335506538</v>
       </c>
       <c r="T33" s="9">
-        <v>5.5372938881316989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.537293888131682</v>
+      </c>
+      <c r="U33" s="9">
+        <v>5.3805599267418902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="9">
-        <v>2.8899765493485385</v>
+        <v>2.8899765493485394</v>
       </c>
       <c r="C34" s="9">
-        <v>3.6760778143605228</v>
+        <v>3.6760778143605117</v>
       </c>
       <c r="D34" s="9">
-        <v>5.0903629051795107</v>
+        <v>5.0903629051795214</v>
       </c>
       <c r="E34" s="9">
-        <v>5.2420358983200153</v>
+        <v>5.2420358983200144</v>
       </c>
       <c r="F34" s="9">
-        <v>2.26690246739614</v>
+        <v>2.2669024673961209</v>
       </c>
       <c r="G34" s="9">
-        <v>-14.14452729793533</v>
+        <v>-14.144527297935335</v>
       </c>
       <c r="H34" s="9">
-        <v>-5.3989008557096367</v>
+        <v>-5.398900855709635</v>
       </c>
       <c r="I34" s="9">
-        <v>-5.3668125847523083</v>
+        <v>-5.366812584752318</v>
       </c>
       <c r="J34" s="9">
-        <v>-1.6997114744395907</v>
+        <v>-1.6997114744395878</v>
       </c>
       <c r="K34" s="9">
-        <v>20.468308437626153</v>
+        <v>20.46830843762616</v>
       </c>
       <c r="L34" s="9">
         <v>9.9928845047907693</v>
       </c>
       <c r="M34" s="9">
-        <v>9.9536458233155578</v>
+        <v>9.9536458233155791</v>
       </c>
       <c r="N34" s="9">
-        <v>6.3980507629494481</v>
+        <v>6.3980507629494499</v>
       </c>
       <c r="O34" s="9">
-        <v>3.9526121295558325</v>
+        <v>3.9526121295558396</v>
       </c>
       <c r="P34" s="9">
-        <v>1.9797066773007117</v>
+        <v>1.9797066773007037</v>
       </c>
       <c r="Q34" s="9">
-        <v>1.4073050414582218</v>
+        <v>1.4073050414582129</v>
       </c>
       <c r="R34" s="9">
-        <v>2.5703145032228187</v>
+        <v>2.5703145032228343</v>
       </c>
       <c r="S34" s="9">
-        <v>1.5317324783048143</v>
+        <v>1.5317324783048127</v>
       </c>
       <c r="T34" s="9">
-        <v>2.8258848269449794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.8258848269449759</v>
+      </c>
+      <c r="U34" s="9">
+        <v>3.7191330073054343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="9">
-        <v>1.6666339104970387</v>
+        <v>1.6666339104970469</v>
       </c>
       <c r="C35" s="9">
-        <v>1.9180651530108601</v>
+        <v>1.9180651530108583</v>
       </c>
       <c r="D35" s="9">
-        <v>2.2752601213077561</v>
+        <v>2.2752601213077606</v>
       </c>
       <c r="E35" s="9">
-        <v>2.7092375686227834</v>
+        <v>2.7092375686227799</v>
       </c>
       <c r="F35" s="9">
-        <v>0.77422722264106825</v>
+        <v>0.77422722264107791</v>
       </c>
       <c r="G35" s="9">
-        <v>-8.046066077119022</v>
+        <v>-8.0460660771190238</v>
       </c>
       <c r="H35" s="9">
-        <v>0.55061618869452378</v>
+        <v>0.55061618869453222</v>
       </c>
       <c r="I35" s="9">
-        <v>2.6541756715035638</v>
+        <v>2.6541756715035496</v>
       </c>
       <c r="J35" s="9">
-        <v>1.3504829319291507</v>
+        <v>1.3504829319291267</v>
       </c>
       <c r="K35" s="9">
-        <v>16.868205949271086</v>
+        <v>16.868205949271101</v>
       </c>
       <c r="L35" s="9">
-        <v>7.1408705992922421</v>
+        <v>7.1408705992922368</v>
       </c>
       <c r="M35" s="9">
-        <v>7.6918016146768275</v>
+        <v>7.6918016146768471</v>
       </c>
       <c r="N35" s="9">
-        <v>4.0220693310115747</v>
+        <v>4.0220693310115774</v>
       </c>
       <c r="O35" s="9">
-        <v>0.33979269941413809</v>
+        <v>0.33979269941413187</v>
       </c>
       <c r="P35" s="9">
-        <v>-0.20497856228573572</v>
+        <v>-0.20497856228573977</v>
       </c>
       <c r="Q35" s="9">
-        <v>-2.7185533630643266</v>
+        <v>-2.7185533630643319</v>
       </c>
       <c r="R35" s="9">
-        <v>1.3646660662135992</v>
+        <v>1.3646660662136121</v>
       </c>
       <c r="S35" s="9">
-        <v>0.26049386042919787</v>
+        <v>0.26049386042919531</v>
       </c>
       <c r="T35" s="9">
-        <v>1.2153556372768883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.215355637276889</v>
+      </c>
+      <c r="U35" s="9">
+        <v>2.061578210786954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="9">
-        <v>1.3923110016035085</v>
+        <v>1.3923110016035201</v>
       </c>
       <c r="C36" s="9">
-        <v>1.5409222126862678</v>
+        <v>1.5409222126862807</v>
       </c>
       <c r="D36" s="9">
-        <v>1.9844618383914829</v>
+        <v>1.9844618383915014</v>
       </c>
       <c r="E36" s="9">
-        <v>1.8138946066351602</v>
+        <v>1.8138946066351638</v>
       </c>
       <c r="F36" s="9">
-        <v>0.74541947926711838</v>
+        <v>0.74541947926712249</v>
       </c>
       <c r="G36" s="9">
-        <v>-9.9754120404164439</v>
+        <v>-9.9754120404164563</v>
       </c>
       <c r="H36" s="9">
-        <v>-2.7580435010033559</v>
+        <v>-2.7580435010033684</v>
       </c>
       <c r="I36" s="9">
-        <v>-1.7236797144918083</v>
+        <v>-1.7236797144918055</v>
       </c>
       <c r="J36" s="9">
-        <v>0.403932116432002</v>
+        <v>0.40393211643199545</v>
       </c>
       <c r="K36" s="9">
         <v>12.444254774351863</v>
       </c>
       <c r="L36" s="9">
-        <v>4.551722788932679</v>
+        <v>4.5517227889326914</v>
       </c>
       <c r="M36" s="9">
-        <v>5.4626231408151389</v>
+        <v>5.4626231408151211</v>
       </c>
       <c r="N36" s="9">
-        <v>3.733257066590399</v>
+        <v>3.733257066590387</v>
       </c>
       <c r="O36" s="9">
-        <v>3.8844716017989533</v>
+        <v>3.8844716017989569</v>
       </c>
       <c r="P36" s="9">
-        <v>2.6491800825062497</v>
+        <v>2.6491800825062386</v>
       </c>
       <c r="Q36" s="9">
-        <v>1.0705520348730757</v>
+        <v>1.0705520348730635</v>
       </c>
       <c r="R36" s="9">
-        <v>1.0072511051272339</v>
+        <v>1.0072511051272395</v>
       </c>
       <c r="S36" s="9">
-        <v>0.9599225485898043</v>
+        <v>0.95992254858979176</v>
       </c>
       <c r="T36" s="9">
-        <v>1.9110021597878424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.9110021597878433</v>
+      </c>
+      <c r="U36" s="9">
+        <v>2.1428895030127477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="9">
-        <v>3.2418364841640144</v>
+        <v>3.2418364841640113</v>
       </c>
       <c r="C37" s="9">
-        <v>3.9972038020524905</v>
+        <v>3.9972038020525025</v>
       </c>
       <c r="D37" s="9">
-        <v>5.7393221912720449</v>
+        <v>5.7393221912720476</v>
       </c>
       <c r="E37" s="9">
-        <v>5.1849361129791447</v>
+        <v>5.18493611297915</v>
       </c>
       <c r="F37" s="9">
-        <v>3.4815364419839074</v>
+        <v>3.4815364419838883</v>
       </c>
       <c r="G37" s="9">
-        <v>-6.9785462217824072</v>
+        <v>-6.978546221782401</v>
       </c>
       <c r="H37" s="9">
-        <v>-3.9834988932184374</v>
+        <v>-3.9834988932184299</v>
       </c>
       <c r="I37" s="9">
-        <v>-4.0388356608547102</v>
+        <v>-4.0388356608547156</v>
       </c>
       <c r="J37" s="9">
-        <v>-2.9231702608791665</v>
+        <v>-2.9231702608791612</v>
       </c>
       <c r="K37" s="9">
-        <v>6.5225463924768521</v>
+        <v>6.5225463924768379</v>
       </c>
       <c r="L37" s="9">
-        <v>2.0729534823903837</v>
+        <v>2.0729534823903699</v>
       </c>
       <c r="M37" s="9">
-        <v>3.1865987721886508</v>
+        <v>3.1865987721886526</v>
       </c>
       <c r="N37" s="9">
-        <v>1.2442474859383041</v>
+        <v>1.2442474859383146</v>
       </c>
       <c r="O37" s="9">
-        <v>0.98079858297689138</v>
+        <v>0.98079858297688649</v>
       </c>
       <c r="P37" s="9">
-        <v>1.8777940586297197</v>
+        <v>1.8777940586297361</v>
       </c>
       <c r="Q37" s="9">
-        <v>2.8686596625865861</v>
+        <v>2.8686596625865945</v>
       </c>
       <c r="R37" s="9">
-        <v>4.0993265993265915</v>
+        <v>4.0993265993265853</v>
       </c>
       <c r="S37" s="9">
-        <v>4.7947825600164062</v>
+        <v>4.7947825600164089</v>
       </c>
       <c r="T37" s="9">
-        <v>4.3386253080368986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.3386253080368959</v>
+      </c>
+      <c r="U37" s="9">
+        <v>3.1778198219201332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="9">
-        <v>1.9617070086173982</v>
+        <v>1.9617070086173973</v>
       </c>
       <c r="C38" s="9">
-        <v>2.7160614184742862</v>
+        <v>2.7160614184742826</v>
       </c>
       <c r="D38" s="9">
-        <v>2.4771977488841355</v>
+        <v>2.477197748884147</v>
       </c>
       <c r="E38" s="9">
-        <v>3.5491911441278479</v>
+        <v>3.549191144127843</v>
       </c>
       <c r="F38" s="9">
-        <v>1.4076381677627687</v>
+        <v>1.4076381677627792</v>
       </c>
       <c r="G38" s="9">
-        <v>-8.9843490475603058</v>
+        <v>-8.9843490475602934</v>
       </c>
       <c r="H38" s="9">
-        <v>-3.273271282891296</v>
+        <v>-3.2732712828912915</v>
       </c>
       <c r="I38" s="9">
-        <v>-2.9376227156018899</v>
+        <v>-2.937622715601877</v>
       </c>
       <c r="J38" s="9">
-        <v>-2.0214662267227999</v>
+        <v>-2.0214662267228065</v>
       </c>
       <c r="K38" s="9">
-        <v>9.8451431252932959</v>
+        <v>9.8451431252932924</v>
       </c>
       <c r="L38" s="9">
-        <v>4.3218215278593277</v>
+        <v>4.3218215278593384</v>
       </c>
       <c r="M38" s="9">
-        <v>6.2923052983739218</v>
+        <v>6.2923052983739156</v>
       </c>
       <c r="N38" s="9">
-        <v>6.0675853526360495</v>
+        <v>6.0675853526360521</v>
       </c>
       <c r="O38" s="9">
-        <v>2.7265132528290441</v>
+        <v>2.7265132528290361</v>
       </c>
       <c r="P38" s="9">
-        <v>1.808184215218035</v>
+        <v>1.8081842152180254</v>
       </c>
       <c r="Q38" s="9">
-        <v>-1.3312716160081988</v>
+        <v>-1.331271616008191</v>
       </c>
       <c r="R38" s="9">
-        <v>-0.88681276572448819</v>
+        <v>-0.88681276572447731</v>
       </c>
       <c r="S38" s="9">
-        <v>0.49719059588938158</v>
+        <v>0.49719059588938608</v>
       </c>
       <c r="T38" s="9">
-        <v>1.0829692713229762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.0829692713229615</v>
+      </c>
+      <c r="U38" s="9">
+        <v>2.0966440712543593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="9">
-        <v>1.2930438390264283</v>
+        <v>1.2930438390264227</v>
       </c>
       <c r="C39" s="9">
-        <v>1.3056700019619416</v>
+        <v>1.3056700019619405</v>
       </c>
       <c r="D39" s="9">
-        <v>2.6226352081409678</v>
+        <v>2.6226352081409647</v>
       </c>
       <c r="E39" s="9">
-        <v>3.325111098059939</v>
+        <v>3.3251110980599394</v>
       </c>
       <c r="F39" s="9">
-        <v>2.27124230810489</v>
+        <v>2.2712423081048745</v>
       </c>
       <c r="G39" s="9">
-        <v>-5.936807041667068</v>
+        <v>-5.9368070416670697</v>
       </c>
       <c r="H39" s="9">
-        <v>0.57142310195642343</v>
+        <v>0.57142310195644108</v>
       </c>
       <c r="I39" s="9">
-        <v>0.48503680406217653</v>
+        <v>0.48503680406218785</v>
       </c>
       <c r="J39" s="9">
-        <v>2.6727820581279951</v>
+        <v>2.6727820581280235</v>
       </c>
       <c r="K39" s="9">
-        <v>11.836524603664822</v>
+        <v>11.836524603664826</v>
       </c>
       <c r="L39" s="9">
-        <v>4.0105450496321726</v>
+        <v>4.0105450496321691</v>
       </c>
       <c r="M39" s="9">
-        <v>4.9730840663329454</v>
+        <v>4.9730840663329463</v>
       </c>
       <c r="N39" s="9">
-        <v>3.9702809380078912</v>
+        <v>3.970280938007881</v>
       </c>
       <c r="O39" s="9">
-        <v>1.5887626797253349</v>
+        <v>1.5887626797253283</v>
       </c>
       <c r="P39" s="9">
-        <v>1.4420745376851662</v>
+        <v>1.4420745376851607</v>
       </c>
       <c r="Q39" s="9">
-        <v>0.9079805291613362</v>
+        <v>0.90798052916134009</v>
       </c>
       <c r="R39" s="9">
-        <v>1.1951764180437803</v>
+        <v>1.1951764180437745</v>
       </c>
       <c r="S39" s="9">
-        <v>2.9221485266934732</v>
+        <v>2.9221485266934857</v>
       </c>
       <c r="T39" s="9">
-        <v>3.616174918593221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.6161749185932313</v>
+      </c>
+      <c r="U39" s="9">
+        <v>3.1951725304164422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="9">
-        <v>2.1311603854892982</v>
+        <v>2.1311603854893209</v>
       </c>
       <c r="C40" s="9">
-        <v>1.4082060092464748</v>
+        <v>1.408206009246487</v>
       </c>
       <c r="D40" s="9">
-        <v>0.56732296270785454</v>
+        <v>0.56732296270785409</v>
       </c>
       <c r="E40" s="9">
-        <v>0.19264667636318983</v>
+        <v>0.19264667636318827</v>
       </c>
       <c r="F40" s="9">
-        <v>-1.1037591100882329</v>
+        <v>-1.1037591100882305</v>
       </c>
       <c r="G40" s="9">
-        <v>-9.2570384329849684</v>
+        <v>-9.257038432984972</v>
       </c>
       <c r="H40" s="9">
-        <v>-6.6962204739390661</v>
+        <v>-6.6962204739390607</v>
       </c>
       <c r="I40" s="9">
-        <v>-6.1980253227837618</v>
+        <v>-6.1980253227837672</v>
       </c>
       <c r="J40" s="9">
-        <v>-4.3896479166868492</v>
+        <v>-4.3896479166868598</v>
       </c>
       <c r="K40" s="9">
-        <v>3.7182714495489897</v>
+        <v>3.7182714495489635</v>
       </c>
       <c r="L40" s="9">
-        <v>8.4624796084822429E-2</v>
+        <v>8.462479608482662E-2</v>
       </c>
       <c r="M40" s="9">
-        <v>-1.2401352874859009</v>
+        <v>-1.2401352874859011</v>
       </c>
       <c r="N40" s="9">
-        <v>-1.9259244234396904</v>
+        <v>-1.9259244234396959</v>
       </c>
       <c r="O40" s="9">
-        <v>-3.1551802598978629</v>
+        <v>-3.1551802598978491</v>
       </c>
       <c r="P40" s="9">
-        <v>-1.6462414555382343</v>
+        <v>-1.6462414555382576</v>
       </c>
       <c r="Q40" s="9">
-        <v>2.4626400996263982</v>
+        <v>2.4626400996264075</v>
       </c>
       <c r="R40" s="9">
-        <v>4.8674808434071348</v>
+        <v>4.8674808434071268</v>
       </c>
       <c r="S40" s="9">
-        <v>6.8553229259123816</v>
+        <v>6.8553229259123727</v>
       </c>
       <c r="T40" s="9">
-        <v>6.7583663914984529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.7583663914984697</v>
+      </c>
+      <c r="U40" s="9">
+        <v>5.022636808361935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="9">
-        <v>1.9940029985007666</v>
+        <v>1.9940029985007577</v>
       </c>
       <c r="C41" s="9">
-        <v>2.6967413543590029</v>
+        <v>2.6967413543590082</v>
       </c>
       <c r="D41" s="9">
-        <v>3.124132460836802</v>
+        <v>3.1241324608367851</v>
       </c>
       <c r="E41" s="9">
-        <v>3.0947871039027555</v>
+        <v>3.0947871039027679</v>
       </c>
       <c r="F41" s="9">
-        <v>0.36356509383114355</v>
+        <v>0.36356509383113195</v>
       </c>
       <c r="G41" s="9">
-        <v>-8.9021059894846406</v>
+        <v>-8.9021059894846335</v>
       </c>
       <c r="H41" s="9">
-        <v>-1.8209612444837473</v>
+        <v>-1.8209612444837409</v>
       </c>
       <c r="I41" s="9">
-        <v>-1.2430503057387083</v>
+        <v>-1.2430503057387103</v>
       </c>
       <c r="J41" s="9">
-        <v>1.2029370410873237</v>
+        <v>1.2029370410873323</v>
       </c>
       <c r="K41" s="9">
-        <v>11.828840265850214</v>
+        <v>11.828840265850186</v>
       </c>
       <c r="L41" s="9">
-        <v>3.1042823428028541</v>
+        <v>3.1042823428028701</v>
       </c>
       <c r="M41" s="9">
-        <v>3.7819034514835148</v>
+        <v>3.781903451483513</v>
       </c>
       <c r="N41" s="9">
-        <v>2.0801173201605532</v>
+        <v>2.0801173201605576</v>
       </c>
       <c r="O41" s="9">
-        <v>0.76222275220605817</v>
+        <v>0.76222275220606128</v>
       </c>
       <c r="P41" s="9">
-        <v>0.22224966045190864</v>
+        <v>0.22224966045189337</v>
       </c>
       <c r="Q41" s="9">
-        <v>-0.98874935810652953</v>
+        <v>-0.98874935810652764</v>
       </c>
       <c r="R41" s="9">
-        <v>9.6404672791193732E-2</v>
+        <v>9.6404672791206167E-2</v>
       </c>
       <c r="S41" s="9">
-        <v>0.72900098462470597</v>
+        <v>0.72900098462470941</v>
       </c>
       <c r="T41" s="9">
-        <v>1.9645378645008988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.9645378645009082</v>
+      </c>
+      <c r="U41" s="9">
+        <v>2.1594402429134401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="9">
-        <v>1.9105252211118502</v>
+        <v>1.9105252211118606</v>
       </c>
       <c r="C42" s="9">
-        <v>1.6802749899045488</v>
+        <v>1.6802749899045595</v>
       </c>
       <c r="D42" s="9">
-        <v>2.6120062013069765</v>
+        <v>2.6120062013069796</v>
       </c>
       <c r="E42" s="9">
-        <v>0.80998035821939973</v>
+        <v>0.80998035821940495</v>
       </c>
       <c r="F42" s="9">
-        <v>-1.2099595708288</v>
+        <v>-1.2099595708288111</v>
       </c>
       <c r="G42" s="9">
-        <v>-8.2179838623749131</v>
+        <v>-8.2179838623749237</v>
       </c>
       <c r="H42" s="9">
-        <v>-3.7360388616890896</v>
+        <v>-3.7360388616891034</v>
       </c>
       <c r="I42" s="9">
-        <v>-4.3019049915601606</v>
+        <v>-4.3019049915601544</v>
       </c>
       <c r="J42" s="9">
-        <v>-1.894718202477099</v>
+        <v>-1.8947182024771001</v>
       </c>
       <c r="K42" s="9">
-        <v>6.6172047323039784</v>
+        <v>6.6172047323039882</v>
       </c>
       <c r="L42" s="9">
-        <v>-0.507604128381136</v>
+        <v>-0.50760412838112412</v>
       </c>
       <c r="M42" s="9">
-        <v>1.9281358665524273</v>
+        <v>1.9281358665524304</v>
       </c>
       <c r="N42" s="9">
-        <v>-1.4941087991977966</v>
+        <v>-1.4941087991977984</v>
       </c>
       <c r="O42" s="9">
-        <v>-2.686516931787811</v>
+        <v>-2.6865169317878168</v>
       </c>
       <c r="P42" s="9">
-        <v>-0.36741947722598095</v>
+        <v>-0.3674194772259699</v>
       </c>
       <c r="Q42" s="9">
-        <v>0.54782058381458043</v>
+        <v>0.54782058381456644</v>
       </c>
       <c r="R42" s="9">
-        <v>4.7905532651295397</v>
+        <v>4.7905532651295424</v>
       </c>
       <c r="S42" s="9">
-        <v>5.881455411000009</v>
+        <v>5.8814554110000064</v>
       </c>
       <c r="T42" s="9">
-        <v>5.8332498246317295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.8332498246317179</v>
+      </c>
+      <c r="U42" s="9">
+        <v>4.5455439507484181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="9">
-        <v>1.8472572203915223</v>
+        <v>1.847257220391533</v>
       </c>
       <c r="C43" s="9">
-        <v>2.0097589255519641</v>
+        <v>2.0097589255519486</v>
       </c>
       <c r="D43" s="9">
-        <v>2.4589613454730506</v>
+        <v>2.4589613454730528</v>
       </c>
       <c r="E43" s="9">
-        <v>3.2363480005733085</v>
+        <v>3.236348000573297</v>
       </c>
       <c r="F43" s="9">
-        <v>2.5626629617646546</v>
+        <v>2.562662961764647</v>
       </c>
       <c r="G43" s="9">
-        <v>-5.3857447312337481</v>
+        <v>-5.385744731233733</v>
       </c>
       <c r="H43" s="9">
-        <v>-0.30619697735827534</v>
+        <v>-0.30619697735828394</v>
       </c>
       <c r="I43" s="9">
-        <v>-0.60439458729012596</v>
+        <v>-0.60439458729013185</v>
       </c>
       <c r="J43" s="9">
-        <v>1.8946176899025029</v>
+        <v>1.8946176899024927</v>
       </c>
       <c r="K43" s="9">
-        <v>10.406551271911853</v>
+        <v>10.406551271911841</v>
       </c>
       <c r="L43" s="9">
-        <v>3.5729380934937436</v>
+        <v>3.5729380934937525</v>
       </c>
       <c r="M43" s="9">
-        <v>5.4037191891162015</v>
+        <v>5.4037191891162077</v>
       </c>
       <c r="N43" s="9">
-        <v>3.5730871144862815</v>
+        <v>3.5730871144863059</v>
       </c>
       <c r="O43" s="9">
-        <v>1.8452359363098803</v>
+        <v>1.8452359363098891</v>
       </c>
       <c r="P43" s="9">
-        <v>2.1828041824233044</v>
+        <v>2.1828041824232987</v>
       </c>
       <c r="Q43" s="9">
-        <v>-0.16962329493249387</v>
+        <v>-0.16962329493249484</v>
       </c>
       <c r="R43" s="9">
-        <v>0.32968482131082594</v>
+        <v>0.32968482131082494</v>
       </c>
       <c r="S43" s="9">
-        <v>2.0432874224307458</v>
+        <v>2.0432874224307551</v>
       </c>
       <c r="T43" s="9">
-        <v>2.9073998473526332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.9073998473526297</v>
+      </c>
+      <c r="U43" s="9">
+        <v>3.2168141592920385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="9">
-        <v>0.52521528871977408</v>
+        <v>0.52521528871976608</v>
       </c>
       <c r="C44" s="9">
-        <v>1.0386989553656492</v>
+        <v>1.0386989553656409</v>
       </c>
       <c r="D44" s="9">
-        <v>1.2945589147363274</v>
+        <v>1.2945589147363215</v>
       </c>
       <c r="E44" s="9">
-        <v>1.6811359985809908</v>
+        <v>1.6811359985809968</v>
       </c>
       <c r="F44" s="9">
-        <v>-0.41304797862797221</v>
+        <v>-0.41304797862796722</v>
       </c>
       <c r="G44" s="9">
-        <v>-10.999823767843514</v>
+        <v>-10.999823767843511</v>
       </c>
       <c r="H44" s="9">
-        <v>-4.0157832332303176</v>
+        <v>-4.0157832332303087</v>
       </c>
       <c r="I44" s="9">
-        <v>-3.2330280564035405</v>
+        <v>-3.2330280564035401</v>
       </c>
       <c r="J44" s="9">
-        <v>-1.3294133951020575</v>
+        <v>-1.3294133951020592</v>
       </c>
       <c r="K44" s="9">
-        <v>10.942433143020576</v>
+        <v>10.942433143020578</v>
       </c>
       <c r="L44" s="9">
-        <v>2.7044814807314639</v>
+        <v>2.7044814807314537</v>
       </c>
       <c r="M44" s="9">
-        <v>3.6485092489659361</v>
+        <v>3.6485092489659241</v>
       </c>
       <c r="N44" s="9">
-        <v>2.0505823694057854</v>
+        <v>2.0505823694057783</v>
       </c>
       <c r="O44" s="9">
-        <v>1.1789786812097161</v>
+        <v>1.1789786812097125</v>
       </c>
       <c r="P44" s="9">
-        <v>1.2786765648260277</v>
+        <v>1.2786765648260434</v>
       </c>
       <c r="Q44" s="9">
-        <v>-0.41452479418698696</v>
+        <v>-0.41452479418698651</v>
       </c>
       <c r="R44" s="9">
-        <v>1.5119491167189285</v>
+        <v>1.5119491167189381</v>
       </c>
       <c r="S44" s="9">
-        <v>1.7787316614235629</v>
+        <v>1.7787316614235722</v>
       </c>
       <c r="T44" s="9">
-        <v>2.4822349849119081</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.482234984911897</v>
+      </c>
+      <c r="U44" s="9">
+        <v>3.1039267244306847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="9">
-        <v>1.4147453458377672</v>
+        <v>1.4147453458377617</v>
       </c>
       <c r="C45" s="9">
-        <v>1.4867582467058236</v>
+        <v>1.4867582467058285</v>
       </c>
       <c r="D45" s="9">
-        <v>2.2173327707115038</v>
+        <v>2.2173327707115047</v>
       </c>
       <c r="E45" s="9">
-        <v>2.5517275764072189</v>
+        <v>2.5517275764072527</v>
       </c>
       <c r="F45" s="9">
-        <v>0.13605039779950831</v>
+        <v>0.13605039779952238</v>
       </c>
       <c r="G45" s="9">
-        <v>-9.4770049785576873</v>
+        <v>-9.4770049785576944</v>
       </c>
       <c r="H45" s="9">
-        <v>-1.3151040386864672</v>
+        <v>-1.3151040386864712</v>
       </c>
       <c r="I45" s="9">
-        <v>-0.81288164598808332</v>
+        <v>-0.81288164598810131</v>
       </c>
       <c r="J45" s="9">
-        <v>-1.1991611778952698</v>
+        <v>-1.1991611778952789</v>
       </c>
       <c r="K45" s="9">
-        <v>12.673433381978166</v>
+        <v>12.673433381978182</v>
       </c>
       <c r="L45" s="9">
-        <v>3.0118621953527414</v>
+        <v>3.0118621953527351</v>
       </c>
       <c r="M45" s="9">
-        <v>4.3173084463963685</v>
+        <v>4.3173084463963649</v>
       </c>
       <c r="N45" s="9">
-        <v>3.8075593156158942</v>
+        <v>3.8075593156158885</v>
       </c>
       <c r="O45" s="9">
-        <v>2.8987328313631475</v>
+        <v>2.898732831363136</v>
       </c>
       <c r="P45" s="9">
-        <v>3.2051591944076376</v>
+        <v>3.2051591944076394</v>
       </c>
       <c r="Q45" s="9">
-        <v>-0.48208848626095052</v>
+        <v>-0.48208848626094924</v>
       </c>
       <c r="R45" s="9">
-        <v>2.3374354445446937</v>
+        <v>2.3374354445447056</v>
       </c>
       <c r="S45" s="9">
-        <v>0.3052847132202367</v>
+        <v>0.30528471322023015</v>
       </c>
       <c r="T45" s="9">
-        <v>1.0024170429634065</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.0024170429634147</v>
+      </c>
+      <c r="U45" s="9">
+        <v>2.6921878393563694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="9">
-        <v>2.3202287908170245</v>
+        <v>2.3202287908170254</v>
       </c>
       <c r="C46" s="9">
-        <v>1.6202083819298643</v>
+        <v>1.6202083819298638</v>
       </c>
       <c r="D46" s="9">
-        <v>2.7873348775452982</v>
+        <v>2.7873348775452964</v>
       </c>
       <c r="E46" s="9">
-        <v>3.3616603075500007</v>
+        <v>3.3616603075500171</v>
       </c>
       <c r="F46" s="9">
-        <v>0.15889577011802036</v>
+        <v>0.15889577011802322</v>
       </c>
       <c r="G46" s="9">
-        <v>-6.4769738415188236</v>
+        <v>-6.4769738415188254</v>
       </c>
       <c r="H46" s="9">
-        <v>0.44975814891993005</v>
+        <v>0.44975814891992627</v>
       </c>
       <c r="I46" s="9">
-        <v>-0.58540041201748194</v>
+        <v>-0.58540041201750004</v>
       </c>
       <c r="J46" s="9">
-        <v>2.615709548247759</v>
+        <v>2.6157095482477386</v>
       </c>
       <c r="K46" s="9">
-        <v>11.077590174161152</v>
+        <v>11.077590174161164</v>
       </c>
       <c r="L46" s="9">
-        <v>2.2969192933711065</v>
+        <v>2.2969192933711255</v>
       </c>
       <c r="M46" s="9">
-        <v>3.562152481504739</v>
+        <v>3.5621524815047296</v>
       </c>
       <c r="N46" s="9">
-        <v>2.7176038892096752</v>
+        <v>2.7176038892096979</v>
       </c>
       <c r="O46" s="9">
-        <v>1.9177829949822769</v>
+        <v>1.9177829949822722</v>
       </c>
       <c r="P46" s="9">
-        <v>2.5839366495077152</v>
+        <v>2.5839366495077116</v>
       </c>
       <c r="Q46" s="9">
-        <v>2.6129943502825004</v>
+        <v>2.6129943502825057</v>
       </c>
       <c r="R46" s="9">
-        <v>3.3592644978783603</v>
+        <v>3.3592644978783541</v>
       </c>
       <c r="S46" s="9">
-        <v>3.4535402626967118</v>
+        <v>3.4535402626967113</v>
       </c>
       <c r="T46" s="9">
-        <v>3.8668300580516601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.866830058051665</v>
+      </c>
+      <c r="U46" s="9">
+        <v>3.7535073323098054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="9">
-        <v>-2.3419798421751712</v>
+        <v>-2.341979842175157</v>
       </c>
       <c r="C47" s="9">
-        <v>-0.17221470096361055</v>
+        <v>-0.17221470096361477</v>
       </c>
       <c r="D47" s="9">
-        <v>1.8099773378457915</v>
+        <v>1.8099773378458015</v>
       </c>
       <c r="E47" s="9">
-        <v>4.0517856604380382</v>
+        <v>4.051785660438048</v>
       </c>
       <c r="F47" s="9">
-        <v>1.7171030261815745</v>
+        <v>1.717103026181551</v>
       </c>
       <c r="G47" s="9">
-        <v>-3.0643279518961339</v>
+        <v>-3.0643279518961526</v>
       </c>
       <c r="H47" s="9">
-        <v>2.1719945087271992</v>
+        <v>2.1719945087272006</v>
       </c>
       <c r="I47" s="9">
-        <v>1.654784675128967</v>
+        <v>1.6547846751289608</v>
       </c>
       <c r="J47" s="9">
-        <v>5.1990443511517901</v>
+        <v>5.1990443511517892</v>
       </c>
       <c r="K47" s="9">
-        <v>10.4546857319206</v>
+        <v>10.454685731920597</v>
       </c>
       <c r="L47" s="9">
-        <v>2.1392581217908697</v>
+        <v>2.1392581217908768</v>
       </c>
       <c r="M47" s="9">
-        <v>1.2296756659159394</v>
+        <v>1.2296756659159576</v>
       </c>
       <c r="N47" s="9">
-        <v>0.35420891784035918</v>
+        <v>0.35420891784037023</v>
       </c>
       <c r="O47" s="9">
-        <v>-0.63330632468124926</v>
+        <v>-0.63330632468125103</v>
       </c>
       <c r="P47" s="9">
-        <v>-9.8661955949775934E-2</v>
+        <v>-9.8661955949802399E-2</v>
       </c>
       <c r="Q47" s="9">
-        <v>-0.93686927951186083</v>
+        <v>-0.93686927951187848</v>
       </c>
       <c r="R47" s="9">
-        <v>0.62768909832553998</v>
+        <v>0.62768909832554487</v>
       </c>
       <c r="S47" s="9">
-        <v>1.5249360314172351</v>
+        <v>1.5249360314172407</v>
       </c>
       <c r="T47" s="9">
-        <v>3.1922798370940186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.1922798370940306</v>
+      </c>
+      <c r="U47" s="9">
+        <v>4.5163796942962611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="9">
-        <v>1.3166181217035253</v>
+        <v>1.3166181217035433</v>
       </c>
       <c r="C48" s="9">
-        <v>1.6345265475418183</v>
+        <v>1.6345265475418114</v>
       </c>
       <c r="D48" s="9">
-        <v>2.3713755735624216</v>
+        <v>2.3713755735624154</v>
       </c>
       <c r="E48" s="9">
-        <v>3.1993413120827952</v>
+        <v>3.1993413120827903</v>
       </c>
       <c r="F48" s="9">
-        <v>2.9282647967211282</v>
+        <v>2.9282647967211055</v>
       </c>
       <c r="G48" s="9">
-        <v>-8.6726947439679023</v>
+        <v>-8.6726947439678899</v>
       </c>
       <c r="H48" s="9">
-        <v>0.2956350909316306</v>
+        <v>0.29563509093165086</v>
       </c>
       <c r="I48" s="9">
-        <v>1.5833214607968835</v>
+        <v>1.5833214607968948</v>
       </c>
       <c r="J48" s="9">
-        <v>3.8480047557488808</v>
+        <v>3.8480047557489012</v>
       </c>
       <c r="K48" s="9">
-        <v>17.223122293168998</v>
+        <v>17.223122293168981</v>
       </c>
       <c r="L48" s="9">
-        <v>5.9846532723521237</v>
+        <v>5.9846532723521033</v>
       </c>
       <c r="M48" s="9">
-        <v>6.6843069788316267</v>
+        <v>6.6843069788316214</v>
       </c>
       <c r="N48" s="9">
-        <v>4.3569124528644751</v>
+        <v>4.3569124528644707</v>
       </c>
       <c r="O48" s="9">
-        <v>3.8626221748477887</v>
+        <v>3.8626221748477985</v>
       </c>
       <c r="P48" s="9">
-        <v>4.1843481693476736</v>
+        <v>4.1843481693476781</v>
       </c>
       <c r="Q48" s="9">
-        <v>3.2760449075818832</v>
+        <v>3.2760449075818823</v>
       </c>
       <c r="R48" s="9">
-        <v>3.2442316064431855</v>
+        <v>3.244231606443182</v>
       </c>
       <c r="S48" s="9">
-        <v>3.3145471307554386</v>
+        <v>3.314547130755443</v>
       </c>
       <c r="T48" s="9">
-        <v>3.5865905431122904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.5865905431123073</v>
+      </c>
+      <c r="U48" s="9">
+        <v>2.7800643250536687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="9">
-        <v>2.8229901064786671</v>
+        <v>2.8229901064786542</v>
       </c>
       <c r="C49" s="9">
-        <v>2.4878809029802711</v>
+        <v>2.4878809029802742</v>
       </c>
       <c r="D49" s="9">
-        <v>3.7605846630489643</v>
+        <v>3.7605846630489768</v>
       </c>
       <c r="E49" s="9">
-        <v>3.8224146242331947</v>
+        <v>3.8224146242332164</v>
       </c>
       <c r="F49" s="9">
-        <v>1.5481565086531384</v>
+        <v>1.5481565086531452</v>
       </c>
       <c r="G49" s="9">
-        <v>-5.9884876246629846</v>
+        <v>-5.988487624662981</v>
       </c>
       <c r="H49" s="9">
-        <v>-1.3921963729620872</v>
+        <v>-1.392196372962105</v>
       </c>
       <c r="I49" s="9">
-        <v>-0.98050818910970328</v>
+        <v>-0.98050818910970694</v>
       </c>
       <c r="J49" s="9">
-        <v>2.3312894800214883</v>
+        <v>2.3312894800214754</v>
       </c>
       <c r="K49" s="9">
-        <v>11.212662498759583</v>
+        <v>11.212662498759565</v>
       </c>
       <c r="L49" s="9">
-        <v>4.7845067806056276</v>
+        <v>4.784506780605625</v>
       </c>
       <c r="M49" s="9">
-        <v>4.9023573976683368</v>
+        <v>4.9023573976683448</v>
       </c>
       <c r="N49" s="9">
-        <v>3.4693120208538728</v>
+        <v>3.4693120208539092</v>
       </c>
       <c r="O49" s="9">
-        <v>1.5419072178746784</v>
+        <v>1.5419072178746909</v>
       </c>
       <c r="P49" s="9">
-        <v>2.380087048248833</v>
+        <v>2.3800870482488392</v>
       </c>
       <c r="Q49" s="9">
-        <v>3.3988921609872453</v>
+        <v>3.3988921609872396</v>
       </c>
       <c r="R49" s="9">
-        <v>4.3992092095594648</v>
+        <v>4.3992092095594577</v>
       </c>
       <c r="S49" s="9">
-        <v>6.1363656335404357</v>
+        <v>6.1363656335404322</v>
       </c>
       <c r="T49" s="9">
-        <v>6.5335596037958004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.5335596037958013</v>
+      </c>
+      <c r="U49" s="9">
+        <v>5.5724142607693183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="9">
-        <v>6.5300699031369618</v>
+        <v>6.5300699031369795</v>
       </c>
       <c r="C50" s="9">
-        <v>4.9392558845861769</v>
+        <v>4.9392558845861805</v>
       </c>
       <c r="D50" s="9">
-        <v>6.0793381297663434</v>
+        <v>6.0793381297663247</v>
       </c>
       <c r="E50" s="9">
         <v>5.7268845413189684</v>
       </c>
       <c r="F50" s="9">
-        <v>1.4849963846710192</v>
+        <v>1.4849963846710059</v>
       </c>
       <c r="G50" s="9">
-        <v>-2.0549184182916624</v>
+        <v>-2.0549184182916629</v>
       </c>
       <c r="H50" s="9">
-        <v>1.5766482739105798</v>
+        <v>1.5766482739105876</v>
       </c>
       <c r="I50" s="9">
-        <v>3.1870056049767306</v>
+        <v>3.1870056049767301</v>
       </c>
       <c r="J50" s="9">
-        <v>7.0349028793316801</v>
+        <v>7.0349028793316837</v>
       </c>
       <c r="K50" s="9">
-        <v>11.998116204336423</v>
+        <v>11.998116204336428</v>
       </c>
       <c r="L50" s="9">
-        <v>6.3915174413037281</v>
+        <v>6.3915174413037166</v>
       </c>
       <c r="M50" s="9">
-        <v>6.0969890254197541</v>
+        <v>6.0969890254197558</v>
       </c>
       <c r="N50" s="9">
-        <v>3.3008270789302823</v>
+        <v>3.3008270789302974</v>
       </c>
       <c r="O50" s="9">
-        <v>2.0695057096920459</v>
+        <v>2.0695057096920566</v>
       </c>
       <c r="P50" s="9">
-        <v>1.5816647983438767</v>
+        <v>1.5816647983438792</v>
       </c>
       <c r="Q50" s="9">
-        <v>0.57064321939222251</v>
+        <v>0.57064321939222673</v>
       </c>
       <c r="R50" s="9">
-        <v>1.0422959508332834</v>
+        <v>1.0422959508332528</v>
       </c>
       <c r="S50" s="9">
-        <v>1.943535683993693</v>
+        <v>1.9435356839936733</v>
       </c>
       <c r="T50" s="9">
-        <v>3.1696550835306745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.1696550835306816</v>
+      </c>
+      <c r="U50" s="9">
+        <v>3.710511384069489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="9">
-        <v>0.65718392228776179</v>
+        <v>0.65718392228774214</v>
       </c>
       <c r="C51" s="9">
-        <v>-9.2984608079761819E-2</v>
+        <v>-9.2984608079772491E-2</v>
       </c>
       <c r="D51" s="9">
-        <v>1.7407989183385479</v>
+        <v>1.7407989183385317</v>
       </c>
       <c r="E51" s="9">
-        <v>2.3314668313970968</v>
+        <v>2.3314668313970857</v>
       </c>
       <c r="F51" s="9">
-        <v>1.007405364950545</v>
+        <v>1.0074053649505541</v>
       </c>
       <c r="G51" s="9">
         <v>-9.4972177666884559</v>
       </c>
       <c r="H51" s="9">
-        <v>-1.6426121539619114</v>
+        <v>-1.6426121539619059</v>
       </c>
       <c r="I51" s="9">
-        <v>-0.78086966681596659</v>
+        <v>-0.78086966681597036</v>
       </c>
       <c r="J51" s="9">
-        <v>0.22423492020162969</v>
+        <v>0.22423492020163416</v>
       </c>
       <c r="K51" s="9">
-        <v>12.987112443384454</v>
+        <v>12.98711244338447</v>
       </c>
       <c r="L51" s="9">
-        <v>3.6242250834525325</v>
+        <v>3.6242250834525387</v>
       </c>
       <c r="M51" s="9">
-        <v>3.2589495996231723</v>
+        <v>3.2589495996231701</v>
       </c>
       <c r="N51" s="9">
-        <v>3.2003579731714686</v>
+        <v>3.2003579731714655</v>
       </c>
       <c r="O51" s="9">
-        <v>2.9377305692458289</v>
+        <v>2.9377305692458169</v>
       </c>
       <c r="P51" s="9">
-        <v>1.0057140665746349</v>
+        <v>1.0057140665746311</v>
       </c>
       <c r="Q51" s="9">
-        <v>1.7248752672844032</v>
+        <v>1.7248752672844074</v>
       </c>
       <c r="R51" s="9">
-        <v>1.0585252283417061</v>
+        <v>1.0585252283416957</v>
       </c>
       <c r="S51" s="9">
-        <v>0.37907648314848447</v>
+        <v>0.3790764831484878</v>
       </c>
       <c r="T51" s="9">
-        <v>2.272360540278874</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.2723605402788745</v>
+      </c>
+      <c r="U51" s="9">
+        <v>1.6591928251121033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="9">
-        <v>1.8234183934258883</v>
+        <v>1.8234183934258601</v>
       </c>
       <c r="C52" s="9">
-        <v>1.8604696634925437</v>
+        <v>1.8604696634925646</v>
       </c>
       <c r="D52" s="9">
-        <v>2.8956497235529026</v>
+        <v>2.8956497235529164</v>
       </c>
       <c r="E52" s="9">
-        <v>3.4904183640729984</v>
+        <v>3.4904183640730055</v>
       </c>
       <c r="F52" s="9">
-        <v>1.5088765964841007</v>
+        <v>1.5088765964841118</v>
       </c>
       <c r="G52" s="9">
-        <v>-5.3498929829444615</v>
+        <v>-5.3498929829444579</v>
       </c>
       <c r="H52" s="9">
-        <v>-1.185158603495974</v>
+        <v>-1.1851586034959825</v>
       </c>
       <c r="I52" s="9">
-        <v>-0.33539077252615013</v>
+        <v>-0.33539077252613253</v>
       </c>
       <c r="J52" s="9">
-        <v>2.3328578221588203</v>
+        <v>2.3328578221588194</v>
       </c>
       <c r="K52" s="9">
-        <v>10.166810322973198</v>
+        <v>10.166810322973182</v>
       </c>
       <c r="L52" s="9">
-        <v>4.5853322884611671</v>
+        <v>4.585332288461176</v>
       </c>
       <c r="M52" s="9">
-        <v>4.9836924759157908</v>
+        <v>4.9836924759157588</v>
       </c>
       <c r="N52" s="9">
-        <v>2.9618133323420488</v>
+        <v>2.9618133323420532</v>
       </c>
       <c r="O52" s="9">
-        <v>2.383998674533558</v>
+        <v>2.3839986745335588</v>
       </c>
       <c r="P52" s="9">
-        <v>2.8528089476954621</v>
+        <v>2.852808947695447</v>
       </c>
       <c r="Q52" s="9">
-        <v>1.8227038869384846</v>
+        <v>1.8227038869384944</v>
       </c>
       <c r="R52" s="9">
-        <v>2.5047386948280388</v>
+        <v>2.5047386948280344</v>
       </c>
       <c r="S52" s="9">
-        <v>2.440866305256626</v>
+        <v>2.4408663052566255</v>
       </c>
       <c r="T52" s="9">
-        <v>2.2832672933065514</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.2832672933065479</v>
+      </c>
+      <c r="U52" s="9">
+        <v>2.3667804202710601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="9">
-        <v>4.7827827446196034</v>
+        <v>4.7827827446196212</v>
       </c>
       <c r="C53" s="9">
-        <v>4.5639625511332156</v>
+        <v>4.563962551133212</v>
       </c>
       <c r="D53" s="9">
-        <v>4.4317675040879925</v>
+        <v>4.4317675040879889</v>
       </c>
       <c r="E53" s="9">
-        <v>5.5411857414360632</v>
+        <v>5.5411857414360712</v>
       </c>
       <c r="F53" s="9">
-        <v>2.2440328918643608</v>
+        <v>2.2440328918643448</v>
       </c>
       <c r="G53" s="9">
-        <v>-4.0250447227191595</v>
+        <v>-4.0250447227191346</v>
       </c>
       <c r="H53" s="9">
-        <v>2.1520969377768955</v>
+        <v>2.1520969377769039</v>
       </c>
       <c r="I53" s="9">
-        <v>0.60171114351469479</v>
+        <v>0.60171114351468691</v>
       </c>
       <c r="J53" s="9">
-        <v>3.7970516801152892</v>
+        <v>3.797051680115294</v>
       </c>
       <c r="K53" s="9">
-        <v>12.154160430022522</v>
+        <v>12.154160430022493</v>
       </c>
       <c r="L53" s="9">
-        <v>4.1812908788462178</v>
+        <v>4.1812908788461982</v>
       </c>
       <c r="M53" s="9">
-        <v>7.58685724763592</v>
+        <v>7.5868572476359137</v>
       </c>
       <c r="N53" s="9">
-        <v>2.0304960101482088</v>
+        <v>2.0304960101482066</v>
       </c>
       <c r="O53" s="9">
-        <v>1.0097533952223359</v>
+        <v>1.0097533952223443</v>
       </c>
       <c r="P53" s="9">
-        <v>2.4134356556486298</v>
+        <v>2.4134356556486285</v>
       </c>
       <c r="Q53" s="9">
-        <v>1.1151149201402373</v>
+        <v>1.1151149201402548</v>
       </c>
       <c r="R53" s="9">
         <v>5.5964381720430012</v>
       </c>
       <c r="S53" s="9">
-        <v>5.2027156164565591</v>
+        <v>5.2027156164565715</v>
       </c>
       <c r="T53" s="9">
-        <v>4.6421079267645551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.6421079267645702</v>
+      </c>
+      <c r="U53" s="9">
+        <v>3.9312946464403233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="9">
-        <v>0.34582302925209324</v>
+        <v>0.34582302925210068</v>
       </c>
       <c r="C54" s="9">
-        <v>-0.64900366279013777</v>
+        <v>-0.64900366279013044</v>
       </c>
       <c r="D54" s="9">
-        <v>-1.0107129805935564</v>
+        <v>-1.0107129805935469</v>
       </c>
       <c r="E54" s="9">
-        <v>-1.8651487770229296</v>
+        <v>-1.8651487770229058</v>
       </c>
       <c r="F54" s="9">
-        <v>-1.0869138323776613</v>
+        <v>-1.0869138323776728</v>
       </c>
       <c r="G54" s="9">
-        <v>-8.638848414320492</v>
+        <v>-8.638848414320508</v>
       </c>
       <c r="H54" s="9">
-        <v>-3.2136785349978108</v>
+        <v>-3.213678534997829</v>
       </c>
       <c r="I54" s="9">
-        <v>-1.8021211852639611</v>
+        <v>-1.8021211852639782</v>
       </c>
       <c r="J54" s="9">
-        <v>-0.66407917332564215</v>
+        <v>-0.66407917332564292</v>
       </c>
       <c r="K54" s="9">
-        <v>7.0976719293551023</v>
+        <v>7.0976719293551112</v>
       </c>
       <c r="L54" s="9">
-        <v>0.97563913396971569</v>
+        <v>0.97563913396972368</v>
       </c>
       <c r="M54" s="9">
-        <v>1.412998786565979</v>
+        <v>1.412998786566005</v>
       </c>
       <c r="N54" s="9">
-        <v>-0.3527460228635575</v>
+        <v>-0.35274602286355095</v>
       </c>
       <c r="O54" s="9">
-        <v>0.22187574958022935</v>
+        <v>0.22187574958023679</v>
       </c>
       <c r="P54" s="9">
-        <v>1.2564737224027949</v>
+        <v>1.2564737224027942</v>
       </c>
       <c r="Q54" s="9">
-        <v>4.167078693906614</v>
+        <v>4.1670786939066122</v>
       </c>
       <c r="R54" s="9">
-        <v>5.3981688544811002</v>
+        <v>5.3981688544811046</v>
       </c>
       <c r="S54" s="9">
-        <v>5.7430343644667854</v>
+        <v>5.7430343644667738</v>
       </c>
       <c r="T54" s="9">
-        <v>5.0577736764085159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.0577736764085151</v>
+      </c>
+      <c r="U54" s="9">
+        <v>2.7672299221568086</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="9">
-        <v>0.59927734202871752</v>
+        <v>0.59927734202874061</v>
       </c>
       <c r="C55" s="9">
-        <v>1.7664299624289252</v>
+        <v>1.7664299624289261</v>
       </c>
       <c r="D55" s="9">
-        <v>1.5188709693193738</v>
+        <v>1.5188709693193965</v>
       </c>
       <c r="E55" s="9">
-        <v>2.0333762233399724</v>
+        <v>2.0333762233399648</v>
       </c>
       <c r="F55" s="9">
-        <v>-0.70764588504405546</v>
+        <v>-0.70764588504405579</v>
       </c>
       <c r="G55" s="9">
-        <v>-8.6682130086015157</v>
+        <v>-8.6682130086015192</v>
       </c>
       <c r="H55" s="9">
-        <v>-1.9238921001926588</v>
+        <v>-1.9238921001926779</v>
       </c>
       <c r="I55" s="9">
-        <v>-1.5629478189426291</v>
+        <v>-1.5629478189426325</v>
       </c>
       <c r="J55" s="9">
-        <v>0.77739000862678209</v>
+        <v>0.77739000862678265</v>
       </c>
       <c r="K55" s="9">
-        <v>9.7776743103247501</v>
+        <v>9.777674310324743</v>
       </c>
       <c r="L55" s="9">
-        <v>1.9527911751127063</v>
+        <v>1.9527911751127163</v>
       </c>
       <c r="M55" s="9">
-        <v>2.2564490770395427</v>
+        <v>2.2564490770395431</v>
       </c>
       <c r="N55" s="9">
-        <v>1.6536804116691604</v>
+        <v>1.6536804116691426</v>
       </c>
       <c r="O55" s="9">
-        <v>3.8557561619780231E-3</v>
+        <v>3.855756161991845E-3</v>
       </c>
       <c r="P55" s="9">
-        <v>0.68695744332361319</v>
+        <v>0.68695744332360786</v>
       </c>
       <c r="Q55" s="9">
-        <v>-0.91398308704192854</v>
+        <v>-0.91398308704193287</v>
       </c>
       <c r="R55" s="9">
-        <v>-0.82487248925848256</v>
+        <v>-0.82487248925848689</v>
       </c>
       <c r="S55" s="9">
-        <v>-0.13301845872090071</v>
+        <v>-0.1330184587209079</v>
       </c>
       <c r="T55" s="9">
-        <v>0.36075174156012368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.36075174156012413</v>
+      </c>
+      <c r="U55" s="9">
+        <v>1.5172413793103339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="9">
-        <v>0.95539814897835873</v>
+        <v>0.95539814897835751</v>
       </c>
       <c r="C56" s="9">
-        <v>0.88378083820469344</v>
+        <v>0.88378083820470121</v>
       </c>
       <c r="D56" s="9">
         <v>2.4647016335698257</v>
       </c>
       <c r="E56" s="9">
-        <v>1.8092899892526999</v>
+        <v>1.8092899892527115</v>
       </c>
       <c r="F56" s="9">
-        <v>5.4274887502971568E-2</v>
+        <v>5.4274887502977792E-2</v>
       </c>
       <c r="G56" s="9">
-        <v>-9.1060870931625946</v>
+        <v>-9.106087093162575</v>
       </c>
       <c r="H56" s="9">
-        <v>-7.4837289248536933</v>
+        <v>-7.4837289248537049</v>
       </c>
       <c r="I56" s="9">
-        <v>-8.0421476718059868</v>
+        <v>-8.0421476718059939</v>
       </c>
       <c r="J56" s="9">
-        <v>-4.0901066169581171</v>
+        <v>-4.0901066169581277</v>
       </c>
       <c r="K56" s="9">
-        <v>6.0896812533765701</v>
+        <v>6.0896812533765425</v>
       </c>
       <c r="L56" s="9">
-        <v>2.5102287909151375</v>
+        <v>2.5102287909151557</v>
       </c>
       <c r="M56" s="9">
-        <v>4.2768978009941971</v>
+        <v>4.2768978009941954</v>
       </c>
       <c r="N56" s="9">
-        <v>2.7826909629385752</v>
+        <v>2.7826909629385912</v>
       </c>
       <c r="O56" s="9">
-        <v>-1.0459739677754354</v>
+        <v>-1.0459739677754392</v>
       </c>
       <c r="P56" s="9">
-        <v>0.20974820034007335</v>
+        <v>0.20974820034008571</v>
       </c>
       <c r="Q56" s="9">
-        <v>2.0108470604869995</v>
+        <v>2.0108470604869955</v>
       </c>
       <c r="R56" s="9">
-        <v>2.0140070035017517</v>
+        <v>2.0140070035017499</v>
       </c>
       <c r="S56" s="9">
-        <v>7.1563107895305533</v>
+        <v>7.1563107895305444</v>
       </c>
       <c r="T56" s="9">
-        <v>7.2577449476219131</v>
+        <v>7.2577449476218883</v>
+      </c>
+      <c r="U56" s="9">
+        <v>5.3978060274840685</v>
       </c>
     </row>
   </sheetData>
